--- a/data-builder/augments.xlsx
+++ b/data-builder/augments.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mzinman\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9672" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9675"/>
   </bookViews>
   <sheets>
     <sheet name="Yellow" sheetId="6" r:id="rId1"/>
@@ -21,9 +16,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Blue!$A$1:$E$46</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Colorless!$A$1:$E$201</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Red!$A$1:$E$121</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Yellow!$A$1:$E$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Yellow!$A$1:$E$76</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="225">
   <si>
     <t>Minimum Level</t>
   </si>
@@ -86,9 +81,6 @@
     <t>Alchemical Silver Damage Flag</t>
   </si>
   <si>
-    <t>Greater Spell Focus</t>
-  </si>
-  <si>
     <t>Strength</t>
   </si>
   <si>
@@ -314,48 +306,6 @@
     <t>Proof Against Disease</t>
   </si>
   <si>
-    <t>Spell Focus: Evocation</t>
-  </si>
-  <si>
-    <t>Spell Focus: Illusion</t>
-  </si>
-  <si>
-    <t>Spell Focus: Necromancy</t>
-  </si>
-  <si>
-    <t>Spell Focus: Abjuration</t>
-  </si>
-  <si>
-    <t>Spell Focus: Enchantment</t>
-  </si>
-  <si>
-    <t>Spell Focus: Transmutation</t>
-  </si>
-  <si>
-    <t>Spell Focus: Conjuration</t>
-  </si>
-  <si>
-    <t>Greater Spell Focus: Evocation</t>
-  </si>
-  <si>
-    <t>Greater Spell Focus: Illusion</t>
-  </si>
-  <si>
-    <t>Greater Spell Focus: Necromancy</t>
-  </si>
-  <si>
-    <t>Greater Spell Focus: Abjuration</t>
-  </si>
-  <si>
-    <t>Greater Spell Focus: Enchantment</t>
-  </si>
-  <si>
-    <t>Greater Spell Focus: Transmutation</t>
-  </si>
-  <si>
-    <t>Greater Spell Focus: Conjuration</t>
-  </si>
-  <si>
     <t>Anthem</t>
   </si>
   <si>
@@ -686,24 +636,6 @@
     <t>138 Spell PoweResonance</t>
   </si>
   <si>
-    <t>Exceptional Strength</t>
-  </si>
-  <si>
-    <t>Exceptional Dexterity</t>
-  </si>
-  <si>
-    <t>Exceptional Constitution</t>
-  </si>
-  <si>
-    <t>Exceptional Intelligence</t>
-  </si>
-  <si>
-    <t>Exceptional Wisdom</t>
-  </si>
-  <si>
-    <t>Exceptional Charisma</t>
-  </si>
-  <si>
     <t>Insight</t>
   </si>
   <si>
@@ -747,12 +679,36 @@
   </si>
   <si>
     <t>Exceptional</t>
+  </si>
+  <si>
+    <t>Evocation Focus</t>
+  </si>
+  <si>
+    <t>Illusion Focus</t>
+  </si>
+  <si>
+    <t>Necromany Focus</t>
+  </si>
+  <si>
+    <t>Abjuration Focus</t>
+  </si>
+  <si>
+    <t>Enchantment Focus</t>
+  </si>
+  <si>
+    <t>Transmutation Focus</t>
+  </si>
+  <si>
+    <t>Conjuration Focus</t>
+  </si>
+  <si>
+    <t>Augment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1093,7 +1049,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1102,17 +1058,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42:E48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -1120,224 +1076,176 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="C1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" t="s">
         <v>86</v>
       </c>
-      <c r="D1" t="s">
-        <v>87</v>
-      </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" t="str">
-        <f>_xlfn.CONCAT("Topaz of ",C2,IF(D2=1,""," +"),IF(D2=1,"",IF(C2="Striding",D2*100,D2)),IF(C2="Striding","%",""))</f>
-        <v>Topaz of Acid Resistance +5</v>
-      </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
-      <c r="B3" t="str">
-        <f t="shared" ref="B3:B66" si="0">_xlfn.CONCAT("Topaz of ",C3,IF(D3=1,""," +"),IF(D3=1,"",IF(C3="Striding",D3*100,D3)),IF(C3="Striding","%",""))</f>
-        <v>Topaz of Cold Resistance +5</v>
-      </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
-      <c r="B4" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Electric Resistance +5</v>
-      </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4">
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
-      <c r="B5" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Fire Resistance +5</v>
-      </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D5">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
-      <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Wizardry +10</v>
-      </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
-      <c r="B7" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Striding +5%</v>
-      </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D7" s="1">
         <v>0.05</v>
       </c>
       <c r="E7" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Acid Resistance +10</v>
-      </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D8">
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4</v>
       </c>
-      <c r="B9" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Cold Resistance +10</v>
-      </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D9">
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4</v>
       </c>
-      <c r="B10" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Electric Resistance +10</v>
-      </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10">
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>4</v>
       </c>
-      <c r="B11" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Fire Resistance +10</v>
-      </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>4</v>
       </c>
-      <c r="B12" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Wizardry +25</v>
-      </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D12">
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>4</v>
       </c>
-      <c r="B13" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Underwater Action</v>
-      </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
@@ -1345,17 +1253,13 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>4</v>
       </c>
-      <c r="B14" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Feather Falling</v>
-      </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
@@ -1363,197 +1267,153 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>4</v>
       </c>
-      <c r="B15" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Proof Against Poison +2</v>
-      </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>4</v>
       </c>
-      <c r="B16" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Proof Against Disease +2</v>
-      </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4</v>
       </c>
-      <c r="B17" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Striding +10%</v>
-      </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D17" s="1">
         <v>0.1</v>
       </c>
       <c r="E17" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>8</v>
       </c>
-      <c r="B18" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Acid Resistance +15</v>
-      </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D18">
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>8</v>
       </c>
-      <c r="B19" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Cold Resistance +15</v>
-      </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D19">
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>8</v>
       </c>
-      <c r="B20" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Electric Resistance +15</v>
-      </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D20">
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>8</v>
       </c>
-      <c r="B21" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Fire Resistance +15</v>
-      </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D21">
         <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>8</v>
       </c>
-      <c r="B22" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Wizardry +50</v>
-      </c>
       <c r="C22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D22">
         <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>8</v>
       </c>
-      <c r="B23" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Proof Against Poison +4</v>
-      </c>
       <c r="C23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D23">
         <v>4</v>
       </c>
       <c r="E23" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>8</v>
       </c>
-      <c r="B24" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Proof Against Disease +4</v>
-      </c>
       <c r="C24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D24">
         <v>4</v>
       </c>
       <c r="E24" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>8</v>
       </c>
-      <c r="B25" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Blindness Immunity</v>
-      </c>
       <c r="C25" t="s">
         <v>10</v>
       </c>
@@ -1561,17 +1421,13 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>8</v>
       </c>
-      <c r="B26" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Fear Immunity</v>
-      </c>
       <c r="C26" t="s">
         <v>11</v>
       </c>
@@ -1579,161 +1435,125 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>8</v>
       </c>
-      <c r="B27" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Striding +15%</v>
-      </c>
       <c r="C27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D27" s="1">
         <v>0.15</v>
       </c>
       <c r="E27" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>12</v>
       </c>
-      <c r="B28" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Acid Resistance +20</v>
-      </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28">
         <v>20</v>
       </c>
       <c r="E28" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>12</v>
       </c>
-      <c r="B29" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Cold Resistance +20</v>
-      </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D29">
         <v>20</v>
       </c>
       <c r="E29" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>12</v>
       </c>
-      <c r="B30" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Electric Resistance +20</v>
-      </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D30">
         <v>20</v>
       </c>
       <c r="E30" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>12</v>
       </c>
-      <c r="B31" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Fire Resistance +20</v>
-      </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D31">
         <v>20</v>
       </c>
       <c r="E31" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>12</v>
       </c>
-      <c r="B32" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Wizardry +75</v>
-      </c>
       <c r="C32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D32">
         <v>75</v>
       </c>
       <c r="E32" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>12</v>
       </c>
-      <c r="B33" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Proof Against Poison +6</v>
-      </c>
       <c r="C33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D33">
         <v>6</v>
       </c>
       <c r="E33" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>12</v>
       </c>
-      <c r="B34" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Proof Against Disease +6</v>
-      </c>
       <c r="C34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D34">
         <v>6</v>
       </c>
       <c r="E34" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>12</v>
       </c>
-      <c r="B35" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Deathblock</v>
-      </c>
       <c r="C35" t="s">
         <v>14</v>
       </c>
@@ -1741,701 +1561,545 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>12</v>
       </c>
-      <c r="B36" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Striding +20%</v>
-      </c>
       <c r="C36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D36" s="1">
         <v>0.2</v>
       </c>
       <c r="E36" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>16</v>
       </c>
-      <c r="B37" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Acid Resistance +25</v>
-      </c>
       <c r="C37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D37">
         <v>25</v>
       </c>
       <c r="E37" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>16</v>
       </c>
-      <c r="B38" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Cold Resistance +25</v>
-      </c>
       <c r="C38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D38">
         <v>25</v>
       </c>
       <c r="E38" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>16</v>
       </c>
-      <c r="B39" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Electric Resistance +25</v>
-      </c>
       <c r="C39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D39">
         <v>25</v>
       </c>
       <c r="E39" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>16</v>
       </c>
-      <c r="B40" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Fire Resistance +25</v>
-      </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D40">
         <v>25</v>
       </c>
       <c r="E40" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>16</v>
       </c>
-      <c r="B41" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Wizardry +100</v>
-      </c>
       <c r="C41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D41">
         <v>100</v>
       </c>
       <c r="E41" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>16</v>
       </c>
-      <c r="B42" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Spell Focus: Evocation</v>
-      </c>
       <c r="C42" t="s">
-        <v>93</v>
+        <v>217</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>113</v>
+        <v>224</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>16</v>
       </c>
-      <c r="B43" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Spell Focus: Illusion</v>
-      </c>
       <c r="C43" t="s">
-        <v>94</v>
+        <v>218</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>113</v>
+        <v>224</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>16</v>
       </c>
-      <c r="B44" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Spell Focus: Necromancy</v>
-      </c>
       <c r="C44" t="s">
-        <v>95</v>
+        <v>219</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>113</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>16</v>
       </c>
-      <c r="B45" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Spell Focus: Abjuration</v>
-      </c>
       <c r="C45" t="s">
-        <v>96</v>
+        <v>220</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>113</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>16</v>
       </c>
-      <c r="B46" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Spell Focus: Enchantment</v>
-      </c>
       <c r="C46" t="s">
-        <v>97</v>
+        <v>221</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>113</v>
+        <v>224</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>16</v>
       </c>
-      <c r="B47" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Spell Focus: Transmutation</v>
-      </c>
       <c r="C47" t="s">
-        <v>98</v>
+        <v>222</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>113</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>16</v>
       </c>
-      <c r="B48" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Spell Focus: Conjuration</v>
-      </c>
       <c r="C48" t="s">
-        <v>99</v>
+        <v>223</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>113</v>
+        <v>224</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>16</v>
       </c>
-      <c r="B49" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Proof Against Poison +8</v>
-      </c>
       <c r="C49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D49">
         <v>8</v>
       </c>
       <c r="E49" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>16</v>
       </c>
-      <c r="B50" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Proof Against Disease +8</v>
-      </c>
       <c r="C50" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50">
         <v>8</v>
       </c>
       <c r="E50" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>16</v>
       </c>
-      <c r="B51" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Striding +25%</v>
-      </c>
       <c r="C51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D51" s="1">
         <v>0.25</v>
       </c>
       <c r="E51" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>20</v>
       </c>
-      <c r="B52" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Acid Resistance +30</v>
-      </c>
       <c r="C52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D52">
         <v>30</v>
       </c>
       <c r="E52" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>20</v>
       </c>
-      <c r="B53" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Cold Resistance +30</v>
-      </c>
       <c r="C53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D53">
         <v>30</v>
       </c>
       <c r="E53" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>20</v>
       </c>
-      <c r="B54" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Electric Resistance +30</v>
-      </c>
       <c r="C54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D54">
         <v>30</v>
       </c>
       <c r="E54" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>20</v>
       </c>
-      <c r="B55" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Fire Resistance +30</v>
-      </c>
       <c r="C55" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D55">
         <v>30</v>
       </c>
       <c r="E55" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>20</v>
       </c>
-      <c r="B56" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Wizardry +150</v>
-      </c>
       <c r="C56" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D56">
         <v>150</v>
       </c>
       <c r="E56" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>20</v>
       </c>
-      <c r="B57" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Proof Against Poison +10</v>
-      </c>
       <c r="C57" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D57">
         <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>20</v>
       </c>
-      <c r="B58" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Proof Against Disease +10</v>
-      </c>
       <c r="C58" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58">
         <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>20</v>
       </c>
-      <c r="B59" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Striding +30%</v>
-      </c>
       <c r="C59" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D59" s="1">
         <v>0.3</v>
       </c>
       <c r="E59" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>24</v>
       </c>
-      <c r="B60" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Acid Resistance +35</v>
-      </c>
       <c r="C60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D60">
         <v>35</v>
       </c>
       <c r="E60" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>24</v>
       </c>
-      <c r="B61" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Cold Resistance +35</v>
-      </c>
       <c r="C61" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D61">
         <v>35</v>
       </c>
       <c r="E61" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>24</v>
       </c>
-      <c r="B62" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Electric Resistance +35</v>
-      </c>
       <c r="C62" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D62">
         <v>35</v>
       </c>
       <c r="E62" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>24</v>
       </c>
-      <c r="B63" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Fire Resistance +35</v>
-      </c>
       <c r="C63" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D63">
         <v>35</v>
       </c>
       <c r="E63" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>24</v>
       </c>
-      <c r="B64" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Wizardry +200</v>
-      </c>
       <c r="C64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D64">
         <v>200</v>
       </c>
       <c r="E64" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>16</v>
       </c>
-      <c r="B65" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Greater Spell Focus: Evocation</v>
-      </c>
       <c r="C65" t="s">
-        <v>100</v>
+        <v>217</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>113</v>
+        <v>224</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>16</v>
       </c>
-      <c r="B66" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Greater Spell Focus: Illusion</v>
-      </c>
       <c r="C66" t="s">
-        <v>101</v>
+        <v>218</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>113</v>
+        <v>224</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>16</v>
       </c>
-      <c r="B67" t="str">
-        <f t="shared" ref="B67:B77" si="1">_xlfn.CONCAT("Topaz of ",C67,IF(D67=1,""," +"),IF(D67=1,"",IF(C67="Striding",D67*100,D67)),IF(C67="Striding","%",""))</f>
-        <v>Topaz of Greater Spell Focus: Necromancy</v>
-      </c>
       <c r="C67" t="s">
-        <v>102</v>
+        <v>219</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E67" t="s">
-        <v>113</v>
+        <v>224</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>16</v>
       </c>
-      <c r="B68" t="str">
-        <f t="shared" si="1"/>
-        <v>Topaz of Greater Spell Focus: Abjuration</v>
-      </c>
       <c r="C68" t="s">
-        <v>103</v>
+        <v>220</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>113</v>
+        <v>224</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>16</v>
       </c>
-      <c r="B69" t="str">
-        <f t="shared" si="1"/>
-        <v>Topaz of Greater Spell Focus: Enchantment</v>
-      </c>
       <c r="C69" t="s">
-        <v>104</v>
+        <v>221</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>113</v>
+        <v>224</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>16</v>
       </c>
-      <c r="B70" t="str">
-        <f t="shared" si="1"/>
-        <v>Topaz of Greater Spell Focus: Transmutation</v>
-      </c>
       <c r="C70" t="s">
-        <v>105</v>
+        <v>222</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E70" t="s">
-        <v>113</v>
+        <v>224</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>16</v>
       </c>
-      <c r="B71" t="str">
-        <f t="shared" si="1"/>
-        <v>Topaz of Greater Spell Focus: Conjuration</v>
-      </c>
       <c r="C71" t="s">
-        <v>106</v>
+        <v>223</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E71" t="s">
-        <v>113</v>
+        <v>224</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>24</v>
-      </c>
-      <c r="B72" t="str">
-        <f t="shared" si="1"/>
-        <v>Topaz of Greater Spell Focus</v>
+        <v>28</v>
       </c>
       <c r="C72" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E72" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>28</v>
       </c>
-      <c r="B73" t="str">
-        <f t="shared" si="1"/>
-        <v>Topaz of Acid Resistance +40</v>
-      </c>
       <c r="C73" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D73">
         <v>40</v>
       </c>
       <c r="E73" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>28</v>
       </c>
-      <c r="B74" t="str">
-        <f t="shared" si="1"/>
-        <v>Topaz of Cold Resistance +40</v>
-      </c>
       <c r="C74" t="s">
         <v>77</v>
       </c>
@@ -2443,17 +2107,13 @@
         <v>40</v>
       </c>
       <c r="E74" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>28</v>
       </c>
-      <c r="B75" t="str">
-        <f t="shared" si="1"/>
-        <v>Topaz of Electric Resistance +40</v>
-      </c>
       <c r="C75" t="s">
         <v>78</v>
       </c>
@@ -2461,43 +2121,38 @@
         <v>40</v>
       </c>
       <c r="E75" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>28</v>
       </c>
-      <c r="B76" t="str">
-        <f t="shared" si="1"/>
-        <v>Topaz of Fire Resistance +40</v>
-      </c>
       <c r="C76" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D76">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="E76" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>28</v>
-      </c>
-      <c r="B77" t="str">
-        <f t="shared" si="1"/>
-        <v>Topaz of Wizardry +250</v>
+        <v>25</v>
+      </c>
+      <c r="B77" t="s">
+        <v>83</v>
       </c>
       <c r="C77" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D77">
-        <v>250</v>
+        <v>30</v>
       </c>
       <c r="E77" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -2505,16 +2160,16 @@
         <v>25</v>
       </c>
       <c r="B78" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C78" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D78">
         <v>30</v>
       </c>
       <c r="E78" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -2522,7 +2177,7 @@
         <v>25</v>
       </c>
       <c r="B79" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C79" t="s">
         <v>77</v>
@@ -2531,7 +2186,7 @@
         <v>30</v>
       </c>
       <c r="E79" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -2539,7 +2194,7 @@
         <v>25</v>
       </c>
       <c r="B80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C80" t="s">
         <v>78</v>
@@ -2548,45 +2203,28 @@
         <v>30</v>
       </c>
       <c r="E80" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B81" t="s">
         <v>84</v>
       </c>
       <c r="C81" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D81">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>20</v>
-      </c>
-      <c r="B82" t="s">
-        <v>85</v>
-      </c>
-      <c r="C82" t="s">
-        <v>107</v>
-      </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
-      <c r="E82" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E77"/>
+  <autoFilter ref="A1:E76"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2596,17 +2234,17 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="A47" sqref="A47:XFD47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -2617,13 +2255,13 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" t="s">
         <v>86</v>
       </c>
-      <c r="D1" t="s">
-        <v>87</v>
-      </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -2635,13 +2273,13 @@
         <v>Topaz of Natural Armor</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -2653,13 +2291,13 @@
         <v>Topaz of Protection</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -2671,13 +2309,13 @@
         <v>Topaz of Resistance</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -2689,13 +2327,13 @@
         <v>Topaz of Physical Resistance Rating +2</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D5" s="2">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -2707,13 +2345,13 @@
         <v>Topaz of Fortification +25%</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D6" s="1">
         <v>0.25</v>
       </c>
       <c r="E6" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -2725,13 +2363,13 @@
         <v>Topaz of Hit Points +5</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -2743,13 +2381,13 @@
         <v>Topaz of Natural Armor +2</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -2761,13 +2399,13 @@
         <v>Topaz of Protection +2</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -2779,13 +2417,13 @@
         <v>Topaz of Resistance +2</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="D10" s="2">
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -2797,13 +2435,13 @@
         <v>Topaz of Physical Resistance Rating +4</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D11" s="2">
         <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -2815,13 +2453,13 @@
         <v>Topaz of Fortification +75%</v>
       </c>
       <c r="C12" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D12" s="1">
         <v>0.75</v>
       </c>
       <c r="E12" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -2833,13 +2471,13 @@
         <v>Topaz of Hit Points +10</v>
       </c>
       <c r="C13" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="D13">
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -2851,13 +2489,13 @@
         <v>Topaz of Natural Armor +3</v>
       </c>
       <c r="C14" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -2869,13 +2507,13 @@
         <v>Topaz of Protection +3</v>
       </c>
       <c r="C15" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -2887,13 +2525,13 @@
         <v>Topaz of Resistance +3</v>
       </c>
       <c r="C16" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="D16" s="2">
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -2905,13 +2543,13 @@
         <v>Topaz of Physical Resistance Rating +6</v>
       </c>
       <c r="C17" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D17" s="2">
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -2923,13 +2561,13 @@
         <v>Topaz of Fortification%</v>
       </c>
       <c r="C18" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -2941,13 +2579,13 @@
         <v>Topaz of Hit Points +15</v>
       </c>
       <c r="C19" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="D19">
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -2959,13 +2597,13 @@
         <v>Topaz of Natural Armor +4</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D20">
         <v>4</v>
       </c>
       <c r="E20" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -2977,13 +2615,13 @@
         <v>Topaz of Protection +4</v>
       </c>
       <c r="C21" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="D21">
         <v>4</v>
       </c>
       <c r="E21" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -2995,13 +2633,13 @@
         <v>Topaz of Resistance +4</v>
       </c>
       <c r="C22" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="D22" s="2">
         <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -3013,13 +2651,13 @@
         <v>Topaz of Physical Resistance Rating +8</v>
       </c>
       <c r="C23" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D23" s="2">
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -3031,13 +2669,13 @@
         <v>Topaz of Good Luck</v>
       </c>
       <c r="C24" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -3049,13 +2687,13 @@
         <v>Topaz of Hit Points +20</v>
       </c>
       <c r="C25" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="D25">
         <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -3067,13 +2705,13 @@
         <v>Topaz of Natural Armor +5</v>
       </c>
       <c r="C26" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D26">
         <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -3085,13 +2723,13 @@
         <v>Topaz of Protection +5</v>
       </c>
       <c r="C27" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="D27">
         <v>5</v>
       </c>
       <c r="E27" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -3103,13 +2741,13 @@
         <v>Topaz of Resistance +5</v>
       </c>
       <c r="C28" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="D28" s="2">
         <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -3121,13 +2759,13 @@
         <v>Topaz of Physical Resistance Rating +10</v>
       </c>
       <c r="C29" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D29" s="2">
         <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -3139,13 +2777,13 @@
         <v>Topaz of Hit Points +25</v>
       </c>
       <c r="C30" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="D30">
         <v>25</v>
       </c>
       <c r="E30" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -3157,13 +2795,13 @@
         <v>Topaz of Natural Armor +6</v>
       </c>
       <c r="C31" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D31">
         <v>6</v>
       </c>
       <c r="E31" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -3175,13 +2813,13 @@
         <v>Topaz of Protection +6</v>
       </c>
       <c r="C32" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="D32">
         <v>6</v>
       </c>
       <c r="E32" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -3193,13 +2831,13 @@
         <v>Topaz of Resistance +6</v>
       </c>
       <c r="C33" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="D33" s="2">
         <v>6</v>
       </c>
       <c r="E33" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -3211,13 +2849,13 @@
         <v>Topaz of Physical Resistance Rating +12</v>
       </c>
       <c r="C34" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D34" s="2">
         <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -3229,13 +2867,13 @@
         <v>Topaz of Good Luck +2</v>
       </c>
       <c r="C35" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="D35">
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -3247,13 +2885,13 @@
         <v>Topaz of Hit Points +30</v>
       </c>
       <c r="C36" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="D36">
         <v>30</v>
       </c>
       <c r="E36" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -3265,13 +2903,13 @@
         <v>Topaz of Natural Armor +7</v>
       </c>
       <c r="C37" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D37">
         <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -3283,13 +2921,13 @@
         <v>Topaz of Protection +7</v>
       </c>
       <c r="C38" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="D38">
         <v>7</v>
       </c>
       <c r="E38" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -3301,13 +2939,13 @@
         <v>Topaz of Resistance +7</v>
       </c>
       <c r="C39" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="D39" s="2">
         <v>7</v>
       </c>
       <c r="E39" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -3319,13 +2957,13 @@
         <v>Topaz of Physical Resistance Rating +14</v>
       </c>
       <c r="C40" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D40" s="2">
         <v>14</v>
       </c>
       <c r="E40" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -3337,13 +2975,13 @@
         <v>Topaz of Hit Points +35</v>
       </c>
       <c r="C41" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="D41">
         <v>35</v>
       </c>
       <c r="E41" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -3355,13 +2993,13 @@
         <v>Topaz of Natural Armor +8</v>
       </c>
       <c r="C42" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D42">
         <v>8</v>
       </c>
       <c r="E42" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -3373,13 +3011,13 @@
         <v>Topaz of Protection +8</v>
       </c>
       <c r="C43" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="D43">
         <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -3391,13 +3029,13 @@
         <v>Topaz of Resistance +8</v>
       </c>
       <c r="C44" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="D44" s="2">
         <v>8</v>
       </c>
       <c r="E44" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -3409,13 +3047,13 @@
         <v>Topaz of Physical Resistance Rating +16</v>
       </c>
       <c r="C45" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D45" s="2">
         <v>16</v>
       </c>
       <c r="E45" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -3427,13 +3065,13 @@
         <v>Topaz of Hit Points +40</v>
       </c>
       <c r="C46" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="D46">
         <v>40</v>
       </c>
       <c r="E46" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -3447,16 +3085,16 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A122" sqref="A122:XFD122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -3467,13 +3105,13 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" t="s">
         <v>86</v>
       </c>
-      <c r="D1" t="s">
-        <v>87</v>
-      </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -3481,16 +3119,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -3498,16 +3136,16 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -3515,16 +3153,16 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -3532,16 +3170,16 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -3549,16 +3187,16 @@
         <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C6" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="D6">
         <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -3566,16 +3204,16 @@
         <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D7">
         <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -3583,16 +3221,16 @@
         <v>0</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="D8">
         <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -3600,16 +3238,16 @@
         <v>0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C9" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="D9">
         <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -3617,16 +3255,16 @@
         <v>0</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C10" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="D10">
         <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -3634,16 +3272,16 @@
         <v>0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="C11" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="D11">
         <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -3651,16 +3289,16 @@
         <v>0</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="C12" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="D12">
         <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -3668,16 +3306,16 @@
         <v>0</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="C13" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="D13">
         <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -3685,16 +3323,16 @@
         <v>0</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="C14" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="D14">
         <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -3702,16 +3340,16 @@
         <v>0</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C15" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="D15">
         <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -3719,16 +3357,16 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="D16" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="E16" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -3736,16 +3374,16 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="D17" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="E17" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -3753,16 +3391,16 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="D18" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="E18" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -3770,16 +3408,16 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="D19" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="E19" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -3787,16 +3425,16 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="C20" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="D20">
         <v>42</v>
       </c>
       <c r="E20" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -3804,16 +3442,16 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="C21" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D21">
         <v>42</v>
       </c>
       <c r="E21" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -3821,16 +3459,16 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="C22" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="D22">
         <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -3838,16 +3476,16 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="C23" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="D23">
         <v>42</v>
       </c>
       <c r="E23" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -3855,16 +3493,16 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="C24" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="D24">
         <v>42</v>
       </c>
       <c r="E24" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -3872,16 +3510,16 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="C25" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="D25">
         <v>42</v>
       </c>
       <c r="E25" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -3889,16 +3527,16 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="C26" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="D26">
         <v>42</v>
       </c>
       <c r="E26" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -3906,16 +3544,16 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C27" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="D27">
         <v>42</v>
       </c>
       <c r="E27" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -3923,16 +3561,16 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C28" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="D28">
         <v>42</v>
       </c>
       <c r="E28" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -3940,16 +3578,16 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="C29" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="D29">
         <v>42</v>
       </c>
       <c r="E29" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -3957,16 +3595,16 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="D30" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="E30" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -3974,16 +3612,16 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C31" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="D31" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="E31" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -3991,16 +3629,16 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C32" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="D32" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="E32" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -4008,16 +3646,16 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C33" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="D33" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="E33" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -4028,13 +3666,13 @@
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -4045,13 +3683,13 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -4062,13 +3700,13 @@
         <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -4079,13 +3717,13 @@
         <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -4093,16 +3731,16 @@
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="C38" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="D38">
         <v>54</v>
       </c>
       <c r="E38" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -4110,16 +3748,16 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="C39" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D39">
         <v>54</v>
       </c>
       <c r="E39" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -4127,16 +3765,16 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="C40" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="D40">
         <v>54</v>
       </c>
       <c r="E40" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -4144,16 +3782,16 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C41" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="D41">
         <v>54</v>
       </c>
       <c r="E41" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -4161,16 +3799,16 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C42" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="D42">
         <v>54</v>
       </c>
       <c r="E42" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -4178,16 +3816,16 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C43" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="D43">
         <v>54</v>
       </c>
       <c r="E43" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -4195,16 +3833,16 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C44" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="D44">
         <v>54</v>
       </c>
       <c r="E44" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -4212,16 +3850,16 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="C45" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="D45">
         <v>54</v>
       </c>
       <c r="E45" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -4229,16 +3867,16 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="C46" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="D46">
         <v>54</v>
       </c>
       <c r="E46" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -4246,16 +3884,16 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="C47" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="D47">
         <v>54</v>
       </c>
       <c r="E47" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -4263,16 +3901,16 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C48" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="D48" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="E48" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -4280,16 +3918,16 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C49" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="D49" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="E49" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -4297,16 +3935,16 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C50" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="D50" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="E50" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -4314,16 +3952,16 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C51" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="D51" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="E51" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -4334,13 +3972,13 @@
         <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -4351,13 +3989,13 @@
         <v>13</v>
       </c>
       <c r="C53" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -4365,16 +4003,16 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="C54" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="D54">
         <v>66</v>
       </c>
       <c r="E54" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -4382,16 +4020,16 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="C55" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D55">
         <v>66</v>
       </c>
       <c r="E55" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -4399,16 +4037,16 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="C56" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="D56">
         <v>66</v>
       </c>
       <c r="E56" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -4416,16 +4054,16 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C57" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="D57">
         <v>66</v>
       </c>
       <c r="E57" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -4433,16 +4071,16 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="C58" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="D58">
         <v>66</v>
       </c>
       <c r="E58" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -4450,16 +4088,16 @@
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="C59" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="D59">
         <v>66</v>
       </c>
       <c r="E59" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -4467,16 +4105,16 @@
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="C60" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="D60">
         <v>66</v>
       </c>
       <c r="E60" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -4484,16 +4122,16 @@
         <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="C61" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="D61">
         <v>66</v>
       </c>
       <c r="E61" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -4501,16 +4139,16 @@
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="C62" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="D62">
         <v>66</v>
       </c>
       <c r="E62" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -4518,16 +4156,16 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="C63" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="D63">
         <v>66</v>
       </c>
       <c r="E63" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -4535,16 +4173,16 @@
         <v>16</v>
       </c>
       <c r="B64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C64" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="D64" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="E64" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -4552,16 +4190,16 @@
         <v>16</v>
       </c>
       <c r="B65" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C65" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="D65" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="E65" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -4569,16 +4207,16 @@
         <v>16</v>
       </c>
       <c r="B66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C66" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="D66" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="E66" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -4586,16 +4224,16 @@
         <v>16</v>
       </c>
       <c r="B67" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C67" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="D67" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="E67" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -4606,13 +4244,13 @@
         <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -4623,13 +4261,13 @@
         <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="D69">
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -4637,16 +4275,16 @@
         <v>16</v>
       </c>
       <c r="B70" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="C70" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="D70">
         <v>78</v>
       </c>
       <c r="E70" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -4654,16 +4292,16 @@
         <v>16</v>
       </c>
       <c r="B71" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="C71" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D71">
         <v>78</v>
       </c>
       <c r="E71" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -4671,16 +4309,16 @@
         <v>16</v>
       </c>
       <c r="B72" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="C72" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="D72">
         <v>78</v>
       </c>
       <c r="E72" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -4688,16 +4326,16 @@
         <v>16</v>
       </c>
       <c r="B73" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="C73" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="D73">
         <v>78</v>
       </c>
       <c r="E73" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -4705,16 +4343,16 @@
         <v>16</v>
       </c>
       <c r="B74" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="C74" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="D74">
         <v>78</v>
       </c>
       <c r="E74" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
@@ -4722,16 +4360,16 @@
         <v>16</v>
       </c>
       <c r="B75" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="C75" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="D75">
         <v>78</v>
       </c>
       <c r="E75" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -4739,16 +4377,16 @@
         <v>16</v>
       </c>
       <c r="B76" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="C76" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="D76">
         <v>78</v>
       </c>
       <c r="E76" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
@@ -4756,16 +4394,16 @@
         <v>16</v>
       </c>
       <c r="B77" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="C77" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="D77">
         <v>78</v>
       </c>
       <c r="E77" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
@@ -4773,16 +4411,16 @@
         <v>16</v>
       </c>
       <c r="B78" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="C78" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="D78">
         <v>78</v>
       </c>
       <c r="E78" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
@@ -4790,16 +4428,16 @@
         <v>16</v>
       </c>
       <c r="B79" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="C79" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="D79">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
@@ -4807,16 +4445,16 @@
         <v>20</v>
       </c>
       <c r="B80" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C80" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="D80" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="E80" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -4824,16 +4462,16 @@
         <v>20</v>
       </c>
       <c r="B81" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C81" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="D81" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="E81" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
@@ -4841,16 +4479,16 @@
         <v>20</v>
       </c>
       <c r="B82" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C82" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="D82" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="E82" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
@@ -4858,16 +4496,16 @@
         <v>20</v>
       </c>
       <c r="B83" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C83" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="D83" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="E83" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
@@ -4875,16 +4513,16 @@
         <v>20</v>
       </c>
       <c r="B84" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="C84" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="D84">
         <v>90</v>
       </c>
       <c r="E84" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -4892,16 +4530,16 @@
         <v>20</v>
       </c>
       <c r="B85" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="C85" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D85">
         <v>90</v>
       </c>
       <c r="E85" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
@@ -4909,16 +4547,16 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="C86" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="D86">
         <v>90</v>
       </c>
       <c r="E86" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
@@ -4926,16 +4564,16 @@
         <v>20</v>
       </c>
       <c r="B87" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="C87" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="D87">
         <v>90</v>
       </c>
       <c r="E87" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
@@ -4943,16 +4581,16 @@
         <v>20</v>
       </c>
       <c r="B88" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="C88" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="D88">
         <v>90</v>
       </c>
       <c r="E88" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
@@ -4960,16 +4598,16 @@
         <v>20</v>
       </c>
       <c r="B89" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="C89" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="D89">
         <v>90</v>
       </c>
       <c r="E89" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
@@ -4977,16 +4615,16 @@
         <v>20</v>
       </c>
       <c r="B90" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="C90" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="D90">
         <v>90</v>
       </c>
       <c r="E90" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -4994,16 +4632,16 @@
         <v>20</v>
       </c>
       <c r="B91" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="C91" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="D91">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
@@ -5011,16 +4649,16 @@
         <v>20</v>
       </c>
       <c r="B92" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="C92" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="D92">
         <v>90</v>
       </c>
       <c r="E92" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
@@ -5028,16 +4666,16 @@
         <v>20</v>
       </c>
       <c r="B93" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="C93" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="D93">
         <v>90</v>
       </c>
       <c r="E93" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
@@ -5045,16 +4683,16 @@
         <v>24</v>
       </c>
       <c r="B94" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C94" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="D94" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="E94" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
@@ -5062,16 +4700,16 @@
         <v>24</v>
       </c>
       <c r="B95" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C95" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="D95" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="E95" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -5079,16 +4717,16 @@
         <v>24</v>
       </c>
       <c r="B96" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C96" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="D96" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="E96" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -5096,16 +4734,16 @@
         <v>24</v>
       </c>
       <c r="B97" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C97" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="D97" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="E97" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
@@ -5113,16 +4751,16 @@
         <v>24</v>
       </c>
       <c r="B98" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="C98" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="D98">
         <v>114</v>
       </c>
       <c r="E98" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
@@ -5130,16 +4768,16 @@
         <v>24</v>
       </c>
       <c r="B99" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="C99" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D99">
         <v>114</v>
       </c>
       <c r="E99" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
@@ -5147,16 +4785,16 @@
         <v>24</v>
       </c>
       <c r="B100" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="C100" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="D100">
         <v>114</v>
       </c>
       <c r="E100" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
@@ -5164,16 +4802,16 @@
         <v>24</v>
       </c>
       <c r="B101" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="C101" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="D101">
         <v>114</v>
       </c>
       <c r="E101" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
@@ -5181,16 +4819,16 @@
         <v>24</v>
       </c>
       <c r="B102" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="C102" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="D102">
         <v>114</v>
       </c>
       <c r="E102" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
@@ -5198,16 +4836,16 @@
         <v>24</v>
       </c>
       <c r="B103" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="C103" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="D103">
         <v>114</v>
       </c>
       <c r="E103" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
@@ -5215,16 +4853,16 @@
         <v>24</v>
       </c>
       <c r="B104" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="C104" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="D104">
         <v>114</v>
       </c>
       <c r="E104" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -5232,16 +4870,16 @@
         <v>24</v>
       </c>
       <c r="B105" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="C105" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="D105">
         <v>114</v>
       </c>
       <c r="E105" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
@@ -5249,16 +4887,16 @@
         <v>24</v>
       </c>
       <c r="B106" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="C106" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="D106">
         <v>114</v>
       </c>
       <c r="E106" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
@@ -5266,16 +4904,16 @@
         <v>24</v>
       </c>
       <c r="B107" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C107" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="D107">
         <v>114</v>
       </c>
       <c r="E107" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
@@ -5283,16 +4921,16 @@
         <v>28</v>
       </c>
       <c r="B108" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C108" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="D108" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="E108" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
@@ -5300,16 +4938,16 @@
         <v>28</v>
       </c>
       <c r="B109" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C109" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="D109" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="E109" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
@@ -5317,16 +4955,16 @@
         <v>28</v>
       </c>
       <c r="B110" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C110" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="D110" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="E110" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
@@ -5334,16 +4972,16 @@
         <v>28</v>
       </c>
       <c r="B111" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C111" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="D111" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="E111" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
@@ -5351,16 +4989,16 @@
         <v>28</v>
       </c>
       <c r="B112" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="C112" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="D112">
         <v>138</v>
       </c>
       <c r="E112" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
@@ -5368,16 +5006,16 @@
         <v>28</v>
       </c>
       <c r="B113" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="C113" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D113">
         <v>138</v>
       </c>
       <c r="E113" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
@@ -5385,16 +5023,16 @@
         <v>28</v>
       </c>
       <c r="B114" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="C114" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="D114">
         <v>138</v>
       </c>
       <c r="E114" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
@@ -5402,16 +5040,16 @@
         <v>28</v>
       </c>
       <c r="B115" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="C115" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="D115">
         <v>138</v>
       </c>
       <c r="E115" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
@@ -5419,16 +5057,16 @@
         <v>28</v>
       </c>
       <c r="B116" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="C116" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="D116">
         <v>138</v>
       </c>
       <c r="E116" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
@@ -5436,16 +5074,16 @@
         <v>28</v>
       </c>
       <c r="B117" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="C117" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="D117">
         <v>138</v>
       </c>
       <c r="E117" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
@@ -5453,16 +5091,16 @@
         <v>28</v>
       </c>
       <c r="B118" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="C118" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="D118">
         <v>138</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
@@ -5470,16 +5108,16 @@
         <v>28</v>
       </c>
       <c r="B119" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="C119" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="D119">
         <v>138</v>
       </c>
       <c r="E119" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
@@ -5487,16 +5125,16 @@
         <v>28</v>
       </c>
       <c r="B120" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="C120" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="D120">
         <v>138</v>
       </c>
       <c r="E120" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
@@ -5504,16 +5142,16 @@
         <v>28</v>
       </c>
       <c r="B121" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="C121" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="D121">
         <v>138</v>
       </c>
       <c r="E121" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -5527,18 +5165,18 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A217" sqref="A217"/>
+    <sheetView topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="C205" sqref="C205"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5546,16 +5184,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" t="s">
         <v>86</v>
       </c>
-      <c r="D1" t="s">
-        <v>87</v>
-      </c>
       <c r="E1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -5564,16 +5202,16 @@
         <v>Diamond of Strength +1</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -5582,16 +5220,16 @@
         <v>Diamond of Dexterity +1</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -5600,16 +5238,16 @@
         <v>Diamond of Constitution +1</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -5618,16 +5256,16 @@
         <v>Diamond of Intelligence +1</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -5636,16 +5274,16 @@
         <v>Diamond of Wisdom +1</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -5654,16 +5292,16 @@
         <v>Diamond of Charisma +1</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -5672,16 +5310,16 @@
         <v>Diamond of Strength +2</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4</v>
       </c>
@@ -5690,16 +5328,16 @@
         <v>Diamond of Dexterity +2</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2">
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4</v>
       </c>
@@ -5708,16 +5346,16 @@
         <v>Diamond of Constitution +2</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2">
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>4</v>
       </c>
@@ -5726,16 +5364,16 @@
         <v>Diamond of Intelligence +2</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2">
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>4</v>
       </c>
@@ -5744,16 +5382,16 @@
         <v>Diamond of Wisdom +2</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="2">
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>4</v>
       </c>
@@ -5762,16 +5400,16 @@
         <v>Diamond of Charisma +2</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2">
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>4</v>
       </c>
@@ -5780,16 +5418,16 @@
         <v>Diamond of Balance +3</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="2">
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>4</v>
       </c>
@@ -5798,16 +5436,16 @@
         <v>Diamond of Bluff +3</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="2">
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>4</v>
       </c>
@@ -5816,16 +5454,16 @@
         <v>Diamond of Concentration +3</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" s="2">
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4</v>
       </c>
@@ -5834,16 +5472,16 @@
         <v>Diamond of Diplomacy +3</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2">
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>4</v>
       </c>
@@ -5852,16 +5490,16 @@
         <v>Diamond of Disable Device +3</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2">
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>4</v>
       </c>
@@ -5870,16 +5508,16 @@
         <v>Diamond of Haggle +3</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" s="2">
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>4</v>
       </c>
@@ -5888,16 +5526,16 @@
         <v>Diamond of Heal +3</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" s="2">
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>4</v>
       </c>
@@ -5906,16 +5544,16 @@
         <v>Diamond of Hide +3</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" s="2">
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>4</v>
       </c>
@@ -5924,16 +5562,16 @@
         <v>Diamond of Intimidate +3</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" s="2">
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4</v>
       </c>
@@ -5942,16 +5580,16 @@
         <v>Diamond of Jump +3</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D23" s="2">
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>4</v>
       </c>
@@ -5960,16 +5598,16 @@
         <v>Diamond of Listen +3</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D24" s="2">
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>4</v>
       </c>
@@ -5978,16 +5616,16 @@
         <v>Diamond of Move Silently +3</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" s="2">
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>4</v>
       </c>
@@ -5996,16 +5634,16 @@
         <v>Diamond of Open Lock +3</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D26" s="2">
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>4</v>
       </c>
@@ -6014,16 +5652,16 @@
         <v>Diamond of Perform +3</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D27" s="2">
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>4</v>
       </c>
@@ -6032,16 +5670,16 @@
         <v>Diamond of Repair +3</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D28" s="2">
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>4</v>
       </c>
@@ -6050,16 +5688,16 @@
         <v>Diamond of Search +3</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D29" s="2">
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>4</v>
       </c>
@@ -6068,16 +5706,16 @@
         <v>Diamond of Spellcraft +3</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D30" s="2">
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4</v>
       </c>
@@ -6086,16 +5724,16 @@
         <v>Diamond of Spot +3</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D31" s="2">
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>4</v>
       </c>
@@ -6104,16 +5742,16 @@
         <v>Diamond of Swim +3</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D32" s="2">
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>4</v>
       </c>
@@ -6122,16 +5760,16 @@
         <v>Diamond of Tumble +3</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D33" s="2">
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>8</v>
       </c>
@@ -6140,16 +5778,16 @@
         <v>Diamond of Strength +3</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D34" s="2">
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>8</v>
       </c>
@@ -6158,16 +5796,16 @@
         <v>Diamond of Dexterity +3</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D35" s="2">
         <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>8</v>
       </c>
@@ -6176,16 +5814,16 @@
         <v>Diamond of Constitution +3</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D36" s="2">
         <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>8</v>
       </c>
@@ -6194,16 +5832,16 @@
         <v>Diamond of Intelligence +3</v>
       </c>
       <c r="C37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D37" s="2">
         <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>8</v>
       </c>
@@ -6212,16 +5850,16 @@
         <v>Diamond of Wisdom +3</v>
       </c>
       <c r="C38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D38" s="2">
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>8</v>
       </c>
@@ -6230,16 +5868,16 @@
         <v>Diamond of Charisma +3</v>
       </c>
       <c r="C39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D39" s="2">
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>8</v>
       </c>
@@ -6248,16 +5886,16 @@
         <v>Diamond of Balance +5</v>
       </c>
       <c r="C40" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D40" s="2">
         <v>5</v>
       </c>
       <c r="E40" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>8</v>
       </c>
@@ -6266,16 +5904,16 @@
         <v>Diamond of Bluff +5</v>
       </c>
       <c r="C41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D41" s="2">
         <v>5</v>
       </c>
       <c r="E41" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>8</v>
       </c>
@@ -6284,16 +5922,16 @@
         <v>Diamond of Concentration +5</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D42" s="2">
         <v>5</v>
       </c>
       <c r="E42" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>8</v>
       </c>
@@ -6302,16 +5940,16 @@
         <v>Diamond of Diplomacy +5</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D43" s="2">
         <v>5</v>
       </c>
       <c r="E43" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>8</v>
       </c>
@@ -6320,16 +5958,16 @@
         <v>Diamond of Disable Device +5</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D44" s="2">
         <v>5</v>
       </c>
       <c r="E44" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>8</v>
       </c>
@@ -6338,16 +5976,16 @@
         <v>Diamond of Haggle +5</v>
       </c>
       <c r="C45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D45" s="2">
         <v>5</v>
       </c>
       <c r="E45" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>8</v>
       </c>
@@ -6356,16 +5994,16 @@
         <v>Diamond of Heal +5</v>
       </c>
       <c r="C46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D46" s="2">
         <v>5</v>
       </c>
       <c r="E46" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>8</v>
       </c>
@@ -6374,16 +6012,16 @@
         <v>Diamond of Hide +5</v>
       </c>
       <c r="C47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D47" s="2">
         <v>5</v>
       </c>
       <c r="E47" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>8</v>
       </c>
@@ -6392,16 +6030,16 @@
         <v>Diamond of Intimidate +5</v>
       </c>
       <c r="C48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D48" s="2">
         <v>5</v>
       </c>
       <c r="E48" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>8</v>
       </c>
@@ -6410,16 +6048,16 @@
         <v>Diamond of Jump +5</v>
       </c>
       <c r="C49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D49" s="2">
         <v>5</v>
       </c>
       <c r="E49" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>8</v>
       </c>
@@ -6428,16 +6066,16 @@
         <v>Diamond of Listen +5</v>
       </c>
       <c r="C50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D50" s="2">
         <v>5</v>
       </c>
       <c r="E50" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>8</v>
       </c>
@@ -6446,16 +6084,16 @@
         <v>Diamond of Move Silently +5</v>
       </c>
       <c r="C51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D51" s="2">
         <v>5</v>
       </c>
       <c r="E51" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>8</v>
       </c>
@@ -6464,16 +6102,16 @@
         <v>Diamond of Open Lock +5</v>
       </c>
       <c r="C52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D52" s="2">
         <v>5</v>
       </c>
       <c r="E52" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>8</v>
       </c>
@@ -6482,16 +6120,16 @@
         <v>Diamond of Perform +5</v>
       </c>
       <c r="C53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D53" s="2">
         <v>5</v>
       </c>
       <c r="E53" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>8</v>
       </c>
@@ -6500,16 +6138,16 @@
         <v>Diamond of Repair +5</v>
       </c>
       <c r="C54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D54" s="2">
         <v>5</v>
       </c>
       <c r="E54" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>8</v>
       </c>
@@ -6518,16 +6156,16 @@
         <v>Diamond of Search +5</v>
       </c>
       <c r="C55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D55" s="2">
         <v>5</v>
       </c>
       <c r="E55" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>8</v>
       </c>
@@ -6536,16 +6174,16 @@
         <v>Diamond of Spellcraft +5</v>
       </c>
       <c r="C56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D56" s="2">
         <v>5</v>
       </c>
       <c r="E56" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>8</v>
       </c>
@@ -6554,16 +6192,16 @@
         <v>Diamond of Spot +5</v>
       </c>
       <c r="C57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D57" s="2">
         <v>5</v>
       </c>
       <c r="E57" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>8</v>
       </c>
@@ -6572,16 +6210,16 @@
         <v>Diamond of Swim +5</v>
       </c>
       <c r="C58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D58" s="2">
         <v>5</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>8</v>
       </c>
@@ -6590,16 +6228,16 @@
         <v>Diamond of Tumble +5</v>
       </c>
       <c r="C59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D59" s="2">
         <v>5</v>
       </c>
       <c r="E59" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>12</v>
       </c>
@@ -6608,16 +6246,16 @@
         <v>Diamond of Strength +4</v>
       </c>
       <c r="C60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D60" s="2">
         <v>4</v>
       </c>
       <c r="E60" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>12</v>
       </c>
@@ -6626,16 +6264,16 @@
         <v>Diamond of Dexterity +4</v>
       </c>
       <c r="C61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D61" s="2">
         <v>4</v>
       </c>
       <c r="E61" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>12</v>
       </c>
@@ -6644,16 +6282,16 @@
         <v>Diamond of Constitution +4</v>
       </c>
       <c r="C62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D62" s="2">
         <v>4</v>
       </c>
       <c r="E62" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>12</v>
       </c>
@@ -6662,16 +6300,16 @@
         <v>Diamond of Intelligence +4</v>
       </c>
       <c r="C63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D63" s="2">
         <v>4</v>
       </c>
       <c r="E63" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>12</v>
       </c>
@@ -6680,16 +6318,16 @@
         <v>Diamond of Wisdom +4</v>
       </c>
       <c r="C64" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D64" s="2">
         <v>4</v>
       </c>
       <c r="E64" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>12</v>
       </c>
@@ -6698,16 +6336,16 @@
         <v>Diamond of Charisma +4</v>
       </c>
       <c r="C65" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D65" s="2">
         <v>4</v>
       </c>
       <c r="E65" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>12</v>
       </c>
@@ -6716,16 +6354,16 @@
         <v>Diamond of Balance +7</v>
       </c>
       <c r="C66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D66" s="2">
         <v>7</v>
       </c>
       <c r="E66" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>12</v>
       </c>
@@ -6734,16 +6372,16 @@
         <v>Diamond of Bluff +7</v>
       </c>
       <c r="C67" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D67" s="2">
         <v>7</v>
       </c>
       <c r="E67" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>12</v>
       </c>
@@ -6752,16 +6390,16 @@
         <v>Diamond of Concentration +7</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D68" s="2">
         <v>7</v>
       </c>
       <c r="E68" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>12</v>
       </c>
@@ -6770,16 +6408,16 @@
         <v>Diamond of Diplomacy +7</v>
       </c>
       <c r="C69" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D69" s="2">
         <v>7</v>
       </c>
       <c r="E69" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>12</v>
       </c>
@@ -6788,16 +6426,16 @@
         <v>Diamond of Disable Device +7</v>
       </c>
       <c r="C70" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D70" s="2">
         <v>7</v>
       </c>
       <c r="E70" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>12</v>
       </c>
@@ -6806,16 +6444,16 @@
         <v>Diamond of Haggle +7</v>
       </c>
       <c r="C71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D71" s="2">
         <v>7</v>
       </c>
       <c r="E71" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>12</v>
       </c>
@@ -6824,16 +6462,16 @@
         <v>Diamond of Heal +7</v>
       </c>
       <c r="C72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D72" s="2">
         <v>7</v>
       </c>
       <c r="E72" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>12</v>
       </c>
@@ -6842,16 +6480,16 @@
         <v>Diamond of Hide +7</v>
       </c>
       <c r="C73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D73" s="2">
         <v>7</v>
       </c>
       <c r="E73" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>12</v>
       </c>
@@ -6860,16 +6498,16 @@
         <v>Diamond of Intimidate +7</v>
       </c>
       <c r="C74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D74" s="2">
         <v>7</v>
       </c>
       <c r="E74" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>12</v>
       </c>
@@ -6878,16 +6516,16 @@
         <v>Diamond of Jump +7</v>
       </c>
       <c r="C75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D75" s="2">
         <v>7</v>
       </c>
       <c r="E75" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>12</v>
       </c>
@@ -6896,16 +6534,16 @@
         <v>Diamond of Listen +7</v>
       </c>
       <c r="C76" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D76" s="2">
         <v>7</v>
       </c>
       <c r="E76" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>12</v>
       </c>
@@ -6914,16 +6552,16 @@
         <v>Diamond of Move Silently +7</v>
       </c>
       <c r="C77" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D77" s="2">
         <v>7</v>
       </c>
       <c r="E77" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>12</v>
       </c>
@@ -6932,16 +6570,16 @@
         <v>Diamond of Open Lock +7</v>
       </c>
       <c r="C78" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D78" s="2">
         <v>7</v>
       </c>
       <c r="E78" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>12</v>
       </c>
@@ -6950,16 +6588,16 @@
         <v>Diamond of Perform +7</v>
       </c>
       <c r="C79" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D79" s="2">
         <v>7</v>
       </c>
       <c r="E79" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>12</v>
       </c>
@@ -6968,16 +6606,16 @@
         <v>Diamond of Repair +7</v>
       </c>
       <c r="C80" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D80" s="2">
         <v>7</v>
       </c>
       <c r="E80" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>12</v>
       </c>
@@ -6986,16 +6624,16 @@
         <v>Diamond of Search +7</v>
       </c>
       <c r="C81" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D81" s="2">
         <v>7</v>
       </c>
       <c r="E81" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>12</v>
       </c>
@@ -7004,16 +6642,16 @@
         <v>Diamond of Spellcraft +7</v>
       </c>
       <c r="C82" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D82" s="2">
         <v>7</v>
       </c>
       <c r="E82" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>12</v>
       </c>
@@ -7022,16 +6660,16 @@
         <v>Diamond of Spot +7</v>
       </c>
       <c r="C83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D83" s="2">
         <v>7</v>
       </c>
       <c r="E83" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>12</v>
       </c>
@@ -7040,16 +6678,16 @@
         <v>Diamond of Swim +7</v>
       </c>
       <c r="C84" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D84" s="2">
         <v>7</v>
       </c>
       <c r="E84" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>12</v>
       </c>
@@ -7058,16 +6696,16 @@
         <v>Diamond of Tumble +7</v>
       </c>
       <c r="C85" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D85" s="2">
         <v>7</v>
       </c>
       <c r="E85" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>16</v>
       </c>
@@ -7076,16 +6714,16 @@
         <v>Diamond of Strength +5</v>
       </c>
       <c r="C86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D86" s="2">
         <v>5</v>
       </c>
       <c r="E86" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>16</v>
       </c>
@@ -7094,16 +6732,16 @@
         <v>Diamond of Dexterity +5</v>
       </c>
       <c r="C87" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D87" s="2">
         <v>5</v>
       </c>
       <c r="E87" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>16</v>
       </c>
@@ -7112,16 +6750,16 @@
         <v>Diamond of Constitution +5</v>
       </c>
       <c r="C88" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D88" s="2">
         <v>5</v>
       </c>
       <c r="E88" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>16</v>
       </c>
@@ -7130,16 +6768,16 @@
         <v>Diamond of Intelligence +5</v>
       </c>
       <c r="C89" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D89" s="2">
         <v>5</v>
       </c>
       <c r="E89" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>16</v>
       </c>
@@ -7148,16 +6786,16 @@
         <v>Diamond of Wisdom +5</v>
       </c>
       <c r="C90" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D90" s="2">
         <v>5</v>
       </c>
       <c r="E90" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>16</v>
       </c>
@@ -7166,16 +6804,16 @@
         <v>Diamond of Charisma +5</v>
       </c>
       <c r="C91" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D91" s="2">
         <v>5</v>
       </c>
       <c r="E91" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>16</v>
       </c>
@@ -7184,16 +6822,16 @@
         <v>Diamond of Balance +9</v>
       </c>
       <c r="C92" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D92" s="2">
         <v>9</v>
       </c>
       <c r="E92" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>16</v>
       </c>
@@ -7202,16 +6840,16 @@
         <v>Diamond of Bluff +9</v>
       </c>
       <c r="C93" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D93" s="2">
         <v>9</v>
       </c>
       <c r="E93" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>16</v>
       </c>
@@ -7220,16 +6858,16 @@
         <v>Diamond of Concentration +9</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D94" s="2">
         <v>9</v>
       </c>
       <c r="E94" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>16</v>
       </c>
@@ -7238,16 +6876,16 @@
         <v>Diamond of Diplomacy +9</v>
       </c>
       <c r="C95" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D95" s="2">
         <v>9</v>
       </c>
       <c r="E95" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>16</v>
       </c>
@@ -7256,16 +6894,16 @@
         <v>Diamond of Disable Device +9</v>
       </c>
       <c r="C96" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D96" s="2">
         <v>9</v>
       </c>
       <c r="E96" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>16</v>
       </c>
@@ -7274,16 +6912,16 @@
         <v>Diamond of Haggle +9</v>
       </c>
       <c r="C97" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D97" s="2">
         <v>9</v>
       </c>
       <c r="E97" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>16</v>
       </c>
@@ -7292,16 +6930,16 @@
         <v>Diamond of Heal +9</v>
       </c>
       <c r="C98" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D98" s="2">
         <v>9</v>
       </c>
       <c r="E98" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>16</v>
       </c>
@@ -7310,16 +6948,16 @@
         <v>Diamond of Hide +9</v>
       </c>
       <c r="C99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D99" s="2">
         <v>9</v>
       </c>
       <c r="E99" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>16</v>
       </c>
@@ -7328,16 +6966,16 @@
         <v>Diamond of Intimidate +9</v>
       </c>
       <c r="C100" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D100" s="2">
         <v>9</v>
       </c>
       <c r="E100" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>16</v>
       </c>
@@ -7346,16 +6984,16 @@
         <v>Diamond of Jump +9</v>
       </c>
       <c r="C101" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D101" s="2">
         <v>9</v>
       </c>
       <c r="E101" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>16</v>
       </c>
@@ -7364,16 +7002,16 @@
         <v>Diamond of Listen +9</v>
       </c>
       <c r="C102" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D102" s="2">
         <v>9</v>
       </c>
       <c r="E102" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>16</v>
       </c>
@@ -7382,16 +7020,16 @@
         <v>Diamond of Move Silently +9</v>
       </c>
       <c r="C103" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D103" s="2">
         <v>9</v>
       </c>
       <c r="E103" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>16</v>
       </c>
@@ -7400,16 +7038,16 @@
         <v>Diamond of Open Lock +9</v>
       </c>
       <c r="C104" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D104" s="2">
         <v>9</v>
       </c>
       <c r="E104" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>16</v>
       </c>
@@ -7418,16 +7056,16 @@
         <v>Diamond of Perform +9</v>
       </c>
       <c r="C105" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D105" s="2">
         <v>9</v>
       </c>
       <c r="E105" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>16</v>
       </c>
@@ -7436,16 +7074,16 @@
         <v>Diamond of Repair +9</v>
       </c>
       <c r="C106" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D106" s="2">
         <v>9</v>
       </c>
       <c r="E106" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>16</v>
       </c>
@@ -7454,16 +7092,16 @@
         <v>Diamond of Search +9</v>
       </c>
       <c r="C107" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D107" s="2">
         <v>9</v>
       </c>
       <c r="E107" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>16</v>
       </c>
@@ -7472,16 +7110,16 @@
         <v>Diamond of Spellcraft +9</v>
       </c>
       <c r="C108" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D108" s="2">
         <v>9</v>
       </c>
       <c r="E108" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>16</v>
       </c>
@@ -7490,16 +7128,16 @@
         <v>Diamond of Spot +9</v>
       </c>
       <c r="C109" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D109" s="2">
         <v>9</v>
       </c>
       <c r="E109" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>16</v>
       </c>
@@ -7508,16 +7146,16 @@
         <v>Diamond of Swim +9</v>
       </c>
       <c r="C110" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D110" s="2">
         <v>9</v>
       </c>
       <c r="E110" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>16</v>
       </c>
@@ -7526,16 +7164,16 @@
         <v>Diamond of Tumble +9</v>
       </c>
       <c r="C111" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D111" s="2">
         <v>9</v>
       </c>
       <c r="E111" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>20</v>
       </c>
@@ -7544,16 +7182,16 @@
         <v>Diamond of Strength +6</v>
       </c>
       <c r="C112" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D112" s="2">
         <v>6</v>
       </c>
       <c r="E112" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>20</v>
       </c>
@@ -7562,16 +7200,16 @@
         <v>Diamond of Dexterity +6</v>
       </c>
       <c r="C113" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D113" s="2">
         <v>6</v>
       </c>
       <c r="E113" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>20</v>
       </c>
@@ -7580,16 +7218,16 @@
         <v>Diamond of Constitution +6</v>
       </c>
       <c r="C114" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D114" s="2">
         <v>6</v>
       </c>
       <c r="E114" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>20</v>
       </c>
@@ -7598,16 +7236,16 @@
         <v>Diamond of Intelligence +6</v>
       </c>
       <c r="C115" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D115" s="2">
         <v>6</v>
       </c>
       <c r="E115" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>20</v>
       </c>
@@ -7616,16 +7254,16 @@
         <v>Diamond of Wisdom +6</v>
       </c>
       <c r="C116" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D116" s="2">
         <v>6</v>
       </c>
       <c r="E116" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>20</v>
       </c>
@@ -7634,124 +7272,100 @@
         <v>Diamond of Charisma +6</v>
       </c>
       <c r="C117" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D117" s="2">
         <v>6</v>
       </c>
       <c r="E117" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>20</v>
       </c>
-      <c r="B118" t="str">
-        <f t="shared" si="1"/>
-        <v>Diamond of Exceptional Strength +1</v>
-      </c>
       <c r="C118" t="s">
-        <v>217</v>
+        <v>17</v>
       </c>
       <c r="D118" s="2">
         <v>1</v>
       </c>
       <c r="E118" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>20</v>
       </c>
-      <c r="B119" t="str">
-        <f t="shared" si="1"/>
-        <v>Diamond of Exceptional Dexterity +1</v>
-      </c>
       <c r="C119" t="s">
-        <v>218</v>
+        <v>18</v>
       </c>
       <c r="D119" s="2">
         <v>1</v>
       </c>
       <c r="E119" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>20</v>
       </c>
-      <c r="B120" t="str">
-        <f t="shared" si="1"/>
-        <v>Diamond of Exceptional Constitution +1</v>
-      </c>
       <c r="C120" t="s">
-        <v>219</v>
+        <v>19</v>
       </c>
       <c r="D120" s="2">
         <v>1</v>
       </c>
       <c r="E120" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>20</v>
       </c>
-      <c r="B121" t="str">
-        <f t="shared" si="1"/>
-        <v>Diamond of Exceptional Intelligence +1</v>
-      </c>
       <c r="C121" t="s">
-        <v>220</v>
+        <v>20</v>
       </c>
       <c r="D121" s="2">
         <v>1</v>
       </c>
       <c r="E121" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>20</v>
       </c>
-      <c r="B122" t="str">
-        <f t="shared" si="1"/>
-        <v>Diamond of Exceptional Wisdom +1</v>
-      </c>
       <c r="C122" t="s">
-        <v>221</v>
+        <v>21</v>
       </c>
       <c r="D122" s="2">
         <v>1</v>
       </c>
       <c r="E122" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>20</v>
       </c>
-      <c r="B123" t="str">
-        <f t="shared" si="1"/>
-        <v>Diamond of Exceptional Charisma +1</v>
-      </c>
       <c r="C123" t="s">
-        <v>222</v>
+        <v>22</v>
       </c>
       <c r="D123" s="2">
         <v>1</v>
       </c>
       <c r="E123" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>20</v>
       </c>
@@ -7760,16 +7374,16 @@
         <v>Diamond of Balance +11</v>
       </c>
       <c r="C124" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D124" s="2">
         <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>20</v>
       </c>
@@ -7778,16 +7392,16 @@
         <v>Diamond of Bluff +11</v>
       </c>
       <c r="C125" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D125" s="2">
         <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>20</v>
       </c>
@@ -7796,16 +7410,16 @@
         <v>Diamond of Concentration +11</v>
       </c>
       <c r="C126" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D126" s="2">
         <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>20</v>
       </c>
@@ -7814,16 +7428,16 @@
         <v>Diamond of Diplomacy +11</v>
       </c>
       <c r="C127" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D127" s="2">
         <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>20</v>
       </c>
@@ -7832,16 +7446,16 @@
         <v>Diamond of Disable Device +11</v>
       </c>
       <c r="C128" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D128" s="2">
         <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>20</v>
       </c>
@@ -7850,16 +7464,16 @@
         <v>Diamond of Haggle +11</v>
       </c>
       <c r="C129" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D129" s="2">
         <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>20</v>
       </c>
@@ -7868,16 +7482,16 @@
         <v>Diamond of Heal +11</v>
       </c>
       <c r="C130" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D130" s="2">
         <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>20</v>
       </c>
@@ -7886,16 +7500,16 @@
         <v>Diamond of Hide +11</v>
       </c>
       <c r="C131" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D131" s="2">
         <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>20</v>
       </c>
@@ -7904,16 +7518,16 @@
         <v>Diamond of Intimidate +11</v>
       </c>
       <c r="C132" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D132" s="2">
         <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>20</v>
       </c>
@@ -7922,16 +7536,16 @@
         <v>Diamond of Jump +11</v>
       </c>
       <c r="C133" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D133" s="2">
         <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>20</v>
       </c>
@@ -7940,16 +7554,16 @@
         <v>Diamond of Listen +11</v>
       </c>
       <c r="C134" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D134" s="2">
         <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>20</v>
       </c>
@@ -7958,16 +7572,16 @@
         <v>Diamond of Move Silently +11</v>
       </c>
       <c r="C135" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D135" s="2">
         <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>20</v>
       </c>
@@ -7976,16 +7590,16 @@
         <v>Diamond of Open Lock +11</v>
       </c>
       <c r="C136" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D136" s="2">
         <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>20</v>
       </c>
@@ -7994,16 +7608,16 @@
         <v>Diamond of Perform +11</v>
       </c>
       <c r="C137" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D137" s="2">
         <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>20</v>
       </c>
@@ -8012,16 +7626,16 @@
         <v>Diamond of Repair +11</v>
       </c>
       <c r="C138" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D138" s="2">
         <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>20</v>
       </c>
@@ -8030,16 +7644,16 @@
         <v>Diamond of Search +11</v>
       </c>
       <c r="C139" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D139" s="2">
         <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>20</v>
       </c>
@@ -8048,16 +7662,16 @@
         <v>Diamond of Spellcraft +11</v>
       </c>
       <c r="C140" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D140" s="2">
         <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>20</v>
       </c>
@@ -8066,16 +7680,16 @@
         <v>Diamond of Spot +11</v>
       </c>
       <c r="C141" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D141" s="2">
         <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>20</v>
       </c>
@@ -8084,16 +7698,16 @@
         <v>Diamond of Swim +11</v>
       </c>
       <c r="C142" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D142" s="2">
         <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>20</v>
       </c>
@@ -8102,16 +7716,16 @@
         <v>Diamond of Tumble +11</v>
       </c>
       <c r="C143" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D143" s="2">
         <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>24</v>
       </c>
@@ -8120,16 +7734,16 @@
         <v>Diamond of Strength +7</v>
       </c>
       <c r="C144" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D144" s="2">
         <v>7</v>
       </c>
       <c r="E144" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>24</v>
       </c>
@@ -8138,16 +7752,16 @@
         <v>Diamond of Dexterity +7</v>
       </c>
       <c r="C145" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D145" s="2">
         <v>7</v>
       </c>
       <c r="E145" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>24</v>
       </c>
@@ -8156,16 +7770,16 @@
         <v>Diamond of Constitution +7</v>
       </c>
       <c r="C146" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D146" s="2">
         <v>7</v>
       </c>
       <c r="E146" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>24</v>
       </c>
@@ -8174,16 +7788,16 @@
         <v>Diamond of Intelligence +7</v>
       </c>
       <c r="C147" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D147" s="2">
         <v>7</v>
       </c>
       <c r="E147" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>24</v>
       </c>
@@ -8192,16 +7806,16 @@
         <v>Diamond of Wisdom +7</v>
       </c>
       <c r="C148" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D148" s="2">
         <v>7</v>
       </c>
       <c r="E148" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>24</v>
       </c>
@@ -8210,16 +7824,16 @@
         <v>Diamond of Charisma +7</v>
       </c>
       <c r="C149" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D149" s="2">
         <v>7</v>
       </c>
       <c r="E149" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>24</v>
       </c>
@@ -8228,16 +7842,16 @@
         <v>Diamond of Insightful Strength +2</v>
       </c>
       <c r="C150" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D150" s="2">
         <v>2</v>
       </c>
       <c r="E150" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>24</v>
       </c>
@@ -8246,16 +7860,16 @@
         <v>Diamond of Insightful Dexterity +2</v>
       </c>
       <c r="C151" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D151" s="2">
         <v>2</v>
       </c>
       <c r="E151" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>24</v>
       </c>
@@ -8264,16 +7878,16 @@
         <v>Diamond of Insightful Constitution +2</v>
       </c>
       <c r="C152" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D152" s="2">
         <v>2</v>
       </c>
       <c r="E152" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>24</v>
       </c>
@@ -8282,16 +7896,16 @@
         <v>Diamond of Insightful Intelligence +2</v>
       </c>
       <c r="C153" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D153" s="2">
         <v>2</v>
       </c>
       <c r="E153" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>24</v>
       </c>
@@ -8300,16 +7914,16 @@
         <v>Diamond of Insightful Wisdom +2</v>
       </c>
       <c r="C154" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D154" s="2">
         <v>2</v>
       </c>
       <c r="E154" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>24</v>
       </c>
@@ -8318,16 +7932,16 @@
         <v>Diamond of Insightful Charisma +2</v>
       </c>
       <c r="C155" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D155" s="2">
         <v>2</v>
       </c>
       <c r="E155" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>24</v>
       </c>
@@ -8336,16 +7950,16 @@
         <v>Diamond of Balance +13</v>
       </c>
       <c r="C156" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D156" s="2">
         <v>13</v>
       </c>
       <c r="E156" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>24</v>
       </c>
@@ -8354,16 +7968,16 @@
         <v>Diamond of Bluff +13</v>
       </c>
       <c r="C157" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D157" s="2">
         <v>13</v>
       </c>
       <c r="E157" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>24</v>
       </c>
@@ -8372,16 +7986,16 @@
         <v>Diamond of Concentration +13</v>
       </c>
       <c r="C158" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D158" s="2">
         <v>13</v>
       </c>
       <c r="E158" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>24</v>
       </c>
@@ -8390,16 +8004,16 @@
         <v>Diamond of Diplomacy +13</v>
       </c>
       <c r="C159" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D159" s="2">
         <v>13</v>
       </c>
       <c r="E159" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>24</v>
       </c>
@@ -8408,16 +8022,16 @@
         <v>Diamond of Disable Device +13</v>
       </c>
       <c r="C160" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D160" s="2">
         <v>13</v>
       </c>
       <c r="E160" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>24</v>
       </c>
@@ -8426,16 +8040,16 @@
         <v>Diamond of Haggle +13</v>
       </c>
       <c r="C161" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D161" s="2">
         <v>13</v>
       </c>
       <c r="E161" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>24</v>
       </c>
@@ -8444,16 +8058,16 @@
         <v>Diamond of Heal +13</v>
       </c>
       <c r="C162" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D162" s="2">
         <v>13</v>
       </c>
       <c r="E162" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>24</v>
       </c>
@@ -8462,16 +8076,16 @@
         <v>Diamond of Hide +13</v>
       </c>
       <c r="C163" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D163" s="2">
         <v>13</v>
       </c>
       <c r="E163" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>24</v>
       </c>
@@ -8480,16 +8094,16 @@
         <v>Diamond of Intimidate +13</v>
       </c>
       <c r="C164" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D164" s="2">
         <v>13</v>
       </c>
       <c r="E164" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>24</v>
       </c>
@@ -8498,16 +8112,16 @@
         <v>Diamond of Jump +13</v>
       </c>
       <c r="C165" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D165" s="2">
         <v>13</v>
       </c>
       <c r="E165" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>24</v>
       </c>
@@ -8516,16 +8130,16 @@
         <v>Diamond of Listen +13</v>
       </c>
       <c r="C166" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D166" s="2">
         <v>13</v>
       </c>
       <c r="E166" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>24</v>
       </c>
@@ -8534,16 +8148,16 @@
         <v>Diamond of Move Silently +13</v>
       </c>
       <c r="C167" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D167" s="2">
         <v>13</v>
       </c>
       <c r="E167" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>24</v>
       </c>
@@ -8552,16 +8166,16 @@
         <v>Diamond of Open Lock +13</v>
       </c>
       <c r="C168" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D168" s="2">
         <v>13</v>
       </c>
       <c r="E168" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>24</v>
       </c>
@@ -8570,16 +8184,16 @@
         <v>Diamond of Perform +13</v>
       </c>
       <c r="C169" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D169" s="2">
         <v>13</v>
       </c>
       <c r="E169" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>24</v>
       </c>
@@ -8588,16 +8202,16 @@
         <v>Diamond of Repair +13</v>
       </c>
       <c r="C170" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D170" s="2">
         <v>13</v>
       </c>
       <c r="E170" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>24</v>
       </c>
@@ -8606,16 +8220,16 @@
         <v>Diamond of Search +13</v>
       </c>
       <c r="C171" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D171" s="2">
         <v>13</v>
       </c>
       <c r="E171" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>24</v>
       </c>
@@ -8624,16 +8238,16 @@
         <v>Diamond of Spellcraft +13</v>
       </c>
       <c r="C172" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D172" s="2">
         <v>13</v>
       </c>
       <c r="E172" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>24</v>
       </c>
@@ -8642,16 +8256,16 @@
         <v>Diamond of Spot +13</v>
       </c>
       <c r="C173" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D173" s="2">
         <v>13</v>
       </c>
       <c r="E173" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>24</v>
       </c>
@@ -8660,16 +8274,16 @@
         <v>Diamond of Swim +13</v>
       </c>
       <c r="C174" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D174" s="2">
         <v>13</v>
       </c>
       <c r="E174" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>24</v>
       </c>
@@ -8678,16 +8292,16 @@
         <v>Diamond of Tumble +13</v>
       </c>
       <c r="C175" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D175" s="2">
         <v>13</v>
       </c>
       <c r="E175" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>28</v>
       </c>
@@ -8696,16 +8310,16 @@
         <v>Diamond of Strength +8</v>
       </c>
       <c r="C176" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D176" s="2">
         <v>8</v>
       </c>
       <c r="E176" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>28</v>
       </c>
@@ -8714,16 +8328,16 @@
         <v>Diamond of Dexterity +8</v>
       </c>
       <c r="C177" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D177" s="2">
         <v>8</v>
       </c>
       <c r="E177" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>28</v>
       </c>
@@ -8732,16 +8346,16 @@
         <v>Diamond of Constitution +8</v>
       </c>
       <c r="C178" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D178" s="2">
         <v>8</v>
       </c>
       <c r="E178" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>28</v>
       </c>
@@ -8750,16 +8364,16 @@
         <v>Diamond of Intelligence +8</v>
       </c>
       <c r="C179" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D179" s="2">
         <v>8</v>
       </c>
       <c r="E179" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>28</v>
       </c>
@@ -8768,16 +8382,16 @@
         <v>Diamond of Wisdom +8</v>
       </c>
       <c r="C180" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D180" s="2">
         <v>8</v>
       </c>
       <c r="E180" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>28</v>
       </c>
@@ -8786,16 +8400,16 @@
         <v>Diamond of Charisma +8</v>
       </c>
       <c r="C181" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D181" s="2">
         <v>8</v>
       </c>
       <c r="E181" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>28</v>
       </c>
@@ -8804,16 +8418,16 @@
         <v>Diamond of Balance +15</v>
       </c>
       <c r="C182" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D182" s="2">
         <v>15</v>
       </c>
       <c r="E182" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>28</v>
       </c>
@@ -8822,16 +8436,16 @@
         <v>Diamond of Bluff +15</v>
       </c>
       <c r="C183" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D183" s="2">
         <v>15</v>
       </c>
       <c r="E183" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>28</v>
       </c>
@@ -8840,16 +8454,16 @@
         <v>Diamond of Concentration +15</v>
       </c>
       <c r="C184" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D184" s="2">
         <v>15</v>
       </c>
       <c r="E184" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>28</v>
       </c>
@@ -8858,16 +8472,16 @@
         <v>Diamond of Diplomacy +15</v>
       </c>
       <c r="C185" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D185" s="2">
         <v>15</v>
       </c>
       <c r="E185" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>28</v>
       </c>
@@ -8876,16 +8490,16 @@
         <v>Diamond of Disable Device +15</v>
       </c>
       <c r="C186" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D186" s="2">
         <v>15</v>
       </c>
       <c r="E186" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>28</v>
       </c>
@@ -8894,16 +8508,16 @@
         <v>Diamond of Haggle +15</v>
       </c>
       <c r="C187" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D187" s="2">
         <v>15</v>
       </c>
       <c r="E187" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>28</v>
       </c>
@@ -8912,16 +8526,16 @@
         <v>Diamond of Heal +15</v>
       </c>
       <c r="C188" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D188" s="2">
         <v>15</v>
       </c>
       <c r="E188" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>28</v>
       </c>
@@ -8930,16 +8544,16 @@
         <v>Diamond of Hide +15</v>
       </c>
       <c r="C189" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D189" s="2">
         <v>15</v>
       </c>
       <c r="E189" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>28</v>
       </c>
@@ -8948,16 +8562,16 @@
         <v>Diamond of Intimidate +15</v>
       </c>
       <c r="C190" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D190" s="2">
         <v>15</v>
       </c>
       <c r="E190" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>28</v>
       </c>
@@ -8966,16 +8580,16 @@
         <v>Diamond of Jump +15</v>
       </c>
       <c r="C191" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D191" s="2">
         <v>15</v>
       </c>
       <c r="E191" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>28</v>
       </c>
@@ -8984,16 +8598,16 @@
         <v>Diamond of Listen +15</v>
       </c>
       <c r="C192" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D192" s="2">
         <v>15</v>
       </c>
       <c r="E192" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>28</v>
       </c>
@@ -9002,16 +8616,16 @@
         <v>Diamond of Move Silently +15</v>
       </c>
       <c r="C193" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D193" s="2">
         <v>15</v>
       </c>
       <c r="E193" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>28</v>
       </c>
@@ -9020,16 +8634,16 @@
         <v>Diamond of Open Lock +15</v>
       </c>
       <c r="C194" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D194" s="2">
         <v>15</v>
       </c>
       <c r="E194" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>28</v>
       </c>
@@ -9038,16 +8652,16 @@
         <v>Diamond of Perform +15</v>
       </c>
       <c r="C195" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D195" s="2">
         <v>15</v>
       </c>
       <c r="E195" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>28</v>
       </c>
@@ -9056,16 +8670,16 @@
         <v>Diamond of Repair +15</v>
       </c>
       <c r="C196" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D196" s="2">
         <v>15</v>
       </c>
       <c r="E196" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>28</v>
       </c>
@@ -9074,16 +8688,16 @@
         <v>Diamond of Search +15</v>
       </c>
       <c r="C197" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D197" s="2">
         <v>15</v>
       </c>
       <c r="E197" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>28</v>
       </c>
@@ -9092,16 +8706,16 @@
         <v>Diamond of Spellcraft +15</v>
       </c>
       <c r="C198" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D198" s="2">
         <v>15</v>
       </c>
       <c r="E198" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>28</v>
       </c>
@@ -9110,16 +8724,16 @@
         <v>Diamond of Spot +15</v>
       </c>
       <c r="C199" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D199" s="2">
         <v>15</v>
       </c>
       <c r="E199" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>28</v>
       </c>
@@ -9128,16 +8742,16 @@
         <v>Diamond of Swim +15</v>
       </c>
       <c r="C200" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D200" s="2">
         <v>15</v>
       </c>
       <c r="E200" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>28</v>
       </c>
@@ -9146,268 +8760,268 @@
         <v>Diamond of Tumble +15</v>
       </c>
       <c r="C201" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D201" s="2">
         <v>15</v>
       </c>
       <c r="E201" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>22</v>
       </c>
       <c r="B202" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C202" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D202">
         <v>2</v>
       </c>
       <c r="E202" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>22</v>
       </c>
       <c r="B203" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C203" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D203">
         <v>2</v>
       </c>
       <c r="E203" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>11</v>
       </c>
       <c r="B204" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C204" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="D204">
         <v>20</v>
       </c>
       <c r="E204" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>14</v>
       </c>
       <c r="B205" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="C205" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D205">
         <v>3</v>
       </c>
       <c r="E205" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>14</v>
       </c>
       <c r="B206" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="C206" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D206">
         <v>3</v>
       </c>
       <c r="E206" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>14</v>
       </c>
       <c r="B207" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="C207" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D207">
         <v>3</v>
       </c>
       <c r="E207" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="C208" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D208">
         <v>3</v>
       </c>
       <c r="E208" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>14</v>
       </c>
       <c r="B209" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="C209" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D209">
         <v>3</v>
       </c>
       <c r="E209" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>14</v>
       </c>
       <c r="B210" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="C210" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D210">
         <v>3</v>
       </c>
       <c r="E210" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>25</v>
       </c>
       <c r="B211" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C211" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D211">
         <v>1</v>
       </c>
       <c r="E211" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>25</v>
       </c>
       <c r="B212" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C212" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D212">
         <v>1</v>
       </c>
       <c r="E212" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>25</v>
       </c>
       <c r="B213" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C213" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D213">
         <v>1</v>
       </c>
       <c r="E213" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>25</v>
       </c>
       <c r="B214" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C214" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D214">
         <v>1</v>
       </c>
       <c r="E214" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>25</v>
       </c>
       <c r="B215" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C215" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D215">
         <v>1</v>
       </c>
       <c r="E215" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>25</v>
       </c>
       <c r="B216" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C216" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D216">
         <v>1</v>
       </c>
       <c r="E216" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/data-builder/augments.xlsx
+++ b/data-builder/augments.xlsx
@@ -687,9 +687,6 @@
     <t>Illusion Focus</t>
   </si>
   <si>
-    <t>Necromany Focus</t>
-  </si>
-  <si>
     <t>Abjuration Focus</t>
   </si>
   <si>
@@ -703,6 +700,9 @@
   </si>
   <si>
     <t>Augment</t>
+  </si>
+  <si>
+    <t>Necromancy Focus</t>
   </si>
 </sst>
 </file>
@@ -1060,8 +1060,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42:E48"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1659,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -1673,7 +1673,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -1681,13 +1681,13 @@
         <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -1695,13 +1695,13 @@
         <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -1709,13 +1709,13 @@
         <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1723,13 +1723,13 @@
         <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -1737,13 +1737,13 @@
         <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -1981,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -1995,7 +1995,7 @@
         <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -2003,13 +2003,13 @@
         <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="D67">
         <v>2</v>
       </c>
       <c r="E67" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -2017,13 +2017,13 @@
         <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D68">
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -2031,13 +2031,13 @@
         <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D69">
         <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -2045,13 +2045,13 @@
         <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D70">
         <v>2</v>
       </c>
       <c r="E70" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -2059,13 +2059,13 @@
         <v>16</v>
       </c>
       <c r="C71" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D71">
         <v>2</v>
       </c>
       <c r="E71" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">

--- a/data-builder/augments.xlsx
+++ b/data-builder/augments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9675"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9675" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Yellow" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="226">
   <si>
     <t>Minimum Level</t>
   </si>
@@ -318,9 +318,6 @@
     <t>Resistance</t>
   </si>
   <si>
-    <t>Physical Resistance Rating</t>
-  </si>
-  <si>
     <t>Fortification</t>
   </si>
   <si>
@@ -703,6 +700,12 @@
   </si>
   <si>
     <t>Necromancy Focus</t>
+  </si>
+  <si>
+    <t>Competence</t>
+  </si>
+  <si>
+    <t>Physical Sheltering</t>
   </si>
 </sst>
 </file>
@@ -1049,7 +1052,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1060,8 +1063,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1076,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C1" t="s">
         <v>85</v>
@@ -1099,7 +1102,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1113,7 +1116,7 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1127,7 +1130,7 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1141,7 +1144,7 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1155,7 +1158,7 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1169,7 +1172,7 @@
         <v>0.05</v>
       </c>
       <c r="E7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1183,7 +1186,7 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1197,7 +1200,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1211,7 +1214,7 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1225,7 +1228,7 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1239,7 +1242,7 @@
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1253,7 +1256,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1267,7 +1270,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1281,7 +1284,7 @@
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1295,7 +1298,7 @@
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1309,7 +1312,7 @@
         <v>0.1</v>
       </c>
       <c r="E17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1323,7 +1326,7 @@
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1337,7 +1340,7 @@
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1351,7 +1354,7 @@
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1365,7 +1368,7 @@
         <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1379,7 +1382,7 @@
         <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1393,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="E23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1407,7 +1410,7 @@
         <v>4</v>
       </c>
       <c r="E24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1421,7 +1424,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1435,7 +1438,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1449,7 +1452,7 @@
         <v>0.15</v>
       </c>
       <c r="E27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1463,7 +1466,7 @@
         <v>20</v>
       </c>
       <c r="E28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1477,7 +1480,7 @@
         <v>20</v>
       </c>
       <c r="E29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1491,7 +1494,7 @@
         <v>20</v>
       </c>
       <c r="E30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -1505,7 +1508,7 @@
         <v>20</v>
       </c>
       <c r="E31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1519,7 +1522,7 @@
         <v>75</v>
       </c>
       <c r="E32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1533,7 +1536,7 @@
         <v>6</v>
       </c>
       <c r="E33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -1547,7 +1550,7 @@
         <v>6</v>
       </c>
       <c r="E34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1561,7 +1564,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -1575,7 +1578,7 @@
         <v>0.2</v>
       </c>
       <c r="E36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -1589,7 +1592,7 @@
         <v>25</v>
       </c>
       <c r="E37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1603,7 +1606,7 @@
         <v>25</v>
       </c>
       <c r="E38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -1617,7 +1620,7 @@
         <v>25</v>
       </c>
       <c r="E39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -1631,7 +1634,7 @@
         <v>25</v>
       </c>
       <c r="E40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -1645,7 +1648,7 @@
         <v>100</v>
       </c>
       <c r="E41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -1653,13 +1656,13 @@
         <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -1667,13 +1670,13 @@
         <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -1681,13 +1684,13 @@
         <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -1695,13 +1698,13 @@
         <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -1709,13 +1712,13 @@
         <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1723,13 +1726,13 @@
         <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -1737,13 +1740,13 @@
         <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -1757,7 +1760,7 @@
         <v>8</v>
       </c>
       <c r="E49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -1771,7 +1774,7 @@
         <v>8</v>
       </c>
       <c r="E50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -1785,7 +1788,7 @@
         <v>0.25</v>
       </c>
       <c r="E51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -1799,7 +1802,7 @@
         <v>30</v>
       </c>
       <c r="E52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -1813,7 +1816,7 @@
         <v>30</v>
       </c>
       <c r="E53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -1827,7 +1830,7 @@
         <v>30</v>
       </c>
       <c r="E54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -1841,7 +1844,7 @@
         <v>30</v>
       </c>
       <c r="E55" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -1855,7 +1858,7 @@
         <v>150</v>
       </c>
       <c r="E56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -1869,7 +1872,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -1883,7 +1886,7 @@
         <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -1897,7 +1900,7 @@
         <v>0.3</v>
       </c>
       <c r="E59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -1911,7 +1914,7 @@
         <v>35</v>
       </c>
       <c r="E60" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -1925,7 +1928,7 @@
         <v>35</v>
       </c>
       <c r="E61" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -1939,7 +1942,7 @@
         <v>35</v>
       </c>
       <c r="E62" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -1953,7 +1956,7 @@
         <v>35</v>
       </c>
       <c r="E63" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -1967,7 +1970,7 @@
         <v>200</v>
       </c>
       <c r="E64" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -1975,13 +1978,13 @@
         <v>16</v>
       </c>
       <c r="C65" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D65">
         <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -1989,13 +1992,13 @@
         <v>16</v>
       </c>
       <c r="C66" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D66">
         <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -2003,13 +2006,13 @@
         <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D67">
         <v>2</v>
       </c>
       <c r="E67" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -2017,13 +2020,13 @@
         <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D68">
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -2031,13 +2034,13 @@
         <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D69">
         <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -2045,13 +2048,13 @@
         <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D70">
         <v>2</v>
       </c>
       <c r="E70" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -2059,16 +2062,16 @@
         <v>16</v>
       </c>
       <c r="C71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D71">
         <v>2</v>
       </c>
       <c r="E71" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>28</v>
       </c>
@@ -2079,10 +2082,10 @@
         <v>40</v>
       </c>
       <c r="E72" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>28</v>
       </c>
@@ -2093,10 +2096,10 @@
         <v>40</v>
       </c>
       <c r="E73" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>28</v>
       </c>
@@ -2107,10 +2110,10 @@
         <v>40</v>
       </c>
       <c r="E74" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>28</v>
       </c>
@@ -2121,10 +2124,10 @@
         <v>40</v>
       </c>
       <c r="E75" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>28</v>
       </c>
@@ -2135,10 +2138,10 @@
         <v>250</v>
       </c>
       <c r="E76" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>25</v>
       </c>
@@ -2152,10 +2155,10 @@
         <v>30</v>
       </c>
       <c r="E77" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>25</v>
       </c>
@@ -2169,10 +2172,10 @@
         <v>30</v>
       </c>
       <c r="E78" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>25</v>
       </c>
@@ -2186,10 +2189,10 @@
         <v>30</v>
       </c>
       <c r="E79" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>25</v>
       </c>
@@ -2203,10 +2206,10 @@
         <v>30</v>
       </c>
       <c r="E80" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>20</v>
       </c>
@@ -2220,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2234,8 +2237,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:XFD47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2279,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -2297,7 +2300,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -2315,25 +2318,25 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
-      <c r="B5" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Physical Resistance Rating +2</v>
+      <c r="B5" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>225</v>
       </c>
       <c r="D5" s="2">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -2345,13 +2348,13 @@
         <v>Topaz of Fortification +25%</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D6" s="1">
         <v>0.25</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -2363,13 +2366,13 @@
         <v>Topaz of Hit Points +5</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -2387,7 +2390,7 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -2405,7 +2408,7 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -2423,25 +2426,25 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>4</v>
       </c>
-      <c r="B11" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Physical Resistance Rating +4</v>
+      <c r="B11" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>225</v>
       </c>
       <c r="D11" s="2">
         <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -2453,13 +2456,13 @@
         <v>Topaz of Fortification +75%</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D12" s="1">
         <v>0.75</v>
       </c>
       <c r="E12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -2471,13 +2474,13 @@
         <v>Topaz of Hit Points +10</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D13">
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -2495,7 +2498,7 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -2513,7 +2516,7 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -2531,25 +2534,25 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>8</v>
       </c>
-      <c r="B17" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Physical Resistance Rating +6</v>
+      <c r="B17" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>225</v>
       </c>
       <c r="D17" s="2">
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -2561,13 +2564,13 @@
         <v>Topaz of Fortification%</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -2579,13 +2582,13 @@
         <v>Topaz of Hit Points +15</v>
       </c>
       <c r="C19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D19">
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -2603,7 +2606,7 @@
         <v>4</v>
       </c>
       <c r="E20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -2621,7 +2624,7 @@
         <v>4</v>
       </c>
       <c r="E21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -2639,25 +2642,25 @@
         <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>12</v>
       </c>
-      <c r="B23" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Physical Resistance Rating +8</v>
+      <c r="B23" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="C23" t="s">
-        <v>96</v>
+        <v>225</v>
       </c>
       <c r="D23" s="2">
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -2669,13 +2672,13 @@
         <v>Topaz of Good Luck</v>
       </c>
       <c r="C24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -2687,13 +2690,13 @@
         <v>Topaz of Hit Points +20</v>
       </c>
       <c r="C25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D25">
         <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -2711,7 +2714,7 @@
         <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -2729,7 +2732,7 @@
         <v>5</v>
       </c>
       <c r="E27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -2747,25 +2750,25 @@
         <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>16</v>
       </c>
-      <c r="B29" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Physical Resistance Rating +10</v>
+      <c r="B29" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>225</v>
       </c>
       <c r="D29" s="2">
         <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -2777,13 +2780,13 @@
         <v>Topaz of Hit Points +25</v>
       </c>
       <c r="C30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D30">
         <v>25</v>
       </c>
       <c r="E30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -2801,7 +2804,7 @@
         <v>6</v>
       </c>
       <c r="E31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -2819,7 +2822,7 @@
         <v>6</v>
       </c>
       <c r="E32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -2837,25 +2840,25 @@
         <v>6</v>
       </c>
       <c r="E33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>20</v>
       </c>
-      <c r="B34" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Physical Resistance Rating +12</v>
+      <c r="B34" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="C34" t="s">
-        <v>96</v>
+        <v>225</v>
       </c>
       <c r="D34" s="2">
         <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -2867,13 +2870,13 @@
         <v>Topaz of Good Luck +2</v>
       </c>
       <c r="C35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D35">
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -2885,13 +2888,13 @@
         <v>Topaz of Hit Points +30</v>
       </c>
       <c r="C36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D36">
         <v>30</v>
       </c>
       <c r="E36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -2909,7 +2912,7 @@
         <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -2927,7 +2930,7 @@
         <v>7</v>
       </c>
       <c r="E38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -2945,28 +2948,28 @@
         <v>7</v>
       </c>
       <c r="E39" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>24</v>
       </c>
-      <c r="B40" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Physical Resistance Rating +14</v>
+      <c r="B40" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="C40" t="s">
-        <v>96</v>
+        <v>225</v>
       </c>
       <c r="D40" s="2">
         <v>14</v>
       </c>
       <c r="E40" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>24</v>
       </c>
@@ -2975,16 +2978,16 @@
         <v>Topaz of Hit Points +35</v>
       </c>
       <c r="C41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D41">
         <v>35</v>
       </c>
       <c r="E41" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>28</v>
       </c>
@@ -2999,10 +3002,10 @@
         <v>8</v>
       </c>
       <c r="E42" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>28</v>
       </c>
@@ -3017,10 +3020,10 @@
         <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>28</v>
       </c>
@@ -3035,28 +3038,28 @@
         <v>8</v>
       </c>
       <c r="E44" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>28</v>
       </c>
-      <c r="B45" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Physical Resistance Rating +16</v>
+      <c r="B45" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
       </c>
       <c r="C45" t="s">
-        <v>96</v>
+        <v>225</v>
       </c>
       <c r="D45" s="2">
         <v>16</v>
       </c>
       <c r="E45" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>28</v>
       </c>
@@ -3065,13 +3068,13 @@
         <v>Topaz of Hit Points +40</v>
       </c>
       <c r="C46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D46">
         <v>40</v>
       </c>
       <c r="E46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3085,7 +3088,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A97" workbookViewId="0">
       <selection activeCell="A122" sqref="A122:XFD122"/>
     </sheetView>
   </sheetViews>
@@ -3122,13 +3125,13 @@
         <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -3139,13 +3142,13 @@
         <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -3156,13 +3159,13 @@
         <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -3173,13 +3176,13 @@
         <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -3187,16 +3190,16 @@
         <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" t="s">
         <v>112</v>
-      </c>
-      <c r="C6" t="s">
-        <v>113</v>
       </c>
       <c r="D6">
         <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -3204,16 +3207,16 @@
         <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" t="s">
         <v>114</v>
-      </c>
-      <c r="C7" t="s">
-        <v>115</v>
       </c>
       <c r="D7">
         <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -3221,16 +3224,16 @@
         <v>0</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" t="s">
         <v>116</v>
-      </c>
-      <c r="C8" t="s">
-        <v>117</v>
       </c>
       <c r="D8">
         <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -3238,16 +3241,16 @@
         <v>0</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" t="s">
         <v>118</v>
-      </c>
-      <c r="C9" t="s">
-        <v>119</v>
       </c>
       <c r="D9">
         <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -3255,16 +3258,16 @@
         <v>0</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" t="s">
         <v>120</v>
-      </c>
-      <c r="C10" t="s">
-        <v>121</v>
       </c>
       <c r="D10">
         <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -3272,16 +3275,16 @@
         <v>0</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" t="s">
         <v>122</v>
-      </c>
-      <c r="C11" t="s">
-        <v>123</v>
       </c>
       <c r="D11">
         <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -3289,16 +3292,16 @@
         <v>0</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" t="s">
         <v>124</v>
-      </c>
-      <c r="C12" t="s">
-        <v>125</v>
       </c>
       <c r="D12">
         <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -3306,16 +3309,16 @@
         <v>0</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" t="s">
         <v>126</v>
-      </c>
-      <c r="C13" t="s">
-        <v>127</v>
       </c>
       <c r="D13">
         <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -3323,16 +3326,16 @@
         <v>0</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" t="s">
         <v>128</v>
-      </c>
-      <c r="C14" t="s">
-        <v>129</v>
       </c>
       <c r="D14">
         <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -3340,16 +3343,16 @@
         <v>0</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" t="s">
         <v>130</v>
-      </c>
-      <c r="C15" t="s">
-        <v>131</v>
       </c>
       <c r="D15">
         <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -3360,13 +3363,13 @@
         <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -3377,13 +3380,13 @@
         <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -3394,13 +3397,13 @@
         <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -3411,13 +3414,13 @@
         <v>51</v>
       </c>
       <c r="C19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" t="s">
         <v>104</v>
       </c>
-      <c r="D19" t="s">
-        <v>105</v>
-      </c>
       <c r="E19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -3425,16 +3428,16 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D20">
         <v>42</v>
       </c>
       <c r="E20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -3442,16 +3445,16 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D21">
         <v>42</v>
       </c>
       <c r="E21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -3459,16 +3462,16 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D22">
         <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -3476,16 +3479,16 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D23">
         <v>42</v>
       </c>
       <c r="E23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -3493,16 +3496,16 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D24">
         <v>42</v>
       </c>
       <c r="E24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -3510,16 +3513,16 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D25">
         <v>42</v>
       </c>
       <c r="E25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -3527,16 +3530,16 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D26">
         <v>42</v>
       </c>
       <c r="E26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -3544,16 +3547,16 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D27">
         <v>42</v>
       </c>
       <c r="E27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -3561,16 +3564,16 @@
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C28" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D28">
         <v>42</v>
       </c>
       <c r="E28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -3578,19 +3581,19 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D29">
         <v>42</v>
       </c>
       <c r="E29" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>8</v>
       </c>
@@ -3598,16 +3601,16 @@
         <v>52</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E30" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>8</v>
       </c>
@@ -3615,16 +3618,16 @@
         <v>53</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E31" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>8</v>
       </c>
@@ -3632,16 +3635,16 @@
         <v>54</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E32" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>8</v>
       </c>
@@ -3649,16 +3652,16 @@
         <v>55</v>
       </c>
       <c r="C33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E33" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>8</v>
       </c>
@@ -3666,16 +3669,16 @@
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>8</v>
       </c>
@@ -3683,16 +3686,16 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>8</v>
       </c>
@@ -3700,16 +3703,16 @@
         <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>8</v>
       </c>
@@ -3717,186 +3720,186 @@
         <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D38">
         <v>54</v>
       </c>
       <c r="E38" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D39">
         <v>54</v>
       </c>
       <c r="E39" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D40">
         <v>54</v>
       </c>
       <c r="E40" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D41">
         <v>54</v>
       </c>
       <c r="E41" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D42">
         <v>54</v>
       </c>
       <c r="E42" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D43">
         <v>54</v>
       </c>
       <c r="E43" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C44" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D44">
         <v>54</v>
       </c>
       <c r="E44" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C45" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D45">
         <v>54</v>
       </c>
       <c r="E45" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C46" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D46">
         <v>54</v>
       </c>
       <c r="E46" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C47" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D47">
         <v>54</v>
       </c>
       <c r="E47" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>12</v>
       </c>
@@ -3904,16 +3907,16 @@
         <v>56</v>
       </c>
       <c r="C48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E48" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>12</v>
       </c>
@@ -3921,16 +3924,16 @@
         <v>57</v>
       </c>
       <c r="C49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E49" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>12</v>
       </c>
@@ -3938,16 +3941,16 @@
         <v>58</v>
       </c>
       <c r="C50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E50" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>12</v>
       </c>
@@ -3955,16 +3958,16 @@
         <v>59</v>
       </c>
       <c r="C51" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D51" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E51" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>12</v>
       </c>
@@ -3972,16 +3975,16 @@
         <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>12</v>
       </c>
@@ -3989,186 +3992,186 @@
         <v>13</v>
       </c>
       <c r="C53" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C54" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D54">
         <v>66</v>
       </c>
       <c r="E54" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C55" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D55">
         <v>66</v>
       </c>
       <c r="E55" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C56" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D56">
         <v>66</v>
       </c>
       <c r="E56" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C57" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D57">
         <v>66</v>
       </c>
       <c r="E57" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C58" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D58">
         <v>66</v>
       </c>
       <c r="E58" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C59" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D59">
         <v>66</v>
       </c>
       <c r="E59" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D60">
         <v>66</v>
       </c>
       <c r="E60" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C61" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D61">
         <v>66</v>
       </c>
       <c r="E61" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C62" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D62">
         <v>66</v>
       </c>
       <c r="E62" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C63" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D63">
         <v>66</v>
       </c>
       <c r="E63" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>16</v>
       </c>
@@ -4176,16 +4179,16 @@
         <v>60</v>
       </c>
       <c r="C64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D64" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E64" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>16</v>
       </c>
@@ -4193,16 +4196,16 @@
         <v>61</v>
       </c>
       <c r="C65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D65" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E65" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>16</v>
       </c>
@@ -4210,16 +4213,16 @@
         <v>62</v>
       </c>
       <c r="C66" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D66" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E66" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>16</v>
       </c>
@@ -4227,16 +4230,16 @@
         <v>63</v>
       </c>
       <c r="C67" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D67" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E67" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>16</v>
       </c>
@@ -4244,16 +4247,16 @@
         <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>16</v>
       </c>
@@ -4261,186 +4264,186 @@
         <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D69">
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>16</v>
       </c>
       <c r="B70" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C70" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D70">
         <v>78</v>
       </c>
       <c r="E70" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>16</v>
       </c>
       <c r="B71" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C71" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D71">
         <v>78</v>
       </c>
       <c r="E71" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>16</v>
       </c>
       <c r="B72" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C72" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D72">
         <v>78</v>
       </c>
       <c r="E72" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>16</v>
       </c>
       <c r="B73" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C73" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D73">
         <v>78</v>
       </c>
       <c r="E73" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>16</v>
       </c>
       <c r="B74" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C74" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D74">
         <v>78</v>
       </c>
       <c r="E74" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>16</v>
       </c>
       <c r="B75" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C75" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D75">
         <v>78</v>
       </c>
       <c r="E75" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>16</v>
       </c>
       <c r="B76" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C76" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D76">
         <v>78</v>
       </c>
       <c r="E76" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>16</v>
       </c>
       <c r="B77" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C77" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D77">
         <v>78</v>
       </c>
       <c r="E77" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>16</v>
       </c>
       <c r="B78" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C78" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D78">
         <v>78</v>
       </c>
       <c r="E78" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>16</v>
       </c>
       <c r="B79" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C79" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D79">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>20</v>
       </c>
@@ -4448,16 +4451,16 @@
         <v>64</v>
       </c>
       <c r="C80" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D80" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E80" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>20</v>
       </c>
@@ -4465,16 +4468,16 @@
         <v>65</v>
       </c>
       <c r="C81" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D81" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E81" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>20</v>
       </c>
@@ -4482,16 +4485,16 @@
         <v>66</v>
       </c>
       <c r="C82" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D82" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E82" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>20</v>
       </c>
@@ -4499,186 +4502,186 @@
         <v>67</v>
       </c>
       <c r="C83" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D83" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E83" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>20</v>
       </c>
       <c r="B84" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C84" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D84">
         <v>90</v>
       </c>
       <c r="E84" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>20</v>
       </c>
       <c r="B85" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C85" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D85">
         <v>90</v>
       </c>
       <c r="E85" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C86" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D86">
         <v>90</v>
       </c>
       <c r="E86" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>20</v>
       </c>
       <c r="B87" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C87" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D87">
         <v>90</v>
       </c>
       <c r="E87" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>20</v>
       </c>
       <c r="B88" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C88" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D88">
         <v>90</v>
       </c>
       <c r="E88" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>20</v>
       </c>
       <c r="B89" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C89" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D89">
         <v>90</v>
       </c>
       <c r="E89" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>20</v>
       </c>
       <c r="B90" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C90" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D90">
         <v>90</v>
       </c>
       <c r="E90" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>20</v>
       </c>
       <c r="B91" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C91" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D91">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>20</v>
       </c>
       <c r="B92" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C92" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D92">
         <v>90</v>
       </c>
       <c r="E92" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>20</v>
       </c>
       <c r="B93" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C93" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D93">
         <v>90</v>
       </c>
       <c r="E93" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>24</v>
       </c>
@@ -4686,16 +4689,16 @@
         <v>68</v>
       </c>
       <c r="C94" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D94" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E94" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>24</v>
       </c>
@@ -4703,16 +4706,16 @@
         <v>69</v>
       </c>
       <c r="C95" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D95" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E95" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>24</v>
       </c>
@@ -4720,16 +4723,16 @@
         <v>70</v>
       </c>
       <c r="C96" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D96" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E96" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>24</v>
       </c>
@@ -4737,186 +4740,186 @@
         <v>71</v>
       </c>
       <c r="C97" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E97" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>24</v>
       </c>
       <c r="B98" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C98" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D98">
         <v>114</v>
       </c>
       <c r="E98" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>24</v>
       </c>
       <c r="B99" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C99" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D99">
         <v>114</v>
       </c>
       <c r="E99" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>24</v>
       </c>
       <c r="B100" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C100" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D100">
         <v>114</v>
       </c>
       <c r="E100" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>24</v>
       </c>
       <c r="B101" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C101" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D101">
         <v>114</v>
       </c>
       <c r="E101" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>24</v>
       </c>
       <c r="B102" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C102" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D102">
         <v>114</v>
       </c>
       <c r="E102" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>24</v>
       </c>
       <c r="B103" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C103" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D103">
         <v>114</v>
       </c>
       <c r="E103" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>24</v>
       </c>
       <c r="B104" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C104" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D104">
         <v>114</v>
       </c>
       <c r="E104" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>24</v>
       </c>
       <c r="B105" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C105" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D105">
         <v>114</v>
       </c>
       <c r="E105" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>24</v>
       </c>
       <c r="B106" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C106" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D106">
         <v>114</v>
       </c>
       <c r="E106" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>24</v>
       </c>
       <c r="B107" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C107" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D107">
         <v>114</v>
       </c>
       <c r="E107" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>28</v>
       </c>
@@ -4924,16 +4927,16 @@
         <v>72</v>
       </c>
       <c r="C108" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D108" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E108" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>28</v>
       </c>
@@ -4941,16 +4944,16 @@
         <v>73</v>
       </c>
       <c r="C109" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D109" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E109" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>28</v>
       </c>
@@ -4958,16 +4961,16 @@
         <v>74</v>
       </c>
       <c r="C110" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D110" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E110" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>28</v>
       </c>
@@ -4975,183 +4978,183 @@
         <v>75</v>
       </c>
       <c r="C111" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D111" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>28</v>
       </c>
       <c r="B112" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C112" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D112">
         <v>138</v>
       </c>
       <c r="E112" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>28</v>
       </c>
       <c r="B113" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C113" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D113">
         <v>138</v>
       </c>
       <c r="E113" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>28</v>
       </c>
       <c r="B114" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C114" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D114">
         <v>138</v>
       </c>
       <c r="E114" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>28</v>
       </c>
       <c r="B115" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C115" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D115">
         <v>138</v>
       </c>
       <c r="E115" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>28</v>
       </c>
       <c r="B116" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C116" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D116">
         <v>138</v>
       </c>
       <c r="E116" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>28</v>
       </c>
       <c r="B117" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C117" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D117">
         <v>138</v>
       </c>
       <c r="E117" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>28</v>
       </c>
       <c r="B118" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C118" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D118">
         <v>138</v>
       </c>
       <c r="E118" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>28</v>
       </c>
       <c r="B119" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C119" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D119">
         <v>138</v>
       </c>
       <c r="E119" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>28</v>
       </c>
       <c r="B120" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C120" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D120">
         <v>138</v>
       </c>
       <c r="E120" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>28</v>
       </c>
       <c r="B121" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C121" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D121">
         <v>138</v>
       </c>
       <c r="E121" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -5165,8 +5168,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E216"/>
   <sheetViews>
-    <sheetView topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="C205" sqref="C205"/>
+    <sheetView topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="E212" sqref="E212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5174,6 +5177,7 @@
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5195,2118 +5199,1699 @@
     </row>
     <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="str">
-        <f>_xlfn.CONCAT("Diamond of ",IF(E2="Insight","Insightful ",""),C2," +",D2)</f>
-        <v>Diamond of Strength +1</v>
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="str">
-        <f t="shared" ref="B3:B66" si="0">_xlfn.CONCAT("Diamond of ",IF(E3="Insight","Insightful ",""),C3," +",D3)</f>
-        <v>Diamond of Dexterity +1</v>
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4" t="str">
-        <f t="shared" si="0"/>
-        <v>Diamond of Constitution +1</v>
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
+        <v>212</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5" t="str">
-        <f t="shared" si="0"/>
-        <v>Diamond of Intelligence +1</v>
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>214</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>Diamond of Wisdom +1</v>
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>214</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7" t="str">
-        <f t="shared" si="0"/>
-        <v>Diamond of Charisma +1</v>
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>214</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" t="str">
-        <f t="shared" si="0"/>
-        <v>Diamond of Strength +2</v>
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>214</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="2">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="B9" t="str">
-        <f t="shared" si="0"/>
-        <v>Diamond of Dexterity +2</v>
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>214</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="2">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>4</v>
-      </c>
-      <c r="B10" t="str">
-        <f t="shared" si="0"/>
-        <v>Diamond of Constitution +2</v>
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>214</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="2">
-        <v>2</v>
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>4</v>
-      </c>
-      <c r="B11" t="str">
-        <f t="shared" si="0"/>
-        <v>Diamond of Intelligence +2</v>
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="2">
-        <v>2</v>
+        <v>22</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>98</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>4</v>
-      </c>
-      <c r="B12" t="str">
-        <f t="shared" si="0"/>
-        <v>Diamond of Wisdom +2</v>
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>82</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="2">
-        <v>2</v>
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>98</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>4</v>
-      </c>
-      <c r="B13" t="str">
-        <f t="shared" si="0"/>
-        <v>Diamond of Charisma +2</v>
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="2">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>98</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>4</v>
-      </c>
-      <c r="B14" t="str">
-        <f t="shared" si="0"/>
-        <v>Diamond of Balance +3</v>
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="2">
-        <v>3</v>
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>98</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>4</v>
-      </c>
-      <c r="B15" t="str">
-        <f t="shared" si="0"/>
-        <v>Diamond of Bluff +3</v>
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="2">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>98</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>4</v>
-      </c>
-      <c r="B16" t="str">
-        <f t="shared" si="0"/>
-        <v>Diamond of Concentration +3</v>
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="2">
-        <v>3</v>
+        <v>21</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>98</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4</v>
       </c>
-      <c r="B17" t="str">
-        <f t="shared" si="0"/>
-        <v>Diamond of Diplomacy +3</v>
-      </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D17" s="2">
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>4</v>
-      </c>
-      <c r="B18" t="str">
-        <f t="shared" si="0"/>
-        <v>Diamond of Disable Device +3</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D18" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>4</v>
-      </c>
-      <c r="B19" t="str">
-        <f t="shared" si="0"/>
-        <v>Diamond of Haggle +3</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D19" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>4</v>
-      </c>
-      <c r="B20" t="str">
-        <f t="shared" si="0"/>
-        <v>Diamond of Heal +3</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D20" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>4</v>
-      </c>
-      <c r="B21" t="str">
-        <f t="shared" si="0"/>
-        <v>Diamond of Hide +3</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D21" s="2">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>4</v>
-      </c>
-      <c r="B22" t="str">
-        <f t="shared" si="0"/>
-        <v>Diamond of Intimidate +3</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D22" s="2">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>4</v>
-      </c>
-      <c r="B23" t="str">
-        <f t="shared" si="0"/>
-        <v>Diamond of Jump +3</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D23" s="2">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>4</v>
       </c>
-      <c r="B24" t="str">
-        <f t="shared" si="0"/>
-        <v>Diamond of Listen +3</v>
-      </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D24" s="2">
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>4</v>
-      </c>
-      <c r="B25" t="str">
-        <f t="shared" si="0"/>
-        <v>Diamond of Move Silently +3</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D25" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E25" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>4</v>
-      </c>
-      <c r="B26" t="str">
-        <f t="shared" si="0"/>
-        <v>Diamond of Open Lock +3</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D26" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>4</v>
-      </c>
-      <c r="B27" t="str">
-        <f t="shared" si="0"/>
-        <v>Diamond of Perform +3</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D27" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>4</v>
-      </c>
-      <c r="B28" t="str">
-        <f t="shared" si="0"/>
-        <v>Diamond of Repair +3</v>
+        <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="D28" s="2">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>4</v>
-      </c>
-      <c r="B29" t="str">
-        <f t="shared" si="0"/>
-        <v>Diamond of Search +3</v>
+        <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D29" s="2">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>4</v>
-      </c>
-      <c r="B30" t="str">
-        <f t="shared" si="0"/>
-        <v>Diamond of Spellcraft +3</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D30" s="2">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>4</v>
-      </c>
-      <c r="B31" t="str">
-        <f t="shared" si="0"/>
-        <v>Diamond of Spot +3</v>
+        <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D31" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>4</v>
       </c>
-      <c r="B32" t="str">
-        <f t="shared" si="0"/>
-        <v>Diamond of Swim +3</v>
-      </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D32" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>4</v>
-      </c>
-      <c r="B33" t="str">
-        <f t="shared" si="0"/>
-        <v>Diamond of Tumble +3</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D33" s="2">
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>8</v>
-      </c>
-      <c r="B34" t="str">
-        <f t="shared" si="0"/>
-        <v>Diamond of Strength +3</v>
+        <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D34" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>8</v>
-      </c>
-      <c r="B35" t="str">
-        <f t="shared" si="0"/>
-        <v>Diamond of Dexterity +3</v>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D35" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>8</v>
-      </c>
-      <c r="B36" t="str">
-        <f t="shared" si="0"/>
-        <v>Diamond of Constitution +3</v>
+        <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D36" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>8</v>
-      </c>
-      <c r="B37" t="str">
-        <f t="shared" si="0"/>
-        <v>Diamond of Intelligence +3</v>
+        <v>24</v>
       </c>
       <c r="C37" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D37" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>8</v>
-      </c>
-      <c r="B38" t="str">
-        <f t="shared" si="0"/>
-        <v>Diamond of Wisdom +3</v>
+        <v>24</v>
       </c>
       <c r="C38" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D38" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>98</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>8</v>
-      </c>
-      <c r="B39" t="str">
-        <f t="shared" si="0"/>
-        <v>Diamond of Charisma +3</v>
+        <v>28</v>
       </c>
       <c r="C39" t="s">
         <v>22</v>
       </c>
       <c r="D39" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>8</v>
-      </c>
-      <c r="B40" t="str">
-        <f t="shared" si="0"/>
-        <v>Diamond of Balance +5</v>
+        <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D40" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>8</v>
       </c>
-      <c r="B41" t="str">
-        <f t="shared" si="0"/>
-        <v>Diamond of Bluff +5</v>
-      </c>
       <c r="C41" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D41" s="2">
         <v>5</v>
       </c>
       <c r="E41" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>8</v>
-      </c>
-      <c r="B42" t="str">
-        <f t="shared" si="0"/>
-        <v>Diamond of Concentration +5</v>
+        <v>12</v>
       </c>
       <c r="C42" t="s">
         <v>26</v>
       </c>
       <c r="D42" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E42" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>8</v>
-      </c>
-      <c r="B43" t="str">
-        <f t="shared" si="0"/>
-        <v>Diamond of Diplomacy +5</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D43" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E43" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>8</v>
-      </c>
-      <c r="B44" t="str">
-        <f t="shared" si="0"/>
-        <v>Diamond of Disable Device +5</v>
+        <v>20</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D44" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>8</v>
-      </c>
-      <c r="B45" t="str">
-        <f t="shared" si="0"/>
-        <v>Diamond of Haggle +5</v>
+        <v>24</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D45" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E45" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>8</v>
-      </c>
-      <c r="B46" t="str">
-        <f t="shared" si="0"/>
-        <v>Diamond of Heal +5</v>
+        <v>28</v>
       </c>
       <c r="C46" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D46" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>8</v>
-      </c>
-      <c r="B47" t="str">
-        <f t="shared" si="0"/>
-        <v>Diamond of Hide +5</v>
+        <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D47" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>8</v>
-      </c>
-      <c r="B48" t="str">
-        <f t="shared" si="0"/>
-        <v>Diamond of Intimidate +5</v>
+        <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D48" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>8</v>
       </c>
-      <c r="B49" t="str">
-        <f t="shared" si="0"/>
-        <v>Diamond of Jump +5</v>
-      </c>
       <c r="C49" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D49" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>8</v>
-      </c>
-      <c r="B50" t="str">
-        <f t="shared" si="0"/>
-        <v>Diamond of Listen +5</v>
+        <v>12</v>
       </c>
       <c r="C50" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D50" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>8</v>
-      </c>
-      <c r="B51" t="str">
-        <f t="shared" si="0"/>
-        <v>Diamond of Move Silently +5</v>
+        <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D51" s="2">
         <v>5</v>
       </c>
       <c r="E51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>8</v>
-      </c>
-      <c r="B52" t="str">
-        <f t="shared" si="0"/>
-        <v>Diamond of Open Lock +5</v>
+        <v>20</v>
       </c>
       <c r="C52" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D52" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>8</v>
-      </c>
-      <c r="B53" t="str">
-        <f t="shared" si="0"/>
-        <v>Diamond of Perform +5</v>
+        <v>24</v>
       </c>
       <c r="C53" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D53" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>8</v>
-      </c>
-      <c r="B54" t="str">
-        <f t="shared" si="0"/>
-        <v>Diamond of Repair +5</v>
+        <v>24</v>
       </c>
       <c r="C54" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D54" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E54" t="s">
-        <v>98</v>
+        <v>201</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A55">
+        <v>28</v>
+      </c>
+      <c r="C55" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" s="2">
         <v>8</v>
       </c>
-      <c r="B55" t="str">
-        <f t="shared" si="0"/>
-        <v>Diamond of Search +5</v>
-      </c>
-      <c r="C55" t="s">
-        <v>39</v>
-      </c>
-      <c r="D55" s="2">
-        <v>5</v>
-      </c>
       <c r="E55" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>8</v>
-      </c>
-      <c r="B56" t="str">
-        <f t="shared" si="0"/>
-        <v>Diamond of Spellcraft +5</v>
+        <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D56" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>8</v>
-      </c>
-      <c r="B57" t="str">
-        <f t="shared" si="0"/>
-        <v>Diamond of Spot +5</v>
+        <v>4</v>
       </c>
       <c r="C57" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D57" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>8</v>
       </c>
-      <c r="B58" t="str">
-        <f t="shared" si="0"/>
-        <v>Diamond of Swim +5</v>
-      </c>
       <c r="C58" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D58" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>8</v>
-      </c>
-      <c r="B59" t="str">
-        <f t="shared" si="0"/>
-        <v>Diamond of Tumble +5</v>
+        <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D59" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>12</v>
-      </c>
-      <c r="B60" t="str">
-        <f t="shared" si="0"/>
-        <v>Diamond of Strength +4</v>
+        <v>16</v>
       </c>
       <c r="C60" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D60" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E60" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>12</v>
-      </c>
-      <c r="B61" t="str">
-        <f t="shared" si="0"/>
-        <v>Diamond of Dexterity +4</v>
+        <v>20</v>
       </c>
       <c r="C61" t="s">
         <v>18</v>
       </c>
       <c r="D61" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E61" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>12</v>
-      </c>
-      <c r="B62" t="str">
-        <f t="shared" si="0"/>
-        <v>Diamond of Constitution +4</v>
+        <v>24</v>
       </c>
       <c r="C62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D62" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E62" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>12</v>
-      </c>
-      <c r="B63" t="str">
-        <f t="shared" si="0"/>
-        <v>Diamond of Intelligence +4</v>
+        <v>24</v>
       </c>
       <c r="C63" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D63" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>98</v>
+        <v>201</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>12</v>
-      </c>
-      <c r="B64" t="str">
-        <f t="shared" si="0"/>
-        <v>Diamond of Wisdom +4</v>
+        <v>28</v>
       </c>
       <c r="C64" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D64" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E64" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>12</v>
-      </c>
-      <c r="B65" t="str">
-        <f t="shared" si="0"/>
-        <v>Diamond of Charisma +4</v>
+        <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D65" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E65" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>12</v>
-      </c>
-      <c r="B66" t="str">
-        <f t="shared" si="0"/>
-        <v>Diamond of Balance +7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D66" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E66" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>12</v>
       </c>
-      <c r="B67" t="str">
-        <f t="shared" ref="B67:B130" si="1">_xlfn.CONCAT("Diamond of ",IF(E67="Insight","Insightful ",""),C67," +",D67)</f>
-        <v>Diamond of Bluff +7</v>
-      </c>
       <c r="C67" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D67" s="2">
         <v>7</v>
       </c>
       <c r="E67" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>12</v>
-      </c>
-      <c r="B68" t="str">
-        <f t="shared" si="1"/>
-        <v>Diamond of Concentration +7</v>
+        <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D68" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E68" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>12</v>
-      </c>
-      <c r="B69" t="str">
-        <f t="shared" si="1"/>
-        <v>Diamond of Diplomacy +7</v>
+        <v>20</v>
       </c>
       <c r="C69" t="s">
         <v>27</v>
       </c>
       <c r="D69" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>12</v>
-      </c>
-      <c r="B70" t="str">
-        <f t="shared" si="1"/>
-        <v>Diamond of Disable Device +7</v>
+        <v>24</v>
       </c>
       <c r="C70" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D70" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E70" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>12</v>
-      </c>
-      <c r="B71" t="str">
-        <f t="shared" si="1"/>
-        <v>Diamond of Haggle +7</v>
+        <v>28</v>
       </c>
       <c r="C71" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D71" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E71" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>12</v>
-      </c>
-      <c r="B72" t="str">
-        <f t="shared" si="1"/>
-        <v>Diamond of Heal +7</v>
+        <v>4</v>
       </c>
       <c r="C72" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D72" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>12</v>
-      </c>
-      <c r="B73" t="str">
-        <f t="shared" si="1"/>
-        <v>Diamond of Hide +7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D73" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E73" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>12</v>
       </c>
-      <c r="B74" t="str">
-        <f t="shared" si="1"/>
-        <v>Diamond of Intimidate +7</v>
-      </c>
       <c r="C74" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D74" s="2">
         <v>7</v>
       </c>
       <c r="E74" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>12</v>
-      </c>
-      <c r="B75" t="str">
-        <f t="shared" si="1"/>
-        <v>Diamond of Jump +7</v>
+        <v>16</v>
       </c>
       <c r="C75" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D75" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E75" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>12</v>
-      </c>
-      <c r="B76" t="str">
-        <f t="shared" si="1"/>
-        <v>Diamond of Listen +7</v>
+        <v>20</v>
       </c>
       <c r="C76" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D76" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>12</v>
-      </c>
-      <c r="B77" t="str">
-        <f t="shared" si="1"/>
-        <v>Diamond of Move Silently +7</v>
+        <v>24</v>
       </c>
       <c r="C77" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D77" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E77" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>12</v>
-      </c>
-      <c r="B78" t="str">
-        <f t="shared" si="1"/>
-        <v>Diamond of Open Lock +7</v>
+        <v>28</v>
       </c>
       <c r="C78" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D78" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E78" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>12</v>
-      </c>
-      <c r="B79" t="str">
-        <f t="shared" si="1"/>
-        <v>Diamond of Perform +7</v>
+        <v>4</v>
       </c>
       <c r="C79" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D79" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E79" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>12</v>
-      </c>
-      <c r="B80" t="str">
-        <f t="shared" si="1"/>
-        <v>Diamond of Repair +7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D80" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E80" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>12</v>
       </c>
-      <c r="B81" t="str">
-        <f t="shared" si="1"/>
-        <v>Diamond of Search +7</v>
-      </c>
       <c r="C81" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D81" s="2">
         <v>7</v>
       </c>
       <c r="E81" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>12</v>
-      </c>
-      <c r="B82" t="str">
-        <f t="shared" si="1"/>
-        <v>Diamond of Spellcraft +7</v>
+        <v>16</v>
       </c>
       <c r="C82" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D82" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E82" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>12</v>
-      </c>
-      <c r="B83" t="str">
-        <f t="shared" si="1"/>
-        <v>Diamond of Spot +7</v>
+        <v>20</v>
       </c>
       <c r="C83" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D83" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>12</v>
-      </c>
-      <c r="B84" t="str">
-        <f t="shared" si="1"/>
-        <v>Diamond of Swim +7</v>
+        <v>24</v>
       </c>
       <c r="C84" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D84" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E84" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>12</v>
-      </c>
-      <c r="B85" t="str">
-        <f t="shared" si="1"/>
-        <v>Diamond of Tumble +7</v>
+        <v>28</v>
       </c>
       <c r="C85" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D85" s="2">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E85" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>16</v>
-      </c>
-      <c r="B86" t="str">
-        <f t="shared" si="1"/>
-        <v>Diamond of Strength +5</v>
+        <v>4</v>
       </c>
       <c r="C86" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D86" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>16</v>
-      </c>
-      <c r="B87" t="str">
-        <f t="shared" si="1"/>
-        <v>Diamond of Dexterity +5</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D87" s="2">
         <v>5</v>
       </c>
       <c r="E87" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>16</v>
-      </c>
-      <c r="B88" t="str">
-        <f t="shared" si="1"/>
-        <v>Diamond of Constitution +5</v>
+        <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D88" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E88" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>16</v>
       </c>
-      <c r="B89" t="str">
-        <f t="shared" si="1"/>
-        <v>Diamond of Intelligence +5</v>
-      </c>
       <c r="C89" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D89" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E89" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>16</v>
-      </c>
-      <c r="B90" t="str">
-        <f t="shared" si="1"/>
-        <v>Diamond of Wisdom +5</v>
+        <v>20</v>
       </c>
       <c r="C90" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D90" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>16</v>
-      </c>
-      <c r="B91" t="str">
-        <f t="shared" si="1"/>
-        <v>Diamond of Charisma +5</v>
+        <v>24</v>
       </c>
       <c r="C91" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D91" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E91" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>16</v>
-      </c>
-      <c r="B92" t="str">
-        <f t="shared" si="1"/>
-        <v>Diamond of Balance +9</v>
+        <v>28</v>
       </c>
       <c r="C92" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D92" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E92" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>16</v>
-      </c>
-      <c r="B93" t="str">
-        <f t="shared" si="1"/>
-        <v>Diamond of Bluff +9</v>
+        <v>4</v>
       </c>
       <c r="C93" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D93" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E93" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>16</v>
-      </c>
-      <c r="B94" t="str">
-        <f t="shared" si="1"/>
-        <v>Diamond of Concentration +9</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D94" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E94" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>16</v>
-      </c>
-      <c r="B95" t="str">
-        <f t="shared" si="1"/>
-        <v>Diamond of Diplomacy +9</v>
+        <v>12</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D95" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E95" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>16</v>
       </c>
-      <c r="B96" t="str">
-        <f t="shared" si="1"/>
-        <v>Diamond of Disable Device +9</v>
-      </c>
       <c r="C96" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D96" s="2">
         <v>9</v>
       </c>
       <c r="E96" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>16</v>
-      </c>
-      <c r="B97" t="str">
-        <f t="shared" si="1"/>
-        <v>Diamond of Haggle +9</v>
+        <v>20</v>
       </c>
       <c r="C97" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D97" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>16</v>
-      </c>
-      <c r="B98" t="str">
-        <f t="shared" si="1"/>
-        <v>Diamond of Heal +9</v>
+        <v>24</v>
       </c>
       <c r="C98" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D98" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E98" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>16</v>
-      </c>
-      <c r="B99" t="str">
-        <f t="shared" si="1"/>
-        <v>Diamond of Hide +9</v>
+        <v>28</v>
       </c>
       <c r="C99" t="s">
         <v>31</v>
       </c>
       <c r="D99" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E99" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>16</v>
-      </c>
-      <c r="B100" t="str">
-        <f t="shared" si="1"/>
-        <v>Diamond of Intimidate +9</v>
+        <v>0</v>
       </c>
       <c r="C100" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D100" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E100" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>16</v>
-      </c>
-      <c r="B101" t="str">
-        <f t="shared" si="1"/>
-        <v>Diamond of Jump +9</v>
+        <v>4</v>
       </c>
       <c r="C101" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D101" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E101" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>16</v>
-      </c>
-      <c r="B102" t="str">
-        <f t="shared" si="1"/>
-        <v>Diamond of Listen +9</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D102" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E102" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>16</v>
-      </c>
-      <c r="B103" t="str">
-        <f t="shared" si="1"/>
-        <v>Diamond of Move Silently +9</v>
+        <v>12</v>
       </c>
       <c r="C103" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D103" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E103" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>16</v>
       </c>
-      <c r="B104" t="str">
-        <f t="shared" si="1"/>
-        <v>Diamond of Open Lock +9</v>
-      </c>
       <c r="C104" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D104" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E104" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>16</v>
-      </c>
-      <c r="B105" t="str">
-        <f t="shared" si="1"/>
-        <v>Diamond of Perform +9</v>
+        <v>20</v>
       </c>
       <c r="C105" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D105" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E105" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>16</v>
-      </c>
-      <c r="B106" t="str">
-        <f t="shared" si="1"/>
-        <v>Diamond of Repair +9</v>
+        <v>24</v>
       </c>
       <c r="C106" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D106" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E106" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>16</v>
-      </c>
-      <c r="B107" t="str">
-        <f t="shared" si="1"/>
-        <v>Diamond of Search +9</v>
+        <v>24</v>
       </c>
       <c r="C107" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D107" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E107" t="s">
-        <v>98</v>
+        <v>201</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>16</v>
-      </c>
-      <c r="B108" t="str">
-        <f t="shared" si="1"/>
-        <v>Diamond of Spellcraft +9</v>
+        <v>28</v>
       </c>
       <c r="C108" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D108" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E108" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>16</v>
-      </c>
-      <c r="B109" t="str">
-        <f t="shared" si="1"/>
-        <v>Diamond of Spot +9</v>
+        <v>4</v>
       </c>
       <c r="C109" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D109" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E109" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>16</v>
-      </c>
-      <c r="B110" t="str">
-        <f t="shared" si="1"/>
-        <v>Diamond of Swim +9</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D110" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E110" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>16</v>
-      </c>
-      <c r="B111" t="str">
-        <f t="shared" si="1"/>
-        <v>Diamond of Tumble +9</v>
+        <v>12</v>
       </c>
       <c r="C111" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D111" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E111" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>20</v>
-      </c>
-      <c r="B112" t="str">
-        <f t="shared" si="1"/>
-        <v>Diamond of Strength +6</v>
+        <v>16</v>
       </c>
       <c r="C112" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D112" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E112" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>20</v>
       </c>
-      <c r="B113" t="str">
-        <f t="shared" si="1"/>
-        <v>Diamond of Dexterity +6</v>
-      </c>
       <c r="C113" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D113" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>20</v>
-      </c>
-      <c r="B114" t="str">
-        <f t="shared" si="1"/>
-        <v>Diamond of Constitution +6</v>
+        <v>24</v>
       </c>
       <c r="C114" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D114" s="2">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E114" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>20</v>
-      </c>
-      <c r="B115" t="str">
-        <f t="shared" si="1"/>
-        <v>Diamond of Intelligence +6</v>
+        <v>28</v>
       </c>
       <c r="C115" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D115" s="2">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E115" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>20</v>
-      </c>
-      <c r="B116" t="str">
-        <f t="shared" si="1"/>
-        <v>Diamond of Wisdom +6</v>
+        <v>4</v>
       </c>
       <c r="C116" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D116" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E116" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>20</v>
-      </c>
-      <c r="B117" t="str">
-        <f t="shared" si="1"/>
-        <v>Diamond of Charisma +6</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D117" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E117" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C118" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D118" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E118" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C119" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D119" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E119" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -7314,1451 +6899,1139 @@
         <v>20</v>
       </c>
       <c r="C120" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D120" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C121" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D121" s="2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E121" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C122" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D122" s="2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E122" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C123" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D123" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E123" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>20</v>
-      </c>
-      <c r="B124" t="str">
-        <f t="shared" si="1"/>
-        <v>Diamond of Balance +11</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D124" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E124" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>20</v>
-      </c>
-      <c r="B125" t="str">
-        <f t="shared" si="1"/>
-        <v>Diamond of Bluff +11</v>
+        <v>12</v>
       </c>
       <c r="C125" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D125" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E125" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>20</v>
-      </c>
-      <c r="B126" t="str">
-        <f t="shared" si="1"/>
-        <v>Diamond of Concentration +11</v>
+        <v>16</v>
       </c>
       <c r="C126" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D126" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E126" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>20</v>
       </c>
-      <c r="B127" t="str">
-        <f t="shared" si="1"/>
-        <v>Diamond of Diplomacy +11</v>
-      </c>
       <c r="C127" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D127" s="2">
         <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>20</v>
-      </c>
-      <c r="B128" t="str">
-        <f t="shared" si="1"/>
-        <v>Diamond of Disable Device +11</v>
+        <v>24</v>
       </c>
       <c r="C128" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D128" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E128" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>20</v>
-      </c>
-      <c r="B129" t="str">
-        <f t="shared" si="1"/>
-        <v>Diamond of Haggle +11</v>
+        <v>28</v>
       </c>
       <c r="C129" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D129" s="2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E129" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>20</v>
-      </c>
-      <c r="B130" t="str">
-        <f t="shared" si="1"/>
-        <v>Diamond of Heal +11</v>
+        <v>4</v>
       </c>
       <c r="C130" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D130" s="2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E130" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>20</v>
-      </c>
-      <c r="B131" t="str">
-        <f t="shared" ref="B131:B194" si="2">_xlfn.CONCAT("Diamond of ",IF(E131="Insight","Insightful ",""),C131," +",D131)</f>
-        <v>Diamond of Hide +11</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D131" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E131" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>20</v>
-      </c>
-      <c r="B132" t="str">
-        <f t="shared" si="2"/>
-        <v>Diamond of Intimidate +11</v>
+        <v>12</v>
       </c>
       <c r="C132" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D132" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E132" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>20</v>
-      </c>
-      <c r="B133" t="str">
-        <f t="shared" si="2"/>
-        <v>Diamond of Jump +11</v>
+        <v>16</v>
       </c>
       <c r="C133" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D133" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E133" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>20</v>
       </c>
-      <c r="B134" t="str">
-        <f t="shared" si="2"/>
-        <v>Diamond of Listen +11</v>
-      </c>
       <c r="C134" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D134" s="2">
         <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>20</v>
-      </c>
-      <c r="B135" t="str">
-        <f t="shared" si="2"/>
-        <v>Diamond of Move Silently +11</v>
+        <v>24</v>
       </c>
       <c r="C135" t="s">
         <v>35</v>
       </c>
       <c r="D135" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E135" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>20</v>
-      </c>
-      <c r="B136" t="str">
-        <f t="shared" si="2"/>
-        <v>Diamond of Open Lock +11</v>
+        <v>28</v>
       </c>
       <c r="C136" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D136" s="2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E136" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>20</v>
-      </c>
-      <c r="B137" t="str">
-        <f t="shared" si="2"/>
-        <v>Diamond of Perform +11</v>
+        <v>4</v>
       </c>
       <c r="C137" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D137" s="2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E137" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>20</v>
-      </c>
-      <c r="B138" t="str">
-        <f t="shared" si="2"/>
-        <v>Diamond of Repair +11</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D138" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E138" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>20</v>
-      </c>
-      <c r="B139" t="str">
-        <f t="shared" si="2"/>
-        <v>Diamond of Search +11</v>
+        <v>12</v>
       </c>
       <c r="C139" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D139" s="2">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E139" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>20</v>
-      </c>
-      <c r="B140" t="str">
-        <f t="shared" si="2"/>
-        <v>Diamond of Spellcraft +11</v>
+        <v>16</v>
       </c>
       <c r="C140" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D140" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E140" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>20</v>
       </c>
-      <c r="B141" t="str">
-        <f t="shared" si="2"/>
-        <v>Diamond of Spot +11</v>
-      </c>
       <c r="C141" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D141" s="2">
         <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>20</v>
-      </c>
-      <c r="B142" t="str">
-        <f t="shared" si="2"/>
-        <v>Diamond of Swim +11</v>
+        <v>24</v>
       </c>
       <c r="C142" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D142" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E142" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>20</v>
-      </c>
-      <c r="B143" t="str">
-        <f t="shared" si="2"/>
-        <v>Diamond of Tumble +11</v>
+        <v>28</v>
       </c>
       <c r="C143" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D143" s="2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E143" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>24</v>
-      </c>
-      <c r="B144" t="str">
-        <f t="shared" si="2"/>
-        <v>Diamond of Strength +7</v>
+        <v>4</v>
       </c>
       <c r="C144" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D144" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E144" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>24</v>
-      </c>
-      <c r="B145" t="str">
-        <f t="shared" si="2"/>
-        <v>Diamond of Dexterity +7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D145" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E145" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>24</v>
-      </c>
-      <c r="B146" t="str">
-        <f t="shared" si="2"/>
-        <v>Diamond of Constitution +7</v>
+        <v>12</v>
       </c>
       <c r="C146" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D146" s="2">
         <v>7</v>
       </c>
       <c r="E146" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>24</v>
-      </c>
-      <c r="B147" t="str">
-        <f t="shared" si="2"/>
-        <v>Diamond of Intelligence +7</v>
+        <v>16</v>
       </c>
       <c r="C147" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D147" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E147" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>24</v>
-      </c>
-      <c r="B148" t="str">
-        <f t="shared" si="2"/>
-        <v>Diamond of Wisdom +7</v>
+        <v>20</v>
       </c>
       <c r="C148" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D148" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>24</v>
       </c>
-      <c r="B149" t="str">
-        <f t="shared" si="2"/>
-        <v>Diamond of Charisma +7</v>
-      </c>
       <c r="C149" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D149" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E149" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>24</v>
-      </c>
-      <c r="B150" t="str">
-        <f t="shared" si="2"/>
-        <v>Diamond of Insightful Strength +2</v>
+        <v>28</v>
       </c>
       <c r="C150" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D150" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E150" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>24</v>
-      </c>
-      <c r="B151" t="str">
-        <f t="shared" si="2"/>
-        <v>Diamond of Insightful Dexterity +2</v>
+        <v>4</v>
       </c>
       <c r="C151" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D151" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E151" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>24</v>
-      </c>
-      <c r="B152" t="str">
-        <f t="shared" si="2"/>
-        <v>Diamond of Insightful Constitution +2</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D152" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E152" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>24</v>
-      </c>
-      <c r="B153" t="str">
-        <f t="shared" si="2"/>
-        <v>Diamond of Insightful Intelligence +2</v>
+        <v>12</v>
       </c>
       <c r="C153" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D153" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E153" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>24</v>
-      </c>
-      <c r="B154" t="str">
-        <f t="shared" si="2"/>
-        <v>Diamond of Insightful Wisdom +2</v>
+        <v>16</v>
       </c>
       <c r="C154" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D154" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E154" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>24</v>
-      </c>
-      <c r="B155" t="str">
-        <f t="shared" si="2"/>
-        <v>Diamond of Insightful Charisma +2</v>
+        <v>20</v>
       </c>
       <c r="C155" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D155" s="2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>24</v>
       </c>
-      <c r="B156" t="str">
-        <f t="shared" si="2"/>
-        <v>Diamond of Balance +13</v>
-      </c>
       <c r="C156" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D156" s="2">
         <v>13</v>
       </c>
       <c r="E156" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>24</v>
-      </c>
-      <c r="B157" t="str">
-        <f t="shared" si="2"/>
-        <v>Diamond of Bluff +13</v>
+        <v>28</v>
       </c>
       <c r="C157" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D157" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E157" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>24</v>
-      </c>
-      <c r="B158" t="str">
-        <f t="shared" si="2"/>
-        <v>Diamond of Concentration +13</v>
+        <v>4</v>
       </c>
       <c r="C158" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D158" s="2">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E158" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>24</v>
-      </c>
-      <c r="B159" t="str">
-        <f t="shared" si="2"/>
-        <v>Diamond of Diplomacy +13</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D159" s="2">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E159" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>24</v>
-      </c>
-      <c r="B160" t="str">
-        <f t="shared" si="2"/>
-        <v>Diamond of Disable Device +13</v>
+        <v>12</v>
       </c>
       <c r="C160" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D160" s="2">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E160" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>24</v>
-      </c>
-      <c r="B161" t="str">
-        <f t="shared" si="2"/>
-        <v>Diamond of Haggle +13</v>
+        <v>16</v>
       </c>
       <c r="C161" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D161" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E161" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>24</v>
-      </c>
-      <c r="B162" t="str">
-        <f t="shared" si="2"/>
-        <v>Diamond of Heal +13</v>
+        <v>20</v>
       </c>
       <c r="C162" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D162" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>24</v>
       </c>
-      <c r="B163" t="str">
-        <f t="shared" si="2"/>
-        <v>Diamond of Hide +13</v>
-      </c>
       <c r="C163" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D163" s="2">
         <v>13</v>
       </c>
       <c r="E163" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>24</v>
-      </c>
-      <c r="B164" t="str">
-        <f t="shared" si="2"/>
-        <v>Diamond of Intimidate +13</v>
+        <v>28</v>
       </c>
       <c r="C164" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D164" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E164" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>24</v>
-      </c>
-      <c r="B165" t="str">
-        <f t="shared" si="2"/>
-        <v>Diamond of Jump +13</v>
+        <v>4</v>
       </c>
       <c r="C165" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D165" s="2">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E165" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>24</v>
-      </c>
-      <c r="B166" t="str">
-        <f t="shared" si="2"/>
-        <v>Diamond of Listen +13</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D166" s="2">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E166" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>24</v>
-      </c>
-      <c r="B167" t="str">
-        <f t="shared" si="2"/>
-        <v>Diamond of Move Silently +13</v>
+        <v>12</v>
       </c>
       <c r="C167" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D167" s="2">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E167" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>24</v>
-      </c>
-      <c r="B168" t="str">
-        <f t="shared" si="2"/>
-        <v>Diamond of Open Lock +13</v>
+        <v>16</v>
       </c>
       <c r="C168" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D168" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E168" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>24</v>
-      </c>
-      <c r="B169" t="str">
-        <f t="shared" si="2"/>
-        <v>Diamond of Perform +13</v>
+        <v>20</v>
       </c>
       <c r="C169" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D169" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>24</v>
       </c>
-      <c r="B170" t="str">
-        <f t="shared" si="2"/>
-        <v>Diamond of Repair +13</v>
-      </c>
       <c r="C170" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D170" s="2">
         <v>13</v>
       </c>
       <c r="E170" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>24</v>
-      </c>
-      <c r="B171" t="str">
-        <f t="shared" si="2"/>
-        <v>Diamond of Search +13</v>
+        <v>28</v>
       </c>
       <c r="C171" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D171" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E171" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>24</v>
-      </c>
-      <c r="B172" t="str">
-        <f t="shared" si="2"/>
-        <v>Diamond of Spellcraft +13</v>
+        <v>4</v>
       </c>
       <c r="C172" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D172" s="2">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E172" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>24</v>
-      </c>
-      <c r="B173" t="str">
-        <f t="shared" si="2"/>
-        <v>Diamond of Spot +13</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
         <v>41</v>
       </c>
       <c r="D173" s="2">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E173" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>24</v>
-      </c>
-      <c r="B174" t="str">
-        <f t="shared" si="2"/>
-        <v>Diamond of Swim +13</v>
+        <v>12</v>
       </c>
       <c r="C174" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D174" s="2">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E174" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>24</v>
-      </c>
-      <c r="B175" t="str">
-        <f t="shared" si="2"/>
-        <v>Diamond of Tumble +13</v>
+        <v>16</v>
       </c>
       <c r="C175" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D175" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E175" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>28</v>
-      </c>
-      <c r="B176" t="str">
-        <f t="shared" si="2"/>
-        <v>Diamond of Strength +8</v>
+        <v>20</v>
       </c>
       <c r="C176" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="D176" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>28</v>
-      </c>
-      <c r="B177" t="str">
-        <f t="shared" si="2"/>
-        <v>Diamond of Dexterity +8</v>
+        <v>24</v>
       </c>
       <c r="C177" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D177" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E177" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>28</v>
       </c>
-      <c r="B178" t="str">
-        <f t="shared" si="2"/>
-        <v>Diamond of Constitution +8</v>
-      </c>
       <c r="C178" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D178" s="2">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E178" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>28</v>
-      </c>
-      <c r="B179" t="str">
-        <f t="shared" si="2"/>
-        <v>Diamond of Intelligence +8</v>
+        <v>0</v>
       </c>
       <c r="C179" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D179" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E179" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>28</v>
-      </c>
-      <c r="B180" t="str">
-        <f t="shared" si="2"/>
-        <v>Diamond of Wisdom +8</v>
+        <v>4</v>
       </c>
       <c r="C180" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D180" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E180" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>28</v>
-      </c>
-      <c r="B181" t="str">
-        <f t="shared" si="2"/>
-        <v>Diamond of Charisma +8</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D181" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E181" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>28</v>
-      </c>
-      <c r="B182" t="str">
-        <f t="shared" si="2"/>
-        <v>Diamond of Balance +15</v>
+        <v>12</v>
       </c>
       <c r="C182" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D182" s="2">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E182" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>28</v>
-      </c>
-      <c r="B183" t="str">
-        <f t="shared" si="2"/>
-        <v>Diamond of Bluff +15</v>
+        <v>16</v>
       </c>
       <c r="C183" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D183" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E183" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>28</v>
-      </c>
-      <c r="B184" t="str">
-        <f t="shared" si="2"/>
-        <v>Diamond of Concentration +15</v>
+        <v>20</v>
       </c>
       <c r="C184" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D184" s="2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E184" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>28</v>
-      </c>
-      <c r="B185" t="str">
-        <f t="shared" si="2"/>
-        <v>Diamond of Diplomacy +15</v>
+        <v>24</v>
       </c>
       <c r="C185" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D185" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E185" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>28</v>
-      </c>
-      <c r="B186" t="str">
-        <f t="shared" si="2"/>
-        <v>Diamond of Disable Device +15</v>
+        <v>24</v>
       </c>
       <c r="C186" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D186" s="2">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E186" t="s">
-        <v>98</v>
+        <v>201</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>28</v>
       </c>
-      <c r="B187" t="str">
-        <f t="shared" si="2"/>
-        <v>Diamond of Haggle +15</v>
-      </c>
       <c r="C187" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D187" s="2">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E187" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>28</v>
-      </c>
-      <c r="B188" t="str">
-        <f t="shared" si="2"/>
-        <v>Diamond of Heal +15</v>
+        <v>4</v>
       </c>
       <c r="C188" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D188" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E188" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>28</v>
-      </c>
-      <c r="B189" t="str">
-        <f t="shared" si="2"/>
-        <v>Diamond of Hide +15</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D189" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E189" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>28</v>
-      </c>
-      <c r="B190" t="str">
-        <f t="shared" si="2"/>
-        <v>Diamond of Intimidate +15</v>
+        <v>12</v>
       </c>
       <c r="C190" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D190" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E190" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>28</v>
-      </c>
-      <c r="B191" t="str">
-        <f t="shared" si="2"/>
-        <v>Diamond of Jump +15</v>
+        <v>16</v>
       </c>
       <c r="C191" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D191" s="2">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E191" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>28</v>
-      </c>
-      <c r="B192" t="str">
-        <f t="shared" si="2"/>
-        <v>Diamond of Listen +15</v>
+        <v>20</v>
       </c>
       <c r="C192" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D192" s="2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E192" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>28</v>
-      </c>
-      <c r="B193" t="str">
-        <f t="shared" si="2"/>
-        <v>Diamond of Move Silently +15</v>
+        <v>24</v>
       </c>
       <c r="C193" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D193" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E193" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>28</v>
       </c>
-      <c r="B194" t="str">
-        <f t="shared" si="2"/>
-        <v>Diamond of Open Lock +15</v>
-      </c>
       <c r="C194" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D194" s="2">
         <v>15</v>
       </c>
       <c r="E194" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>28</v>
-      </c>
-      <c r="B195" t="str">
-        <f t="shared" ref="B195:B201" si="3">_xlfn.CONCAT("Diamond of ",IF(E195="Insight","Insightful ",""),C195," +",D195)</f>
-        <v>Diamond of Perform +15</v>
+        <v>4</v>
       </c>
       <c r="C195" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D195" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E195" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>28</v>
-      </c>
-      <c r="B196" t="str">
-        <f t="shared" si="3"/>
-        <v>Diamond of Repair +15</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D196" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E196" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>28</v>
-      </c>
-      <c r="B197" t="str">
-        <f t="shared" si="3"/>
-        <v>Diamond of Search +15</v>
+        <v>12</v>
       </c>
       <c r="C197" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D197" s="2">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E197" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>28</v>
-      </c>
-      <c r="B198" t="str">
-        <f t="shared" si="3"/>
-        <v>Diamond of Spellcraft +15</v>
+        <v>16</v>
       </c>
       <c r="C198" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D198" s="2">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E198" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>28</v>
-      </c>
-      <c r="B199" t="str">
-        <f t="shared" si="3"/>
-        <v>Diamond of Spot +15</v>
+        <v>20</v>
       </c>
       <c r="C199" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D199" s="2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E199" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>28</v>
-      </c>
-      <c r="B200" t="str">
-        <f t="shared" si="3"/>
-        <v>Diamond of Swim +15</v>
+        <v>24</v>
       </c>
       <c r="C200" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D200" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E200" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>28</v>
       </c>
-      <c r="B201" t="str">
-        <f t="shared" si="3"/>
-        <v>Diamond of Tumble +15</v>
-      </c>
       <c r="C201" t="s">
         <v>43</v>
       </c>
@@ -8766,266 +8039,225 @@
         <v>15</v>
       </c>
       <c r="E201" t="s">
-        <v>98</v>
+        <v>224</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>22</v>
-      </c>
-      <c r="B202" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="C202" t="s">
-        <v>20</v>
-      </c>
-      <c r="D202">
-        <v>2</v>
+        <v>21</v>
+      </c>
+      <c r="D202" s="2">
+        <v>1</v>
       </c>
       <c r="E202" t="s">
-        <v>214</v>
+        <v>97</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>22</v>
-      </c>
-      <c r="B203" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="C203" t="s">
         <v>21</v>
       </c>
-      <c r="D203">
+      <c r="D203" s="2">
         <v>2</v>
       </c>
       <c r="E203" t="s">
-        <v>214</v>
+        <v>97</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>11</v>
-      </c>
-      <c r="B204" t="s">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
-        <v>213</v>
-      </c>
-      <c r="D204">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="D204" s="2">
+        <v>3</v>
       </c>
       <c r="E204" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>14</v>
-      </c>
-      <c r="B205" t="s">
-        <v>215</v>
+        <v>12</v>
       </c>
       <c r="C205" t="s">
-        <v>17</v>
-      </c>
-      <c r="D205">
-        <v>3</v>
+        <v>21</v>
+      </c>
+      <c r="D205" s="2">
+        <v>4</v>
       </c>
       <c r="E205" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>14</v>
-      </c>
-      <c r="B206" t="s">
-        <v>215</v>
+        <v>16</v>
       </c>
       <c r="C206" t="s">
-        <v>18</v>
-      </c>
-      <c r="D206">
-        <v>3</v>
+        <v>21</v>
+      </c>
+      <c r="D206" s="2">
+        <v>5</v>
       </c>
       <c r="E206" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>14</v>
-      </c>
-      <c r="B207" t="s">
-        <v>215</v>
+        <v>20</v>
       </c>
       <c r="C207" t="s">
-        <v>19</v>
-      </c>
-      <c r="D207">
-        <v>3</v>
+        <v>21</v>
+      </c>
+      <c r="D207" s="2">
+        <v>6</v>
       </c>
       <c r="E207" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>14</v>
-      </c>
-      <c r="B208" t="s">
-        <v>215</v>
+        <v>24</v>
       </c>
       <c r="C208" t="s">
-        <v>20</v>
-      </c>
-      <c r="D208">
-        <v>3</v>
+        <v>21</v>
+      </c>
+      <c r="D208" s="2">
+        <v>7</v>
       </c>
       <c r="E208" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>14</v>
-      </c>
-      <c r="B209" t="s">
-        <v>215</v>
+        <v>24</v>
       </c>
       <c r="C209" t="s">
         <v>21</v>
       </c>
-      <c r="D209">
-        <v>3</v>
+      <c r="D209" s="2">
+        <v>2</v>
       </c>
       <c r="E209" t="s">
-        <v>98</v>
+        <v>201</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>14</v>
-      </c>
-      <c r="B210" t="s">
-        <v>215</v>
+        <v>28</v>
       </c>
       <c r="C210" t="s">
-        <v>22</v>
-      </c>
-      <c r="D210">
-        <v>3</v>
+        <v>21</v>
+      </c>
+      <c r="D210" s="2">
+        <v>8</v>
       </c>
       <c r="E210" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>25</v>
-      </c>
-      <c r="B211" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="C211" t="s">
-        <v>17</v>
-      </c>
-      <c r="D211">
+        <v>22</v>
+      </c>
+      <c r="D211" s="2">
         <v>1</v>
       </c>
       <c r="E211" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>25</v>
-      </c>
-      <c r="B212" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="C212" t="s">
-        <v>18</v>
-      </c>
-      <c r="D212">
+        <v>19</v>
+      </c>
+      <c r="D212" s="2">
         <v>1</v>
       </c>
       <c r="E212" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>25</v>
-      </c>
-      <c r="B213" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="C213" t="s">
-        <v>19</v>
-      </c>
-      <c r="D213">
+        <v>18</v>
+      </c>
+      <c r="D213" s="2">
         <v>1</v>
       </c>
       <c r="E213" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>25</v>
-      </c>
-      <c r="B214" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="C214" t="s">
         <v>20</v>
       </c>
-      <c r="D214">
+      <c r="D214" s="2">
         <v>1</v>
       </c>
       <c r="E214" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>25</v>
-      </c>
-      <c r="B215" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="C215" t="s">
-        <v>21</v>
-      </c>
-      <c r="D215">
+        <v>17</v>
+      </c>
+      <c r="D215" s="2">
         <v>1</v>
       </c>
       <c r="E215" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>25</v>
-      </c>
-      <c r="B216" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="C216" t="s">
-        <v>22</v>
-      </c>
-      <c r="D216">
+        <v>21</v>
+      </c>
+      <c r="D216" s="2">
         <v>1</v>
       </c>
       <c r="E216" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E201"/>
+  <autoFilter ref="A1:E201">
+    <sortState ref="A2:E216">
+      <sortCondition ref="B1:B201"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data-builder/augments.xlsx
+++ b/data-builder/augments.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9675" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9675" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Yellow" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="111">
   <si>
     <t>Minimum Level</t>
   </si>
@@ -48,39 +48,15 @@
     <t>Feather Falling</t>
   </si>
   <si>
-    <t>Byeshk Damage Flag</t>
-  </si>
-  <si>
-    <t>Law Damage Flag</t>
-  </si>
-  <si>
-    <t>Chaos Damage Flag</t>
-  </si>
-  <si>
-    <t>Evil Damage Flag</t>
-  </si>
-  <si>
     <t>Blindness Immunity</t>
   </si>
   <si>
     <t>Fear Immunity</t>
   </si>
   <si>
-    <t>Good Damage Flag</t>
-  </si>
-  <si>
-    <t>Adamantine Damage Flag</t>
-  </si>
-  <si>
     <t>Deathblock</t>
   </si>
   <si>
-    <t>Cold Iron Damage Flag</t>
-  </si>
-  <si>
-    <t>Alchemical Silver Damage Flag</t>
-  </si>
-  <si>
     <t>Strength</t>
   </si>
   <si>
@@ -162,102 +138,6 @@
     <t>Tumble</t>
   </si>
   <si>
-    <t>1 Acid Damage on Hit</t>
-  </si>
-  <si>
-    <t>1 Cold Damage on Hit</t>
-  </si>
-  <si>
-    <t>1 Electric Damage on Hit</t>
-  </si>
-  <si>
-    <t>1 Fire Damage on Hit</t>
-  </si>
-  <si>
-    <t>1d2 Acid Damage on Hit</t>
-  </si>
-  <si>
-    <t>1d2 Cold Damage on Hit</t>
-  </si>
-  <si>
-    <t>1d2 Electric Damage on Hit</t>
-  </si>
-  <si>
-    <t>1d2 Fire Damage on Hit</t>
-  </si>
-  <si>
-    <t>1d3 Acid Damage on Hit</t>
-  </si>
-  <si>
-    <t>1d3 Cold Damage on Hit</t>
-  </si>
-  <si>
-    <t>1d3 Electric Damage on Hit</t>
-  </si>
-  <si>
-    <t>1d3 Fire Damage on Hit</t>
-  </si>
-  <si>
-    <t>1d4 Acid Damage on Hit</t>
-  </si>
-  <si>
-    <t>1d4 Cold Damage on Hit</t>
-  </si>
-  <si>
-    <t>1d4 Electric Damage on Hit</t>
-  </si>
-  <si>
-    <t>1d4 Fire Damage on Hit</t>
-  </si>
-  <si>
-    <t>1d6 Acid Damage on Hit</t>
-  </si>
-  <si>
-    <t>1d6 Cold Damage on Hit</t>
-  </si>
-  <si>
-    <t>1d6 Electric Damage on Hit</t>
-  </si>
-  <si>
-    <t>1d6 Fire Damage on Hit</t>
-  </si>
-  <si>
-    <t>1d8 Acid Damage on Hit</t>
-  </si>
-  <si>
-    <t>1d8 Cold Damage on Hit</t>
-  </si>
-  <si>
-    <t>1d8 Electric Damage on Hit</t>
-  </si>
-  <si>
-    <t>1d8 Fire Damage on Hit</t>
-  </si>
-  <si>
-    <t>1d10 Acid Damage on Hit</t>
-  </si>
-  <si>
-    <t>1d10 Cold Damage on Hit</t>
-  </si>
-  <si>
-    <t>1d10 Electric Damage on Hit</t>
-  </si>
-  <si>
-    <t>1d10 Fire Damage on Hit</t>
-  </si>
-  <si>
-    <t>2d6 Acid Damage on Hit</t>
-  </si>
-  <si>
-    <t>2d6 Cold Damage on Hit</t>
-  </si>
-  <si>
-    <t>2d6 Electric Damage on Hit</t>
-  </si>
-  <si>
-    <t>2d6 Fire Damage on Hit</t>
-  </si>
-  <si>
     <t>Cold Resistance</t>
   </si>
   <si>
@@ -363,276 +243,36 @@
     <t>2d6</t>
   </si>
   <si>
-    <t>30 Combustion</t>
-  </si>
-  <si>
     <t>Combustion</t>
   </si>
   <si>
-    <t>30 Corrosion</t>
-  </si>
-  <si>
     <t>Corrosion</t>
   </si>
   <si>
-    <t>30 Devotion</t>
-  </si>
-  <si>
     <t>Devotion</t>
   </si>
   <si>
-    <t>30 Spell PoweGlaciation</t>
-  </si>
-  <si>
     <t>Glaciation</t>
   </si>
   <si>
-    <t>30 Impulse</t>
-  </si>
-  <si>
     <t>Impulse</t>
   </si>
   <si>
-    <t>30 Magnetism</t>
-  </si>
-  <si>
     <t>Magnetism</t>
   </si>
   <si>
-    <t>30 Spell PoweNullification</t>
-  </si>
-  <si>
     <t>Nullification</t>
   </si>
   <si>
-    <t>30 Radiance</t>
-  </si>
-  <si>
     <t>Radiance</t>
   </si>
   <si>
-    <t>30 Reconstruction</t>
-  </si>
-  <si>
     <t>Reconstruction</t>
   </si>
   <si>
-    <t>30 Spell PoweResonance</t>
-  </si>
-  <si>
     <t>Resonance</t>
   </si>
   <si>
-    <t>42 Combustion</t>
-  </si>
-  <si>
-    <t>42 Corrosion</t>
-  </si>
-  <si>
-    <t>42 Devotion</t>
-  </si>
-  <si>
-    <t>42 Spell PoweGlaciation</t>
-  </si>
-  <si>
-    <t>42 Impulse</t>
-  </si>
-  <si>
-    <t>42 Magnetism</t>
-  </si>
-  <si>
-    <t>42 Spell PoweNullification</t>
-  </si>
-  <si>
-    <t>42 Radiance</t>
-  </si>
-  <si>
-    <t>42 Reconstruction</t>
-  </si>
-  <si>
-    <t>42 Spell PoweResonance</t>
-  </si>
-  <si>
-    <t>54 Combustion</t>
-  </si>
-  <si>
-    <t>54 Corrosion</t>
-  </si>
-  <si>
-    <t>54 Devotion</t>
-  </si>
-  <si>
-    <t>54 Spell PoweGlaciation</t>
-  </si>
-  <si>
-    <t>54 Impulse</t>
-  </si>
-  <si>
-    <t>54 Magnetism</t>
-  </si>
-  <si>
-    <t>54 Spell PoweNullification</t>
-  </si>
-  <si>
-    <t>54 Radiance</t>
-  </si>
-  <si>
-    <t>54 Reconstruction</t>
-  </si>
-  <si>
-    <t>54 Spell PoweResonance</t>
-  </si>
-  <si>
-    <t>66 Combustion</t>
-  </si>
-  <si>
-    <t>66 Corrosion</t>
-  </si>
-  <si>
-    <t>66 Devotion</t>
-  </si>
-  <si>
-    <t>66 Spell PoweGlaciation</t>
-  </si>
-  <si>
-    <t>66 Impulse</t>
-  </si>
-  <si>
-    <t>66 Magnetism</t>
-  </si>
-  <si>
-    <t>66 Spell PoweNullification</t>
-  </si>
-  <si>
-    <t>66 Radiance</t>
-  </si>
-  <si>
-    <t>66 Reconstruction</t>
-  </si>
-  <si>
-    <t>66 Spell PoweResonance</t>
-  </si>
-  <si>
-    <t>78 Combustion</t>
-  </si>
-  <si>
-    <t>78 Corrosion</t>
-  </si>
-  <si>
-    <t>78 Devotion</t>
-  </si>
-  <si>
-    <t>78 Spell PoweGlaciation</t>
-  </si>
-  <si>
-    <t>78 Impulse</t>
-  </si>
-  <si>
-    <t>78 Magnetism</t>
-  </si>
-  <si>
-    <t>78 Spell PoweNullification</t>
-  </si>
-  <si>
-    <t>78 Radiance</t>
-  </si>
-  <si>
-    <t>78 Reconstruction</t>
-  </si>
-  <si>
-    <t>78 Spell PoweResonance</t>
-  </si>
-  <si>
-    <t>90 Combustion</t>
-  </si>
-  <si>
-    <t>90 Corrosion</t>
-  </si>
-  <si>
-    <t>90 Devotion</t>
-  </si>
-  <si>
-    <t>90 Spell PoweGlaciation</t>
-  </si>
-  <si>
-    <t>90 Impulse</t>
-  </si>
-  <si>
-    <t>90 Magnetism</t>
-  </si>
-  <si>
-    <t>90 Spell PoweNullification</t>
-  </si>
-  <si>
-    <t>90 Radiance</t>
-  </si>
-  <si>
-    <t>90 Reconstruction</t>
-  </si>
-  <si>
-    <t>90 Spell PoweResonance</t>
-  </si>
-  <si>
-    <t>114 Combustion</t>
-  </si>
-  <si>
-    <t>114 Corrosion</t>
-  </si>
-  <si>
-    <t>114 Devotion</t>
-  </si>
-  <si>
-    <t>114 Spell PoweGlaciation</t>
-  </si>
-  <si>
-    <t>114 Impulse</t>
-  </si>
-  <si>
-    <t>114 Magnetism</t>
-  </si>
-  <si>
-    <t>114 Spell PoweNullification</t>
-  </si>
-  <si>
-    <t>114 Radiance</t>
-  </si>
-  <si>
-    <t>114 Reconstruction</t>
-  </si>
-  <si>
-    <t>114 Spell PoweResonance</t>
-  </si>
-  <si>
-    <t>138 Combustion</t>
-  </si>
-  <si>
-    <t>138 Corrosion</t>
-  </si>
-  <si>
-    <t>138 Devotion</t>
-  </si>
-  <si>
-    <t>138 Spell PoweGlaciation</t>
-  </si>
-  <si>
-    <t>138 Impulse</t>
-  </si>
-  <si>
-    <t>138 Magnetism</t>
-  </si>
-  <si>
-    <t>138 Spell PoweNullification</t>
-  </si>
-  <si>
-    <t>138 Radiance</t>
-  </si>
-  <si>
-    <t>138 Reconstruction</t>
-  </si>
-  <si>
-    <t>138 Spell PoweResonance</t>
-  </si>
-  <si>
     <t>Insight</t>
   </si>
   <si>
@@ -706,19 +346,40 @@
   </si>
   <si>
     <t>Physical Sheltering</t>
+  </si>
+  <si>
+    <t>The Master's Gift</t>
+  </si>
+  <si>
+    <t>Heroic Inspiration</t>
+  </si>
+  <si>
+    <t>Arcane Spell Failure</t>
+  </si>
+  <si>
+    <t>Armor Max Dex Bonus</t>
+  </si>
+  <si>
+    <t>bool</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -741,11 +402,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1052,7 +715,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1063,15 +726,14 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
-    </sheetView>
+    <sheetView topLeftCell="A49" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -1079,16 +741,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>202</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" t="s">
-        <v>86</v>
+        <v>45</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1096,13 +758,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2">
+        <v>47</v>
+      </c>
+      <c r="D2" s="5">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1110,13 +772,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3">
+        <v>36</v>
+      </c>
+      <c r="D3" s="5">
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -1124,13 +786,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4">
+        <v>37</v>
+      </c>
+      <c r="D4" s="5">
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1138,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5">
+        <v>38</v>
+      </c>
+      <c r="D5" s="5">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1152,13 +814,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6">
+        <v>48</v>
+      </c>
+      <c r="D6" s="5">
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1166,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.05</v>
+        <v>49</v>
+      </c>
+      <c r="D7" s="5">
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1180,13 +842,13 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8">
+        <v>47</v>
+      </c>
+      <c r="D8" s="5">
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1194,13 +856,13 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9">
+        <v>36</v>
+      </c>
+      <c r="D9" s="5">
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1208,13 +870,13 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10">
+        <v>37</v>
+      </c>
+      <c r="D10" s="5">
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1222,13 +884,13 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11">
+        <v>38</v>
+      </c>
+      <c r="D11" s="5">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1236,13 +898,13 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12">
+        <v>48</v>
+      </c>
+      <c r="D12" s="5">
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1252,11 +914,11 @@
       <c r="C13" t="s">
         <v>4</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="5">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1266,11 +928,11 @@
       <c r="C14" t="s">
         <v>5</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="5">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1278,13 +940,13 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15">
+        <v>50</v>
+      </c>
+      <c r="D15" s="5">
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1292,13 +954,13 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D16">
+        <v>51</v>
+      </c>
+      <c r="D16" s="5">
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1306,13 +968,13 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0.1</v>
+        <v>49</v>
+      </c>
+      <c r="D17" s="5">
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1320,13 +982,13 @@
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18">
+        <v>47</v>
+      </c>
+      <c r="D18" s="5">
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1334,13 +996,13 @@
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19">
+        <v>36</v>
+      </c>
+      <c r="D19" s="5">
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1348,13 +1010,13 @@
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20">
+        <v>37</v>
+      </c>
+      <c r="D20" s="5">
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1362,13 +1024,13 @@
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21">
+        <v>38</v>
+      </c>
+      <c r="D21" s="5">
         <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1376,13 +1038,13 @@
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22">
+        <v>48</v>
+      </c>
+      <c r="D22" s="5">
         <v>50</v>
       </c>
       <c r="E22" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1390,13 +1052,13 @@
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D23">
+        <v>50</v>
+      </c>
+      <c r="D23" s="5">
         <v>4</v>
       </c>
       <c r="E23" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1404,13 +1066,13 @@
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
-      </c>
-      <c r="D24">
+        <v>51</v>
+      </c>
+      <c r="D24" s="5">
         <v>4</v>
       </c>
       <c r="E24" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1418,13 +1080,13 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="D25" s="5">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1432,13 +1094,13 @@
         <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26">
+        <v>7</v>
+      </c>
+      <c r="D26" s="5">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1446,13 +1108,13 @@
         <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0.15</v>
+        <v>49</v>
+      </c>
+      <c r="D27" s="5">
+        <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1460,13 +1122,13 @@
         <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28">
+        <v>47</v>
+      </c>
+      <c r="D28" s="5">
         <v>20</v>
       </c>
       <c r="E28" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1474,13 +1136,13 @@
         <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29">
+        <v>36</v>
+      </c>
+      <c r="D29" s="5">
         <v>20</v>
       </c>
       <c r="E29" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1488,13 +1150,13 @@
         <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
-      </c>
-      <c r="D30">
+        <v>37</v>
+      </c>
+      <c r="D30" s="5">
         <v>20</v>
       </c>
       <c r="E30" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -1502,13 +1164,13 @@
         <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
-      </c>
-      <c r="D31">
+        <v>38</v>
+      </c>
+      <c r="D31" s="5">
         <v>20</v>
       </c>
       <c r="E31" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1516,13 +1178,13 @@
         <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
-      </c>
-      <c r="D32">
+        <v>48</v>
+      </c>
+      <c r="D32" s="5">
         <v>75</v>
       </c>
       <c r="E32" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1530,13 +1192,13 @@
         <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>90</v>
-      </c>
-      <c r="D33">
+        <v>50</v>
+      </c>
+      <c r="D33" s="5">
         <v>6</v>
       </c>
       <c r="E33" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -1544,13 +1206,13 @@
         <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>91</v>
-      </c>
-      <c r="D34">
+        <v>51</v>
+      </c>
+      <c r="D34" s="5">
         <v>6</v>
       </c>
       <c r="E34" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1558,13 +1220,13 @@
         <v>12</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35">
+        <v>8</v>
+      </c>
+      <c r="D35" s="5">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -1572,13 +1234,13 @@
         <v>12</v>
       </c>
       <c r="C36" t="s">
-        <v>89</v>
-      </c>
-      <c r="D36" s="1">
-        <v>0.2</v>
+        <v>49</v>
+      </c>
+      <c r="D36" s="5">
+        <v>20</v>
       </c>
       <c r="E36" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -1586,13 +1248,13 @@
         <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>87</v>
-      </c>
-      <c r="D37">
+        <v>47</v>
+      </c>
+      <c r="D37" s="5">
         <v>25</v>
       </c>
       <c r="E37" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1600,13 +1262,13 @@
         <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38">
+        <v>36</v>
+      </c>
+      <c r="D38" s="5">
         <v>25</v>
       </c>
       <c r="E38" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -1614,13 +1276,13 @@
         <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>77</v>
-      </c>
-      <c r="D39">
+        <v>37</v>
+      </c>
+      <c r="D39" s="5">
         <v>25</v>
       </c>
       <c r="E39" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -1628,13 +1290,13 @@
         <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>78</v>
-      </c>
-      <c r="D40">
+        <v>38</v>
+      </c>
+      <c r="D40" s="5">
         <v>25</v>
       </c>
       <c r="E40" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -1642,13 +1304,13 @@
         <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>88</v>
-      </c>
-      <c r="D41">
+        <v>48</v>
+      </c>
+      <c r="D41" s="5">
         <v>100</v>
       </c>
       <c r="E41" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -1656,13 +1318,13 @@
         <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>216</v>
-      </c>
-      <c r="D42">
+        <v>96</v>
+      </c>
+      <c r="D42" s="5">
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>222</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -1670,13 +1332,13 @@
         <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>217</v>
-      </c>
-      <c r="D43">
+        <v>97</v>
+      </c>
+      <c r="D43" s="5">
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>222</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -1684,13 +1346,13 @@
         <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>223</v>
-      </c>
-      <c r="D44">
+        <v>103</v>
+      </c>
+      <c r="D44" s="5">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>222</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -1698,13 +1360,13 @@
         <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>218</v>
-      </c>
-      <c r="D45">
+        <v>98</v>
+      </c>
+      <c r="D45" s="5">
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>222</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -1712,13 +1374,13 @@
         <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>219</v>
-      </c>
-      <c r="D46">
+        <v>99</v>
+      </c>
+      <c r="D46" s="5">
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>222</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1726,13 +1388,13 @@
         <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>220</v>
-      </c>
-      <c r="D47">
+        <v>100</v>
+      </c>
+      <c r="D47" s="5">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>222</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -1740,13 +1402,13 @@
         <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>221</v>
-      </c>
-      <c r="D48">
+        <v>101</v>
+      </c>
+      <c r="D48" s="5">
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>222</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -1754,13 +1416,13 @@
         <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>90</v>
-      </c>
-      <c r="D49">
+        <v>50</v>
+      </c>
+      <c r="D49" s="5">
         <v>8</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -1768,13 +1430,13 @@
         <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>91</v>
-      </c>
-      <c r="D50">
+        <v>51</v>
+      </c>
+      <c r="D50" s="5">
         <v>8</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -1782,13 +1444,13 @@
         <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>89</v>
-      </c>
-      <c r="D51" s="1">
-        <v>0.25</v>
+        <v>49</v>
+      </c>
+      <c r="D51" s="5">
+        <v>25</v>
       </c>
       <c r="E51" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -1796,13 +1458,13 @@
         <v>20</v>
       </c>
       <c r="C52" t="s">
-        <v>87</v>
-      </c>
-      <c r="D52">
+        <v>47</v>
+      </c>
+      <c r="D52" s="5">
         <v>30</v>
       </c>
       <c r="E52" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -1810,13 +1472,13 @@
         <v>20</v>
       </c>
       <c r="C53" t="s">
-        <v>76</v>
-      </c>
-      <c r="D53">
+        <v>36</v>
+      </c>
+      <c r="D53" s="5">
         <v>30</v>
       </c>
       <c r="E53" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -1824,13 +1486,13 @@
         <v>20</v>
       </c>
       <c r="C54" t="s">
-        <v>77</v>
-      </c>
-      <c r="D54">
+        <v>37</v>
+      </c>
+      <c r="D54" s="5">
         <v>30</v>
       </c>
       <c r="E54" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -1838,13 +1500,13 @@
         <v>20</v>
       </c>
       <c r="C55" t="s">
-        <v>78</v>
-      </c>
-      <c r="D55">
+        <v>38</v>
+      </c>
+      <c r="D55" s="5">
         <v>30</v>
       </c>
       <c r="E55" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -1852,13 +1514,13 @@
         <v>20</v>
       </c>
       <c r="C56" t="s">
-        <v>88</v>
-      </c>
-      <c r="D56">
+        <v>48</v>
+      </c>
+      <c r="D56" s="5">
         <v>150</v>
       </c>
       <c r="E56" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -1866,13 +1528,13 @@
         <v>20</v>
       </c>
       <c r="C57" t="s">
-        <v>90</v>
-      </c>
-      <c r="D57">
+        <v>50</v>
+      </c>
+      <c r="D57" s="5">
         <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -1880,13 +1542,13 @@
         <v>20</v>
       </c>
       <c r="C58" t="s">
-        <v>91</v>
-      </c>
-      <c r="D58">
+        <v>51</v>
+      </c>
+      <c r="D58" s="5">
         <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -1894,13 +1556,13 @@
         <v>20</v>
       </c>
       <c r="C59" t="s">
-        <v>89</v>
-      </c>
-      <c r="D59" s="1">
-        <v>0.3</v>
+        <v>49</v>
+      </c>
+      <c r="D59" s="5">
+        <v>30</v>
       </c>
       <c r="E59" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -1908,13 +1570,13 @@
         <v>24</v>
       </c>
       <c r="C60" t="s">
-        <v>87</v>
-      </c>
-      <c r="D60">
+        <v>47</v>
+      </c>
+      <c r="D60" s="5">
         <v>35</v>
       </c>
       <c r="E60" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -1922,13 +1584,13 @@
         <v>24</v>
       </c>
       <c r="C61" t="s">
-        <v>76</v>
-      </c>
-      <c r="D61">
+        <v>36</v>
+      </c>
+      <c r="D61" s="5">
         <v>35</v>
       </c>
       <c r="E61" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -1936,13 +1598,13 @@
         <v>24</v>
       </c>
       <c r="C62" t="s">
-        <v>77</v>
-      </c>
-      <c r="D62">
+        <v>37</v>
+      </c>
+      <c r="D62" s="5">
         <v>35</v>
       </c>
       <c r="E62" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -1950,13 +1612,13 @@
         <v>24</v>
       </c>
       <c r="C63" t="s">
-        <v>78</v>
-      </c>
-      <c r="D63">
+        <v>38</v>
+      </c>
+      <c r="D63" s="5">
         <v>35</v>
       </c>
       <c r="E63" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -1964,111 +1626,111 @@
         <v>24</v>
       </c>
       <c r="C64" t="s">
-        <v>88</v>
-      </c>
-      <c r="D64">
+        <v>48</v>
+      </c>
+      <c r="D64" s="5">
         <v>200</v>
       </c>
       <c r="E64" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C65" t="s">
-        <v>216</v>
-      </c>
-      <c r="D65">
+        <v>96</v>
+      </c>
+      <c r="D65" s="5">
         <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>222</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C66" t="s">
-        <v>217</v>
-      </c>
-      <c r="D66">
+        <v>97</v>
+      </c>
+      <c r="D66" s="5">
         <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>222</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C67" t="s">
-        <v>223</v>
-      </c>
-      <c r="D67">
+        <v>103</v>
+      </c>
+      <c r="D67" s="5">
         <v>2</v>
       </c>
       <c r="E67" t="s">
-        <v>222</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C68" t="s">
-        <v>218</v>
-      </c>
-      <c r="D68">
+        <v>98</v>
+      </c>
+      <c r="D68" s="5">
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>222</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C69" t="s">
-        <v>219</v>
-      </c>
-      <c r="D69">
+        <v>99</v>
+      </c>
+      <c r="D69" s="5">
         <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>222</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C70" t="s">
-        <v>220</v>
-      </c>
-      <c r="D70">
+        <v>100</v>
+      </c>
+      <c r="D70" s="5">
         <v>2</v>
       </c>
       <c r="E70" t="s">
-        <v>222</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C71" t="s">
-        <v>221</v>
-      </c>
-      <c r="D71">
+        <v>101</v>
+      </c>
+      <c r="D71" s="5">
         <v>2</v>
       </c>
       <c r="E71" t="s">
-        <v>222</v>
+        <v>102</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2076,13 +1738,13 @@
         <v>28</v>
       </c>
       <c r="C72" t="s">
-        <v>87</v>
-      </c>
-      <c r="D72">
+        <v>47</v>
+      </c>
+      <c r="D72" s="5">
         <v>40</v>
       </c>
       <c r="E72" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2090,13 +1752,13 @@
         <v>28</v>
       </c>
       <c r="C73" t="s">
-        <v>76</v>
-      </c>
-      <c r="D73">
+        <v>36</v>
+      </c>
+      <c r="D73" s="5">
         <v>40</v>
       </c>
       <c r="E73" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2104,13 +1766,13 @@
         <v>28</v>
       </c>
       <c r="C74" t="s">
-        <v>77</v>
-      </c>
-      <c r="D74">
+        <v>37</v>
+      </c>
+      <c r="D74" s="5">
         <v>40</v>
       </c>
       <c r="E74" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -2118,13 +1780,13 @@
         <v>28</v>
       </c>
       <c r="C75" t="s">
-        <v>78</v>
-      </c>
-      <c r="D75">
+        <v>38</v>
+      </c>
+      <c r="D75" s="5">
         <v>40</v>
       </c>
       <c r="E75" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2132,13 +1794,13 @@
         <v>28</v>
       </c>
       <c r="C76" t="s">
-        <v>88</v>
-      </c>
-      <c r="D76">
+        <v>48</v>
+      </c>
+      <c r="D76" s="5">
         <v>250</v>
       </c>
       <c r="E76" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2146,16 +1808,16 @@
         <v>25</v>
       </c>
       <c r="B77" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="C77" t="s">
-        <v>87</v>
-      </c>
-      <c r="D77">
+        <v>47</v>
+      </c>
+      <c r="D77" s="5">
         <v>30</v>
       </c>
       <c r="E77" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2163,16 +1825,16 @@
         <v>25</v>
       </c>
       <c r="B78" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="C78" t="s">
-        <v>76</v>
-      </c>
-      <c r="D78">
+        <v>36</v>
+      </c>
+      <c r="D78" s="5">
         <v>30</v>
       </c>
       <c r="E78" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -2180,16 +1842,16 @@
         <v>25</v>
       </c>
       <c r="B79" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="C79" t="s">
-        <v>77</v>
-      </c>
-      <c r="D79">
+        <v>37</v>
+      </c>
+      <c r="D79" s="5">
         <v>30</v>
       </c>
       <c r="E79" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -2197,16 +1859,16 @@
         <v>25</v>
       </c>
       <c r="B80" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="C80" t="s">
-        <v>78</v>
-      </c>
-      <c r="D80">
+        <v>38</v>
+      </c>
+      <c r="D80" s="5">
         <v>30</v>
       </c>
       <c r="E80" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -2214,16 +1876,16 @@
         <v>20</v>
       </c>
       <c r="B81" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="C81" t="s">
-        <v>92</v>
-      </c>
-      <c r="D81">
+        <v>52</v>
+      </c>
+      <c r="D81" s="5">
         <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2235,10 +1897,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2258,823 +1920,713 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" t="str">
-        <f>_xlfn.CONCAT("Topaz of ",C2,IF(D2=1,""," +"),IF(D2=1,"",IF(C2="Fortification",D2*100,D2)),IF(C2="Fortification","%",""))</f>
-        <v>Topaz of Natural Armor</v>
-      </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
-      <c r="B3" t="str">
-        <f t="shared" ref="B3:B46" si="0">_xlfn.CONCAT("Topaz of ",C3,IF(D3=1,""," +"),IF(D3=1,"",IF(C3="Fortification",D3*100,D3)),IF(C3="Fortification","%",""))</f>
-        <v>Topaz of Protection</v>
-      </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
-      <c r="B4" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Resistance</v>
-      </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
-      <c r="B5" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
       <c r="C5" t="s">
-        <v>225</v>
+        <v>105</v>
       </c>
       <c r="D5" s="2">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
-      <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Fortification +25%</v>
-      </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="D6" s="1">
         <v>0.25</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
-      <c r="B7" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Hit Points +5</v>
-      </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Natural Armor +2</v>
-      </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4</v>
       </c>
-      <c r="B9" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Protection +2</v>
-      </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4</v>
       </c>
-      <c r="B10" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Resistance +2</v>
-      </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="D10" s="2">
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>4</v>
       </c>
-      <c r="B11" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
       <c r="C11" t="s">
-        <v>225</v>
+        <v>105</v>
       </c>
       <c r="D11" s="2">
         <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>4</v>
       </c>
-      <c r="B12" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Fortification +75%</v>
-      </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="D12" s="1">
         <v>0.75</v>
       </c>
       <c r="E12" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>4</v>
       </c>
-      <c r="B13" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Hit Points +10</v>
-      </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="D13">
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>8</v>
       </c>
-      <c r="B14" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Natural Armor +3</v>
-      </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="D14">
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>8</v>
       </c>
-      <c r="B15" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Protection +3</v>
-      </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>8</v>
       </c>
-      <c r="B16" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Resistance +3</v>
-      </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="D16" s="2">
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>8</v>
       </c>
-      <c r="B17" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
       <c r="C17" t="s">
-        <v>225</v>
+        <v>105</v>
       </c>
       <c r="D17" s="2">
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>8</v>
       </c>
-      <c r="B18" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Fortification%</v>
-      </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>8</v>
       </c>
-      <c r="B19" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Hit Points +15</v>
-      </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="D19">
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>12</v>
       </c>
-      <c r="B20" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Natural Armor +4</v>
-      </c>
       <c r="C20" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="D20">
         <v>4</v>
       </c>
       <c r="E20" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>12</v>
       </c>
-      <c r="B21" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Protection +4</v>
-      </c>
       <c r="C21" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="D21">
         <v>4</v>
       </c>
       <c r="E21" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>12</v>
       </c>
-      <c r="B22" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Resistance +4</v>
-      </c>
       <c r="C22" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="D22" s="2">
         <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>12</v>
       </c>
-      <c r="B23" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
       <c r="C23" t="s">
-        <v>225</v>
+        <v>105</v>
       </c>
       <c r="D23" s="2">
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>12</v>
       </c>
-      <c r="B24" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Good Luck</v>
-      </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>12</v>
       </c>
-      <c r="B25" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Hit Points +20</v>
-      </c>
       <c r="C25" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="D25">
         <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>16</v>
       </c>
-      <c r="B26" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Natural Armor +5</v>
-      </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="D26">
         <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>16</v>
       </c>
-      <c r="B27" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Protection +5</v>
-      </c>
       <c r="C27" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="D27">
         <v>5</v>
       </c>
       <c r="E27" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>16</v>
       </c>
-      <c r="B28" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Resistance +5</v>
-      </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="D28" s="2">
         <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>16</v>
       </c>
-      <c r="B29" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
       <c r="C29" t="s">
-        <v>225</v>
+        <v>105</v>
       </c>
       <c r="D29" s="2">
         <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>16</v>
       </c>
-      <c r="B30" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Hit Points +25</v>
-      </c>
       <c r="C30" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="D30">
         <v>25</v>
       </c>
       <c r="E30" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>20</v>
       </c>
-      <c r="B31" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Natural Armor +6</v>
-      </c>
       <c r="C31" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="D31">
         <v>6</v>
       </c>
       <c r="E31" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>20</v>
       </c>
-      <c r="B32" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Protection +6</v>
-      </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="D32">
         <v>6</v>
       </c>
       <c r="E32" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>20</v>
       </c>
-      <c r="B33" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Resistance +6</v>
-      </c>
       <c r="C33" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="D33" s="2">
         <v>6</v>
       </c>
       <c r="E33" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>20</v>
       </c>
-      <c r="B34" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
       <c r="C34" t="s">
-        <v>225</v>
+        <v>105</v>
       </c>
       <c r="D34" s="2">
         <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>20</v>
       </c>
-      <c r="B35" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Good Luck +2</v>
-      </c>
       <c r="C35" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="D35">
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>20</v>
       </c>
-      <c r="B36" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Hit Points +30</v>
-      </c>
       <c r="C36" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="D36">
         <v>30</v>
       </c>
       <c r="E36" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>24</v>
       </c>
-      <c r="B37" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Natural Armor +7</v>
-      </c>
       <c r="C37" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="D37">
         <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>24</v>
       </c>
-      <c r="B38" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Protection +7</v>
-      </c>
       <c r="C38" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="D38">
         <v>7</v>
       </c>
       <c r="E38" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>24</v>
       </c>
-      <c r="B39" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Resistance +7</v>
-      </c>
       <c r="C39" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="D39" s="2">
         <v>7</v>
       </c>
       <c r="E39" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>24</v>
       </c>
-      <c r="B40" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
       <c r="C40" t="s">
-        <v>225</v>
+        <v>105</v>
       </c>
       <c r="D40" s="2">
         <v>14</v>
       </c>
       <c r="E40" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>24</v>
       </c>
-      <c r="B41" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Hit Points +35</v>
-      </c>
       <c r="C41" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="D41">
         <v>35</v>
       </c>
       <c r="E41" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>28</v>
       </c>
-      <c r="B42" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Natural Armor +8</v>
-      </c>
       <c r="C42" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="D42">
         <v>8</v>
       </c>
       <c r="E42" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>28</v>
       </c>
-      <c r="B43" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Protection +8</v>
-      </c>
       <c r="C43" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="D43">
         <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>28</v>
       </c>
-      <c r="B44" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Resistance +8</v>
-      </c>
       <c r="C44" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="D44" s="2">
         <v>8</v>
       </c>
       <c r="E44" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>28</v>
       </c>
-      <c r="B45" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
-      </c>
       <c r="C45" t="s">
-        <v>225</v>
+        <v>105</v>
       </c>
       <c r="D45" s="2">
         <v>16</v>
       </c>
       <c r="E45" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>28</v>
       </c>
-      <c r="B46" t="str">
-        <f t="shared" si="0"/>
-        <v>Topaz of Hit Points +40</v>
-      </c>
       <c r="C46" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="D46">
         <v>40</v>
       </c>
       <c r="E46" t="s">
-        <v>97</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>12</v>
+      </c>
+      <c r="C47" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47" s="5">
+        <v>5</v>
+      </c>
+      <c r="E47" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>16</v>
+      </c>
+      <c r="C48" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" s="5">
+        <v>10</v>
+      </c>
+      <c r="E48" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>20</v>
+      </c>
+      <c r="C49" t="s">
+        <v>108</v>
+      </c>
+      <c r="D49" s="5">
+        <v>15</v>
+      </c>
+      <c r="E49" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>12</v>
+      </c>
+      <c r="C50" t="s">
+        <v>109</v>
+      </c>
+      <c r="D50" s="5">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>20</v>
+      </c>
+      <c r="C51" t="s">
+        <v>109</v>
+      </c>
+      <c r="D51" s="5">
+        <v>2</v>
+      </c>
+      <c r="E51" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -3088,8 +2640,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A122" sqref="A122:XFD122"/>
+    <sheetView topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3108,2053 +2660,1703 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
-        <v>45</v>
-      </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
-        <v>46</v>
-      </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>111</v>
-      </c>
+      <c r="B6" s="3"/>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="D6">
         <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>113</v>
-      </c>
+      <c r="B7" s="3"/>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="D7">
         <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>115</v>
-      </c>
+      <c r="B8" s="3"/>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="D8">
         <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>117</v>
-      </c>
+      <c r="B9" s="3"/>
       <c r="C9" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="D9">
         <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>119</v>
-      </c>
+      <c r="B10" s="3"/>
       <c r="C10" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="D10">
         <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>121</v>
-      </c>
+      <c r="B11" s="3"/>
       <c r="C11" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="D11">
         <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>123</v>
-      </c>
+      <c r="B12" s="3"/>
       <c r="C12" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="D12">
         <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>0</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>125</v>
-      </c>
+      <c r="B13" s="3"/>
       <c r="C13" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="D13">
         <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>127</v>
-      </c>
+      <c r="B14" s="3"/>
       <c r="C14" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="D14">
         <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>129</v>
-      </c>
+      <c r="B15" s="3"/>
       <c r="C15" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="D15">
         <v>30</v>
       </c>
       <c r="E15" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>4</v>
       </c>
-      <c r="B16" t="s">
-        <v>48</v>
-      </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="E16" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4</v>
       </c>
-      <c r="B17" t="s">
-        <v>49</v>
-      </c>
       <c r="C17" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="E17" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>4</v>
       </c>
-      <c r="B18" t="s">
-        <v>50</v>
-      </c>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="E18" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>4</v>
       </c>
-      <c r="B19" t="s">
-        <v>51</v>
-      </c>
       <c r="C19" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="E19" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>4</v>
       </c>
-      <c r="B20" t="s">
-        <v>131</v>
-      </c>
       <c r="C20" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="D20">
         <v>42</v>
       </c>
       <c r="E20" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>4</v>
       </c>
-      <c r="B21" t="s">
-        <v>132</v>
-      </c>
       <c r="C21" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="D21">
         <v>42</v>
       </c>
       <c r="E21" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>4</v>
       </c>
-      <c r="B22" t="s">
-        <v>133</v>
-      </c>
       <c r="C22" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="D22">
         <v>42</v>
       </c>
       <c r="E22" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4</v>
       </c>
-      <c r="B23" t="s">
-        <v>134</v>
-      </c>
       <c r="C23" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="D23">
         <v>42</v>
       </c>
       <c r="E23" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>4</v>
       </c>
-      <c r="B24" t="s">
-        <v>135</v>
-      </c>
       <c r="C24" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="D24">
         <v>42</v>
       </c>
       <c r="E24" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>4</v>
       </c>
-      <c r="B25" t="s">
-        <v>136</v>
-      </c>
       <c r="C25" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="D25">
         <v>42</v>
       </c>
       <c r="E25" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>4</v>
       </c>
-      <c r="B26" t="s">
-        <v>137</v>
-      </c>
       <c r="C26" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="D26">
         <v>42</v>
       </c>
       <c r="E26" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>4</v>
       </c>
-      <c r="B27" t="s">
-        <v>138</v>
-      </c>
       <c r="C27" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="D27">
         <v>42</v>
       </c>
       <c r="E27" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>4</v>
       </c>
-      <c r="B28" t="s">
-        <v>139</v>
-      </c>
       <c r="C28" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="D28">
         <v>42</v>
       </c>
       <c r="E28" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>4</v>
       </c>
-      <c r="B29" t="s">
-        <v>140</v>
-      </c>
       <c r="C29" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="D29">
         <v>42</v>
       </c>
       <c r="E29" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>8</v>
       </c>
-      <c r="B30" t="s">
-        <v>52</v>
-      </c>
       <c r="C30" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D30" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="E30" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>8</v>
       </c>
-      <c r="B31" t="s">
-        <v>53</v>
-      </c>
       <c r="C31" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="D31" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="E31" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>8</v>
       </c>
-      <c r="B32" t="s">
-        <v>54</v>
-      </c>
       <c r="C32" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="D32" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="E32" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>8</v>
       </c>
-      <c r="B33" t="s">
-        <v>55</v>
-      </c>
       <c r="C33" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="D33" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="E33" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>8</v>
       </c>
-      <c r="B34" t="s">
-        <v>6</v>
-      </c>
       <c r="C34" t="s">
-        <v>203</v>
+        <v>83</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>8</v>
       </c>
-      <c r="B35" t="s">
-        <v>7</v>
-      </c>
       <c r="C35" t="s">
-        <v>204</v>
+        <v>84</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>8</v>
       </c>
-      <c r="B36" t="s">
-        <v>8</v>
-      </c>
       <c r="C36" t="s">
-        <v>205</v>
+        <v>85</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>8</v>
       </c>
-      <c r="B37" t="s">
-        <v>9</v>
-      </c>
       <c r="C37" t="s">
-        <v>206</v>
+        <v>86</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>8</v>
       </c>
-      <c r="B38" t="s">
-        <v>141</v>
-      </c>
       <c r="C38" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="D38">
         <v>54</v>
       </c>
       <c r="E38" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>8</v>
       </c>
-      <c r="B39" t="s">
-        <v>142</v>
-      </c>
       <c r="C39" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="D39">
         <v>54</v>
       </c>
       <c r="E39" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>8</v>
       </c>
-      <c r="B40" t="s">
-        <v>143</v>
-      </c>
       <c r="C40" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="D40">
         <v>54</v>
       </c>
       <c r="E40" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>8</v>
       </c>
-      <c r="B41" t="s">
-        <v>144</v>
-      </c>
       <c r="C41" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="D41">
         <v>54</v>
       </c>
       <c r="E41" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>8</v>
       </c>
-      <c r="B42" t="s">
-        <v>145</v>
-      </c>
       <c r="C42" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="D42">
         <v>54</v>
       </c>
       <c r="E42" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>8</v>
       </c>
-      <c r="B43" t="s">
-        <v>146</v>
-      </c>
       <c r="C43" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="D43">
         <v>54</v>
       </c>
       <c r="E43" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>8</v>
       </c>
-      <c r="B44" t="s">
-        <v>147</v>
-      </c>
       <c r="C44" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="D44">
         <v>54</v>
       </c>
       <c r="E44" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>8</v>
       </c>
-      <c r="B45" t="s">
-        <v>148</v>
-      </c>
       <c r="C45" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="D45">
         <v>54</v>
       </c>
       <c r="E45" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>8</v>
       </c>
-      <c r="B46" t="s">
-        <v>149</v>
-      </c>
       <c r="C46" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="D46">
         <v>54</v>
       </c>
       <c r="E46" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>8</v>
       </c>
-      <c r="B47" t="s">
-        <v>150</v>
-      </c>
       <c r="C47" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="D47">
         <v>54</v>
       </c>
       <c r="E47" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>12</v>
       </c>
-      <c r="B48" t="s">
-        <v>56</v>
-      </c>
       <c r="C48" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D48" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="E48" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>12</v>
       </c>
-      <c r="B49" t="s">
-        <v>57</v>
-      </c>
       <c r="C49" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="D49" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>12</v>
       </c>
-      <c r="B50" t="s">
-        <v>58</v>
-      </c>
       <c r="C50" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="D50" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>12</v>
       </c>
-      <c r="B51" t="s">
-        <v>59</v>
-      </c>
       <c r="C51" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="D51" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="E51" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>12</v>
       </c>
-      <c r="B52" t="s">
-        <v>12</v>
-      </c>
       <c r="C52" t="s">
-        <v>207</v>
+        <v>87</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>12</v>
       </c>
-      <c r="B53" t="s">
-        <v>13</v>
-      </c>
       <c r="C53" t="s">
-        <v>208</v>
+        <v>88</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>12</v>
       </c>
-      <c r="B54" t="s">
-        <v>151</v>
-      </c>
       <c r="C54" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="D54">
         <v>66</v>
       </c>
       <c r="E54" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>12</v>
       </c>
-      <c r="B55" t="s">
-        <v>152</v>
-      </c>
       <c r="C55" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="D55">
         <v>66</v>
       </c>
       <c r="E55" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>12</v>
       </c>
-      <c r="B56" t="s">
-        <v>153</v>
-      </c>
       <c r="C56" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="D56">
         <v>66</v>
       </c>
       <c r="E56" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>12</v>
       </c>
-      <c r="B57" t="s">
-        <v>154</v>
-      </c>
       <c r="C57" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="D57">
         <v>66</v>
       </c>
       <c r="E57" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>12</v>
       </c>
-      <c r="B58" t="s">
-        <v>155</v>
-      </c>
       <c r="C58" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="D58">
         <v>66</v>
       </c>
       <c r="E58" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>12</v>
       </c>
-      <c r="B59" t="s">
-        <v>156</v>
-      </c>
       <c r="C59" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="D59">
         <v>66</v>
       </c>
       <c r="E59" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>12</v>
       </c>
-      <c r="B60" t="s">
-        <v>157</v>
-      </c>
       <c r="C60" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="D60">
         <v>66</v>
       </c>
       <c r="E60" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>12</v>
       </c>
-      <c r="B61" t="s">
-        <v>158</v>
-      </c>
       <c r="C61" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="D61">
         <v>66</v>
       </c>
       <c r="E61" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>12</v>
       </c>
-      <c r="B62" t="s">
-        <v>159</v>
-      </c>
       <c r="C62" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="D62">
         <v>66</v>
       </c>
       <c r="E62" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>12</v>
       </c>
-      <c r="B63" t="s">
-        <v>160</v>
-      </c>
       <c r="C63" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="D63">
         <v>66</v>
       </c>
       <c r="E63" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>16</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>60</v>
       </c>
-      <c r="C64" t="s">
-        <v>100</v>
-      </c>
       <c r="D64" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="E64" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>16</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>61</v>
       </c>
-      <c r="C65" t="s">
-        <v>101</v>
-      </c>
       <c r="D65" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="E65" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>16</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>62</v>
       </c>
-      <c r="C66" t="s">
-        <v>102</v>
-      </c>
       <c r="D66" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="E66" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>16</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>63</v>
       </c>
-      <c r="C67" t="s">
-        <v>103</v>
-      </c>
       <c r="D67" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="E67" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>16</v>
       </c>
-      <c r="B68" t="s">
-        <v>15</v>
-      </c>
       <c r="C68" t="s">
-        <v>209</v>
+        <v>89</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>16</v>
       </c>
-      <c r="B69" t="s">
-        <v>16</v>
-      </c>
       <c r="C69" t="s">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="D69">
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>16</v>
       </c>
-      <c r="B70" t="s">
-        <v>161</v>
-      </c>
       <c r="C70" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="D70">
         <v>78</v>
       </c>
       <c r="E70" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>16</v>
       </c>
-      <c r="B71" t="s">
-        <v>162</v>
-      </c>
       <c r="C71" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="D71">
         <v>78</v>
       </c>
       <c r="E71" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>16</v>
       </c>
-      <c r="B72" t="s">
-        <v>163</v>
-      </c>
       <c r="C72" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="D72">
         <v>78</v>
       </c>
       <c r="E72" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>16</v>
       </c>
-      <c r="B73" t="s">
-        <v>164</v>
-      </c>
       <c r="C73" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="D73">
         <v>78</v>
       </c>
       <c r="E73" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>16</v>
       </c>
-      <c r="B74" t="s">
-        <v>165</v>
-      </c>
       <c r="C74" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="D74">
         <v>78</v>
       </c>
       <c r="E74" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>16</v>
       </c>
-      <c r="B75" t="s">
-        <v>166</v>
-      </c>
       <c r="C75" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="D75">
         <v>78</v>
       </c>
       <c r="E75" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>16</v>
       </c>
-      <c r="B76" t="s">
-        <v>167</v>
-      </c>
       <c r="C76" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="D76">
         <v>78</v>
       </c>
       <c r="E76" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>16</v>
       </c>
-      <c r="B77" t="s">
-        <v>168</v>
-      </c>
       <c r="C77" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="D77">
         <v>78</v>
       </c>
       <c r="E77" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>16</v>
       </c>
-      <c r="B78" t="s">
-        <v>169</v>
-      </c>
       <c r="C78" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="D78">
         <v>78</v>
       </c>
       <c r="E78" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>16</v>
       </c>
-      <c r="B79" t="s">
-        <v>170</v>
-      </c>
       <c r="C79" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="D79">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>20</v>
       </c>
-      <c r="B80" t="s">
-        <v>64</v>
-      </c>
       <c r="C80" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D80" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="E80" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>20</v>
       </c>
-      <c r="B81" t="s">
-        <v>65</v>
-      </c>
       <c r="C81" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="D81" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="E81" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>20</v>
       </c>
-      <c r="B82" t="s">
-        <v>66</v>
-      </c>
       <c r="C82" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="D82" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="E82" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>20</v>
       </c>
-      <c r="B83" t="s">
-        <v>67</v>
-      </c>
       <c r="C83" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="D83" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="E83" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>20</v>
       </c>
-      <c r="B84" t="s">
-        <v>171</v>
-      </c>
       <c r="C84" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="D84">
         <v>90</v>
       </c>
       <c r="E84" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>20</v>
       </c>
-      <c r="B85" t="s">
-        <v>172</v>
-      </c>
       <c r="C85" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="D85">
         <v>90</v>
       </c>
       <c r="E85" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>20</v>
       </c>
-      <c r="B86" t="s">
-        <v>173</v>
-      </c>
       <c r="C86" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="D86">
         <v>90</v>
       </c>
       <c r="E86" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>20</v>
       </c>
-      <c r="B87" t="s">
-        <v>174</v>
-      </c>
       <c r="C87" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="D87">
         <v>90</v>
       </c>
       <c r="E87" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>20</v>
       </c>
-      <c r="B88" t="s">
-        <v>175</v>
-      </c>
       <c r="C88" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="D88">
         <v>90</v>
       </c>
       <c r="E88" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>20</v>
       </c>
-      <c r="B89" t="s">
-        <v>176</v>
-      </c>
       <c r="C89" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="D89">
         <v>90</v>
       </c>
       <c r="E89" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>20</v>
       </c>
-      <c r="B90" t="s">
-        <v>177</v>
-      </c>
       <c r="C90" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="D90">
         <v>90</v>
       </c>
       <c r="E90" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>20</v>
       </c>
-      <c r="B91" t="s">
-        <v>178</v>
-      </c>
       <c r="C91" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="D91">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>20</v>
       </c>
-      <c r="B92" t="s">
-        <v>179</v>
-      </c>
       <c r="C92" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="D92">
         <v>90</v>
       </c>
       <c r="E92" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>20</v>
       </c>
-      <c r="B93" t="s">
-        <v>180</v>
-      </c>
       <c r="C93" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="D93">
         <v>90</v>
       </c>
       <c r="E93" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>24</v>
       </c>
-      <c r="B94" t="s">
-        <v>68</v>
-      </c>
       <c r="C94" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D94" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="E94" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>24</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
+        <v>61</v>
+      </c>
+      <c r="D95" t="s">
         <v>69</v>
       </c>
-      <c r="C95" t="s">
-        <v>101</v>
-      </c>
-      <c r="D95" t="s">
-        <v>109</v>
-      </c>
       <c r="E95" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>24</v>
       </c>
-      <c r="B96" t="s">
-        <v>70</v>
-      </c>
       <c r="C96" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="D96" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="E96" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>24</v>
       </c>
-      <c r="B97" t="s">
-        <v>71</v>
-      </c>
       <c r="C97" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="D97" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="E97" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>24</v>
       </c>
-      <c r="B98" t="s">
-        <v>181</v>
-      </c>
       <c r="C98" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="D98">
         <v>114</v>
       </c>
       <c r="E98" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>24</v>
       </c>
-      <c r="B99" t="s">
-        <v>182</v>
-      </c>
       <c r="C99" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="D99">
         <v>114</v>
       </c>
       <c r="E99" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>24</v>
       </c>
-      <c r="B100" t="s">
-        <v>183</v>
-      </c>
       <c r="C100" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="D100">
         <v>114</v>
       </c>
       <c r="E100" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>24</v>
       </c>
-      <c r="B101" t="s">
-        <v>184</v>
-      </c>
       <c r="C101" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="D101">
         <v>114</v>
       </c>
       <c r="E101" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>24</v>
       </c>
-      <c r="B102" t="s">
-        <v>185</v>
-      </c>
       <c r="C102" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="D102">
         <v>114</v>
       </c>
       <c r="E102" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>24</v>
       </c>
-      <c r="B103" t="s">
-        <v>186</v>
-      </c>
       <c r="C103" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="D103">
         <v>114</v>
       </c>
       <c r="E103" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>24</v>
       </c>
-      <c r="B104" t="s">
-        <v>187</v>
-      </c>
       <c r="C104" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="D104">
         <v>114</v>
       </c>
       <c r="E104" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>24</v>
       </c>
-      <c r="B105" t="s">
-        <v>188</v>
-      </c>
       <c r="C105" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="D105">
         <v>114</v>
       </c>
       <c r="E105" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>24</v>
       </c>
-      <c r="B106" t="s">
-        <v>189</v>
-      </c>
       <c r="C106" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="D106">
         <v>114</v>
       </c>
       <c r="E106" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>24</v>
       </c>
-      <c r="B107" t="s">
-        <v>190</v>
-      </c>
       <c r="C107" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="D107">
         <v>114</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>28</v>
       </c>
-      <c r="B108" t="s">
-        <v>72</v>
-      </c>
       <c r="C108" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D108" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="E108" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>28</v>
       </c>
-      <c r="B109" t="s">
-        <v>73</v>
-      </c>
       <c r="C109" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="D109" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="E109" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>28</v>
       </c>
-      <c r="B110" t="s">
-        <v>74</v>
-      </c>
       <c r="C110" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="D110" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="E110" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>28</v>
       </c>
-      <c r="B111" t="s">
-        <v>75</v>
-      </c>
       <c r="C111" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="D111" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="E111" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>28</v>
       </c>
-      <c r="B112" t="s">
-        <v>191</v>
-      </c>
       <c r="C112" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="D112">
         <v>138</v>
       </c>
       <c r="E112" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>28</v>
       </c>
-      <c r="B113" t="s">
-        <v>192</v>
-      </c>
       <c r="C113" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="D113">
         <v>138</v>
       </c>
       <c r="E113" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>28</v>
       </c>
-      <c r="B114" t="s">
-        <v>193</v>
-      </c>
       <c r="C114" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="D114">
         <v>138</v>
       </c>
       <c r="E114" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>28</v>
       </c>
-      <c r="B115" t="s">
-        <v>194</v>
-      </c>
       <c r="C115" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="D115">
         <v>138</v>
       </c>
       <c r="E115" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>28</v>
       </c>
-      <c r="B116" t="s">
-        <v>195</v>
-      </c>
       <c r="C116" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="D116">
         <v>138</v>
       </c>
       <c r="E116" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>28</v>
       </c>
-      <c r="B117" t="s">
-        <v>196</v>
-      </c>
       <c r="C117" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="D117">
         <v>138</v>
       </c>
       <c r="E117" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>28</v>
       </c>
-      <c r="B118" t="s">
-        <v>197</v>
-      </c>
       <c r="C118" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="D118">
         <v>138</v>
       </c>
       <c r="E118" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>28</v>
       </c>
-      <c r="B119" t="s">
-        <v>198</v>
-      </c>
       <c r="C119" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="D119">
         <v>138</v>
       </c>
       <c r="E119" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>28</v>
       </c>
-      <c r="B120" t="s">
-        <v>199</v>
-      </c>
       <c r="C120" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="D120">
         <v>138</v>
       </c>
       <c r="E120" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>28</v>
       </c>
-      <c r="B121" t="s">
-        <v>200</v>
-      </c>
       <c r="C121" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="D121">
         <v>138</v>
       </c>
       <c r="E121" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -5166,10 +4368,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E216"/>
+  <dimension ref="A1:E217"/>
   <sheetViews>
-    <sheetView topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="E212" sqref="E212"/>
+    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="E217" sqref="E217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5188,13 +4390,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5202,16 +4404,16 @@
         <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>213</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5219,16 +4421,16 @@
         <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>213</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5236,16 +4438,16 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>212</v>
+        <v>92</v>
       </c>
       <c r="D4">
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5253,16 +4455,16 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>214</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5270,16 +4472,16 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>214</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5287,16 +4489,16 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>214</v>
+        <v>94</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5304,16 +4506,16 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>214</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5321,16 +4523,16 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>214</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5338,16 +4540,16 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>214</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D10">
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5355,16 +4557,16 @@
         <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>215</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5372,16 +4574,16 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>215</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5389,16 +4591,16 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>215</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5406,16 +4608,16 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>215</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5423,16 +4625,16 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>215</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5440,16 +4642,16 @@
         <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>215</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5457,13 +4659,13 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D17" s="2">
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5471,13 +4673,13 @@
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D18" s="2">
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5485,13 +4687,13 @@
         <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D19" s="2">
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5499,13 +4701,13 @@
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D20" s="2">
         <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5513,13 +4715,13 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D21" s="2">
         <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5527,13 +4729,13 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D22" s="2">
         <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5541,13 +4743,13 @@
         <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D23" s="2">
         <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5555,13 +4757,13 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D24" s="2">
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5569,13 +4771,13 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D25" s="2">
         <v>5</v>
       </c>
       <c r="E25" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5583,13 +4785,13 @@
         <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D26" s="2">
         <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5597,13 +4799,13 @@
         <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D27" s="2">
         <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5611,13 +4813,13 @@
         <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D28" s="2">
         <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5625,13 +4827,13 @@
         <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D29" s="2">
         <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5639,13 +4841,13 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D30" s="2">
         <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5653,13 +4855,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D31" s="2">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5667,13 +4869,13 @@
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D32" s="2">
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5681,13 +4883,13 @@
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D33" s="2">
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5695,13 +4897,13 @@
         <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D34" s="2">
         <v>4</v>
       </c>
       <c r="E34" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5709,13 +4911,13 @@
         <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D35" s="2">
         <v>5</v>
       </c>
       <c r="E35" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5723,13 +4925,13 @@
         <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D36" s="2">
         <v>6</v>
       </c>
       <c r="E36" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5737,13 +4939,13 @@
         <v>24</v>
       </c>
       <c r="C37" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D37" s="2">
         <v>7</v>
       </c>
       <c r="E37" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5751,13 +4953,13 @@
         <v>24</v>
       </c>
       <c r="C38" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D38" s="2">
         <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>201</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5765,13 +4967,13 @@
         <v>28</v>
       </c>
       <c r="C39" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D39" s="2">
         <v>8</v>
       </c>
       <c r="E39" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5779,13 +4981,13 @@
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D40" s="2">
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5793,13 +4995,13 @@
         <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D41" s="2">
         <v>5</v>
       </c>
       <c r="E41" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5807,13 +5009,13 @@
         <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D42" s="2">
         <v>7</v>
       </c>
       <c r="E42" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5821,13 +5023,13 @@
         <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D43" s="2">
         <v>9</v>
       </c>
       <c r="E43" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5835,13 +5037,13 @@
         <v>20</v>
       </c>
       <c r="C44" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D44" s="2">
         <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5849,13 +5051,13 @@
         <v>24</v>
       </c>
       <c r="C45" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D45" s="2">
         <v>13</v>
       </c>
       <c r="E45" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5863,13 +5065,13 @@
         <v>28</v>
       </c>
       <c r="C46" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D46" s="2">
         <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5877,13 +5079,13 @@
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D47" s="2">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5891,13 +5093,13 @@
         <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D48" s="2">
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5905,13 +5107,13 @@
         <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D49" s="2">
         <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5919,13 +5121,13 @@
         <v>12</v>
       </c>
       <c r="C50" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D50" s="2">
         <v>4</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5933,13 +5135,13 @@
         <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D51" s="2">
         <v>5</v>
       </c>
       <c r="E51" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5947,13 +5149,13 @@
         <v>20</v>
       </c>
       <c r="C52" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D52" s="2">
         <v>6</v>
       </c>
       <c r="E52" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5961,13 +5163,13 @@
         <v>24</v>
       </c>
       <c r="C53" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D53" s="2">
         <v>7</v>
       </c>
       <c r="E53" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5975,13 +5177,13 @@
         <v>24</v>
       </c>
       <c r="C54" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D54" s="2">
         <v>2</v>
       </c>
       <c r="E54" t="s">
-        <v>201</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5989,13 +5191,13 @@
         <v>28</v>
       </c>
       <c r="C55" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D55" s="2">
         <v>8</v>
       </c>
       <c r="E55" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6003,13 +5205,13 @@
         <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D56" s="2">
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6017,13 +5219,13 @@
         <v>4</v>
       </c>
       <c r="C57" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D57" s="2">
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6031,13 +5233,13 @@
         <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D58" s="2">
         <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6045,13 +5247,13 @@
         <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D59" s="2">
         <v>4</v>
       </c>
       <c r="E59" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6059,13 +5261,13 @@
         <v>16</v>
       </c>
       <c r="C60" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D60" s="2">
         <v>5</v>
       </c>
       <c r="E60" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6073,13 +5275,13 @@
         <v>20</v>
       </c>
       <c r="C61" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D61" s="2">
         <v>6</v>
       </c>
       <c r="E61" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6087,13 +5289,13 @@
         <v>24</v>
       </c>
       <c r="C62" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D62" s="2">
         <v>7</v>
       </c>
       <c r="E62" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6101,13 +5303,13 @@
         <v>24</v>
       </c>
       <c r="C63" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D63" s="2">
         <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>201</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6115,13 +5317,13 @@
         <v>28</v>
       </c>
       <c r="C64" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D64" s="2">
         <v>8</v>
       </c>
       <c r="E64" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6129,13 +5331,13 @@
         <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D65" s="2">
         <v>3</v>
       </c>
       <c r="E65" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6143,13 +5345,13 @@
         <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D66" s="2">
         <v>5</v>
       </c>
       <c r="E66" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6157,13 +5359,13 @@
         <v>12</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D67" s="2">
         <v>7</v>
       </c>
       <c r="E67" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6171,13 +5373,13 @@
         <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D68" s="2">
         <v>9</v>
       </c>
       <c r="E68" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6185,13 +5387,13 @@
         <v>20</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D69" s="2">
         <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6199,13 +5401,13 @@
         <v>24</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D70" s="2">
         <v>13</v>
       </c>
       <c r="E70" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6213,13 +5415,13 @@
         <v>28</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D71" s="2">
         <v>15</v>
       </c>
       <c r="E71" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6227,13 +5429,13 @@
         <v>4</v>
       </c>
       <c r="C72" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D72" s="2">
         <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6241,13 +5443,13 @@
         <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D73" s="2">
         <v>5</v>
       </c>
       <c r="E73" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6255,13 +5457,13 @@
         <v>12</v>
       </c>
       <c r="C74" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D74" s="2">
         <v>7</v>
       </c>
       <c r="E74" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6269,13 +5471,13 @@
         <v>16</v>
       </c>
       <c r="C75" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D75" s="2">
         <v>9</v>
       </c>
       <c r="E75" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6283,13 +5485,13 @@
         <v>20</v>
       </c>
       <c r="C76" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D76" s="2">
         <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6297,13 +5499,13 @@
         <v>24</v>
       </c>
       <c r="C77" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D77" s="2">
         <v>13</v>
       </c>
       <c r="E77" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6311,13 +5513,13 @@
         <v>28</v>
       </c>
       <c r="C78" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D78" s="2">
         <v>15</v>
       </c>
       <c r="E78" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6325,13 +5527,13 @@
         <v>4</v>
       </c>
       <c r="C79" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D79" s="2">
         <v>3</v>
       </c>
       <c r="E79" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6339,13 +5541,13 @@
         <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D80" s="2">
         <v>5</v>
       </c>
       <c r="E80" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6353,13 +5555,13 @@
         <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D81" s="2">
         <v>7</v>
       </c>
       <c r="E81" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6367,13 +5569,13 @@
         <v>16</v>
       </c>
       <c r="C82" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D82" s="2">
         <v>9</v>
       </c>
       <c r="E82" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6381,13 +5583,13 @@
         <v>20</v>
       </c>
       <c r="C83" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D83" s="2">
         <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6395,13 +5597,13 @@
         <v>24</v>
       </c>
       <c r="C84" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D84" s="2">
         <v>13</v>
       </c>
       <c r="E84" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6409,13 +5611,13 @@
         <v>28</v>
       </c>
       <c r="C85" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D85" s="2">
         <v>15</v>
       </c>
       <c r="E85" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6423,13 +5625,13 @@
         <v>4</v>
       </c>
       <c r="C86" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D86" s="2">
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6437,13 +5639,13 @@
         <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D87" s="2">
         <v>5</v>
       </c>
       <c r="E87" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6451,13 +5653,13 @@
         <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D88" s="2">
         <v>7</v>
       </c>
       <c r="E88" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6465,13 +5667,13 @@
         <v>16</v>
       </c>
       <c r="C89" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D89" s="2">
         <v>9</v>
       </c>
       <c r="E89" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6479,13 +5681,13 @@
         <v>20</v>
       </c>
       <c r="C90" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D90" s="2">
         <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6493,13 +5695,13 @@
         <v>24</v>
       </c>
       <c r="C91" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D91" s="2">
         <v>13</v>
       </c>
       <c r="E91" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6507,13 +5709,13 @@
         <v>28</v>
       </c>
       <c r="C92" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D92" s="2">
         <v>15</v>
       </c>
       <c r="E92" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6521,13 +5723,13 @@
         <v>4</v>
       </c>
       <c r="C93" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D93" s="2">
         <v>3</v>
       </c>
       <c r="E93" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6535,13 +5737,13 @@
         <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D94" s="2">
         <v>5</v>
       </c>
       <c r="E94" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6549,13 +5751,13 @@
         <v>12</v>
       </c>
       <c r="C95" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D95" s="2">
         <v>7</v>
       </c>
       <c r="E95" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6563,13 +5765,13 @@
         <v>16</v>
       </c>
       <c r="C96" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D96" s="2">
         <v>9</v>
       </c>
       <c r="E96" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6577,13 +5779,13 @@
         <v>20</v>
       </c>
       <c r="C97" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D97" s="2">
         <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6591,13 +5793,13 @@
         <v>24</v>
       </c>
       <c r="C98" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D98" s="2">
         <v>13</v>
       </c>
       <c r="E98" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6605,13 +5807,13 @@
         <v>28</v>
       </c>
       <c r="C99" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D99" s="2">
         <v>15</v>
       </c>
       <c r="E99" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6619,13 +5821,13 @@
         <v>0</v>
       </c>
       <c r="C100" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D100" s="2">
         <v>1</v>
       </c>
       <c r="E100" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6633,13 +5835,13 @@
         <v>4</v>
       </c>
       <c r="C101" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D101" s="2">
         <v>2</v>
       </c>
       <c r="E101" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6647,13 +5849,13 @@
         <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D102" s="2">
         <v>3</v>
       </c>
       <c r="E102" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6661,13 +5863,13 @@
         <v>12</v>
       </c>
       <c r="C103" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D103" s="2">
         <v>4</v>
       </c>
       <c r="E103" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6675,13 +5877,13 @@
         <v>16</v>
       </c>
       <c r="C104" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D104" s="2">
         <v>5</v>
       </c>
       <c r="E104" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6689,13 +5891,13 @@
         <v>20</v>
       </c>
       <c r="C105" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2">
         <v>6</v>
       </c>
       <c r="E105" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6703,13 +5905,13 @@
         <v>24</v>
       </c>
       <c r="C106" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D106" s="2">
         <v>7</v>
       </c>
       <c r="E106" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6717,13 +5919,13 @@
         <v>24</v>
       </c>
       <c r="C107" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D107" s="2">
         <v>2</v>
       </c>
       <c r="E107" t="s">
-        <v>201</v>
+        <v>81</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6731,13 +5933,13 @@
         <v>28</v>
       </c>
       <c r="C108" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D108" s="2">
         <v>8</v>
       </c>
       <c r="E108" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6745,13 +5947,13 @@
         <v>4</v>
       </c>
       <c r="C109" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D109" s="2">
         <v>3</v>
       </c>
       <c r="E109" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6759,13 +5961,13 @@
         <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D110" s="2">
         <v>5</v>
       </c>
       <c r="E110" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6773,13 +5975,13 @@
         <v>12</v>
       </c>
       <c r="C111" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D111" s="2">
         <v>7</v>
       </c>
       <c r="E111" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6787,13 +5989,13 @@
         <v>16</v>
       </c>
       <c r="C112" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D112" s="2">
         <v>9</v>
       </c>
       <c r="E112" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6801,13 +6003,13 @@
         <v>20</v>
       </c>
       <c r="C113" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D113" s="2">
         <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6815,13 +6017,13 @@
         <v>24</v>
       </c>
       <c r="C114" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D114" s="2">
         <v>13</v>
       </c>
       <c r="E114" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6829,13 +6031,13 @@
         <v>28</v>
       </c>
       <c r="C115" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D115" s="2">
         <v>15</v>
       </c>
       <c r="E115" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6843,13 +6045,13 @@
         <v>4</v>
       </c>
       <c r="C116" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D116" s="2">
         <v>3</v>
       </c>
       <c r="E116" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6857,13 +6059,13 @@
         <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D117" s="2">
         <v>5</v>
       </c>
       <c r="E117" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6871,13 +6073,13 @@
         <v>12</v>
       </c>
       <c r="C118" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D118" s="2">
         <v>7</v>
       </c>
       <c r="E118" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6885,13 +6087,13 @@
         <v>16</v>
       </c>
       <c r="C119" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D119" s="2">
         <v>9</v>
       </c>
       <c r="E119" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6899,13 +6101,13 @@
         <v>20</v>
       </c>
       <c r="C120" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D120" s="2">
         <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6913,13 +6115,13 @@
         <v>24</v>
       </c>
       <c r="C121" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D121" s="2">
         <v>13</v>
       </c>
       <c r="E121" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6927,13 +6129,13 @@
         <v>28</v>
       </c>
       <c r="C122" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D122" s="2">
         <v>15</v>
       </c>
       <c r="E122" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6941,13 +6143,13 @@
         <v>4</v>
       </c>
       <c r="C123" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D123" s="2">
         <v>3</v>
       </c>
       <c r="E123" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6955,13 +6157,13 @@
         <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D124" s="2">
         <v>5</v>
       </c>
       <c r="E124" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6969,13 +6171,13 @@
         <v>12</v>
       </c>
       <c r="C125" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D125" s="2">
         <v>7</v>
       </c>
       <c r="E125" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6983,13 +6185,13 @@
         <v>16</v>
       </c>
       <c r="C126" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D126" s="2">
         <v>9</v>
       </c>
       <c r="E126" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6997,13 +6199,13 @@
         <v>20</v>
       </c>
       <c r="C127" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D127" s="2">
         <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -7011,13 +6213,13 @@
         <v>24</v>
       </c>
       <c r="C128" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D128" s="2">
         <v>13</v>
       </c>
       <c r="E128" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -7025,13 +6227,13 @@
         <v>28</v>
       </c>
       <c r="C129" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D129" s="2">
         <v>15</v>
       </c>
       <c r="E129" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -7039,13 +6241,13 @@
         <v>4</v>
       </c>
       <c r="C130" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D130" s="2">
         <v>3</v>
       </c>
       <c r="E130" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -7053,13 +6255,13 @@
         <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D131" s="2">
         <v>5</v>
       </c>
       <c r="E131" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -7067,13 +6269,13 @@
         <v>12</v>
       </c>
       <c r="C132" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D132" s="2">
         <v>7</v>
       </c>
       <c r="E132" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -7081,13 +6283,13 @@
         <v>16</v>
       </c>
       <c r="C133" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D133" s="2">
         <v>9</v>
       </c>
       <c r="E133" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -7095,13 +6297,13 @@
         <v>20</v>
       </c>
       <c r="C134" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D134" s="2">
         <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -7109,13 +6311,13 @@
         <v>24</v>
       </c>
       <c r="C135" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D135" s="2">
         <v>13</v>
       </c>
       <c r="E135" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -7123,13 +6325,13 @@
         <v>28</v>
       </c>
       <c r="C136" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D136" s="2">
         <v>15</v>
       </c>
       <c r="E136" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -7137,13 +6339,13 @@
         <v>4</v>
       </c>
       <c r="C137" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D137" s="2">
         <v>3</v>
       </c>
       <c r="E137" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -7151,13 +6353,13 @@
         <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D138" s="2">
         <v>5</v>
       </c>
       <c r="E138" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -7165,13 +6367,13 @@
         <v>12</v>
       </c>
       <c r="C139" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D139" s="2">
         <v>7</v>
       </c>
       <c r="E139" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -7179,13 +6381,13 @@
         <v>16</v>
       </c>
       <c r="C140" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D140" s="2">
         <v>9</v>
       </c>
       <c r="E140" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -7193,13 +6395,13 @@
         <v>20</v>
       </c>
       <c r="C141" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D141" s="2">
         <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -7207,13 +6409,13 @@
         <v>24</v>
       </c>
       <c r="C142" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D142" s="2">
         <v>13</v>
       </c>
       <c r="E142" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -7221,13 +6423,13 @@
         <v>28</v>
       </c>
       <c r="C143" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D143" s="2">
         <v>15</v>
       </c>
       <c r="E143" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -7235,13 +6437,13 @@
         <v>4</v>
       </c>
       <c r="C144" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D144" s="2">
         <v>3</v>
       </c>
       <c r="E144" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -7249,13 +6451,13 @@
         <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D145" s="2">
         <v>5</v>
       </c>
       <c r="E145" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -7263,13 +6465,13 @@
         <v>12</v>
       </c>
       <c r="C146" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D146" s="2">
         <v>7</v>
       </c>
       <c r="E146" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -7277,13 +6479,13 @@
         <v>16</v>
       </c>
       <c r="C147" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D147" s="2">
         <v>9</v>
       </c>
       <c r="E147" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -7291,13 +6493,13 @@
         <v>20</v>
       </c>
       <c r="C148" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D148" s="2">
         <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -7305,13 +6507,13 @@
         <v>24</v>
       </c>
       <c r="C149" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D149" s="2">
         <v>13</v>
       </c>
       <c r="E149" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -7319,13 +6521,13 @@
         <v>28</v>
       </c>
       <c r="C150" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D150" s="2">
         <v>15</v>
       </c>
       <c r="E150" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -7333,13 +6535,13 @@
         <v>4</v>
       </c>
       <c r="C151" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D151" s="2">
         <v>3</v>
       </c>
       <c r="E151" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -7347,13 +6549,13 @@
         <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D152" s="2">
         <v>5</v>
       </c>
       <c r="E152" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -7361,13 +6563,13 @@
         <v>12</v>
       </c>
       <c r="C153" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D153" s="2">
         <v>7</v>
       </c>
       <c r="E153" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -7375,13 +6577,13 @@
         <v>16</v>
       </c>
       <c r="C154" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D154" s="2">
         <v>9</v>
       </c>
       <c r="E154" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -7389,13 +6591,13 @@
         <v>20</v>
       </c>
       <c r="C155" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D155" s="2">
         <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -7403,13 +6605,13 @@
         <v>24</v>
       </c>
       <c r="C156" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D156" s="2">
         <v>13</v>
       </c>
       <c r="E156" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -7417,13 +6619,13 @@
         <v>28</v>
       </c>
       <c r="C157" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D157" s="2">
         <v>15</v>
       </c>
       <c r="E157" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -7431,13 +6633,13 @@
         <v>4</v>
       </c>
       <c r="C158" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D158" s="2">
         <v>3</v>
       </c>
       <c r="E158" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -7445,13 +6647,13 @@
         <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D159" s="2">
         <v>5</v>
       </c>
       <c r="E159" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -7459,13 +6661,13 @@
         <v>12</v>
       </c>
       <c r="C160" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D160" s="2">
         <v>7</v>
       </c>
       <c r="E160" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -7473,13 +6675,13 @@
         <v>16</v>
       </c>
       <c r="C161" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D161" s="2">
         <v>9</v>
       </c>
       <c r="E161" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -7487,13 +6689,13 @@
         <v>20</v>
       </c>
       <c r="C162" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D162" s="2">
         <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -7501,13 +6703,13 @@
         <v>24</v>
       </c>
       <c r="C163" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D163" s="2">
         <v>13</v>
       </c>
       <c r="E163" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -7515,13 +6717,13 @@
         <v>28</v>
       </c>
       <c r="C164" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D164" s="2">
         <v>15</v>
       </c>
       <c r="E164" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -7529,13 +6731,13 @@
         <v>4</v>
       </c>
       <c r="C165" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D165" s="2">
         <v>3</v>
       </c>
       <c r="E165" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -7543,13 +6745,13 @@
         <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D166" s="2">
         <v>5</v>
       </c>
       <c r="E166" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -7557,13 +6759,13 @@
         <v>12</v>
       </c>
       <c r="C167" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D167" s="2">
         <v>7</v>
       </c>
       <c r="E167" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -7571,13 +6773,13 @@
         <v>16</v>
       </c>
       <c r="C168" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D168" s="2">
         <v>9</v>
       </c>
       <c r="E168" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -7585,13 +6787,13 @@
         <v>20</v>
       </c>
       <c r="C169" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D169" s="2">
         <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -7599,13 +6801,13 @@
         <v>24</v>
       </c>
       <c r="C170" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D170" s="2">
         <v>13</v>
       </c>
       <c r="E170" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -7613,13 +6815,13 @@
         <v>28</v>
       </c>
       <c r="C171" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D171" s="2">
         <v>15</v>
       </c>
       <c r="E171" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -7627,13 +6829,13 @@
         <v>4</v>
       </c>
       <c r="C172" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D172" s="2">
         <v>3</v>
       </c>
       <c r="E172" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -7641,13 +6843,13 @@
         <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D173" s="2">
         <v>5</v>
       </c>
       <c r="E173" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -7655,13 +6857,13 @@
         <v>12</v>
       </c>
       <c r="C174" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D174" s="2">
         <v>7</v>
       </c>
       <c r="E174" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -7669,13 +6871,13 @@
         <v>16</v>
       </c>
       <c r="C175" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D175" s="2">
         <v>9</v>
       </c>
       <c r="E175" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -7683,13 +6885,13 @@
         <v>20</v>
       </c>
       <c r="C176" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D176" s="2">
         <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -7697,13 +6899,13 @@
         <v>24</v>
       </c>
       <c r="C177" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D177" s="2">
         <v>13</v>
       </c>
       <c r="E177" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -7711,13 +6913,13 @@
         <v>28</v>
       </c>
       <c r="C178" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D178" s="2">
         <v>15</v>
       </c>
       <c r="E178" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -7725,13 +6927,13 @@
         <v>0</v>
       </c>
       <c r="C179" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2">
         <v>1</v>
       </c>
       <c r="E179" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -7739,13 +6941,13 @@
         <v>4</v>
       </c>
       <c r="C180" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2">
         <v>2</v>
       </c>
       <c r="E180" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -7753,13 +6955,13 @@
         <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D181" s="2">
         <v>3</v>
       </c>
       <c r="E181" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -7767,13 +6969,13 @@
         <v>12</v>
       </c>
       <c r="C182" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D182" s="2">
         <v>4</v>
       </c>
       <c r="E182" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -7781,13 +6983,13 @@
         <v>16</v>
       </c>
       <c r="C183" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D183" s="2">
         <v>5</v>
       </c>
       <c r="E183" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
@@ -7795,13 +6997,13 @@
         <v>20</v>
       </c>
       <c r="C184" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D184" s="2">
         <v>6</v>
       </c>
       <c r="E184" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -7809,13 +7011,13 @@
         <v>24</v>
       </c>
       <c r="C185" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D185" s="2">
         <v>7</v>
       </c>
       <c r="E185" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -7823,13 +7025,13 @@
         <v>24</v>
       </c>
       <c r="C186" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D186" s="2">
         <v>2</v>
       </c>
       <c r="E186" t="s">
-        <v>201</v>
+        <v>81</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -7837,13 +7039,13 @@
         <v>28</v>
       </c>
       <c r="C187" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D187" s="2">
         <v>8</v>
       </c>
       <c r="E187" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -7851,13 +7053,13 @@
         <v>4</v>
       </c>
       <c r="C188" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D188" s="2">
         <v>3</v>
       </c>
       <c r="E188" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -7865,13 +7067,13 @@
         <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D189" s="2">
         <v>5</v>
       </c>
       <c r="E189" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -7879,13 +7081,13 @@
         <v>12</v>
       </c>
       <c r="C190" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D190" s="2">
         <v>7</v>
       </c>
       <c r="E190" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -7893,13 +7095,13 @@
         <v>16</v>
       </c>
       <c r="C191" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D191" s="2">
         <v>9</v>
       </c>
       <c r="E191" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -7907,13 +7109,13 @@
         <v>20</v>
       </c>
       <c r="C192" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D192" s="2">
         <v>11</v>
       </c>
       <c r="E192" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -7921,13 +7123,13 @@
         <v>24</v>
       </c>
       <c r="C193" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D193" s="2">
         <v>13</v>
       </c>
       <c r="E193" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -7935,13 +7137,13 @@
         <v>28</v>
       </c>
       <c r="C194" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D194" s="2">
         <v>15</v>
       </c>
       <c r="E194" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -7949,13 +7151,13 @@
         <v>4</v>
       </c>
       <c r="C195" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D195" s="2">
         <v>3</v>
       </c>
       <c r="E195" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -7963,13 +7165,13 @@
         <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D196" s="2">
         <v>5</v>
       </c>
       <c r="E196" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -7977,13 +7179,13 @@
         <v>12</v>
       </c>
       <c r="C197" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D197" s="2">
         <v>7</v>
       </c>
       <c r="E197" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -7991,13 +7193,13 @@
         <v>16</v>
       </c>
       <c r="C198" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D198" s="2">
         <v>9</v>
       </c>
       <c r="E198" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -8005,13 +7207,13 @@
         <v>20</v>
       </c>
       <c r="C199" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D199" s="2">
         <v>11</v>
       </c>
       <c r="E199" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -8019,13 +7221,13 @@
         <v>24</v>
       </c>
       <c r="C200" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D200" s="2">
         <v>13</v>
       </c>
       <c r="E200" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -8033,13 +7235,13 @@
         <v>28</v>
       </c>
       <c r="C201" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D201" s="2">
         <v>15</v>
       </c>
       <c r="E201" t="s">
-        <v>224</v>
+        <v>104</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -8047,13 +7249,13 @@
         <v>0</v>
       </c>
       <c r="C202" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D202" s="2">
         <v>1</v>
       </c>
       <c r="E202" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -8061,13 +7263,13 @@
         <v>4</v>
       </c>
       <c r="C203" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D203" s="2">
         <v>2</v>
       </c>
       <c r="E203" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -8075,13 +7277,13 @@
         <v>8</v>
       </c>
       <c r="C204" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D204" s="2">
         <v>3</v>
       </c>
       <c r="E204" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -8089,13 +7291,13 @@
         <v>12</v>
       </c>
       <c r="C205" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D205" s="2">
         <v>4</v>
       </c>
       <c r="E205" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -8103,13 +7305,13 @@
         <v>16</v>
       </c>
       <c r="C206" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D206" s="2">
         <v>5</v>
       </c>
       <c r="E206" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -8117,13 +7319,13 @@
         <v>20</v>
       </c>
       <c r="C207" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D207" s="2">
         <v>6</v>
       </c>
       <c r="E207" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -8131,13 +7333,13 @@
         <v>24</v>
       </c>
       <c r="C208" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D208" s="2">
         <v>7</v>
       </c>
       <c r="E208" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -8145,13 +7347,13 @@
         <v>24</v>
       </c>
       <c r="C209" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D209" s="2">
         <v>2</v>
       </c>
       <c r="E209" t="s">
-        <v>201</v>
+        <v>81</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -8159,13 +7361,13 @@
         <v>28</v>
       </c>
       <c r="C210" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D210" s="2">
         <v>8</v>
       </c>
       <c r="E210" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -8173,13 +7375,13 @@
         <v>20</v>
       </c>
       <c r="C211" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D211" s="2">
         <v>1</v>
       </c>
       <c r="E211" t="s">
-        <v>215</v>
+        <v>95</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -8187,13 +7389,13 @@
         <v>20</v>
       </c>
       <c r="C212" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D212" s="2">
         <v>1</v>
       </c>
       <c r="E212" t="s">
-        <v>215</v>
+        <v>95</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -8201,13 +7403,13 @@
         <v>20</v>
       </c>
       <c r="C213" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D213" s="2">
         <v>1</v>
       </c>
       <c r="E213" t="s">
-        <v>215</v>
+        <v>95</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -8215,13 +7417,13 @@
         <v>20</v>
       </c>
       <c r="C214" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D214" s="2">
         <v>1</v>
       </c>
       <c r="E214" t="s">
-        <v>215</v>
+        <v>95</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -8229,13 +7431,13 @@
         <v>20</v>
       </c>
       <c r="C215" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D215" s="2">
         <v>1</v>
       </c>
       <c r="E215" t="s">
-        <v>215</v>
+        <v>95</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -8243,13 +7445,27 @@
         <v>20</v>
       </c>
       <c r="C216" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D216" s="2">
         <v>1</v>
       </c>
       <c r="E216" t="s">
-        <v>215</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B217" t="s">
+        <v>106</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D217" s="2">
+        <v>1</v>
+      </c>
+      <c r="E217" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -8259,5 +7475,6 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data-builder/augments.xlsx
+++ b/data-builder/augments.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47E8E6B-FEEC-49A6-8250-7788A64FEC48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9675" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Yellow" sheetId="6" r:id="rId1"/>
@@ -28,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="112">
   <si>
     <t>Minimum Level</t>
   </si>
@@ -222,24 +228,9 @@
     <t>Fire Damage</t>
   </si>
   <si>
-    <t>1d2</t>
-  </si>
-  <si>
-    <t>1d3</t>
-  </si>
-  <si>
-    <t>1d4</t>
-  </si>
-  <si>
     <t>1d6</t>
   </si>
   <si>
-    <t>1d8</t>
-  </si>
-  <si>
-    <t>1d10</t>
-  </si>
-  <si>
     <t>2d6</t>
   </si>
   <si>
@@ -361,12 +352,30 @@
   </si>
   <si>
     <t>bool</t>
+  </si>
+  <si>
+    <t>4d6</t>
+  </si>
+  <si>
+    <t>3d6</t>
+  </si>
+  <si>
+    <t>5d6</t>
+  </si>
+  <si>
+    <t>6d6</t>
+  </si>
+  <si>
+    <t>7d6</t>
+  </si>
+  <si>
+    <t>8d6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -715,18 +724,20 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -741,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
         <v>45</v>
@@ -831,7 +842,7 @@
         <v>49</v>
       </c>
       <c r="D7" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
         <v>57</v>
@@ -971,7 +982,7 @@
         <v>49</v>
       </c>
       <c r="D17" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
         <v>57</v>
@@ -1111,7 +1122,7 @@
         <v>49</v>
       </c>
       <c r="D27" s="5">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E27" t="s">
         <v>57</v>
@@ -1237,7 +1248,7 @@
         <v>49</v>
       </c>
       <c r="D36" s="5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E36" t="s">
         <v>57</v>
@@ -1318,13 +1329,13 @@
         <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D42" s="5">
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -1332,13 +1343,13 @@
         <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D43" s="5">
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -1346,13 +1357,13 @@
         <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D44" s="5">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -1360,13 +1371,13 @@
         <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D45" s="5">
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -1374,13 +1385,13 @@
         <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D46" s="5">
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1388,13 +1399,13 @@
         <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D47" s="5">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -1402,13 +1413,13 @@
         <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D48" s="5">
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -1447,7 +1458,7 @@
         <v>49</v>
       </c>
       <c r="D51" s="5">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E51" t="s">
         <v>57</v>
@@ -1640,13 +1651,13 @@
         <v>24</v>
       </c>
       <c r="C65" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D65" s="5">
         <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -1654,13 +1665,13 @@
         <v>24</v>
       </c>
       <c r="C66" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D66" s="5">
         <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -1668,13 +1679,13 @@
         <v>24</v>
       </c>
       <c r="C67" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D67" s="5">
         <v>2</v>
       </c>
       <c r="E67" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -1682,13 +1693,13 @@
         <v>24</v>
       </c>
       <c r="C68" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D68" s="5">
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -1696,13 +1707,13 @@
         <v>24</v>
       </c>
       <c r="C69" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D69" s="5">
         <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -1710,13 +1721,13 @@
         <v>24</v>
       </c>
       <c r="C70" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D70" s="5">
         <v>2</v>
       </c>
       <c r="E70" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -1724,13 +1735,13 @@
         <v>24</v>
       </c>
       <c r="C71" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D71" s="5">
         <v>2</v>
       </c>
       <c r="E71" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -1889,18 +1900,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E76"/>
+  <autoFilter ref="A1:E76" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1976,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D5" s="2">
         <v>2</v>
@@ -2007,7 +2018,7 @@
         <v>58</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
         <v>57</v>
@@ -2021,7 +2032,7 @@
         <v>53</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
         <v>57</v>
@@ -2035,7 +2046,7 @@
         <v>54</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
         <v>57</v>
@@ -2049,7 +2060,7 @@
         <v>55</v>
       </c>
       <c r="D10" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10" t="s">
         <v>57</v>
@@ -2060,7 +2071,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D11" s="2">
         <v>4</v>
@@ -2091,7 +2102,7 @@
         <v>58</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
         <v>57</v>
@@ -2105,7 +2116,7 @@
         <v>53</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E14" t="s">
         <v>57</v>
@@ -2119,7 +2130,7 @@
         <v>54</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E15" t="s">
         <v>57</v>
@@ -2133,7 +2144,7 @@
         <v>55</v>
       </c>
       <c r="D16" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E16" t="s">
         <v>57</v>
@@ -2144,7 +2155,7 @@
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D17" s="2">
         <v>6</v>
@@ -2175,7 +2186,7 @@
         <v>58</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E19" t="s">
         <v>57</v>
@@ -2189,7 +2200,7 @@
         <v>53</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E20" t="s">
         <v>57</v>
@@ -2203,7 +2214,7 @@
         <v>54</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E21" t="s">
         <v>57</v>
@@ -2217,7 +2228,7 @@
         <v>55</v>
       </c>
       <c r="D22" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E22" t="s">
         <v>57</v>
@@ -2228,7 +2239,7 @@
         <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D23" s="2">
         <v>8</v>
@@ -2259,7 +2270,7 @@
         <v>58</v>
       </c>
       <c r="D25">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E25" t="s">
         <v>57</v>
@@ -2273,7 +2284,7 @@
         <v>53</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E26" t="s">
         <v>57</v>
@@ -2287,7 +2298,7 @@
         <v>54</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E27" t="s">
         <v>57</v>
@@ -2301,7 +2312,7 @@
         <v>55</v>
       </c>
       <c r="D28" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E28" t="s">
         <v>57</v>
@@ -2312,7 +2323,7 @@
         <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D29" s="2">
         <v>10</v>
@@ -2343,7 +2354,7 @@
         <v>53</v>
       </c>
       <c r="D31">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E31" t="s">
         <v>57</v>
@@ -2357,7 +2368,7 @@
         <v>54</v>
       </c>
       <c r="D32">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E32" t="s">
         <v>57</v>
@@ -2371,7 +2382,7 @@
         <v>55</v>
       </c>
       <c r="D33" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E33" t="s">
         <v>57</v>
@@ -2382,7 +2393,7 @@
         <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D34" s="2">
         <v>12</v>
@@ -2413,7 +2424,7 @@
         <v>58</v>
       </c>
       <c r="D36">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E36" t="s">
         <v>57</v>
@@ -2427,7 +2438,7 @@
         <v>53</v>
       </c>
       <c r="D37">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
         <v>57</v>
@@ -2441,7 +2452,7 @@
         <v>54</v>
       </c>
       <c r="D38">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E38" t="s">
         <v>57</v>
@@ -2455,7 +2466,7 @@
         <v>55</v>
       </c>
       <c r="D39" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
         <v>57</v>
@@ -2466,7 +2477,7 @@
         <v>24</v>
       </c>
       <c r="C40" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D40" s="2">
         <v>14</v>
@@ -2483,7 +2494,7 @@
         <v>58</v>
       </c>
       <c r="D41">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E41" t="s">
         <v>57</v>
@@ -2497,7 +2508,7 @@
         <v>53</v>
       </c>
       <c r="D42">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E42" t="s">
         <v>57</v>
@@ -2511,7 +2522,7 @@
         <v>54</v>
       </c>
       <c r="D43">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
         <v>57</v>
@@ -2525,7 +2536,7 @@
         <v>55</v>
       </c>
       <c r="D44" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
         <v>57</v>
@@ -2536,7 +2547,7 @@
         <v>28</v>
       </c>
       <c r="C45" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D45" s="2">
         <v>16</v>
@@ -2553,7 +2564,7 @@
         <v>58</v>
       </c>
       <c r="D46">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E46" t="s">
         <v>57</v>
@@ -2564,7 +2575,7 @@
         <v>12</v>
       </c>
       <c r="C47" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D47" s="5">
         <v>5</v>
@@ -2578,7 +2589,7 @@
         <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D48" s="5">
         <v>10</v>
@@ -2592,7 +2603,7 @@
         <v>20</v>
       </c>
       <c r="C49" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D49" s="5">
         <v>15</v>
@@ -2606,7 +2617,7 @@
         <v>12</v>
       </c>
       <c r="C50" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D50" s="5">
         <v>1</v>
@@ -2620,7 +2631,7 @@
         <v>20</v>
       </c>
       <c r="C51" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D51" s="5">
         <v>2</v>
@@ -2630,18 +2641,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E46"/>
+  <autoFilter ref="A1:E46" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="D120" sqref="D120"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="F121" sqref="F121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2676,8 +2687,8 @@
       <c r="C2" t="s">
         <v>60</v>
       </c>
-      <c r="D2">
-        <v>1</v>
+      <c r="D2" t="s">
+        <v>64</v>
       </c>
       <c r="E2" t="s">
         <v>57</v>
@@ -2690,8 +2701,8 @@
       <c r="C3" t="s">
         <v>61</v>
       </c>
-      <c r="D3">
-        <v>1</v>
+      <c r="D3" t="s">
+        <v>64</v>
       </c>
       <c r="E3" t="s">
         <v>57</v>
@@ -2704,8 +2715,8 @@
       <c r="C4" t="s">
         <v>62</v>
       </c>
-      <c r="D4">
-        <v>1</v>
+      <c r="D4" t="s">
+        <v>64</v>
       </c>
       <c r="E4" t="s">
         <v>57</v>
@@ -2718,8 +2729,8 @@
       <c r="C5" t="s">
         <v>63</v>
       </c>
-      <c r="D5">
-        <v>1</v>
+      <c r="D5" t="s">
+        <v>64</v>
       </c>
       <c r="E5" t="s">
         <v>57</v>
@@ -2731,13 +2742,13 @@
       </c>
       <c r="B6" s="3"/>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -2746,13 +2757,13 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -2761,13 +2772,13 @@
       </c>
       <c r="B8" s="3"/>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D8">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -2776,13 +2787,13 @@
       </c>
       <c r="B9" s="3"/>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D9">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -2791,13 +2802,13 @@
       </c>
       <c r="B10" s="3"/>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D10">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -2806,13 +2817,13 @@
       </c>
       <c r="B11" s="3"/>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D11">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -2821,13 +2832,13 @@
       </c>
       <c r="B12" s="3"/>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D12">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -2836,13 +2847,13 @@
       </c>
       <c r="B13" s="3"/>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D13">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -2851,13 +2862,13 @@
       </c>
       <c r="B14" s="3"/>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D14">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -2866,13 +2877,13 @@
       </c>
       <c r="B15" s="3"/>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D15">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -2883,7 +2894,7 @@
         <v>60</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
         <v>57</v>
@@ -2897,7 +2908,7 @@
         <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s">
         <v>57</v>
@@ -2911,7 +2922,7 @@
         <v>62</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E18" t="s">
         <v>57</v>
@@ -2925,7 +2936,7 @@
         <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E19" t="s">
         <v>57</v>
@@ -2936,13 +2947,13 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D20">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E20" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -2950,13 +2961,13 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D21">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E21" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -2964,13 +2975,13 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D22">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E22" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -2978,13 +2989,13 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D23">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E23" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -2992,13 +3003,13 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D24">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E24" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -3006,13 +3017,13 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D25">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E25" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -3020,13 +3031,13 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D26">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E26" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -3034,13 +3045,13 @@
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D27">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E27" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -3048,13 +3059,13 @@
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D28">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E28" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -3062,13 +3073,13 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D29">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E29" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -3079,7 +3090,7 @@
         <v>60</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="E30" t="s">
         <v>57</v>
@@ -3093,7 +3104,7 @@
         <v>61</v>
       </c>
       <c r="D31" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="E31" t="s">
         <v>57</v>
@@ -3107,7 +3118,7 @@
         <v>62</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="E32" t="s">
         <v>57</v>
@@ -3121,7 +3132,7 @@
         <v>63</v>
       </c>
       <c r="D33" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="E33" t="s">
         <v>57</v>
@@ -3132,7 +3143,7 @@
         <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -3146,7 +3157,7 @@
         <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -3160,7 +3171,7 @@
         <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -3174,7 +3185,7 @@
         <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -3188,13 +3199,13 @@
         <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D38">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E38" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -3202,13 +3213,13 @@
         <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D39">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E39" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -3216,13 +3227,13 @@
         <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D40">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E40" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -3230,13 +3241,13 @@
         <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D41">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E41" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -3244,13 +3255,13 @@
         <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D42">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E42" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -3258,13 +3269,13 @@
         <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D43">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E43" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -3272,13 +3283,13 @@
         <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D44">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E44" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -3286,13 +3297,13 @@
         <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D45">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E45" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -3300,13 +3311,13 @@
         <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D46">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -3314,13 +3325,13 @@
         <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D47">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -3331,7 +3342,7 @@
         <v>60</v>
       </c>
       <c r="D48" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="E48" t="s">
         <v>57</v>
@@ -3345,7 +3356,7 @@
         <v>61</v>
       </c>
       <c r="D49" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="E49" t="s">
         <v>57</v>
@@ -3359,7 +3370,7 @@
         <v>62</v>
       </c>
       <c r="D50" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="E50" t="s">
         <v>57</v>
@@ -3373,7 +3384,7 @@
         <v>63</v>
       </c>
       <c r="D51" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="E51" t="s">
         <v>57</v>
@@ -3384,7 +3395,7 @@
         <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -3398,7 +3409,7 @@
         <v>12</v>
       </c>
       <c r="C53" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -3412,13 +3423,13 @@
         <v>12</v>
       </c>
       <c r="C54" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D54">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="E54" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -3426,13 +3437,13 @@
         <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D55">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="E55" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -3440,13 +3451,13 @@
         <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D56">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="E56" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -3454,13 +3465,13 @@
         <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D57">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="E57" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -3468,13 +3479,13 @@
         <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D58">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="E58" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -3482,13 +3493,13 @@
         <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D59">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="E59" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -3496,13 +3507,13 @@
         <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D60">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="E60" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -3510,13 +3521,13 @@
         <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D61">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="E61" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -3524,13 +3535,13 @@
         <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D62">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="E62" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -3538,13 +3549,13 @@
         <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D63">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="E63" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -3555,7 +3566,7 @@
         <v>60</v>
       </c>
       <c r="D64" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="E64" t="s">
         <v>57</v>
@@ -3569,7 +3580,7 @@
         <v>61</v>
       </c>
       <c r="D65" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="E65" t="s">
         <v>57</v>
@@ -3583,7 +3594,7 @@
         <v>62</v>
       </c>
       <c r="D66" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="E66" t="s">
         <v>57</v>
@@ -3597,7 +3608,7 @@
         <v>63</v>
       </c>
       <c r="D67" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="E67" t="s">
         <v>57</v>
@@ -3608,7 +3619,7 @@
         <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -3622,7 +3633,7 @@
         <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -3636,13 +3647,13 @@
         <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D70">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="E70" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -3650,13 +3661,13 @@
         <v>16</v>
       </c>
       <c r="C71" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D71">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="E71" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -3664,13 +3675,13 @@
         <v>16</v>
       </c>
       <c r="C72" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D72">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="E72" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -3678,13 +3689,13 @@
         <v>16</v>
       </c>
       <c r="C73" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D73">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="E73" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -3692,13 +3703,13 @@
         <v>16</v>
       </c>
       <c r="C74" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D74">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="E74" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -3706,13 +3717,13 @@
         <v>16</v>
       </c>
       <c r="C75" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D75">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="E75" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -3720,13 +3731,13 @@
         <v>16</v>
       </c>
       <c r="C76" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D76">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="E76" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -3734,13 +3745,13 @@
         <v>16</v>
       </c>
       <c r="C77" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D77">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="E77" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -3748,13 +3759,13 @@
         <v>16</v>
       </c>
       <c r="C78" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D78">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="E78" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -3762,13 +3773,13 @@
         <v>16</v>
       </c>
       <c r="C79" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D79">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="E79" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -3779,7 +3790,7 @@
         <v>60</v>
       </c>
       <c r="D80" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="E80" t="s">
         <v>57</v>
@@ -3793,7 +3804,7 @@
         <v>61</v>
       </c>
       <c r="D81" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="E81" t="s">
         <v>57</v>
@@ -3807,7 +3818,7 @@
         <v>62</v>
       </c>
       <c r="D82" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="E82" t="s">
         <v>57</v>
@@ -3821,7 +3832,7 @@
         <v>63</v>
       </c>
       <c r="D83" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="E83" t="s">
         <v>57</v>
@@ -3832,13 +3843,13 @@
         <v>20</v>
       </c>
       <c r="C84" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D84">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="E84" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -3846,13 +3857,13 @@
         <v>20</v>
       </c>
       <c r="C85" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D85">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="E85" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -3860,13 +3871,13 @@
         <v>20</v>
       </c>
       <c r="C86" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D86">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="E86" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -3874,13 +3885,13 @@
         <v>20</v>
       </c>
       <c r="C87" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D87">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="E87" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -3888,13 +3899,13 @@
         <v>20</v>
       </c>
       <c r="C88" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D88">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="E88" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -3902,13 +3913,13 @@
         <v>20</v>
       </c>
       <c r="C89" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D89">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="E89" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -3916,13 +3927,13 @@
         <v>20</v>
       </c>
       <c r="C90" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D90">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="E90" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -3930,13 +3941,13 @@
         <v>20</v>
       </c>
       <c r="C91" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D91">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="E91" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -3944,13 +3955,13 @@
         <v>20</v>
       </c>
       <c r="C92" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D92">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="E92" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -3958,13 +3969,13 @@
         <v>20</v>
       </c>
       <c r="C93" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D93">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="E93" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -3975,7 +3986,7 @@
         <v>60</v>
       </c>
       <c r="D94" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="E94" t="s">
         <v>57</v>
@@ -3989,7 +4000,7 @@
         <v>61</v>
       </c>
       <c r="D95" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="E95" t="s">
         <v>57</v>
@@ -4003,7 +4014,7 @@
         <v>62</v>
       </c>
       <c r="D96" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="E96" t="s">
         <v>57</v>
@@ -4017,7 +4028,7 @@
         <v>63</v>
       </c>
       <c r="D97" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="E97" t="s">
         <v>57</v>
@@ -4028,13 +4039,13 @@
         <v>24</v>
       </c>
       <c r="C98" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D98">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="E98" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -4042,13 +4053,13 @@
         <v>24</v>
       </c>
       <c r="C99" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D99">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="E99" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -4056,13 +4067,13 @@
         <v>24</v>
       </c>
       <c r="C100" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D100">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="E100" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -4070,13 +4081,13 @@
         <v>24</v>
       </c>
       <c r="C101" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D101">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="E101" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -4084,13 +4095,13 @@
         <v>24</v>
       </c>
       <c r="C102" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D102">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="E102" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -4098,13 +4109,13 @@
         <v>24</v>
       </c>
       <c r="C103" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D103">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="E103" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -4112,13 +4123,13 @@
         <v>24</v>
       </c>
       <c r="C104" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D104">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="E104" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -4126,13 +4137,13 @@
         <v>24</v>
       </c>
       <c r="C105" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D105">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="E105" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -4140,13 +4151,13 @@
         <v>24</v>
       </c>
       <c r="C106" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D106">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="E106" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -4154,13 +4165,13 @@
         <v>24</v>
       </c>
       <c r="C107" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D107">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="E107" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -4171,7 +4182,7 @@
         <v>60</v>
       </c>
       <c r="D108" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="E108" t="s">
         <v>57</v>
@@ -4185,7 +4196,7 @@
         <v>61</v>
       </c>
       <c r="D109" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="E109" t="s">
         <v>57</v>
@@ -4199,7 +4210,7 @@
         <v>62</v>
       </c>
       <c r="D110" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="E110" t="s">
         <v>57</v>
@@ -4213,7 +4224,7 @@
         <v>63</v>
       </c>
       <c r="D111" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="E111" t="s">
         <v>57</v>
@@ -4224,13 +4235,13 @@
         <v>28</v>
       </c>
       <c r="C112" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D112">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E112" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -4238,13 +4249,13 @@
         <v>28</v>
       </c>
       <c r="C113" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D113">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E113" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -4252,13 +4263,13 @@
         <v>28</v>
       </c>
       <c r="C114" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D114">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E114" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -4266,13 +4277,13 @@
         <v>28</v>
       </c>
       <c r="C115" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D115">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E115" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -4280,13 +4291,13 @@
         <v>28</v>
       </c>
       <c r="C116" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D116">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E116" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -4294,13 +4305,13 @@
         <v>28</v>
       </c>
       <c r="C117" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D117">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E117" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -4308,13 +4319,13 @@
         <v>28</v>
       </c>
       <c r="C118" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D118">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E118" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -4322,13 +4333,13 @@
         <v>28</v>
       </c>
       <c r="C119" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D119">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E119" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -4336,13 +4347,13 @@
         <v>28</v>
       </c>
       <c r="C120" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D120">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E120" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -4350,28 +4361,29 @@
         <v>28</v>
       </c>
       <c r="C121" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D121">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E121" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E121"/>
+  <autoFilter ref="A1:E121" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="E217" sqref="E217"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="J223" sqref="J223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4413,7 +4425,7 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -4430,7 +4442,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -4441,7 +4453,7 @@
         <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>20</v>
@@ -4455,7 +4467,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -4472,7 +4484,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -4489,7 +4501,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -4506,7 +4518,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -4523,7 +4535,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -4540,7 +4552,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -4566,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -4583,7 +4595,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -4600,7 +4612,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -4617,7 +4629,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -4634,7 +4646,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -4651,7 +4663,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -4662,10 +4674,10 @@
         <v>16</v>
       </c>
       <c r="D17" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -4676,10 +4688,10 @@
         <v>16</v>
       </c>
       <c r="D18" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -4690,10 +4702,10 @@
         <v>16</v>
       </c>
       <c r="D19" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E19" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -4704,10 +4716,10 @@
         <v>16</v>
       </c>
       <c r="D20" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -4718,10 +4730,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -4732,10 +4744,10 @@
         <v>16</v>
       </c>
       <c r="D22" s="2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E22" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -4746,10 +4758,10 @@
         <v>16</v>
       </c>
       <c r="D23" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E23" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -4760,10 +4772,10 @@
         <v>17</v>
       </c>
       <c r="D24" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -4774,10 +4786,10 @@
         <v>17</v>
       </c>
       <c r="D25" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -4788,10 +4800,10 @@
         <v>17</v>
       </c>
       <c r="D26" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -4802,10 +4814,10 @@
         <v>17</v>
       </c>
       <c r="D27" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -4816,10 +4828,10 @@
         <v>17</v>
       </c>
       <c r="D28" s="2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E28" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -4830,10 +4842,10 @@
         <v>17</v>
       </c>
       <c r="D29" s="2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E29" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -4844,10 +4856,10 @@
         <v>17</v>
       </c>
       <c r="D30" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E30" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -4872,7 +4884,7 @@
         <v>14</v>
       </c>
       <c r="D32" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E32" t="s">
         <v>57</v>
@@ -4886,7 +4898,7 @@
         <v>14</v>
       </c>
       <c r="D33" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E33" t="s">
         <v>57</v>
@@ -4900,7 +4912,7 @@
         <v>14</v>
       </c>
       <c r="D34" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E34" t="s">
         <v>57</v>
@@ -4914,7 +4926,7 @@
         <v>14</v>
       </c>
       <c r="D35" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E35" t="s">
         <v>57</v>
@@ -4928,7 +4940,7 @@
         <v>14</v>
       </c>
       <c r="D36" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E36" t="s">
         <v>57</v>
@@ -4942,7 +4954,7 @@
         <v>14</v>
       </c>
       <c r="D37" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
         <v>57</v>
@@ -4959,7 +4971,7 @@
         <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -4970,7 +4982,7 @@
         <v>14</v>
       </c>
       <c r="D39" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E39" t="s">
         <v>57</v>
@@ -4984,10 +4996,10 @@
         <v>18</v>
       </c>
       <c r="D40" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E40" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -4998,10 +5010,10 @@
         <v>18</v>
       </c>
       <c r="D41" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5012,10 +5024,10 @@
         <v>18</v>
       </c>
       <c r="D42" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E42" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5026,10 +5038,10 @@
         <v>18</v>
       </c>
       <c r="D43" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5040,10 +5052,10 @@
         <v>18</v>
       </c>
       <c r="D44" s="2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E44" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5054,10 +5066,10 @@
         <v>18</v>
       </c>
       <c r="D45" s="2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E45" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5068,10 +5080,10 @@
         <v>18</v>
       </c>
       <c r="D46" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E46" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5096,7 +5108,7 @@
         <v>11</v>
       </c>
       <c r="D48" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E48" t="s">
         <v>57</v>
@@ -5110,7 +5122,7 @@
         <v>11</v>
       </c>
       <c r="D49" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E49" t="s">
         <v>57</v>
@@ -5124,7 +5136,7 @@
         <v>11</v>
       </c>
       <c r="D50" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E50" t="s">
         <v>57</v>
@@ -5138,7 +5150,7 @@
         <v>11</v>
       </c>
       <c r="D51" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E51" t="s">
         <v>57</v>
@@ -5152,7 +5164,7 @@
         <v>11</v>
       </c>
       <c r="D52" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E52" t="s">
         <v>57</v>
@@ -5166,7 +5178,7 @@
         <v>11</v>
       </c>
       <c r="D53" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
         <v>57</v>
@@ -5183,7 +5195,7 @@
         <v>2</v>
       </c>
       <c r="E54" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5194,7 +5206,7 @@
         <v>11</v>
       </c>
       <c r="D55" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E55" t="s">
         <v>57</v>
@@ -5309,7 +5321,7 @@
         <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5334,10 +5346,10 @@
         <v>19</v>
       </c>
       <c r="D65" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E65" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5348,10 +5360,10 @@
         <v>19</v>
       </c>
       <c r="D66" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5362,10 +5374,10 @@
         <v>19</v>
       </c>
       <c r="D67" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E67" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5376,10 +5388,10 @@
         <v>19</v>
       </c>
       <c r="D68" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E68" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5390,10 +5402,10 @@
         <v>19</v>
       </c>
       <c r="D69" s="2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E69" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5404,10 +5416,10 @@
         <v>19</v>
       </c>
       <c r="D70" s="2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E70" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5418,10 +5430,10 @@
         <v>19</v>
       </c>
       <c r="D71" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E71" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5432,10 +5444,10 @@
         <v>20</v>
       </c>
       <c r="D72" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E72" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5446,10 +5458,10 @@
         <v>20</v>
       </c>
       <c r="D73" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5460,10 +5472,10 @@
         <v>20</v>
       </c>
       <c r="D74" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E74" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5474,10 +5486,10 @@
         <v>20</v>
       </c>
       <c r="D75" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E75" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5488,10 +5500,10 @@
         <v>20</v>
       </c>
       <c r="D76" s="2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E76" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5502,10 +5514,10 @@
         <v>20</v>
       </c>
       <c r="D77" s="2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E77" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5516,10 +5528,10 @@
         <v>20</v>
       </c>
       <c r="D78" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E78" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5530,10 +5542,10 @@
         <v>21</v>
       </c>
       <c r="D79" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E79" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5544,10 +5556,10 @@
         <v>21</v>
       </c>
       <c r="D80" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5558,10 +5570,10 @@
         <v>21</v>
       </c>
       <c r="D81" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E81" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5572,10 +5584,10 @@
         <v>21</v>
       </c>
       <c r="D82" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E82" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5586,10 +5598,10 @@
         <v>21</v>
       </c>
       <c r="D83" s="2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E83" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5600,10 +5612,10 @@
         <v>21</v>
       </c>
       <c r="D84" s="2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E84" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5614,10 +5626,10 @@
         <v>21</v>
       </c>
       <c r="D85" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E85" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5628,10 +5640,10 @@
         <v>22</v>
       </c>
       <c r="D86" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E86" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5642,10 +5654,10 @@
         <v>22</v>
       </c>
       <c r="D87" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5656,10 +5668,10 @@
         <v>22</v>
       </c>
       <c r="D88" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E88" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5670,10 +5682,10 @@
         <v>22</v>
       </c>
       <c r="D89" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E89" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5684,10 +5696,10 @@
         <v>22</v>
       </c>
       <c r="D90" s="2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E90" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5698,10 +5710,10 @@
         <v>22</v>
       </c>
       <c r="D91" s="2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E91" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5712,10 +5724,10 @@
         <v>22</v>
       </c>
       <c r="D92" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E92" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5726,10 +5738,10 @@
         <v>23</v>
       </c>
       <c r="D93" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E93" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5740,10 +5752,10 @@
         <v>23</v>
       </c>
       <c r="D94" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5754,10 +5766,10 @@
         <v>23</v>
       </c>
       <c r="D95" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E95" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5768,10 +5780,10 @@
         <v>23</v>
       </c>
       <c r="D96" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E96" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5782,10 +5794,10 @@
         <v>23</v>
       </c>
       <c r="D97" s="2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E97" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5796,10 +5808,10 @@
         <v>23</v>
       </c>
       <c r="D98" s="2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E98" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5810,10 +5822,10 @@
         <v>23</v>
       </c>
       <c r="D99" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E99" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5838,7 +5850,7 @@
         <v>12</v>
       </c>
       <c r="D101" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E101" t="s">
         <v>57</v>
@@ -5852,7 +5864,7 @@
         <v>12</v>
       </c>
       <c r="D102" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E102" t="s">
         <v>57</v>
@@ -5866,7 +5878,7 @@
         <v>12</v>
       </c>
       <c r="D103" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E103" t="s">
         <v>57</v>
@@ -5880,7 +5892,7 @@
         <v>12</v>
       </c>
       <c r="D104" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E104" t="s">
         <v>57</v>
@@ -5894,7 +5906,7 @@
         <v>12</v>
       </c>
       <c r="D105" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E105" t="s">
         <v>57</v>
@@ -5908,7 +5920,7 @@
         <v>12</v>
       </c>
       <c r="D106" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
         <v>57</v>
@@ -5925,7 +5937,7 @@
         <v>2</v>
       </c>
       <c r="E107" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5936,7 +5948,7 @@
         <v>12</v>
       </c>
       <c r="D108" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E108" t="s">
         <v>57</v>
@@ -5950,7 +5962,7 @@
         <v>24</v>
       </c>
       <c r="D109" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E109" t="s">
         <v>57</v>
@@ -5964,7 +5976,7 @@
         <v>24</v>
       </c>
       <c r="D110" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
         <v>57</v>
@@ -5978,7 +5990,7 @@
         <v>24</v>
       </c>
       <c r="D111" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E111" t="s">
         <v>57</v>
@@ -5992,7 +6004,7 @@
         <v>24</v>
       </c>
       <c r="D112" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E112" t="s">
         <v>57</v>
@@ -6006,7 +6018,7 @@
         <v>24</v>
       </c>
       <c r="D113" s="2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E113" t="s">
         <v>57</v>
@@ -6020,7 +6032,7 @@
         <v>24</v>
       </c>
       <c r="D114" s="2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E114" t="s">
         <v>57</v>
@@ -6034,7 +6046,7 @@
         <v>24</v>
       </c>
       <c r="D115" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E115" t="s">
         <v>57</v>
@@ -6048,10 +6060,10 @@
         <v>25</v>
       </c>
       <c r="D116" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E116" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6062,10 +6074,10 @@
         <v>25</v>
       </c>
       <c r="D117" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6076,10 +6088,10 @@
         <v>25</v>
       </c>
       <c r="D118" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E118" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6090,10 +6102,10 @@
         <v>25</v>
       </c>
       <c r="D119" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E119" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6104,10 +6116,10 @@
         <v>25</v>
       </c>
       <c r="D120" s="2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E120" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6118,10 +6130,10 @@
         <v>25</v>
       </c>
       <c r="D121" s="2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E121" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6132,10 +6144,10 @@
         <v>25</v>
       </c>
       <c r="D122" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E122" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6146,10 +6158,10 @@
         <v>26</v>
       </c>
       <c r="D123" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E123" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6160,10 +6172,10 @@
         <v>26</v>
       </c>
       <c r="D124" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6174,10 +6186,10 @@
         <v>26</v>
       </c>
       <c r="D125" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E125" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6188,10 +6200,10 @@
         <v>26</v>
       </c>
       <c r="D126" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E126" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6202,10 +6214,10 @@
         <v>26</v>
       </c>
       <c r="D127" s="2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E127" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6216,10 +6228,10 @@
         <v>26</v>
       </c>
       <c r="D128" s="2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E128" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6230,10 +6242,10 @@
         <v>26</v>
       </c>
       <c r="D129" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E129" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6244,10 +6256,10 @@
         <v>27</v>
       </c>
       <c r="D130" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E130" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6258,10 +6270,10 @@
         <v>27</v>
       </c>
       <c r="D131" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6272,10 +6284,10 @@
         <v>27</v>
       </c>
       <c r="D132" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E132" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6286,10 +6298,10 @@
         <v>27</v>
       </c>
       <c r="D133" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E133" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -6300,10 +6312,10 @@
         <v>27</v>
       </c>
       <c r="D134" s="2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E134" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -6314,10 +6326,10 @@
         <v>27</v>
       </c>
       <c r="D135" s="2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E135" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -6328,10 +6340,10 @@
         <v>27</v>
       </c>
       <c r="D136" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E136" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -6342,10 +6354,10 @@
         <v>28</v>
       </c>
       <c r="D137" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E137" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -6356,10 +6368,10 @@
         <v>28</v>
       </c>
       <c r="D138" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -6370,10 +6382,10 @@
         <v>28</v>
       </c>
       <c r="D139" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E139" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -6384,10 +6396,10 @@
         <v>28</v>
       </c>
       <c r="D140" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E140" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -6398,10 +6410,10 @@
         <v>28</v>
       </c>
       <c r="D141" s="2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E141" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -6412,10 +6424,10 @@
         <v>28</v>
       </c>
       <c r="D142" s="2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E142" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -6426,10 +6438,10 @@
         <v>28</v>
       </c>
       <c r="D143" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E143" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -6440,10 +6452,10 @@
         <v>29</v>
       </c>
       <c r="D144" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E144" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -6454,10 +6466,10 @@
         <v>29</v>
       </c>
       <c r="D145" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -6468,10 +6480,10 @@
         <v>29</v>
       </c>
       <c r="D146" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E146" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -6482,10 +6494,10 @@
         <v>29</v>
       </c>
       <c r="D147" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E147" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -6496,10 +6508,10 @@
         <v>29</v>
       </c>
       <c r="D148" s="2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E148" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -6510,10 +6522,10 @@
         <v>29</v>
       </c>
       <c r="D149" s="2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E149" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -6524,10 +6536,10 @@
         <v>29</v>
       </c>
       <c r="D150" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E150" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -6538,10 +6550,10 @@
         <v>30</v>
       </c>
       <c r="D151" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E151" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -6552,10 +6564,10 @@
         <v>30</v>
       </c>
       <c r="D152" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -6566,10 +6578,10 @@
         <v>30</v>
       </c>
       <c r="D153" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E153" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -6580,10 +6592,10 @@
         <v>30</v>
       </c>
       <c r="D154" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E154" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -6594,10 +6606,10 @@
         <v>30</v>
       </c>
       <c r="D155" s="2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E155" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -6608,10 +6620,10 @@
         <v>30</v>
       </c>
       <c r="D156" s="2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E156" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -6622,10 +6634,10 @@
         <v>30</v>
       </c>
       <c r="D157" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E157" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -6636,10 +6648,10 @@
         <v>31</v>
       </c>
       <c r="D158" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E158" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -6650,10 +6662,10 @@
         <v>31</v>
       </c>
       <c r="D159" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -6664,10 +6676,10 @@
         <v>31</v>
       </c>
       <c r="D160" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E160" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -6678,10 +6690,10 @@
         <v>31</v>
       </c>
       <c r="D161" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E161" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -6692,10 +6704,10 @@
         <v>31</v>
       </c>
       <c r="D162" s="2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E162" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -6706,10 +6718,10 @@
         <v>31</v>
       </c>
       <c r="D163" s="2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E163" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -6720,10 +6732,10 @@
         <v>31</v>
       </c>
       <c r="D164" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E164" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -6734,10 +6746,10 @@
         <v>32</v>
       </c>
       <c r="D165" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E165" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -6748,10 +6760,10 @@
         <v>32</v>
       </c>
       <c r="D166" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -6762,10 +6774,10 @@
         <v>32</v>
       </c>
       <c r="D167" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E167" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -6776,10 +6788,10 @@
         <v>32</v>
       </c>
       <c r="D168" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E168" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -6790,10 +6802,10 @@
         <v>32</v>
       </c>
       <c r="D169" s="2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E169" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -6804,10 +6816,10 @@
         <v>32</v>
       </c>
       <c r="D170" s="2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E170" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -6818,10 +6830,10 @@
         <v>32</v>
       </c>
       <c r="D171" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E171" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -6832,10 +6844,10 @@
         <v>33</v>
       </c>
       <c r="D172" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E172" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -6846,10 +6858,10 @@
         <v>33</v>
       </c>
       <c r="D173" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -6860,10 +6872,10 @@
         <v>33</v>
       </c>
       <c r="D174" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E174" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -6874,10 +6886,10 @@
         <v>33</v>
       </c>
       <c r="D175" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E175" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -6888,10 +6900,10 @@
         <v>33</v>
       </c>
       <c r="D176" s="2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E176" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -6902,10 +6914,10 @@
         <v>33</v>
       </c>
       <c r="D177" s="2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E177" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -6916,10 +6928,10 @@
         <v>33</v>
       </c>
       <c r="D178" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E178" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -6944,7 +6956,7 @@
         <v>9</v>
       </c>
       <c r="D180" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E180" t="s">
         <v>57</v>
@@ -6958,7 +6970,7 @@
         <v>9</v>
       </c>
       <c r="D181" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E181" t="s">
         <v>57</v>
@@ -6972,7 +6984,7 @@
         <v>9</v>
       </c>
       <c r="D182" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E182" t="s">
         <v>57</v>
@@ -6986,7 +6998,7 @@
         <v>9</v>
       </c>
       <c r="D183" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E183" t="s">
         <v>57</v>
@@ -7000,7 +7012,7 @@
         <v>9</v>
       </c>
       <c r="D184" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E184" t="s">
         <v>57</v>
@@ -7014,7 +7026,7 @@
         <v>9</v>
       </c>
       <c r="D185" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E185" t="s">
         <v>57</v>
@@ -7031,7 +7043,7 @@
         <v>2</v>
       </c>
       <c r="E186" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -7042,7 +7054,7 @@
         <v>9</v>
       </c>
       <c r="D187" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E187" t="s">
         <v>57</v>
@@ -7056,10 +7068,10 @@
         <v>34</v>
       </c>
       <c r="D188" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E188" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -7070,10 +7082,10 @@
         <v>34</v>
       </c>
       <c r="D189" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -7084,10 +7096,10 @@
         <v>34</v>
       </c>
       <c r="D190" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E190" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -7098,10 +7110,10 @@
         <v>34</v>
       </c>
       <c r="D191" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E191" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -7112,10 +7124,10 @@
         <v>34</v>
       </c>
       <c r="D192" s="2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E192" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -7126,10 +7138,10 @@
         <v>34</v>
       </c>
       <c r="D193" s="2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E193" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -7140,10 +7152,10 @@
         <v>34</v>
       </c>
       <c r="D194" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E194" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -7154,10 +7166,10 @@
         <v>35</v>
       </c>
       <c r="D195" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E195" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -7168,10 +7180,10 @@
         <v>35</v>
       </c>
       <c r="D196" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -7182,10 +7194,10 @@
         <v>35</v>
       </c>
       <c r="D197" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E197" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -7196,10 +7208,10 @@
         <v>35</v>
       </c>
       <c r="D198" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E198" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -7210,10 +7222,10 @@
         <v>35</v>
       </c>
       <c r="D199" s="2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E199" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -7224,10 +7236,10 @@
         <v>35</v>
       </c>
       <c r="D200" s="2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E200" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -7238,10 +7250,10 @@
         <v>35</v>
       </c>
       <c r="D201" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E201" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -7266,7 +7278,7 @@
         <v>13</v>
       </c>
       <c r="D203" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E203" t="s">
         <v>57</v>
@@ -7280,7 +7292,7 @@
         <v>13</v>
       </c>
       <c r="D204" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E204" t="s">
         <v>57</v>
@@ -7294,7 +7306,7 @@
         <v>13</v>
       </c>
       <c r="D205" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E205" t="s">
         <v>57</v>
@@ -7308,7 +7320,7 @@
         <v>13</v>
       </c>
       <c r="D206" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E206" t="s">
         <v>57</v>
@@ -7322,7 +7334,7 @@
         <v>13</v>
       </c>
       <c r="D207" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E207" t="s">
         <v>57</v>
@@ -7336,7 +7348,7 @@
         <v>13</v>
       </c>
       <c r="D208" s="2">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E208" t="s">
         <v>57</v>
@@ -7353,7 +7365,7 @@
         <v>2</v>
       </c>
       <c r="E209" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -7364,7 +7376,7 @@
         <v>13</v>
       </c>
       <c r="D210" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E210" t="s">
         <v>57</v>
@@ -7381,7 +7393,7 @@
         <v>1</v>
       </c>
       <c r="E211" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -7395,7 +7407,7 @@
         <v>1</v>
       </c>
       <c r="E212" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -7409,7 +7421,7 @@
         <v>1</v>
       </c>
       <c r="E213" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -7423,7 +7435,7 @@
         <v>1</v>
       </c>
       <c r="E214" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -7437,7 +7449,7 @@
         <v>1</v>
       </c>
       <c r="E215" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -7451,26 +7463,26 @@
         <v>1</v>
       </c>
       <c r="E216" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D217" s="2">
         <v>1</v>
       </c>
       <c r="E217" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E201">
-    <sortState ref="A2:E216">
+  <autoFilter ref="A1:E201" xr:uid="{00000000-0009-0000-0000-000003000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E216">
       <sortCondition ref="B1:B201"/>
     </sortState>
   </autoFilter>

--- a/data-builder/augments.xlsx
+++ b/data-builder/augments.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47E8E6B-FEEC-49A6-8250-7788A64FEC48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Yellow" sheetId="6" r:id="rId1"/>
@@ -20,7 +14,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Blue!$A$1:$E$46</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Colorless!$A$1:$E$201</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Colorless!$A$1:$E$219</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Red!$A$1:$E$121</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Yellow!$A$1:$E$76</definedName>
   </definedNames>
@@ -34,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="129">
   <si>
     <t>Minimum Level</t>
   </si>
@@ -336,9 +330,6 @@
     <t>Competence</t>
   </si>
   <si>
-    <t>Physical Sheltering</t>
-  </si>
-  <si>
     <t>The Master's Gift</t>
   </si>
   <si>
@@ -370,12 +361,66 @@
   </si>
   <si>
     <t>8d6</t>
+  </si>
+  <si>
+    <t>Diamond of Festive Charisma +2</t>
+  </si>
+  <si>
+    <t>Diamond of Festive Dexterity +2</t>
+  </si>
+  <si>
+    <t>Sheltering</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Dodge</t>
+  </si>
+  <si>
+    <t>Vertigo</t>
+  </si>
+  <si>
+    <t>Stunning</t>
+  </si>
+  <si>
+    <t>Shatter</t>
+  </si>
+  <si>
+    <t>Sonic Resistance</t>
+  </si>
+  <si>
+    <t>Deadly</t>
+  </si>
+  <si>
+    <t>Spell Penetration</t>
+  </si>
+  <si>
+    <t>Swiftness</t>
+  </si>
+  <si>
+    <t>Deconstructor</t>
+  </si>
+  <si>
+    <t>Destruction</t>
+  </si>
+  <si>
+    <t>Sapphire of Heroism</t>
+  </si>
+  <si>
+    <t>Heroism</t>
+  </si>
+  <si>
+    <t>Greater Heroism</t>
+  </si>
+  <si>
+    <t>Sapphire of Greater Heroism</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -724,19 +769,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,7 +811,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>47</v>
@@ -780,7 +825,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>36</v>
@@ -794,7 +839,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>37</v>
@@ -808,7 +853,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>38</v>
@@ -822,7 +867,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>48</v>
@@ -836,7 +881,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>49</v>
@@ -912,7 +957,7 @@
         <v>48</v>
       </c>
       <c r="D12" s="5">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
         <v>57</v>
@@ -929,7 +974,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -943,7 +988,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1052,7 +1097,7 @@
         <v>48</v>
       </c>
       <c r="D22" s="5">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="E22" t="s">
         <v>57</v>
@@ -1097,7 +1142,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1111,7 +1156,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1192,7 +1237,7 @@
         <v>48</v>
       </c>
       <c r="D32" s="5">
-        <v>75</v>
+        <v>129</v>
       </c>
       <c r="E32" t="s">
         <v>57</v>
@@ -1237,7 +1282,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -1245,10 +1290,10 @@
         <v>12</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="D36" s="5">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E36" t="s">
         <v>57</v>
@@ -1318,7 +1363,7 @@
         <v>48</v>
       </c>
       <c r="D41" s="5">
-        <v>100</v>
+        <v>162</v>
       </c>
       <c r="E41" t="s">
         <v>57</v>
@@ -1455,10 +1500,10 @@
         <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="D51" s="5">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
         <v>57</v>
@@ -1528,7 +1573,7 @@
         <v>48</v>
       </c>
       <c r="D56" s="5">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="E56" t="s">
         <v>57</v>
@@ -1567,10 +1612,10 @@
         <v>20</v>
       </c>
       <c r="C59" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="D59" s="5">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E59" t="s">
         <v>57</v>
@@ -1604,7 +1649,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>24</v>
       </c>
@@ -1618,7 +1663,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>24</v>
       </c>
@@ -1632,7 +1677,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>24</v>
       </c>
@@ -1640,13 +1685,13 @@
         <v>48</v>
       </c>
       <c r="D64" s="5">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="E64" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>24</v>
       </c>
@@ -1660,7 +1705,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>24</v>
       </c>
@@ -1674,7 +1719,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>24</v>
       </c>
@@ -1688,7 +1733,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>24</v>
       </c>
@@ -1702,7 +1747,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>24</v>
       </c>
@@ -1716,7 +1761,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>24</v>
       </c>
@@ -1730,7 +1775,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>24</v>
       </c>
@@ -1808,7 +1853,7 @@
         <v>48</v>
       </c>
       <c r="D76" s="5">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="E76" t="s">
         <v>57</v>
@@ -1896,22 +1941,253 @@
         <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>57</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>119</v>
+      </c>
+      <c r="D82" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>4</v>
+      </c>
+      <c r="C83" t="s">
+        <v>119</v>
+      </c>
+      <c r="D83" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>8</v>
+      </c>
+      <c r="C84" t="s">
+        <v>119</v>
+      </c>
+      <c r="D84" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>12</v>
+      </c>
+      <c r="C85" t="s">
+        <v>119</v>
+      </c>
+      <c r="D85" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>16</v>
+      </c>
+      <c r="C86" t="s">
+        <v>119</v>
+      </c>
+      <c r="D86" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>20</v>
+      </c>
+      <c r="C87" t="s">
+        <v>119</v>
+      </c>
+      <c r="D87" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>24</v>
+      </c>
+      <c r="C88" t="s">
+        <v>119</v>
+      </c>
+      <c r="D88" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>28</v>
+      </c>
+      <c r="C89" t="s">
+        <v>119</v>
+      </c>
+      <c r="D89" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>120</v>
+      </c>
+      <c r="D90" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>4</v>
+      </c>
+      <c r="C91" t="s">
+        <v>120</v>
+      </c>
+      <c r="D91" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>8</v>
+      </c>
+      <c r="C92" t="s">
+        <v>120</v>
+      </c>
+      <c r="D92" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>12</v>
+      </c>
+      <c r="C93" t="s">
+        <v>120</v>
+      </c>
+      <c r="D93" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>16</v>
+      </c>
+      <c r="C94" t="s">
+        <v>120</v>
+      </c>
+      <c r="D94" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>20</v>
+      </c>
+      <c r="C95" t="s">
+        <v>120</v>
+      </c>
+      <c r="D95" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>24</v>
+      </c>
+      <c r="C96" t="s">
+        <v>120</v>
+      </c>
+      <c r="D96" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>28</v>
+      </c>
+      <c r="C97" t="s">
+        <v>120</v>
+      </c>
+      <c r="D97" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>121</v>
+      </c>
+      <c r="D98" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>4</v>
+      </c>
+      <c r="C99" t="s">
+        <v>121</v>
+      </c>
+      <c r="D99" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>12</v>
+      </c>
+      <c r="C100" t="s">
+        <v>121</v>
+      </c>
+      <c r="D100" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>20</v>
+      </c>
+      <c r="C101" t="s">
+        <v>121</v>
+      </c>
+      <c r="D101" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>24</v>
+      </c>
+      <c r="C102" t="s">
+        <v>121</v>
+      </c>
+      <c r="D102" s="5">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E76" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E76"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1942,7 +2218,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>53</v>
@@ -1956,7 +2232,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>54</v>
@@ -1970,7 +2246,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>55</v>
@@ -1984,13 +2260,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D5" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
         <v>57</v>
@@ -1998,7 +2274,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>56</v>
@@ -2012,7 +2288,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>58</v>
@@ -2071,10 +2347,10 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D11" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
         <v>57</v>
@@ -2155,10 +2431,10 @@
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D17" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
         <v>57</v>
@@ -2239,10 +2515,10 @@
         <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D23" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E23" t="s">
         <v>57</v>
@@ -2323,10 +2599,10 @@
         <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D29" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E29" t="s">
         <v>57</v>
@@ -2393,10 +2669,10 @@
         <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D34" s="2">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E34" t="s">
         <v>57</v>
@@ -2466,7 +2742,7 @@
         <v>55</v>
       </c>
       <c r="D39" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E39" t="s">
         <v>57</v>
@@ -2477,7 +2753,7 @@
         <v>24</v>
       </c>
       <c r="C40" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D40" s="2">
         <v>14</v>
@@ -2536,7 +2812,7 @@
         <v>55</v>
       </c>
       <c r="D44" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
         <v>57</v>
@@ -2547,10 +2823,10 @@
         <v>28</v>
       </c>
       <c r="C45" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D45" s="2">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="E45" t="s">
         <v>57</v>
@@ -2575,7 +2851,7 @@
         <v>12</v>
       </c>
       <c r="C47" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D47" s="5">
         <v>5</v>
@@ -2589,7 +2865,7 @@
         <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D48" s="5">
         <v>10</v>
@@ -2603,7 +2879,7 @@
         <v>20</v>
       </c>
       <c r="C49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D49" s="5">
         <v>15</v>
@@ -2617,7 +2893,7 @@
         <v>12</v>
       </c>
       <c r="C50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D50" s="5">
         <v>1</v>
@@ -2631,7 +2907,7 @@
         <v>20</v>
       </c>
       <c r="C51" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D51" s="5">
         <v>2</v>
@@ -2640,19 +2916,613 @@
         <v>57</v>
       </c>
     </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>114</v>
+      </c>
+      <c r="D52" s="5">
+        <v>2</v>
+      </c>
+      <c r="E52" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>4</v>
+      </c>
+      <c r="C53" t="s">
+        <v>114</v>
+      </c>
+      <c r="D53" s="5">
+        <v>5</v>
+      </c>
+      <c r="E53" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>8</v>
+      </c>
+      <c r="C54" t="s">
+        <v>114</v>
+      </c>
+      <c r="D54" s="5">
+        <v>8</v>
+      </c>
+      <c r="E54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>12</v>
+      </c>
+      <c r="C55" t="s">
+        <v>114</v>
+      </c>
+      <c r="D55">
+        <v>10</v>
+      </c>
+      <c r="E55" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>16</v>
+      </c>
+      <c r="C56" t="s">
+        <v>114</v>
+      </c>
+      <c r="D56">
+        <v>12</v>
+      </c>
+      <c r="E56" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>20</v>
+      </c>
+      <c r="C57" t="s">
+        <v>114</v>
+      </c>
+      <c r="D57">
+        <v>15</v>
+      </c>
+      <c r="E57" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>24</v>
+      </c>
+      <c r="C58" t="s">
+        <v>114</v>
+      </c>
+      <c r="D58">
+        <v>17</v>
+      </c>
+      <c r="E58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>28</v>
+      </c>
+      <c r="C59" t="s">
+        <v>114</v>
+      </c>
+      <c r="D59">
+        <v>20</v>
+      </c>
+      <c r="E59" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>115</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>4</v>
+      </c>
+      <c r="C61" t="s">
+        <v>115</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>8</v>
+      </c>
+      <c r="C62" t="s">
+        <v>115</v>
+      </c>
+      <c r="D62">
+        <v>5</v>
+      </c>
+      <c r="E62" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>12</v>
+      </c>
+      <c r="C63" t="s">
+        <v>115</v>
+      </c>
+      <c r="D63">
+        <v>6</v>
+      </c>
+      <c r="E63" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>16</v>
+      </c>
+      <c r="C64" t="s">
+        <v>115</v>
+      </c>
+      <c r="D64">
+        <v>8</v>
+      </c>
+      <c r="E64" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>20</v>
+      </c>
+      <c r="C65" t="s">
+        <v>115</v>
+      </c>
+      <c r="D65">
+        <v>9</v>
+      </c>
+      <c r="E65" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>24</v>
+      </c>
+      <c r="C66" t="s">
+        <v>115</v>
+      </c>
+      <c r="D66">
+        <v>11</v>
+      </c>
+      <c r="E66" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>28</v>
+      </c>
+      <c r="C67" t="s">
+        <v>115</v>
+      </c>
+      <c r="D67">
+        <v>12</v>
+      </c>
+      <c r="E67" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>116</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>4</v>
+      </c>
+      <c r="C69" t="s">
+        <v>116</v>
+      </c>
+      <c r="D69">
+        <v>4</v>
+      </c>
+      <c r="E69" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>8</v>
+      </c>
+      <c r="C70" t="s">
+        <v>116</v>
+      </c>
+      <c r="D70">
+        <v>6</v>
+      </c>
+      <c r="E70" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>12</v>
+      </c>
+      <c r="C71" t="s">
+        <v>116</v>
+      </c>
+      <c r="D71">
+        <v>7</v>
+      </c>
+      <c r="E71" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>16</v>
+      </c>
+      <c r="C72" t="s">
+        <v>116</v>
+      </c>
+      <c r="D72">
+        <v>9</v>
+      </c>
+      <c r="E72" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>20</v>
+      </c>
+      <c r="C73" t="s">
+        <v>116</v>
+      </c>
+      <c r="D73">
+        <v>11</v>
+      </c>
+      <c r="E73" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>24</v>
+      </c>
+      <c r="C74" t="s">
+        <v>116</v>
+      </c>
+      <c r="D74">
+        <v>12</v>
+      </c>
+      <c r="E74" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>28</v>
+      </c>
+      <c r="C75" t="s">
+        <v>116</v>
+      </c>
+      <c r="D75">
+        <v>14</v>
+      </c>
+      <c r="E75" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>117</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>4</v>
+      </c>
+      <c r="C77" t="s">
+        <v>117</v>
+      </c>
+      <c r="D77">
+        <v>4</v>
+      </c>
+      <c r="E77" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>8</v>
+      </c>
+      <c r="C78" t="s">
+        <v>117</v>
+      </c>
+      <c r="D78">
+        <v>6</v>
+      </c>
+      <c r="E78" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>12</v>
+      </c>
+      <c r="C79" t="s">
+        <v>117</v>
+      </c>
+      <c r="D79">
+        <v>7</v>
+      </c>
+      <c r="E79" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>16</v>
+      </c>
+      <c r="C80" t="s">
+        <v>117</v>
+      </c>
+      <c r="D80">
+        <v>9</v>
+      </c>
+      <c r="E80" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>20</v>
+      </c>
+      <c r="C81" t="s">
+        <v>117</v>
+      </c>
+      <c r="D81">
+        <v>11</v>
+      </c>
+      <c r="E81" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>24</v>
+      </c>
+      <c r="C82" t="s">
+        <v>117</v>
+      </c>
+      <c r="D82">
+        <v>12</v>
+      </c>
+      <c r="E82" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>28</v>
+      </c>
+      <c r="C83" t="s">
+        <v>117</v>
+      </c>
+      <c r="D83">
+        <v>14</v>
+      </c>
+      <c r="E83" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>118</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>4</v>
+      </c>
+      <c r="C85" t="s">
+        <v>118</v>
+      </c>
+      <c r="D85">
+        <v>4</v>
+      </c>
+      <c r="E85" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>8</v>
+      </c>
+      <c r="C86" t="s">
+        <v>118</v>
+      </c>
+      <c r="D86">
+        <v>6</v>
+      </c>
+      <c r="E86" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>12</v>
+      </c>
+      <c r="C87" t="s">
+        <v>118</v>
+      </c>
+      <c r="D87">
+        <v>7</v>
+      </c>
+      <c r="E87" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>16</v>
+      </c>
+      <c r="C88" t="s">
+        <v>118</v>
+      </c>
+      <c r="D88">
+        <v>9</v>
+      </c>
+      <c r="E88" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>20</v>
+      </c>
+      <c r="C89" t="s">
+        <v>118</v>
+      </c>
+      <c r="D89">
+        <v>11</v>
+      </c>
+      <c r="E89" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>24</v>
+      </c>
+      <c r="C90" t="s">
+        <v>118</v>
+      </c>
+      <c r="D90">
+        <v>12</v>
+      </c>
+      <c r="E90" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>28</v>
+      </c>
+      <c r="C91" t="s">
+        <v>118</v>
+      </c>
+      <c r="D91">
+        <v>14</v>
+      </c>
+      <c r="E91" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>6</v>
+      </c>
+      <c r="B92" t="s">
+        <v>125</v>
+      </c>
+      <c r="C92" t="s">
+        <v>126</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>28</v>
+      </c>
+      <c r="B93" t="s">
+        <v>128</v>
+      </c>
+      <c r="C93" t="s">
+        <v>127</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+      <c r="E93" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E46" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:E46"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="F121" sqref="F121"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2682,7 +3552,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -2696,7 +3566,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>61</v>
@@ -2710,7 +3580,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>62</v>
@@ -2724,7 +3594,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>63</v>
@@ -2738,7 +3608,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" t="s">
@@ -2753,7 +3623,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" t="s">
@@ -2768,7 +3638,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" t="s">
@@ -2783,7 +3653,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" t="s">
@@ -2798,7 +3668,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" t="s">
@@ -2813,7 +3683,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" t="s">
@@ -2828,7 +3698,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" t="s">
@@ -2843,7 +3713,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" t="s">
@@ -2858,7 +3728,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" t="s">
@@ -2873,7 +3743,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" t="s">
@@ -3090,7 +3960,7 @@
         <v>60</v>
       </c>
       <c r="D30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E30" t="s">
         <v>57</v>
@@ -3104,7 +3974,7 @@
         <v>61</v>
       </c>
       <c r="D31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E31" t="s">
         <v>57</v>
@@ -3118,7 +3988,7 @@
         <v>62</v>
       </c>
       <c r="D32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E32" t="s">
         <v>57</v>
@@ -3132,7 +4002,7 @@
         <v>63</v>
       </c>
       <c r="D33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E33" t="s">
         <v>57</v>
@@ -3149,7 +4019,7 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -3163,7 +4033,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -3177,7 +4047,7 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -3191,7 +4061,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -3342,7 +4212,7 @@
         <v>60</v>
       </c>
       <c r="D48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E48" t="s">
         <v>57</v>
@@ -3356,7 +4226,7 @@
         <v>61</v>
       </c>
       <c r="D49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E49" t="s">
         <v>57</v>
@@ -3370,7 +4240,7 @@
         <v>62</v>
       </c>
       <c r="D50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E50" t="s">
         <v>57</v>
@@ -3384,7 +4254,7 @@
         <v>63</v>
       </c>
       <c r="D51" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E51" t="s">
         <v>57</v>
@@ -3401,7 +4271,7 @@
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -3415,7 +4285,7 @@
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -3566,7 +4436,7 @@
         <v>60</v>
       </c>
       <c r="D64" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E64" t="s">
         <v>57</v>
@@ -3580,7 +4450,7 @@
         <v>61</v>
       </c>
       <c r="D65" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E65" t="s">
         <v>57</v>
@@ -3594,7 +4464,7 @@
         <v>62</v>
       </c>
       <c r="D66" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E66" t="s">
         <v>57</v>
@@ -3608,7 +4478,7 @@
         <v>63</v>
       </c>
       <c r="D67" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E67" t="s">
         <v>57</v>
@@ -3625,7 +4495,7 @@
         <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -3639,7 +4509,7 @@
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -3790,7 +4660,7 @@
         <v>60</v>
       </c>
       <c r="D80" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E80" t="s">
         <v>57</v>
@@ -3804,7 +4674,7 @@
         <v>61</v>
       </c>
       <c r="D81" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E81" t="s">
         <v>57</v>
@@ -3818,7 +4688,7 @@
         <v>62</v>
       </c>
       <c r="D82" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E82" t="s">
         <v>57</v>
@@ -3832,7 +4702,7 @@
         <v>63</v>
       </c>
       <c r="D83" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E83" t="s">
         <v>57</v>
@@ -3986,7 +4856,7 @@
         <v>60</v>
       </c>
       <c r="D94" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E94" t="s">
         <v>57</v>
@@ -4000,7 +4870,7 @@
         <v>61</v>
       </c>
       <c r="D95" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E95" t="s">
         <v>57</v>
@@ -4014,7 +4884,7 @@
         <v>62</v>
       </c>
       <c r="D96" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E96" t="s">
         <v>57</v>
@@ -4028,7 +4898,7 @@
         <v>63</v>
       </c>
       <c r="D97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E97" t="s">
         <v>57</v>
@@ -4182,7 +5052,7 @@
         <v>60</v>
       </c>
       <c r="D108" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E108" t="s">
         <v>57</v>
@@ -4196,7 +5066,7 @@
         <v>61</v>
       </c>
       <c r="D109" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E109" t="s">
         <v>57</v>
@@ -4210,7 +5080,7 @@
         <v>62</v>
       </c>
       <c r="D110" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E110" t="s">
         <v>57</v>
@@ -4224,7 +5094,7 @@
         <v>63</v>
       </c>
       <c r="D111" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E111" t="s">
         <v>57</v>
@@ -4370,20 +5240,54 @@
         <v>86</v>
       </c>
     </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>28</v>
+      </c>
+      <c r="B122" t="s">
+        <v>123</v>
+      </c>
+      <c r="C122" t="s">
+        <v>83</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>28</v>
+      </c>
+      <c r="B123" t="s">
+        <v>123</v>
+      </c>
+      <c r="C123" t="s">
+        <v>124</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E121" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:E121"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E217"/>
+  <dimension ref="A1:E219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="J223" sqref="J223"/>
+    <sheetView topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4413,50 +5317,41 @@
     </row>
     <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>57</v>
@@ -4464,16 +5359,13 @@
     </row>
     <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
       </c>
       <c r="E5" t="s">
         <v>57</v>
@@ -4481,16 +5373,13 @@
     </row>
     <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
       </c>
       <c r="E6" t="s">
         <v>57</v>
@@ -4498,16 +5387,13 @@
     </row>
     <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
       </c>
       <c r="E7" t="s">
         <v>57</v>
@@ -4515,155 +5401,128 @@
     </row>
     <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
+        <v>16</v>
+      </c>
+      <c r="D8" s="2">
+        <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="D9" s="2">
+        <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
+        <v>18</v>
+      </c>
+      <c r="D10" s="2">
+        <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>25</v>
-      </c>
-      <c r="B11" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="D11" s="2">
+        <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="D12" s="2">
+        <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="D13" s="2">
+        <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>25</v>
-      </c>
-      <c r="B14" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="D14" s="2">
+        <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="D15" s="2">
+        <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
         <v>25</v>
       </c>
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
+      <c r="D16" s="2">
+        <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -4671,7 +5530,7 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D17" s="2">
         <v>5</v>
@@ -4682,13 +5541,13 @@
     </row>
     <row r="18" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E18" t="s">
         <v>99</v>
@@ -4696,13 +5555,13 @@
     </row>
     <row r="19" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E19" t="s">
         <v>99</v>
@@ -4710,13 +5569,13 @@
     </row>
     <row r="20" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D20" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E20" t="s">
         <v>99</v>
@@ -4724,13 +5583,13 @@
     </row>
     <row r="21" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D21" s="2">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E21" t="s">
         <v>99</v>
@@ -4738,13 +5597,13 @@
     </row>
     <row r="22" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D22" s="2">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E22" t="s">
         <v>99</v>
@@ -4752,13 +5611,13 @@
     </row>
     <row r="23" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D23" s="2">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E23" t="s">
         <v>99</v>
@@ -4769,7 +5628,7 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D24" s="2">
         <v>5</v>
@@ -4780,13 +5639,13 @@
     </row>
     <row r="25" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D25" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E25" t="s">
         <v>99</v>
@@ -4794,13 +5653,13 @@
     </row>
     <row r="26" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D26" s="2">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E26" t="s">
         <v>99</v>
@@ -4808,69 +5667,69 @@
     </row>
     <row r="27" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D27" s="2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D28" s="2">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D29" s="2">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D30" s="2">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D31" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E31" t="s">
         <v>57</v>
@@ -4881,7 +5740,7 @@
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2">
         <v>3</v>
@@ -4892,13 +5751,13 @@
     </row>
     <row r="33" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E33" t="s">
         <v>57</v>
@@ -4906,97 +5765,97 @@
     </row>
     <row r="34" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D34" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D35" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D36" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D37" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D38" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D39" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D40" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
         <v>99</v>
@@ -5007,7 +5866,7 @@
         <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D41" s="2">
         <v>10</v>
@@ -5018,13 +5877,13 @@
     </row>
     <row r="42" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D42" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
         <v>99</v>
@@ -5032,13 +5891,13 @@
     </row>
     <row r="43" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D43" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
         <v>99</v>
@@ -5046,13 +5905,13 @@
     </row>
     <row r="44" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D44" s="2">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
         <v>99</v>
@@ -5060,13 +5919,13 @@
     </row>
     <row r="45" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D45" s="2">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
         <v>99</v>
@@ -5074,13 +5933,13 @@
     </row>
     <row r="46" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D46" s="2">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
         <v>99</v>
@@ -5088,30 +5947,30 @@
     </row>
     <row r="47" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="D47" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D48" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5119,66 +5978,66 @@
         <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D49" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D50" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="D51" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D52" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D53" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E53" t="s">
         <v>57</v>
@@ -5186,27 +6045,27 @@
     </row>
     <row r="54" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
         <v>11</v>
       </c>
       <c r="D54" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E54" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D55" s="2">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E55" t="s">
         <v>57</v>
@@ -5214,13 +6073,13 @@
     </row>
     <row r="56" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D56" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E56" t="s">
         <v>57</v>
@@ -5228,13 +6087,13 @@
     </row>
     <row r="57" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
+        <v>24</v>
+      </c>
+      <c r="D57" s="2">
         <v>10</v>
-      </c>
-      <c r="D57" s="2">
-        <v>2</v>
       </c>
       <c r="E57" t="s">
         <v>57</v>
@@ -5245,10 +6104,10 @@
         <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E58" t="s">
         <v>57</v>
@@ -5256,13 +6115,13 @@
     </row>
     <row r="59" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D59" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E59" t="s">
         <v>57</v>
@@ -5270,13 +6129,16 @@
     </row>
     <row r="60" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="B60" t="s">
+        <v>41</v>
       </c>
       <c r="C60" t="s">
-        <v>10</v>
-      </c>
-      <c r="D60" s="2">
-        <v>5</v>
+        <v>87</v>
+      </c>
+      <c r="D60">
+        <v>20</v>
       </c>
       <c r="E60" t="s">
         <v>57</v>
@@ -5284,69 +6146,69 @@
     </row>
     <row r="61" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D61" s="2">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E61" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D62" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E62" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D63" s="2">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E63" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D64" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E64" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D65" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E65" t="s">
         <v>99</v>
@@ -5354,13 +6216,13 @@
     </row>
     <row r="66" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D66" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E66" t="s">
         <v>99</v>
@@ -5371,7 +6233,7 @@
         <v>12</v>
       </c>
       <c r="C67" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D67" s="2">
         <v>13</v>
@@ -5382,13 +6244,13 @@
     </row>
     <row r="68" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D68" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E68" t="s">
         <v>99</v>
@@ -5396,13 +6258,13 @@
     </row>
     <row r="69" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D69" s="2">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E69" t="s">
         <v>99</v>
@@ -5410,13 +6272,13 @@
     </row>
     <row r="70" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D70" s="2">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E70" t="s">
         <v>99</v>
@@ -5424,13 +6286,13 @@
     </row>
     <row r="71" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D71" s="2">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E71" t="s">
         <v>99</v>
@@ -5438,13 +6300,13 @@
     </row>
     <row r="72" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D72" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E72" t="s">
         <v>99</v>
@@ -5452,13 +6314,13 @@
     </row>
     <row r="73" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D73" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E73" t="s">
         <v>99</v>
@@ -5469,7 +6331,7 @@
         <v>12</v>
       </c>
       <c r="C74" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D74" s="2">
         <v>13</v>
@@ -5480,13 +6342,13 @@
     </row>
     <row r="75" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D75" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E75" t="s">
         <v>99</v>
@@ -5494,13 +6356,13 @@
     </row>
     <row r="76" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D76" s="2">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E76" t="s">
         <v>99</v>
@@ -5508,13 +6370,13 @@
     </row>
     <row r="77" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D77" s="2">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E77" t="s">
         <v>99</v>
@@ -5522,13 +6384,13 @@
     </row>
     <row r="78" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D78" s="2">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E78" t="s">
         <v>99</v>
@@ -5536,13 +6398,13 @@
     </row>
     <row r="79" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D79" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E79" t="s">
         <v>99</v>
@@ -5550,16 +6412,16 @@
     </row>
     <row r="80" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D80" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E80" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5567,178 +6429,196 @@
         <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D81" s="2">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E81" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C82" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D82" s="2">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E82" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D83" s="2">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E83" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A84">
+        <v>12</v>
+      </c>
+      <c r="C84" t="s">
         <v>24</v>
       </c>
-      <c r="C84" t="s">
-        <v>21</v>
-      </c>
       <c r="D84" s="2">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E84" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C85" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E85" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C86" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D86" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E86" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="B87" t="s">
+        <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>22</v>
-      </c>
-      <c r="D87" s="2">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="D87">
+        <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="B88" t="s">
+        <v>89</v>
       </c>
       <c r="C88" t="s">
-        <v>22</v>
-      </c>
-      <c r="D88" s="2">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="D88">
+        <v>3</v>
       </c>
       <c r="E88" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="B89" t="s">
+        <v>89</v>
       </c>
       <c r="C89" t="s">
-        <v>22</v>
-      </c>
-      <c r="D89" s="2">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="D89">
+        <v>3</v>
       </c>
       <c r="E89" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="B90" t="s">
+        <v>89</v>
       </c>
       <c r="C90" t="s">
-        <v>22</v>
-      </c>
-      <c r="D90" s="2">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="D90">
+        <v>3</v>
       </c>
       <c r="E90" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="B91" t="s">
+        <v>89</v>
       </c>
       <c r="C91" t="s">
-        <v>22</v>
-      </c>
-      <c r="D91" s="2">
-        <v>18</v>
+        <v>9</v>
+      </c>
+      <c r="D91">
+        <v>3</v>
       </c>
       <c r="E91" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>28</v>
+        <v>14</v>
+      </c>
+      <c r="B92" t="s">
+        <v>89</v>
       </c>
       <c r="C92" t="s">
-        <v>22</v>
-      </c>
-      <c r="D92" s="2">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="D92">
+        <v>3</v>
       </c>
       <c r="E92" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C93" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D93" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E93" t="s">
         <v>99</v>
@@ -5746,13 +6626,13 @@
     </row>
     <row r="94" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C94" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D94" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E94" t="s">
         <v>99</v>
@@ -5760,13 +6640,13 @@
     </row>
     <row r="95" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C95" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D95" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E95" t="s">
         <v>99</v>
@@ -5777,7 +6657,7 @@
         <v>16</v>
       </c>
       <c r="C96" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D96" s="2">
         <v>15</v>
@@ -5788,13 +6668,13 @@
     </row>
     <row r="97" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C97" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D97" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E97" t="s">
         <v>99</v>
@@ -5802,13 +6682,13 @@
     </row>
     <row r="98" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C98" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D98" s="2">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E98" t="s">
         <v>99</v>
@@ -5816,13 +6696,13 @@
     </row>
     <row r="99" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C99" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D99" s="2">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E99" t="s">
         <v>99</v>
@@ -5830,58 +6710,58 @@
     </row>
     <row r="100" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C100" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D100" s="2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E100" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C101" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D101" s="2">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E101" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C102" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D102" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E102" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C103" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D103" s="2">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E103" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5889,111 +6769,111 @@
         <v>16</v>
       </c>
       <c r="C104" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D104" s="2">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E104" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C105" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D105" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E105" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C106" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D106" s="2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E106" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C107" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D107" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E107" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C108" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D108" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E108" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C109" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D109" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E109" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C110" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D110" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E110" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C111" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D111" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E111" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6001,10 +6881,10 @@
         <v>16</v>
       </c>
       <c r="C112" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D112" s="2">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E112" t="s">
         <v>57</v>
@@ -6012,13 +6892,13 @@
     </row>
     <row r="113" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C113" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D113" s="2">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E113" t="s">
         <v>57</v>
@@ -6026,13 +6906,13 @@
     </row>
     <row r="114" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C114" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D114" s="2">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E114" t="s">
         <v>57</v>
@@ -6040,13 +6920,13 @@
     </row>
     <row r="115" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C115" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D115" s="2">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E115" t="s">
         <v>57</v>
@@ -6054,55 +6934,55 @@
     </row>
     <row r="116" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C116" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D116" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E116" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A117">
+        <v>16</v>
+      </c>
+      <c r="C117" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2">
         <v>8</v>
       </c>
-      <c r="C117" t="s">
-        <v>25</v>
-      </c>
-      <c r="D117" s="2">
-        <v>10</v>
-      </c>
       <c r="E117" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C118" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D118" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E118" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A119">
+        <v>20</v>
+      </c>
+      <c r="C119" t="s">
         <v>16</v>
       </c>
-      <c r="C119" t="s">
-        <v>25</v>
-      </c>
       <c r="D119" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E119" t="s">
         <v>99</v>
@@ -6113,7 +6993,7 @@
         <v>20</v>
       </c>
       <c r="C120" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D120" s="2">
         <v>17</v>
@@ -6124,13 +7004,13 @@
     </row>
     <row r="121" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C121" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D121" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E121" t="s">
         <v>99</v>
@@ -6138,13 +7018,13 @@
     </row>
     <row r="122" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C122" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D122" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E122" t="s">
         <v>99</v>
@@ -6152,13 +7032,13 @@
     </row>
     <row r="123" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C123" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D123" s="2">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E123" t="s">
         <v>99</v>
@@ -6166,13 +7046,13 @@
     </row>
     <row r="124" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C124" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D124" s="2">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E124" t="s">
         <v>99</v>
@@ -6180,13 +7060,13 @@
     </row>
     <row r="125" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C125" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D125" s="2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E125" t="s">
         <v>99</v>
@@ -6194,13 +7074,13 @@
     </row>
     <row r="126" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C126" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D126" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E126" t="s">
         <v>99</v>
@@ -6211,7 +7091,7 @@
         <v>20</v>
       </c>
       <c r="C127" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D127" s="2">
         <v>17</v>
@@ -6222,13 +7102,13 @@
     </row>
     <row r="128" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C128" t="s">
         <v>26</v>
       </c>
       <c r="D128" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E128" t="s">
         <v>99</v>
@@ -6236,13 +7116,13 @@
     </row>
     <row r="129" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C129" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D129" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E129" t="s">
         <v>99</v>
@@ -6250,13 +7130,13 @@
     </row>
     <row r="130" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C130" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D130" s="2">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E130" t="s">
         <v>99</v>
@@ -6264,13 +7144,13 @@
     </row>
     <row r="131" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C131" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D131" s="2">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E131" t="s">
         <v>99</v>
@@ -6278,13 +7158,13 @@
     </row>
     <row r="132" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C132" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D132" s="2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E132" t="s">
         <v>99</v>
@@ -6292,13 +7172,13 @@
     </row>
     <row r="133" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C133" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D133" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E133" t="s">
         <v>99</v>
@@ -6309,7 +7189,7 @@
         <v>20</v>
       </c>
       <c r="C134" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D134" s="2">
         <v>17</v>
@@ -6320,13 +7200,13 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C135" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D135" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E135" t="s">
         <v>99</v>
@@ -6334,13 +7214,13 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C136" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D136" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E136" t="s">
         <v>99</v>
@@ -6348,13 +7228,13 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C137" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D137" s="2">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E137" t="s">
         <v>99</v>
@@ -6362,44 +7242,44 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C138" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D138" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E138" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C139" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D139" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E139" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C140" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D140" s="2">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E140" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -6407,97 +7287,97 @@
         <v>20</v>
       </c>
       <c r="C141" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D141" s="2">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E141" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
+        <v>20</v>
+      </c>
+      <c r="C142" t="s">
         <v>24</v>
       </c>
-      <c r="C142" t="s">
-        <v>28</v>
-      </c>
       <c r="D142" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E142" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C143" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E143" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C144" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D144" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E144" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C145" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D145" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E145" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C146" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D146" s="2">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E146" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C147" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="D147" s="2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E147" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -6505,108 +7385,120 @@
         <v>20</v>
       </c>
       <c r="C148" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D148" s="2">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E148" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C149" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E149" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C150" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D150" s="2">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E150" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>4</v>
+        <v>22</v>
+      </c>
+      <c r="B151" t="s">
+        <v>39</v>
       </c>
       <c r="C151" t="s">
-        <v>30</v>
-      </c>
-      <c r="D151" s="2">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="D151">
+        <v>2</v>
       </c>
       <c r="E151" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="B152" t="s">
+        <v>111</v>
       </c>
       <c r="C152" t="s">
-        <v>30</v>
-      </c>
-      <c r="D152" s="2">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="D152">
+        <v>2</v>
       </c>
       <c r="E152" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>12</v>
+        <v>22</v>
+      </c>
+      <c r="B153" t="s">
+        <v>40</v>
       </c>
       <c r="C153" t="s">
-        <v>30</v>
-      </c>
-      <c r="D153" s="2">
         <v>13</v>
       </c>
+      <c r="D153">
+        <v>2</v>
+      </c>
       <c r="E153" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="B154" t="s">
+        <v>112</v>
       </c>
       <c r="C154" t="s">
-        <v>30</v>
-      </c>
-      <c r="D154" s="2">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="D154">
+        <v>2</v>
       </c>
       <c r="E154" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C155" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D155" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E155" t="s">
         <v>99</v>
@@ -6617,7 +7509,7 @@
         <v>24</v>
       </c>
       <c r="C156" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D156" s="2">
         <v>18</v>
@@ -6628,13 +7520,13 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C157" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D157" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E157" t="s">
         <v>99</v>
@@ -6642,13 +7534,13 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C158" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D158" s="2">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E158" t="s">
         <v>99</v>
@@ -6656,13 +7548,13 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C159" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D159" s="2">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E159" t="s">
         <v>99</v>
@@ -6670,13 +7562,13 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C160" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D160" s="2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E160" t="s">
         <v>99</v>
@@ -6684,13 +7576,13 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C161" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D161" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E161" t="s">
         <v>99</v>
@@ -6698,13 +7590,13 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C162" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D162" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E162" t="s">
         <v>99</v>
@@ -6715,7 +7607,7 @@
         <v>24</v>
       </c>
       <c r="C163" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D163" s="2">
         <v>18</v>
@@ -6726,13 +7618,13 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C164" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D164" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E164" t="s">
         <v>99</v>
@@ -6740,13 +7632,13 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C165" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D165" s="2">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E165" t="s">
         <v>99</v>
@@ -6754,13 +7646,13 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C166" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D166" s="2">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E166" t="s">
         <v>99</v>
@@ -6768,13 +7660,13 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C167" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D167" s="2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E167" t="s">
         <v>99</v>
@@ -6782,13 +7674,13 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C168" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D168" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E168" t="s">
         <v>99</v>
@@ -6796,13 +7688,13 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C169" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D169" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E169" t="s">
         <v>99</v>
@@ -6824,13 +7716,13 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C171" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D171" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E171" t="s">
         <v>99</v>
@@ -6838,13 +7730,13 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C172" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D172" s="2">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E172" t="s">
         <v>99</v>
@@ -6852,13 +7744,13 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C173" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D173" s="2">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E173" t="s">
         <v>99</v>
@@ -6866,44 +7758,44 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C174" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D174" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C175" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D175" s="2">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C176" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D176" s="2">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -6911,38 +7803,38 @@
         <v>24</v>
       </c>
       <c r="C177" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D177" s="2">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C178" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D178" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E178" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C179" t="s">
         <v>9</v>
       </c>
       <c r="D179" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
         <v>57</v>
@@ -6950,13 +7842,13 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D180" s="2">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
         <v>57</v>
@@ -6964,58 +7856,58 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D181" s="2">
         <v>5</v>
       </c>
       <c r="E181" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D182" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E182" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D183" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E183" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D184" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E184" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -7026,10 +7918,10 @@
         <v>9</v>
       </c>
       <c r="D185" s="2">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E185" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -7037,10 +7929,10 @@
         <v>24</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D186" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E186" t="s">
         <v>76</v>
@@ -7048,97 +7940,115 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>28</v>
+        <v>25</v>
+      </c>
+      <c r="B187" t="s">
+        <v>42</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
-      </c>
-      <c r="D187" s="2">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="D187">
+        <v>1</v>
       </c>
       <c r="E187" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>4</v>
+        <v>25</v>
+      </c>
+      <c r="B188" t="s">
+        <v>42</v>
       </c>
       <c r="C188" t="s">
-        <v>34</v>
-      </c>
-      <c r="D188" s="2">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="D188">
+        <v>1</v>
       </c>
       <c r="E188" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>8</v>
+        <v>25</v>
+      </c>
+      <c r="B189" t="s">
+        <v>42</v>
       </c>
       <c r="C189" t="s">
-        <v>34</v>
-      </c>
-      <c r="D189" s="2">
         <v>10</v>
       </c>
+      <c r="D189">
+        <v>1</v>
+      </c>
       <c r="E189" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>12</v>
+        <v>25</v>
+      </c>
+      <c r="B190" t="s">
+        <v>42</v>
       </c>
       <c r="C190" t="s">
-        <v>34</v>
-      </c>
-      <c r="D190" s="2">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="D190">
+        <v>1</v>
       </c>
       <c r="E190" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>16</v>
+        <v>25</v>
+      </c>
+      <c r="B191" t="s">
+        <v>42</v>
       </c>
       <c r="C191" t="s">
-        <v>34</v>
-      </c>
-      <c r="D191" s="2">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="D191">
+        <v>1</v>
       </c>
       <c r="E191" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="B192" t="s">
+        <v>42</v>
       </c>
       <c r="C192" t="s">
-        <v>34</v>
-      </c>
-      <c r="D192" s="2">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="D192">
+        <v>1</v>
       </c>
       <c r="E192" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C193" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D193" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E193" t="s">
         <v>99</v>
@@ -7149,7 +8059,7 @@
         <v>28</v>
       </c>
       <c r="C194" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D194" s="2">
         <v>19</v>
@@ -7160,13 +8070,13 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C195" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D195" s="2">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E195" t="s">
         <v>99</v>
@@ -7174,13 +8084,13 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C196" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D196" s="2">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E196" t="s">
         <v>99</v>
@@ -7188,13 +8098,13 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C197" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D197" s="2">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E197" t="s">
         <v>99</v>
@@ -7202,13 +8112,13 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C198" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D198" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E198" t="s">
         <v>99</v>
@@ -7216,13 +8126,13 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C199" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D199" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E199" t="s">
         <v>99</v>
@@ -7230,13 +8140,13 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C200" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D200" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E200" t="s">
         <v>99</v>
@@ -7247,7 +8157,7 @@
         <v>28</v>
       </c>
       <c r="C201" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D201" s="2">
         <v>19</v>
@@ -7258,114 +8168,114 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C202" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D202" s="2">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E202" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C203" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D203" s="2">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E203" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C204" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D204" s="2">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E204" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C205" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D205" s="2">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E205" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C206" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D206" s="2">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E206" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C207" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D207" s="2">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E207" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C208" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D208" s="2">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E208" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C209" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D209" s="2">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E209" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -7373,119 +8283,147 @@
         <v>28</v>
       </c>
       <c r="C210" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D210" s="2">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E210" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C211" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="D211" s="2">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E211" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C212" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D212" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E212" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C213" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D213" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E213" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C214" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D214" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E214" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C215" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D215" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E215" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C216" t="s">
+        <v>24</v>
+      </c>
+      <c r="D216" s="2">
+        <v>19</v>
+      </c>
+      <c r="E216" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>28</v>
+      </c>
+      <c r="C217" t="s">
+        <v>9</v>
+      </c>
+      <c r="D217" s="2">
+        <v>12</v>
+      </c>
+      <c r="E217" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>28</v>
+      </c>
+      <c r="C218" t="s">
         <v>13</v>
       </c>
-      <c r="D216" s="2">
-        <v>1</v>
-      </c>
-      <c r="E216" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B217" t="s">
+      <c r="D218" s="2">
+        <v>12</v>
+      </c>
+      <c r="E218" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B219" t="s">
+        <v>100</v>
+      </c>
+      <c r="C219" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C217" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D217" s="2">
-        <v>1</v>
-      </c>
-      <c r="E217" t="s">
-        <v>105</v>
+      <c r="D219" s="2">
+        <v>1</v>
+      </c>
+      <c r="E219" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E201" xr:uid="{00000000-0009-0000-0000-000003000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E216">
-      <sortCondition ref="B1:B201"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:E219"/>
+  <sortState ref="A2:E217">
+    <sortCondition ref="A2:A217"/>
+    <sortCondition ref="E2:E217"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data-builder/augments.xlsx
+++ b/data-builder/augments.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="125">
   <si>
     <t>Minimum Level</t>
   </si>
@@ -147,12 +147,6 @@
     <t>Fire Resistance</t>
   </si>
   <si>
-    <t>Diamond of Festive Intelligence +2</t>
-  </si>
-  <si>
-    <t>Diamond of Festive Wisdom +2</t>
-  </si>
-  <si>
     <t>Diamond of Vitality +20</t>
   </si>
   <si>
@@ -361,12 +355,6 @@
   </si>
   <si>
     <t>8d6</t>
-  </si>
-  <si>
-    <t>Diamond of Festive Charisma +2</t>
-  </si>
-  <si>
-    <t>Diamond of Festive Dexterity +2</t>
   </si>
   <si>
     <t>Sheltering</t>
@@ -780,8 +768,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="E98" sqref="E98:E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
         <v>15</v>
@@ -814,13 +802,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D2" s="5">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -834,7 +822,7 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -848,7 +836,7 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -862,7 +850,7 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -870,13 +858,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D6" s="5">
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -884,13 +872,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D7" s="5">
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -898,13 +886,13 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D8" s="5">
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -918,7 +906,7 @@
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -932,7 +920,7 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -946,7 +934,7 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -954,13 +942,13 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D12" s="5">
         <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -974,7 +962,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -988,7 +976,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -996,13 +984,13 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D15" s="5">
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1010,13 +998,13 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D16" s="5">
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1024,13 +1012,13 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D17" s="5">
         <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -1038,13 +1026,13 @@
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D18" s="5">
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1058,7 +1046,7 @@
         <v>15</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1072,7 +1060,7 @@
         <v>15</v>
       </c>
       <c r="E20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1086,7 +1074,7 @@
         <v>15</v>
       </c>
       <c r="E21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1094,13 +1082,13 @@
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D22" s="5">
         <v>96</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1108,13 +1096,13 @@
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D23" s="5">
         <v>4</v>
       </c>
       <c r="E23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -1122,13 +1110,13 @@
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D24" s="5">
         <v>4</v>
       </c>
       <c r="E24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -1142,7 +1130,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1156,7 +1144,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1164,13 +1152,13 @@
         <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D27" s="5">
         <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1178,13 +1166,13 @@
         <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D28" s="5">
         <v>20</v>
       </c>
       <c r="E28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1198,7 +1186,7 @@
         <v>20</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1212,7 +1200,7 @@
         <v>20</v>
       </c>
       <c r="E30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -1226,7 +1214,7 @@
         <v>20</v>
       </c>
       <c r="E31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1234,13 +1222,13 @@
         <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D32" s="5">
         <v>129</v>
       </c>
       <c r="E32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -1248,13 +1236,13 @@
         <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D33" s="5">
         <v>6</v>
       </c>
       <c r="E33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -1262,13 +1250,13 @@
         <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D34" s="5">
         <v>6</v>
       </c>
       <c r="E34" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -1282,7 +1270,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -1290,13 +1278,13 @@
         <v>12</v>
       </c>
       <c r="C36" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D36" s="5">
         <v>5</v>
       </c>
       <c r="E36" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -1304,13 +1292,13 @@
         <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D37" s="5">
         <v>25</v>
       </c>
       <c r="E37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1324,7 +1312,7 @@
         <v>25</v>
       </c>
       <c r="E38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -1338,7 +1326,7 @@
         <v>25</v>
       </c>
       <c r="E39" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -1352,7 +1340,7 @@
         <v>25</v>
       </c>
       <c r="E40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -1360,13 +1348,13 @@
         <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D41" s="5">
         <v>162</v>
       </c>
       <c r="E41" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -1374,13 +1362,13 @@
         <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D42" s="5">
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -1388,13 +1376,13 @@
         <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D43" s="5">
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -1402,13 +1390,13 @@
         <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D44" s="5">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -1416,13 +1404,13 @@
         <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D45" s="5">
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
@@ -1430,13 +1418,13 @@
         <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D46" s="5">
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
@@ -1444,13 +1432,13 @@
         <v>16</v>
       </c>
       <c r="C47" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" s="5">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
         <v>95</v>
-      </c>
-      <c r="D47" s="5">
-        <v>1</v>
-      </c>
-      <c r="E47" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -1458,13 +1446,13 @@
         <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D48" s="5">
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
@@ -1472,13 +1460,13 @@
         <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D49" s="5">
         <v>8</v>
       </c>
       <c r="E49" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
@@ -1486,13 +1474,13 @@
         <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D50" s="5">
         <v>8</v>
       </c>
       <c r="E50" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -1500,13 +1488,13 @@
         <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D51" s="5">
         <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -1514,13 +1502,13 @@
         <v>20</v>
       </c>
       <c r="C52" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D52" s="5">
         <v>30</v>
       </c>
       <c r="E52" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -1534,7 +1522,7 @@
         <v>30</v>
       </c>
       <c r="E53" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -1548,7 +1536,7 @@
         <v>30</v>
       </c>
       <c r="E54" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -1562,7 +1550,7 @@
         <v>30</v>
       </c>
       <c r="E55" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -1570,13 +1558,13 @@
         <v>20</v>
       </c>
       <c r="C56" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D56" s="5">
         <v>195</v>
       </c>
       <c r="E56" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -1584,13 +1572,13 @@
         <v>20</v>
       </c>
       <c r="C57" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D57" s="5">
         <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -1598,13 +1586,13 @@
         <v>20</v>
       </c>
       <c r="C58" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D58" s="5">
         <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -1612,13 +1600,13 @@
         <v>20</v>
       </c>
       <c r="C59" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D59" s="5">
         <v>15</v>
       </c>
       <c r="E59" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -1626,13 +1614,13 @@
         <v>24</v>
       </c>
       <c r="C60" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D60" s="5">
         <v>35</v>
       </c>
       <c r="E60" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -1646,7 +1634,7 @@
         <v>35</v>
       </c>
       <c r="E61" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -1660,7 +1648,7 @@
         <v>35</v>
       </c>
       <c r="E62" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -1674,7 +1662,7 @@
         <v>35</v>
       </c>
       <c r="E63" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -1682,13 +1670,13 @@
         <v>24</v>
       </c>
       <c r="C64" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D64" s="5">
         <v>228</v>
       </c>
       <c r="E64" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -1696,13 +1684,13 @@
         <v>24</v>
       </c>
       <c r="C65" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D65" s="5">
         <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -1710,13 +1698,13 @@
         <v>24</v>
       </c>
       <c r="C66" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D66" s="5">
         <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -1724,13 +1712,13 @@
         <v>24</v>
       </c>
       <c r="C67" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D67" s="5">
         <v>2</v>
       </c>
       <c r="E67" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -1738,13 +1726,13 @@
         <v>24</v>
       </c>
       <c r="C68" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D68" s="5">
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -1752,13 +1740,13 @@
         <v>24</v>
       </c>
       <c r="C69" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D69" s="5">
         <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -1766,13 +1754,13 @@
         <v>24</v>
       </c>
       <c r="C70" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D70" s="5">
         <v>2</v>
       </c>
       <c r="E70" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -1780,13 +1768,13 @@
         <v>24</v>
       </c>
       <c r="C71" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D71" s="5">
         <v>2</v>
       </c>
       <c r="E71" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -1794,13 +1782,13 @@
         <v>28</v>
       </c>
       <c r="C72" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D72" s="5">
         <v>40</v>
       </c>
       <c r="E72" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -1814,7 +1802,7 @@
         <v>40</v>
       </c>
       <c r="E73" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -1828,7 +1816,7 @@
         <v>40</v>
       </c>
       <c r="E74" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -1842,7 +1830,7 @@
         <v>40</v>
       </c>
       <c r="E75" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -1850,13 +1838,13 @@
         <v>28</v>
       </c>
       <c r="C76" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D76" s="5">
         <v>261</v>
       </c>
       <c r="E76" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -1864,16 +1852,16 @@
         <v>25</v>
       </c>
       <c r="B77" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C77" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D77" s="5">
         <v>30</v>
       </c>
       <c r="E77" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -1881,7 +1869,7 @@
         <v>25</v>
       </c>
       <c r="B78" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C78" t="s">
         <v>36</v>
@@ -1890,7 +1878,7 @@
         <v>30</v>
       </c>
       <c r="E78" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -1898,7 +1886,7 @@
         <v>25</v>
       </c>
       <c r="B79" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C79" t="s">
         <v>37</v>
@@ -1907,7 +1895,7 @@
         <v>30</v>
       </c>
       <c r="E79" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -1915,7 +1903,7 @@
         <v>25</v>
       </c>
       <c r="B80" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C80" t="s">
         <v>38</v>
@@ -1924,7 +1912,7 @@
         <v>30</v>
       </c>
       <c r="E80" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -1932,16 +1920,16 @@
         <v>20</v>
       </c>
       <c r="B81" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C81" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D81" s="5">
         <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -1949,10 +1937,13 @@
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D82" s="5">
         <v>5</v>
+      </c>
+      <c r="E82" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -1960,10 +1951,13 @@
         <v>4</v>
       </c>
       <c r="C83" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D83" s="5">
         <v>10</v>
+      </c>
+      <c r="E83" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -1971,21 +1965,27 @@
         <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D84" s="5">
         <v>15</v>
       </c>
+      <c r="E84" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>12</v>
       </c>
       <c r="C85" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D85" s="5">
         <v>20</v>
+      </c>
+      <c r="E85" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -1993,21 +1993,27 @@
         <v>16</v>
       </c>
       <c r="C86" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D86" s="5">
         <v>25</v>
       </c>
+      <c r="E86" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>20</v>
       </c>
       <c r="C87" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D87" s="5">
         <v>30</v>
+      </c>
+      <c r="E87" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -2015,10 +2021,13 @@
         <v>24</v>
       </c>
       <c r="C88" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D88" s="5">
         <v>35</v>
+      </c>
+      <c r="E88" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -2026,21 +2035,27 @@
         <v>28</v>
       </c>
       <c r="C89" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D89" s="5">
         <v>40</v>
       </c>
+      <c r="E89" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1</v>
       </c>
       <c r="C90" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D90" s="5">
         <v>1</v>
+      </c>
+      <c r="E90" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -2048,10 +2063,13 @@
         <v>4</v>
       </c>
       <c r="C91" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D91" s="5">
         <v>3</v>
+      </c>
+      <c r="E91" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -2059,21 +2077,27 @@
         <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D92" s="5">
         <v>4</v>
       </c>
+      <c r="E92" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>12</v>
       </c>
       <c r="C93" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D93" s="5">
         <v>5</v>
+      </c>
+      <c r="E93" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -2081,21 +2105,27 @@
         <v>16</v>
       </c>
       <c r="C94" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D94" s="5">
         <v>6</v>
       </c>
+      <c r="E94" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>20</v>
       </c>
       <c r="C95" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D95" s="5">
         <v>8</v>
+      </c>
+      <c r="E95" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -2103,76 +2133,97 @@
         <v>24</v>
       </c>
       <c r="C96" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D96" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>28</v>
       </c>
       <c r="C97" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D97" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D98" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>4</v>
       </c>
       <c r="C99" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D99" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>12</v>
       </c>
       <c r="C100" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D100" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>20</v>
       </c>
       <c r="C101" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D101" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>24</v>
       </c>
       <c r="C102" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D102" s="5">
         <v>5</v>
+      </c>
+      <c r="E102" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2186,8 +2237,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2207,10 +2258,10 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
         <v>15</v>
@@ -2221,13 +2272,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -2235,13 +2286,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -2249,13 +2300,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -2263,13 +2314,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D5" s="2">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -2277,13 +2328,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D6" s="1">
         <v>0.25</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -2291,13 +2342,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D7">
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -2305,13 +2356,13 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -2319,13 +2370,13 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -2333,13 +2384,13 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D10" s="2">
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -2347,13 +2398,13 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D11" s="2">
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -2361,13 +2412,13 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D12" s="1">
         <v>0.75</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -2375,13 +2426,13 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D13">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -2389,13 +2440,13 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D14">
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -2403,13 +2454,13 @@
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D15">
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -2417,13 +2468,13 @@
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D16" s="2">
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -2431,13 +2482,13 @@
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D17" s="2">
         <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -2445,13 +2496,13 @@
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -2459,13 +2510,13 @@
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D19">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -2473,13 +2524,13 @@
         <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D20">
         <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -2487,13 +2538,13 @@
         <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D21">
         <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -2501,13 +2552,13 @@
         <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D22" s="2">
         <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -2515,13 +2566,13 @@
         <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D23" s="2">
         <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -2529,13 +2580,13 @@
         <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -2543,13 +2594,13 @@
         <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D25">
         <v>23</v>
       </c>
       <c r="E25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -2557,13 +2608,13 @@
         <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D26">
         <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -2571,13 +2622,13 @@
         <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D27">
         <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -2585,13 +2636,13 @@
         <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D28" s="2">
         <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -2599,13 +2650,13 @@
         <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D29" s="2">
         <v>20</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -2613,13 +2664,13 @@
         <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D30">
         <v>25</v>
       </c>
       <c r="E30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -2627,13 +2678,13 @@
         <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D31">
         <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -2641,13 +2692,13 @@
         <v>20</v>
       </c>
       <c r="C32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D32">
         <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -2655,13 +2706,13 @@
         <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D33" s="2">
         <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -2669,13 +2720,13 @@
         <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D34" s="2">
         <v>24</v>
       </c>
       <c r="E34" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -2683,13 +2734,13 @@
         <v>20</v>
       </c>
       <c r="C35" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D35">
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -2697,13 +2748,13 @@
         <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D36">
         <v>36</v>
       </c>
       <c r="E36" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -2711,13 +2762,13 @@
         <v>24</v>
       </c>
       <c r="C37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D37">
         <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -2725,13 +2776,13 @@
         <v>24</v>
       </c>
       <c r="C38" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D38">
         <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -2739,13 +2790,13 @@
         <v>24</v>
       </c>
       <c r="C39" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D39" s="2">
         <v>9</v>
       </c>
       <c r="E39" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2753,13 +2804,13 @@
         <v>24</v>
       </c>
       <c r="C40" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D40" s="2">
         <v>14</v>
       </c>
       <c r="E40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2767,13 +2818,13 @@
         <v>24</v>
       </c>
       <c r="C41" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D41">
         <v>42</v>
       </c>
       <c r="E41" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -2781,13 +2832,13 @@
         <v>28</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D42">
         <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -2795,13 +2846,13 @@
         <v>28</v>
       </c>
       <c r="C43" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D43">
         <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -2809,13 +2860,13 @@
         <v>28</v>
       </c>
       <c r="C44" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D44" s="2">
         <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2823,13 +2874,13 @@
         <v>28</v>
       </c>
       <c r="C45" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D45" s="2">
         <v>32</v>
       </c>
       <c r="E45" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -2837,13 +2888,13 @@
         <v>28</v>
       </c>
       <c r="C46" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D46">
         <v>48</v>
       </c>
       <c r="E46" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -2851,13 +2902,13 @@
         <v>12</v>
       </c>
       <c r="C47" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D47" s="5">
         <v>5</v>
       </c>
       <c r="E47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -2865,13 +2916,13 @@
         <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D48" s="5">
         <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -2879,13 +2930,13 @@
         <v>20</v>
       </c>
       <c r="C49" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D49" s="5">
         <v>15</v>
       </c>
       <c r="E49" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2893,13 +2944,13 @@
         <v>12</v>
       </c>
       <c r="C50" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D50" s="5">
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2907,13 +2958,13 @@
         <v>20</v>
       </c>
       <c r="C51" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D51" s="5">
         <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2921,13 +2972,13 @@
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D52" s="5">
         <v>2</v>
       </c>
       <c r="E52" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2935,13 +2986,13 @@
         <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D53" s="5">
         <v>5</v>
       </c>
       <c r="E53" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2949,13 +3000,13 @@
         <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D54" s="5">
         <v>8</v>
       </c>
       <c r="E54" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2963,13 +3014,13 @@
         <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D55">
         <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -2977,13 +3028,13 @@
         <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D56">
         <v>12</v>
       </c>
       <c r="E56" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2991,13 +3042,13 @@
         <v>20</v>
       </c>
       <c r="C57" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D57">
         <v>15</v>
       </c>
       <c r="E57" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -3005,13 +3056,13 @@
         <v>24</v>
       </c>
       <c r="C58" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D58">
         <v>17</v>
       </c>
       <c r="E58" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -3019,13 +3070,13 @@
         <v>28</v>
       </c>
       <c r="C59" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D59">
         <v>20</v>
       </c>
       <c r="E59" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -3033,13 +3084,13 @@
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D60">
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -3047,13 +3098,13 @@
         <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D61">
         <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -3061,13 +3112,13 @@
         <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D62">
         <v>5</v>
       </c>
       <c r="E62" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -3075,13 +3126,13 @@
         <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D63">
         <v>6</v>
       </c>
       <c r="E63" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -3089,13 +3140,13 @@
         <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D64">
         <v>8</v>
       </c>
       <c r="E64" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -3103,13 +3154,13 @@
         <v>20</v>
       </c>
       <c r="C65" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D65">
         <v>9</v>
       </c>
       <c r="E65" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -3117,13 +3168,13 @@
         <v>24</v>
       </c>
       <c r="C66" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D66">
         <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -3131,13 +3182,13 @@
         <v>28</v>
       </c>
       <c r="C67" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D67">
         <v>12</v>
       </c>
       <c r="E67" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -3145,13 +3196,13 @@
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D68">
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -3159,13 +3210,13 @@
         <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D69">
         <v>4</v>
       </c>
       <c r="E69" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -3173,13 +3224,13 @@
         <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D70">
         <v>6</v>
       </c>
       <c r="E70" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -3187,13 +3238,13 @@
         <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D71">
         <v>7</v>
       </c>
       <c r="E71" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -3201,13 +3252,13 @@
         <v>16</v>
       </c>
       <c r="C72" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D72">
         <v>9</v>
       </c>
       <c r="E72" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -3215,13 +3266,13 @@
         <v>20</v>
       </c>
       <c r="C73" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D73">
         <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -3229,13 +3280,13 @@
         <v>24</v>
       </c>
       <c r="C74" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D74">
         <v>12</v>
       </c>
       <c r="E74" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -3243,13 +3294,13 @@
         <v>28</v>
       </c>
       <c r="C75" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D75">
         <v>14</v>
       </c>
       <c r="E75" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -3257,13 +3308,13 @@
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D76">
         <v>2</v>
       </c>
       <c r="E76" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -3271,13 +3322,13 @@
         <v>4</v>
       </c>
       <c r="C77" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D77">
         <v>4</v>
       </c>
       <c r="E77" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -3285,13 +3336,13 @@
         <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D78">
         <v>6</v>
       </c>
       <c r="E78" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -3299,13 +3350,13 @@
         <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D79">
         <v>7</v>
       </c>
       <c r="E79" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -3313,13 +3364,13 @@
         <v>16</v>
       </c>
       <c r="C80" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D80">
         <v>9</v>
       </c>
       <c r="E80" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -3327,13 +3378,13 @@
         <v>20</v>
       </c>
       <c r="C81" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D81">
         <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -3341,13 +3392,13 @@
         <v>24</v>
       </c>
       <c r="C82" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D82">
         <v>12</v>
       </c>
       <c r="E82" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -3355,13 +3406,13 @@
         <v>28</v>
       </c>
       <c r="C83" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D83">
         <v>14</v>
       </c>
       <c r="E83" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -3369,13 +3420,13 @@
         <v>1</v>
       </c>
       <c r="C84" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D84">
         <v>2</v>
       </c>
       <c r="E84" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -3383,13 +3434,13 @@
         <v>4</v>
       </c>
       <c r="C85" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D85">
         <v>4</v>
       </c>
       <c r="E85" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -3397,13 +3448,13 @@
         <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D86">
         <v>6</v>
       </c>
       <c r="E86" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -3411,13 +3462,13 @@
         <v>12</v>
       </c>
       <c r="C87" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D87">
         <v>7</v>
       </c>
       <c r="E87" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -3425,13 +3476,13 @@
         <v>16</v>
       </c>
       <c r="C88" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D88">
         <v>9</v>
       </c>
       <c r="E88" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -3439,13 +3490,13 @@
         <v>20</v>
       </c>
       <c r="C89" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D89">
         <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -3453,13 +3504,13 @@
         <v>24</v>
       </c>
       <c r="C90" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D90">
         <v>12</v>
       </c>
       <c r="E90" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -3467,13 +3518,13 @@
         <v>28</v>
       </c>
       <c r="C91" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D91">
         <v>14</v>
       </c>
       <c r="E91" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -3481,16 +3532,16 @@
         <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C92" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D92">
         <v>1</v>
       </c>
       <c r="E92" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -3498,16 +3549,16 @@
         <v>28</v>
       </c>
       <c r="B93" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C93" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D93">
         <v>2</v>
       </c>
       <c r="E93" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3541,10 +3592,10 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
         <v>15</v>
@@ -3555,13 +3606,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -3569,13 +3620,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -3583,13 +3634,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" t="s">
         <v>62</v>
       </c>
-      <c r="D4" t="s">
-        <v>64</v>
-      </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -3597,13 +3648,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -3612,13 +3663,13 @@
       </c>
       <c r="B6" s="3"/>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D6">
         <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -3627,13 +3678,13 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D7">
         <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -3642,13 +3693,13 @@
       </c>
       <c r="B8" s="3"/>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D8">
         <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -3657,13 +3708,13 @@
       </c>
       <c r="B9" s="3"/>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D9">
         <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -3672,13 +3723,13 @@
       </c>
       <c r="B10" s="3"/>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D10">
         <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -3687,13 +3738,13 @@
       </c>
       <c r="B11" s="3"/>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D11">
         <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -3702,13 +3753,13 @@
       </c>
       <c r="B12" s="3"/>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D12">
         <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -3717,13 +3768,13 @@
       </c>
       <c r="B13" s="3"/>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D13">
         <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -3732,13 +3783,13 @@
       </c>
       <c r="B14" s="3"/>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D14">
         <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -3747,13 +3798,13 @@
       </c>
       <c r="B15" s="3"/>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D15">
         <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -3761,13 +3812,13 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -3775,13 +3826,13 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -3789,13 +3840,13 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -3803,13 +3854,13 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" t="s">
         <v>63</v>
       </c>
-      <c r="D19" t="s">
-        <v>65</v>
-      </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -3817,13 +3868,13 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D20">
         <v>55</v>
       </c>
       <c r="E20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -3831,13 +3882,13 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D21">
         <v>55</v>
       </c>
       <c r="E21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -3845,13 +3896,13 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D22">
         <v>55</v>
       </c>
       <c r="E22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -3859,13 +3910,13 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D23">
         <v>55</v>
       </c>
       <c r="E23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -3873,13 +3924,13 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D24">
         <v>55</v>
       </c>
       <c r="E24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -3887,13 +3938,13 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D25">
         <v>55</v>
       </c>
       <c r="E25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -3901,13 +3952,13 @@
         <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D26">
         <v>55</v>
       </c>
       <c r="E26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -3915,13 +3966,13 @@
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D27">
         <v>55</v>
       </c>
       <c r="E27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -3929,13 +3980,13 @@
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D28">
         <v>55</v>
       </c>
       <c r="E28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -3943,13 +3994,13 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D29">
         <v>55</v>
       </c>
       <c r="E29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -3957,13 +4008,13 @@
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -3971,13 +4022,13 @@
         <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D31" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -3985,13 +4036,13 @@
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D32" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -3999,13 +4050,13 @@
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -4013,13 +4064,13 @@
         <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -4027,13 +4078,13 @@
         <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -4041,13 +4092,13 @@
         <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -4055,13 +4106,13 @@
         <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -4069,13 +4120,13 @@
         <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D38">
         <v>70</v>
       </c>
       <c r="E38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -4083,13 +4134,13 @@
         <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D39">
         <v>70</v>
       </c>
       <c r="E39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -4097,13 +4148,13 @@
         <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D40">
         <v>70</v>
       </c>
       <c r="E40" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -4111,13 +4162,13 @@
         <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D41">
         <v>70</v>
       </c>
       <c r="E41" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -4125,13 +4176,13 @@
         <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D42">
         <v>70</v>
       </c>
       <c r="E42" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -4139,13 +4190,13 @@
         <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D43">
         <v>70</v>
       </c>
       <c r="E43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -4153,13 +4204,13 @@
         <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D44">
         <v>70</v>
       </c>
       <c r="E44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -4167,13 +4218,13 @@
         <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D45">
         <v>70</v>
       </c>
       <c r="E45" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -4181,13 +4232,13 @@
         <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D46">
         <v>70</v>
       </c>
       <c r="E46" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -4195,13 +4246,13 @@
         <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D47">
         <v>70</v>
       </c>
       <c r="E47" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -4209,13 +4260,13 @@
         <v>12</v>
       </c>
       <c r="C48" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D48" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E48" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -4223,13 +4274,13 @@
         <v>12</v>
       </c>
       <c r="C49" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D49" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E49" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -4237,13 +4288,13 @@
         <v>12</v>
       </c>
       <c r="C50" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D50" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E50" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -4251,13 +4302,13 @@
         <v>12</v>
       </c>
       <c r="C51" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D51" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E51" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -4265,13 +4316,13 @@
         <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -4279,13 +4330,13 @@
         <v>12</v>
       </c>
       <c r="C53" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -4293,13 +4344,13 @@
         <v>12</v>
       </c>
       <c r="C54" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D54">
         <v>84</v>
       </c>
       <c r="E54" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -4307,13 +4358,13 @@
         <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D55">
         <v>84</v>
       </c>
       <c r="E55" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -4321,13 +4372,13 @@
         <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D56">
         <v>84</v>
       </c>
       <c r="E56" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -4335,13 +4386,13 @@
         <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D57">
         <v>84</v>
       </c>
       <c r="E57" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -4349,13 +4400,13 @@
         <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D58">
         <v>84</v>
       </c>
       <c r="E58" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -4363,13 +4414,13 @@
         <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D59">
         <v>84</v>
       </c>
       <c r="E59" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -4377,13 +4428,13 @@
         <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D60">
         <v>84</v>
       </c>
       <c r="E60" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -4391,13 +4442,13 @@
         <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D61">
         <v>84</v>
       </c>
       <c r="E61" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -4405,13 +4456,13 @@
         <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D62">
         <v>84</v>
       </c>
       <c r="E62" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -4419,13 +4470,13 @@
         <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D63">
         <v>84</v>
       </c>
       <c r="E63" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -4433,13 +4484,13 @@
         <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D64" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E64" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -4447,13 +4498,13 @@
         <v>16</v>
       </c>
       <c r="C65" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D65" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E65" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -4461,13 +4512,13 @@
         <v>16</v>
       </c>
       <c r="C66" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D66" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E66" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -4475,13 +4526,13 @@
         <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D67" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E67" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -4489,13 +4540,13 @@
         <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -4503,13 +4554,13 @@
         <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D69">
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -4517,13 +4568,13 @@
         <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D70">
         <v>97</v>
       </c>
       <c r="E70" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -4531,13 +4582,13 @@
         <v>16</v>
       </c>
       <c r="C71" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D71">
         <v>97</v>
       </c>
       <c r="E71" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -4545,13 +4596,13 @@
         <v>16</v>
       </c>
       <c r="C72" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D72">
         <v>97</v>
       </c>
       <c r="E72" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -4559,13 +4610,13 @@
         <v>16</v>
       </c>
       <c r="C73" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D73">
         <v>97</v>
       </c>
       <c r="E73" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -4573,13 +4624,13 @@
         <v>16</v>
       </c>
       <c r="C74" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D74">
         <v>97</v>
       </c>
       <c r="E74" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -4587,13 +4638,13 @@
         <v>16</v>
       </c>
       <c r="C75" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D75">
         <v>97</v>
       </c>
       <c r="E75" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -4601,13 +4652,13 @@
         <v>16</v>
       </c>
       <c r="C76" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D76">
         <v>97</v>
       </c>
       <c r="E76" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -4615,13 +4666,13 @@
         <v>16</v>
       </c>
       <c r="C77" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D77">
         <v>97</v>
       </c>
       <c r="E77" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -4629,13 +4680,13 @@
         <v>16</v>
       </c>
       <c r="C78" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D78">
         <v>97</v>
       </c>
       <c r="E78" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -4643,13 +4694,13 @@
         <v>16</v>
       </c>
       <c r="C79" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D79">
         <v>97</v>
       </c>
       <c r="E79" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -4657,13 +4708,13 @@
         <v>20</v>
       </c>
       <c r="C80" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D80" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E80" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -4671,13 +4722,13 @@
         <v>20</v>
       </c>
       <c r="C81" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D81" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E81" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -4685,13 +4736,13 @@
         <v>20</v>
       </c>
       <c r="C82" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D82" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E82" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -4699,13 +4750,13 @@
         <v>20</v>
       </c>
       <c r="C83" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D83" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E83" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -4713,13 +4764,13 @@
         <v>20</v>
       </c>
       <c r="C84" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D84">
         <v>111</v>
       </c>
       <c r="E84" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -4727,13 +4778,13 @@
         <v>20</v>
       </c>
       <c r="C85" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D85">
         <v>111</v>
       </c>
       <c r="E85" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -4741,13 +4792,13 @@
         <v>20</v>
       </c>
       <c r="C86" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D86">
         <v>111</v>
       </c>
       <c r="E86" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -4755,13 +4806,13 @@
         <v>20</v>
       </c>
       <c r="C87" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D87">
         <v>111</v>
       </c>
       <c r="E87" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -4769,13 +4820,13 @@
         <v>20</v>
       </c>
       <c r="C88" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D88">
         <v>111</v>
       </c>
       <c r="E88" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -4783,13 +4834,13 @@
         <v>20</v>
       </c>
       <c r="C89" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D89">
         <v>111</v>
       </c>
       <c r="E89" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -4797,13 +4848,13 @@
         <v>20</v>
       </c>
       <c r="C90" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D90">
         <v>111</v>
       </c>
       <c r="E90" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -4811,13 +4862,13 @@
         <v>20</v>
       </c>
       <c r="C91" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D91">
         <v>111</v>
       </c>
       <c r="E91" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -4825,13 +4876,13 @@
         <v>20</v>
       </c>
       <c r="C92" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D92">
         <v>111</v>
       </c>
       <c r="E92" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -4839,13 +4890,13 @@
         <v>20</v>
       </c>
       <c r="C93" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D93">
         <v>111</v>
       </c>
       <c r="E93" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -4853,13 +4904,13 @@
         <v>24</v>
       </c>
       <c r="C94" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D94" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E94" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -4867,13 +4918,13 @@
         <v>24</v>
       </c>
       <c r="C95" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D95" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E95" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -4881,13 +4932,13 @@
         <v>24</v>
       </c>
       <c r="C96" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D96" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E96" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -4895,13 +4946,13 @@
         <v>24</v>
       </c>
       <c r="C97" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D97" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E97" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -4909,13 +4960,13 @@
         <v>24</v>
       </c>
       <c r="C98" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D98">
         <v>125</v>
       </c>
       <c r="E98" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -4923,13 +4974,13 @@
         <v>24</v>
       </c>
       <c r="C99" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D99">
         <v>125</v>
       </c>
       <c r="E99" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -4937,13 +4988,13 @@
         <v>24</v>
       </c>
       <c r="C100" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D100">
         <v>125</v>
       </c>
       <c r="E100" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -4951,13 +5002,13 @@
         <v>24</v>
       </c>
       <c r="C101" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D101">
         <v>125</v>
       </c>
       <c r="E101" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -4965,13 +5016,13 @@
         <v>24</v>
       </c>
       <c r="C102" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D102">
         <v>125</v>
       </c>
       <c r="E102" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -4979,13 +5030,13 @@
         <v>24</v>
       </c>
       <c r="C103" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D103">
         <v>125</v>
       </c>
       <c r="E103" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -4993,13 +5044,13 @@
         <v>24</v>
       </c>
       <c r="C104" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D104">
         <v>125</v>
       </c>
       <c r="E104" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -5007,13 +5058,13 @@
         <v>24</v>
       </c>
       <c r="C105" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D105">
         <v>125</v>
       </c>
       <c r="E105" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -5021,13 +5072,13 @@
         <v>24</v>
       </c>
       <c r="C106" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D106">
         <v>125</v>
       </c>
       <c r="E106" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -5035,13 +5086,13 @@
         <v>24</v>
       </c>
       <c r="C107" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D107">
         <v>125</v>
       </c>
       <c r="E107" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -5049,13 +5100,13 @@
         <v>28</v>
       </c>
       <c r="C108" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D108" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E108" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -5063,13 +5114,13 @@
         <v>28</v>
       </c>
       <c r="C109" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D109" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -5077,13 +5128,13 @@
         <v>28</v>
       </c>
       <c r="C110" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D110" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E110" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -5091,13 +5142,13 @@
         <v>28</v>
       </c>
       <c r="C111" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D111" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E111" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -5105,13 +5156,13 @@
         <v>28</v>
       </c>
       <c r="C112" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D112">
         <v>139</v>
       </c>
       <c r="E112" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -5119,13 +5170,13 @@
         <v>28</v>
       </c>
       <c r="C113" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D113">
         <v>139</v>
       </c>
       <c r="E113" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -5133,13 +5184,13 @@
         <v>28</v>
       </c>
       <c r="C114" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D114">
         <v>139</v>
       </c>
       <c r="E114" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -5147,13 +5198,13 @@
         <v>28</v>
       </c>
       <c r="C115" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D115">
         <v>139</v>
       </c>
       <c r="E115" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -5161,13 +5212,13 @@
         <v>28</v>
       </c>
       <c r="C116" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D116">
         <v>139</v>
       </c>
       <c r="E116" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -5175,13 +5226,13 @@
         <v>28</v>
       </c>
       <c r="C117" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D117">
         <v>139</v>
       </c>
       <c r="E117" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -5189,13 +5240,13 @@
         <v>28</v>
       </c>
       <c r="C118" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D118">
         <v>139</v>
       </c>
       <c r="E118" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -5203,13 +5254,13 @@
         <v>28</v>
       </c>
       <c r="C119" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D119">
         <v>139</v>
       </c>
       <c r="E119" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -5217,13 +5268,13 @@
         <v>28</v>
       </c>
       <c r="C120" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D120">
         <v>139</v>
       </c>
       <c r="E120" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -5231,13 +5282,13 @@
         <v>28</v>
       </c>
       <c r="C121" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D121">
         <v>139</v>
       </c>
       <c r="E121" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -5245,16 +5296,16 @@
         <v>28</v>
       </c>
       <c r="B122" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C122" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D122">
         <v>1</v>
       </c>
       <c r="E122" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -5262,16 +5313,16 @@
         <v>28</v>
       </c>
       <c r="B123" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C123" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D123">
         <v>1</v>
       </c>
       <c r="E123" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -5286,8 +5337,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E219"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="B152" sqref="B152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5306,10 +5357,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
         <v>15</v>
@@ -5326,7 +5377,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5340,7 +5391,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5354,7 +5405,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5368,7 +5419,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5382,7 +5433,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5396,7 +5447,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5410,7 +5461,7 @@
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5424,7 +5475,7 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5438,7 +5489,7 @@
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5452,7 +5503,7 @@
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5466,7 +5517,7 @@
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5480,7 +5531,7 @@
         <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5494,7 +5545,7 @@
         <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5508,7 +5559,7 @@
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5522,7 +5573,7 @@
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5536,7 +5587,7 @@
         <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5550,7 +5601,7 @@
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5564,7 +5615,7 @@
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5578,7 +5629,7 @@
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5592,7 +5643,7 @@
         <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5606,7 +5657,7 @@
         <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5620,7 +5671,7 @@
         <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5634,7 +5685,7 @@
         <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5648,7 +5699,7 @@
         <v>5</v>
       </c>
       <c r="E25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5662,7 +5713,7 @@
         <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5676,7 +5727,7 @@
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5690,7 +5741,7 @@
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5704,7 +5755,7 @@
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5718,7 +5769,7 @@
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5732,7 +5783,7 @@
         <v>5</v>
       </c>
       <c r="E31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5746,7 +5797,7 @@
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5760,7 +5811,7 @@
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5774,7 +5825,7 @@
         <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5788,7 +5839,7 @@
         <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5802,7 +5853,7 @@
         <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5816,7 +5867,7 @@
         <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5830,7 +5881,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5844,7 +5895,7 @@
         <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5858,7 +5909,7 @@
         <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5872,7 +5923,7 @@
         <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5886,7 +5937,7 @@
         <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5900,7 +5951,7 @@
         <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5914,7 +5965,7 @@
         <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5928,7 +5979,7 @@
         <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5942,7 +5993,7 @@
         <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5956,7 +6007,7 @@
         <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5970,7 +6021,7 @@
         <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5984,7 +6035,7 @@
         <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -5998,7 +6049,7 @@
         <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6012,7 +6063,7 @@
         <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6026,7 +6077,7 @@
         <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6040,7 +6091,7 @@
         <v>5</v>
       </c>
       <c r="E53" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6054,7 +6105,7 @@
         <v>5</v>
       </c>
       <c r="E54" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6068,7 +6119,7 @@
         <v>5</v>
       </c>
       <c r="E55" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6082,7 +6133,7 @@
         <v>5</v>
       </c>
       <c r="E56" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6096,7 +6147,7 @@
         <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6110,7 +6161,7 @@
         <v>5</v>
       </c>
       <c r="E58" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6124,7 +6175,7 @@
         <v>5</v>
       </c>
       <c r="E59" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6132,16 +6183,16 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C60" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D60">
         <v>20</v>
       </c>
       <c r="E60" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6155,7 +6206,7 @@
         <v>13</v>
       </c>
       <c r="E61" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6169,7 +6220,7 @@
         <v>13</v>
       </c>
       <c r="E62" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6183,7 +6234,7 @@
         <v>13</v>
       </c>
       <c r="E63" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6197,7 +6248,7 @@
         <v>13</v>
       </c>
       <c r="E64" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6211,7 +6262,7 @@
         <v>13</v>
       </c>
       <c r="E65" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6225,7 +6276,7 @@
         <v>13</v>
       </c>
       <c r="E66" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6239,7 +6290,7 @@
         <v>13</v>
       </c>
       <c r="E67" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6253,7 +6304,7 @@
         <v>13</v>
       </c>
       <c r="E68" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6267,7 +6318,7 @@
         <v>13</v>
       </c>
       <c r="E69" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6281,7 +6332,7 @@
         <v>13</v>
       </c>
       <c r="E70" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6295,7 +6346,7 @@
         <v>13</v>
       </c>
       <c r="E71" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6309,7 +6360,7 @@
         <v>13</v>
       </c>
       <c r="E72" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6323,7 +6374,7 @@
         <v>13</v>
       </c>
       <c r="E73" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6337,7 +6388,7 @@
         <v>13</v>
       </c>
       <c r="E74" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6351,7 +6402,7 @@
         <v>13</v>
       </c>
       <c r="E75" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6365,7 +6416,7 @@
         <v>13</v>
       </c>
       <c r="E76" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6379,7 +6430,7 @@
         <v>13</v>
       </c>
       <c r="E77" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6393,7 +6444,7 @@
         <v>13</v>
       </c>
       <c r="E78" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6407,7 +6458,7 @@
         <v>13</v>
       </c>
       <c r="E79" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6421,7 +6472,7 @@
         <v>6</v>
       </c>
       <c r="E80" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6435,7 +6486,7 @@
         <v>6</v>
       </c>
       <c r="E81" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6449,7 +6500,7 @@
         <v>6</v>
       </c>
       <c r="E82" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6463,7 +6514,7 @@
         <v>6</v>
       </c>
       <c r="E83" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6477,7 +6528,7 @@
         <v>13</v>
       </c>
       <c r="E84" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6491,7 +6542,7 @@
         <v>6</v>
       </c>
       <c r="E85" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6505,7 +6556,7 @@
         <v>6</v>
       </c>
       <c r="E86" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6513,7 +6564,7 @@
         <v>14</v>
       </c>
       <c r="B87" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C87" t="s">
         <v>14</v>
@@ -6522,7 +6573,7 @@
         <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6530,7 +6581,7 @@
         <v>14</v>
       </c>
       <c r="B88" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C88" t="s">
         <v>11</v>
@@ -6539,7 +6590,7 @@
         <v>3</v>
       </c>
       <c r="E88" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6547,7 +6598,7 @@
         <v>14</v>
       </c>
       <c r="B89" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C89" t="s">
         <v>10</v>
@@ -6556,7 +6607,7 @@
         <v>3</v>
       </c>
       <c r="E89" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6564,7 +6615,7 @@
         <v>14</v>
       </c>
       <c r="B90" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C90" t="s">
         <v>12</v>
@@ -6573,7 +6624,7 @@
         <v>3</v>
       </c>
       <c r="E90" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6581,7 +6632,7 @@
         <v>14</v>
       </c>
       <c r="B91" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C91" t="s">
         <v>9</v>
@@ -6590,7 +6641,7 @@
         <v>3</v>
       </c>
       <c r="E91" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6598,7 +6649,7 @@
         <v>14</v>
       </c>
       <c r="B92" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C92" t="s">
         <v>13</v>
@@ -6607,7 +6658,7 @@
         <v>3</v>
       </c>
       <c r="E92" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6621,7 +6672,7 @@
         <v>15</v>
       </c>
       <c r="E93" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6635,7 +6686,7 @@
         <v>15</v>
       </c>
       <c r="E94" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6649,7 +6700,7 @@
         <v>15</v>
       </c>
       <c r="E95" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6663,7 +6714,7 @@
         <v>15</v>
       </c>
       <c r="E96" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6677,7 +6728,7 @@
         <v>15</v>
       </c>
       <c r="E97" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6691,7 +6742,7 @@
         <v>15</v>
       </c>
       <c r="E98" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6705,7 +6756,7 @@
         <v>15</v>
       </c>
       <c r="E99" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6719,7 +6770,7 @@
         <v>15</v>
       </c>
       <c r="E100" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6733,7 +6784,7 @@
         <v>15</v>
       </c>
       <c r="E101" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6747,7 +6798,7 @@
         <v>15</v>
       </c>
       <c r="E102" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6761,7 +6812,7 @@
         <v>15</v>
       </c>
       <c r="E103" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6775,7 +6826,7 @@
         <v>15</v>
       </c>
       <c r="E104" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6789,7 +6840,7 @@
         <v>15</v>
       </c>
       <c r="E105" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6803,7 +6854,7 @@
         <v>15</v>
       </c>
       <c r="E106" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6817,7 +6868,7 @@
         <v>15</v>
       </c>
       <c r="E107" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6831,7 +6882,7 @@
         <v>15</v>
       </c>
       <c r="E108" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6845,7 +6896,7 @@
         <v>15</v>
       </c>
       <c r="E109" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6859,7 +6910,7 @@
         <v>15</v>
       </c>
       <c r="E110" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6873,7 +6924,7 @@
         <v>15</v>
       </c>
       <c r="E111" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6887,7 +6938,7 @@
         <v>8</v>
       </c>
       <c r="E112" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6901,7 +6952,7 @@
         <v>8</v>
       </c>
       <c r="E113" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6915,7 +6966,7 @@
         <v>8</v>
       </c>
       <c r="E114" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6929,7 +6980,7 @@
         <v>8</v>
       </c>
       <c r="E115" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6943,7 +6994,7 @@
         <v>15</v>
       </c>
       <c r="E116" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6957,7 +7008,7 @@
         <v>8</v>
       </c>
       <c r="E117" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6971,7 +7022,7 @@
         <v>8</v>
       </c>
       <c r="E118" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6985,7 +7036,7 @@
         <v>17</v>
       </c>
       <c r="E119" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -6999,7 +7050,7 @@
         <v>17</v>
       </c>
       <c r="E120" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -7013,7 +7064,7 @@
         <v>17</v>
       </c>
       <c r="E121" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -7027,7 +7078,7 @@
         <v>17</v>
       </c>
       <c r="E122" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -7041,7 +7092,7 @@
         <v>17</v>
       </c>
       <c r="E123" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -7055,7 +7106,7 @@
         <v>17</v>
       </c>
       <c r="E124" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -7069,7 +7120,7 @@
         <v>17</v>
       </c>
       <c r="E125" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -7083,7 +7134,7 @@
         <v>17</v>
       </c>
       <c r="E126" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -7097,7 +7148,7 @@
         <v>17</v>
       </c>
       <c r="E127" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -7111,7 +7162,7 @@
         <v>17</v>
       </c>
       <c r="E128" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -7125,7 +7176,7 @@
         <v>17</v>
       </c>
       <c r="E129" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -7139,7 +7190,7 @@
         <v>17</v>
       </c>
       <c r="E130" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -7153,7 +7204,7 @@
         <v>17</v>
       </c>
       <c r="E131" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -7167,7 +7218,7 @@
         <v>17</v>
       </c>
       <c r="E132" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
@@ -7181,7 +7232,7 @@
         <v>17</v>
       </c>
       <c r="E133" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -7195,7 +7246,7 @@
         <v>17</v>
       </c>
       <c r="E134" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -7209,7 +7260,7 @@
         <v>17</v>
       </c>
       <c r="E135" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -7223,7 +7274,7 @@
         <v>17</v>
       </c>
       <c r="E136" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -7237,7 +7288,7 @@
         <v>17</v>
       </c>
       <c r="E137" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -7251,7 +7302,7 @@
         <v>9</v>
       </c>
       <c r="E138" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -7265,7 +7316,7 @@
         <v>9</v>
       </c>
       <c r="E139" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -7279,7 +7330,7 @@
         <v>9</v>
       </c>
       <c r="E140" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -7293,7 +7344,7 @@
         <v>9</v>
       </c>
       <c r="E141" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -7307,7 +7358,7 @@
         <v>17</v>
       </c>
       <c r="E142" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -7321,7 +7372,7 @@
         <v>9</v>
       </c>
       <c r="E143" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -7335,7 +7386,7 @@
         <v>9</v>
       </c>
       <c r="E144" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -7349,7 +7400,7 @@
         <v>1</v>
       </c>
       <c r="E145" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -7363,7 +7414,7 @@
         <v>1</v>
       </c>
       <c r="E146" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -7377,7 +7428,7 @@
         <v>1</v>
       </c>
       <c r="E147" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -7391,7 +7442,7 @@
         <v>1</v>
       </c>
       <c r="E148" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -7405,7 +7456,7 @@
         <v>1</v>
       </c>
       <c r="E149" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -7419,16 +7470,13 @@
         <v>1</v>
       </c>
       <c r="E150" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>22</v>
       </c>
-      <c r="B151" t="s">
-        <v>39</v>
-      </c>
       <c r="C151" t="s">
         <v>12</v>
       </c>
@@ -7436,16 +7484,13 @@
         <v>2</v>
       </c>
       <c r="E151" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>22</v>
       </c>
-      <c r="B152" t="s">
-        <v>111</v>
-      </c>
       <c r="C152" t="s">
         <v>14</v>
       </c>
@@ -7453,16 +7498,13 @@
         <v>2</v>
       </c>
       <c r="E152" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>22</v>
       </c>
-      <c r="B153" t="s">
-        <v>40</v>
-      </c>
       <c r="C153" t="s">
         <v>13</v>
       </c>
@@ -7470,16 +7512,13 @@
         <v>2</v>
       </c>
       <c r="E153" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>22</v>
       </c>
-      <c r="B154" t="s">
-        <v>112</v>
-      </c>
       <c r="C154" t="s">
         <v>10</v>
       </c>
@@ -7487,7 +7526,7 @@
         <v>2</v>
       </c>
       <c r="E154" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -7501,7 +7540,7 @@
         <v>18</v>
       </c>
       <c r="E155" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -7515,7 +7554,7 @@
         <v>18</v>
       </c>
       <c r="E156" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -7529,7 +7568,7 @@
         <v>18</v>
       </c>
       <c r="E157" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -7543,7 +7582,7 @@
         <v>18</v>
       </c>
       <c r="E158" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -7557,7 +7596,7 @@
         <v>18</v>
       </c>
       <c r="E159" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -7571,7 +7610,7 @@
         <v>18</v>
       </c>
       <c r="E160" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -7585,7 +7624,7 @@
         <v>18</v>
       </c>
       <c r="E161" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -7599,7 +7638,7 @@
         <v>18</v>
       </c>
       <c r="E162" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -7613,7 +7652,7 @@
         <v>18</v>
       </c>
       <c r="E163" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -7627,7 +7666,7 @@
         <v>18</v>
       </c>
       <c r="E164" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -7641,7 +7680,7 @@
         <v>18</v>
       </c>
       <c r="E165" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -7655,7 +7694,7 @@
         <v>18</v>
       </c>
       <c r="E166" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -7669,7 +7708,7 @@
         <v>18</v>
       </c>
       <c r="E167" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -7683,7 +7722,7 @@
         <v>18</v>
       </c>
       <c r="E168" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -7697,7 +7736,7 @@
         <v>18</v>
       </c>
       <c r="E169" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -7711,7 +7750,7 @@
         <v>18</v>
       </c>
       <c r="E170" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -7725,7 +7764,7 @@
         <v>18</v>
       </c>
       <c r="E171" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -7739,7 +7778,7 @@
         <v>18</v>
       </c>
       <c r="E172" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -7753,7 +7792,7 @@
         <v>18</v>
       </c>
       <c r="E173" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -7767,7 +7806,7 @@
         <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -7781,7 +7820,7 @@
         <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
@@ -7795,7 +7834,7 @@
         <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
@@ -7809,7 +7848,7 @@
         <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
@@ -7823,7 +7862,7 @@
         <v>18</v>
       </c>
       <c r="E178" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
@@ -7837,7 +7876,7 @@
         <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
@@ -7851,7 +7890,7 @@
         <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
@@ -7865,7 +7904,7 @@
         <v>5</v>
       </c>
       <c r="E181" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
@@ -7879,7 +7918,7 @@
         <v>5</v>
       </c>
       <c r="E182" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -7893,7 +7932,7 @@
         <v>5</v>
       </c>
       <c r="E183" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
@@ -7907,7 +7946,7 @@
         <v>5</v>
       </c>
       <c r="E184" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -7921,7 +7960,7 @@
         <v>5</v>
       </c>
       <c r="E185" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -7935,7 +7974,7 @@
         <v>5</v>
       </c>
       <c r="E186" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -7943,7 +7982,7 @@
         <v>25</v>
       </c>
       <c r="B187" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C187" t="s">
         <v>14</v>
@@ -7952,7 +7991,7 @@
         <v>1</v>
       </c>
       <c r="E187" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -7960,7 +7999,7 @@
         <v>25</v>
       </c>
       <c r="B188" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C188" t="s">
         <v>11</v>
@@ -7969,7 +8008,7 @@
         <v>1</v>
       </c>
       <c r="E188" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -7977,7 +8016,7 @@
         <v>25</v>
       </c>
       <c r="B189" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C189" t="s">
         <v>10</v>
@@ -7986,7 +8025,7 @@
         <v>1</v>
       </c>
       <c r="E189" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -7994,7 +8033,7 @@
         <v>25</v>
       </c>
       <c r="B190" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C190" t="s">
         <v>12</v>
@@ -8003,7 +8042,7 @@
         <v>1</v>
       </c>
       <c r="E190" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -8011,7 +8050,7 @@
         <v>25</v>
       </c>
       <c r="B191" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C191" t="s">
         <v>9</v>
@@ -8020,7 +8059,7 @@
         <v>1</v>
       </c>
       <c r="E191" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -8028,7 +8067,7 @@
         <v>25</v>
       </c>
       <c r="B192" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C192" t="s">
         <v>13</v>
@@ -8037,7 +8076,7 @@
         <v>1</v>
       </c>
       <c r="E192" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -8051,7 +8090,7 @@
         <v>19</v>
       </c>
       <c r="E193" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -8065,7 +8104,7 @@
         <v>19</v>
       </c>
       <c r="E194" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -8079,7 +8118,7 @@
         <v>19</v>
       </c>
       <c r="E195" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -8093,7 +8132,7 @@
         <v>19</v>
       </c>
       <c r="E196" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -8107,7 +8146,7 @@
         <v>19</v>
       </c>
       <c r="E197" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -8121,7 +8160,7 @@
         <v>19</v>
       </c>
       <c r="E198" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -8135,7 +8174,7 @@
         <v>19</v>
       </c>
       <c r="E199" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -8149,7 +8188,7 @@
         <v>19</v>
       </c>
       <c r="E200" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -8163,7 +8202,7 @@
         <v>19</v>
       </c>
       <c r="E201" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -8177,7 +8216,7 @@
         <v>19</v>
       </c>
       <c r="E202" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -8191,7 +8230,7 @@
         <v>19</v>
       </c>
       <c r="E203" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -8205,7 +8244,7 @@
         <v>19</v>
       </c>
       <c r="E204" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -8219,7 +8258,7 @@
         <v>19</v>
       </c>
       <c r="E205" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -8233,7 +8272,7 @@
         <v>19</v>
       </c>
       <c r="E206" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -8247,7 +8286,7 @@
         <v>19</v>
       </c>
       <c r="E207" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -8261,7 +8300,7 @@
         <v>19</v>
       </c>
       <c r="E208" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -8275,7 +8314,7 @@
         <v>19</v>
       </c>
       <c r="E209" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -8289,7 +8328,7 @@
         <v>19</v>
       </c>
       <c r="E210" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -8303,7 +8342,7 @@
         <v>19</v>
       </c>
       <c r="E211" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -8317,7 +8356,7 @@
         <v>12</v>
       </c>
       <c r="E212" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -8331,7 +8370,7 @@
         <v>12</v>
       </c>
       <c r="E213" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -8345,7 +8384,7 @@
         <v>12</v>
       </c>
       <c r="E214" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -8359,7 +8398,7 @@
         <v>12</v>
       </c>
       <c r="E215" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -8373,7 +8412,7 @@
         <v>19</v>
       </c>
       <c r="E216" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -8387,7 +8426,7 @@
         <v>12</v>
       </c>
       <c r="E217" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -8401,21 +8440,21 @@
         <v>12</v>
       </c>
       <c r="E218" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D219" s="2">
         <v>1</v>
       </c>
       <c r="E219" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/data-builder/augments.xlsx
+++ b/data-builder/augments.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25009"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D043589D-8428-4176-B55F-30E5C73C9B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Yellow" sheetId="6" r:id="rId1"/>
@@ -427,8 +426,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -788,22 +787,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98:E102"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.5703125" bestFit="1" customWidth="1"/>
@@ -811,7 +810,7 @@
     <col min="4" max="4" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -828,7 +827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -842,7 +841,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -856,7 +855,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -870,7 +869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -884,7 +883,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -898,7 +897,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -912,7 +911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -926,7 +925,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -940,7 +939,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
@@ -954,7 +953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -968,7 +967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
@@ -982,7 +981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
@@ -996,7 +995,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
@@ -1010,7 +1009,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
@@ -1024,7 +1023,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4</v>
       </c>
@@ -1038,7 +1037,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4</v>
       </c>
@@ -1052,7 +1051,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>8</v>
       </c>
@@ -1066,7 +1065,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>8</v>
       </c>
@@ -1080,7 +1079,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>8</v>
       </c>
@@ -1094,7 +1093,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>8</v>
       </c>
@@ -1108,7 +1107,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>8</v>
       </c>
@@ -1122,7 +1121,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>8</v>
       </c>
@@ -1136,7 +1135,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>8</v>
       </c>
@@ -1150,7 +1149,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>8</v>
       </c>
@@ -1164,7 +1163,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>8</v>
       </c>
@@ -1178,7 +1177,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>8</v>
       </c>
@@ -1192,7 +1191,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>12</v>
       </c>
@@ -1206,7 +1205,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>12</v>
       </c>
@@ -1220,7 +1219,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>12</v>
       </c>
@@ -1234,7 +1233,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>12</v>
       </c>
@@ -1248,7 +1247,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>12</v>
       </c>
@@ -1262,7 +1261,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>12</v>
       </c>
@@ -1276,7 +1275,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>12</v>
       </c>
@@ -1290,7 +1289,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>12</v>
       </c>
@@ -1304,7 +1303,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>12</v>
       </c>
@@ -1318,7 +1317,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>16</v>
       </c>
@@ -1332,7 +1331,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>16</v>
       </c>
@@ -1346,7 +1345,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>16</v>
       </c>
@@ -1360,7 +1359,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>16</v>
       </c>
@@ -1374,7 +1373,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>16</v>
       </c>
@@ -1388,7 +1387,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>16</v>
       </c>
@@ -1402,7 +1401,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>16</v>
       </c>
@@ -1416,7 +1415,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>16</v>
       </c>
@@ -1430,7 +1429,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>16</v>
       </c>
@@ -1444,7 +1443,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>16</v>
       </c>
@@ -1458,7 +1457,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>16</v>
       </c>
@@ -1472,7 +1471,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>16</v>
       </c>
@@ -1486,7 +1485,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>16</v>
       </c>
@@ -1500,7 +1499,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>16</v>
       </c>
@@ -1514,7 +1513,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>16</v>
       </c>
@@ -1528,7 +1527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>20</v>
       </c>
@@ -1542,7 +1541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>20</v>
       </c>
@@ -1556,7 +1555,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>20</v>
       </c>
@@ -1570,7 +1569,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>20</v>
       </c>
@@ -1584,7 +1583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>20</v>
       </c>
@@ -1598,7 +1597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>20</v>
       </c>
@@ -1612,7 +1611,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>20</v>
       </c>
@@ -1626,7 +1625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>20</v>
       </c>
@@ -1640,7 +1639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>24</v>
       </c>
@@ -1654,7 +1653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>24</v>
       </c>
@@ -1668,7 +1667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>24</v>
       </c>
@@ -1682,7 +1681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>24</v>
       </c>
@@ -1696,7 +1695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>24</v>
       </c>
@@ -1710,7 +1709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>24</v>
       </c>
@@ -1724,7 +1723,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>24</v>
       </c>
@@ -1738,7 +1737,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>24</v>
       </c>
@@ -1752,7 +1751,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>24</v>
       </c>
@@ -1766,7 +1765,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>24</v>
       </c>
@@ -1780,7 +1779,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>24</v>
       </c>
@@ -1794,7 +1793,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>24</v>
       </c>
@@ -1808,7 +1807,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>28</v>
       </c>
@@ -1822,7 +1821,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>28</v>
       </c>
@@ -1836,7 +1835,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>28</v>
       </c>
@@ -1850,7 +1849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>28</v>
       </c>
@@ -1864,7 +1863,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>28</v>
       </c>
@@ -1878,7 +1877,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>25</v>
       </c>
@@ -1895,7 +1894,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>25</v>
       </c>
@@ -1912,7 +1911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>25</v>
       </c>
@@ -1929,7 +1928,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>25</v>
       </c>
@@ -1946,7 +1945,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>20</v>
       </c>
@@ -1963,7 +1962,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1</v>
       </c>
@@ -1977,7 +1976,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>4</v>
       </c>
@@ -1991,7 +1990,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>8</v>
       </c>
@@ -2005,7 +2004,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>12</v>
       </c>
@@ -2019,7 +2018,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>16</v>
       </c>
@@ -2033,7 +2032,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>20</v>
       </c>
@@ -2047,7 +2046,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>24</v>
       </c>
@@ -2061,7 +2060,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>28</v>
       </c>
@@ -2075,7 +2074,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1</v>
       </c>
@@ -2089,7 +2088,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>4</v>
       </c>
@@ -2103,7 +2102,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>8</v>
       </c>
@@ -2117,7 +2116,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>12</v>
       </c>
@@ -2131,7 +2130,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>16</v>
       </c>
@@ -2145,7 +2144,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>20</v>
       </c>
@@ -2159,7 +2158,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>24</v>
       </c>
@@ -2173,7 +2172,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>28</v>
       </c>
@@ -2187,7 +2186,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1</v>
       </c>
@@ -2201,7 +2200,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>4</v>
       </c>
@@ -2215,7 +2214,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>12</v>
       </c>
@@ -2229,7 +2228,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>20</v>
       </c>
@@ -2243,7 +2242,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>24</v>
       </c>
@@ -2258,21 +2257,21 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E76" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E76"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
@@ -2281,7 +2280,7 @@
     <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2298,7 +2297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2312,7 +2311,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2326,7 +2325,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2337,10 +2336,10 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2354,7 +2353,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2368,7 +2367,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2382,7 +2381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -2396,7 +2395,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -2410,7 +2409,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
@@ -2421,10 +2420,10 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -2438,7 +2437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
@@ -2452,7 +2451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
@@ -2466,7 +2465,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8</v>
       </c>
@@ -2480,7 +2479,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8</v>
       </c>
@@ -2494,7 +2493,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8</v>
       </c>
@@ -2505,10 +2504,10 @@
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>8</v>
       </c>
@@ -2522,7 +2521,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>8</v>
       </c>
@@ -2536,7 +2535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>8</v>
       </c>
@@ -2550,7 +2549,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>12</v>
       </c>
@@ -2564,7 +2563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>12</v>
       </c>
@@ -2578,7 +2577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>12</v>
       </c>
@@ -2589,10 +2588,10 @@
         <v>6</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>12</v>
       </c>
@@ -2606,7 +2605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>12</v>
       </c>
@@ -2620,7 +2619,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>12</v>
       </c>
@@ -2634,7 +2633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>16</v>
       </c>
@@ -2648,7 +2647,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>16</v>
       </c>
@@ -2662,7 +2661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>16</v>
       </c>
@@ -2673,10 +2672,10 @@
         <v>7</v>
       </c>
       <c r="E28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>16</v>
       </c>
@@ -2690,7 +2689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>16</v>
       </c>
@@ -2704,7 +2703,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>20</v>
       </c>
@@ -2718,7 +2717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>20</v>
       </c>
@@ -2732,7 +2731,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>20</v>
       </c>
@@ -2743,10 +2742,10 @@
         <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>20</v>
       </c>
@@ -2760,7 +2759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>20</v>
       </c>
@@ -2774,7 +2773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>20</v>
       </c>
@@ -2788,7 +2787,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>24</v>
       </c>
@@ -2802,7 +2801,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>24</v>
       </c>
@@ -2816,7 +2815,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>24</v>
       </c>
@@ -2827,10 +2826,10 @@
         <v>9</v>
       </c>
       <c r="E39" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>24</v>
       </c>
@@ -2844,7 +2843,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>24</v>
       </c>
@@ -2858,7 +2857,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>28</v>
       </c>
@@ -2872,7 +2871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>28</v>
       </c>
@@ -2886,7 +2885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>28</v>
       </c>
@@ -2897,10 +2896,10 @@
         <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>28</v>
       </c>
@@ -2914,7 +2913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>28</v>
       </c>
@@ -2928,7 +2927,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>12</v>
       </c>
@@ -2942,7 +2941,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>16</v>
       </c>
@@ -2956,7 +2955,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>20</v>
       </c>
@@ -2970,7 +2969,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>12</v>
       </c>
@@ -2984,7 +2983,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>20</v>
       </c>
@@ -2998,7 +2997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1</v>
       </c>
@@ -3012,7 +3011,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>4</v>
       </c>
@@ -3026,7 +3025,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>8</v>
       </c>
@@ -3040,7 +3039,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>12</v>
       </c>
@@ -3054,7 +3053,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>16</v>
       </c>
@@ -3068,7 +3067,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>20</v>
       </c>
@@ -3082,7 +3081,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>24</v>
       </c>
@@ -3096,7 +3095,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>28</v>
       </c>
@@ -3110,7 +3109,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1</v>
       </c>
@@ -3124,7 +3123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>4</v>
       </c>
@@ -3138,7 +3137,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>8</v>
       </c>
@@ -3152,7 +3151,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>12</v>
       </c>
@@ -3166,7 +3165,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>16</v>
       </c>
@@ -3180,7 +3179,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>20</v>
       </c>
@@ -3194,7 +3193,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>24</v>
       </c>
@@ -3208,7 +3207,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>28</v>
       </c>
@@ -3222,7 +3221,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1</v>
       </c>
@@ -3236,7 +3235,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>4</v>
       </c>
@@ -3250,7 +3249,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>8</v>
       </c>
@@ -3264,7 +3263,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>12</v>
       </c>
@@ -3278,7 +3277,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>16</v>
       </c>
@@ -3292,7 +3291,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>20</v>
       </c>
@@ -3306,7 +3305,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>24</v>
       </c>
@@ -3320,7 +3319,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>28</v>
       </c>
@@ -3334,7 +3333,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1</v>
       </c>
@@ -3348,7 +3347,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>4</v>
       </c>
@@ -3362,7 +3361,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>8</v>
       </c>
@@ -3376,7 +3375,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>12</v>
       </c>
@@ -3390,7 +3389,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>16</v>
       </c>
@@ -3404,7 +3403,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>20</v>
       </c>
@@ -3418,7 +3417,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>24</v>
       </c>
@@ -3432,7 +3431,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>28</v>
       </c>
@@ -3446,7 +3445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1</v>
       </c>
@@ -3460,7 +3459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>4</v>
       </c>
@@ -3474,7 +3473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>8</v>
       </c>
@@ -3488,7 +3487,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>12</v>
       </c>
@@ -3502,7 +3501,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>16</v>
       </c>
@@ -3516,7 +3515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>20</v>
       </c>
@@ -3530,7 +3529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>24</v>
       </c>
@@ -3544,7 +3543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>28</v>
       </c>
@@ -3558,7 +3557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>6</v>
       </c>
@@ -3575,7 +3574,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>28</v>
       </c>
@@ -3592,7 +3591,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>28</v>
       </c>
@@ -3609,7 +3608,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>28</v>
       </c>
@@ -3627,13 +3626,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E46" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:E46"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E123"/>
   <sheetViews>
@@ -3641,7 +3640,7 @@
       <selection activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
@@ -3649,7 +3648,7 @@
     <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3666,7 +3665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3680,7 +3679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3694,7 +3693,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3708,7 +3707,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3722,7 +3721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3737,7 +3736,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -3752,7 +3751,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -3767,7 +3766,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -3782,7 +3781,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -3797,7 +3796,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -3812,7 +3811,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -3827,7 +3826,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -3842,7 +3841,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -3857,7 +3856,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -3872,7 +3871,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4</v>
       </c>
@@ -3886,7 +3885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4</v>
       </c>
@@ -3900,7 +3899,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
@@ -3914,7 +3913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4</v>
       </c>
@@ -3928,7 +3927,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4</v>
       </c>
@@ -3942,7 +3941,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4</v>
       </c>
@@ -3956,7 +3955,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4</v>
       </c>
@@ -3970,7 +3969,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4</v>
       </c>
@@ -3984,7 +3983,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>4</v>
       </c>
@@ -3998,7 +3997,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>4</v>
       </c>
@@ -4012,7 +4011,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>4</v>
       </c>
@@ -4026,7 +4025,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4</v>
       </c>
@@ -4040,7 +4039,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>4</v>
       </c>
@@ -4054,7 +4053,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
@@ -4068,7 +4067,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>8</v>
       </c>
@@ -4082,7 +4081,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>8</v>
       </c>
@@ -4096,7 +4095,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>8</v>
       </c>
@@ -4110,7 +4109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>8</v>
       </c>
@@ -4124,7 +4123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>8</v>
       </c>
@@ -4138,7 +4137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>8</v>
       </c>
@@ -4152,7 +4151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>8</v>
       </c>
@@ -4166,7 +4165,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>8</v>
       </c>
@@ -4180,7 +4179,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>8</v>
       </c>
@@ -4194,7 +4193,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>8</v>
       </c>
@@ -4208,7 +4207,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>8</v>
       </c>
@@ -4222,7 +4221,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>8</v>
       </c>
@@ -4236,7 +4235,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>8</v>
       </c>
@@ -4250,7 +4249,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>8</v>
       </c>
@@ -4264,7 +4263,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>8</v>
       </c>
@@ -4278,7 +4277,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>8</v>
       </c>
@@ -4292,7 +4291,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>8</v>
       </c>
@@ -4306,7 +4305,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>8</v>
       </c>
@@ -4320,7 +4319,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>12</v>
       </c>
@@ -4334,7 +4333,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>12</v>
       </c>
@@ -4348,7 +4347,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>12</v>
       </c>
@@ -4362,7 +4361,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>12</v>
       </c>
@@ -4376,7 +4375,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>12</v>
       </c>
@@ -4390,7 +4389,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>12</v>
       </c>
@@ -4404,7 +4403,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>12</v>
       </c>
@@ -4418,7 +4417,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>12</v>
       </c>
@@ -4432,7 +4431,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>12</v>
       </c>
@@ -4446,7 +4445,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>12</v>
       </c>
@@ -4460,7 +4459,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>12</v>
       </c>
@@ -4474,7 +4473,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>12</v>
       </c>
@@ -4488,7 +4487,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>12</v>
       </c>
@@ -4502,7 +4501,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>12</v>
       </c>
@@ -4516,7 +4515,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>12</v>
       </c>
@@ -4530,7 +4529,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>12</v>
       </c>
@@ -4544,7 +4543,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>16</v>
       </c>
@@ -4558,7 +4557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>16</v>
       </c>
@@ -4572,7 +4571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>16</v>
       </c>
@@ -4586,7 +4585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>16</v>
       </c>
@@ -4600,7 +4599,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>16</v>
       </c>
@@ -4614,7 +4613,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>16</v>
       </c>
@@ -4628,7 +4627,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>16</v>
       </c>
@@ -4642,7 +4641,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>16</v>
       </c>
@@ -4656,7 +4655,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>16</v>
       </c>
@@ -4670,7 +4669,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>16</v>
       </c>
@@ -4684,7 +4683,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>16</v>
       </c>
@@ -4698,7 +4697,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>16</v>
       </c>
@@ -4712,7 +4711,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>16</v>
       </c>
@@ -4726,7 +4725,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>16</v>
       </c>
@@ -4740,7 +4739,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>16</v>
       </c>
@@ -4754,7 +4753,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>16</v>
       </c>
@@ -4768,7 +4767,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>20</v>
       </c>
@@ -4782,7 +4781,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>20</v>
       </c>
@@ -4796,7 +4795,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>20</v>
       </c>
@@ -4810,7 +4809,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>20</v>
       </c>
@@ -4824,7 +4823,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>20</v>
       </c>
@@ -4838,7 +4837,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>20</v>
       </c>
@@ -4852,7 +4851,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>20</v>
       </c>
@@ -4866,7 +4865,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>20</v>
       </c>
@@ -4880,7 +4879,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>20</v>
       </c>
@@ -4894,7 +4893,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>20</v>
       </c>
@@ -4908,7 +4907,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>20</v>
       </c>
@@ -4922,7 +4921,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>20</v>
       </c>
@@ -4936,7 +4935,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>20</v>
       </c>
@@ -4950,7 +4949,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>20</v>
       </c>
@@ -4964,7 +4963,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>24</v>
       </c>
@@ -4978,7 +4977,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>24</v>
       </c>
@@ -4992,7 +4991,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>24</v>
       </c>
@@ -5006,7 +5005,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>24</v>
       </c>
@@ -5020,7 +5019,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>24</v>
       </c>
@@ -5034,7 +5033,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>24</v>
       </c>
@@ -5048,7 +5047,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>24</v>
       </c>
@@ -5062,7 +5061,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>24</v>
       </c>
@@ -5076,7 +5075,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>24</v>
       </c>
@@ -5090,7 +5089,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>24</v>
       </c>
@@ -5104,7 +5103,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>24</v>
       </c>
@@ -5118,7 +5117,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>24</v>
       </c>
@@ -5132,7 +5131,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>24</v>
       </c>
@@ -5146,7 +5145,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>24</v>
       </c>
@@ -5160,7 +5159,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>28</v>
       </c>
@@ -5174,7 +5173,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>28</v>
       </c>
@@ -5188,7 +5187,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>28</v>
       </c>
@@ -5202,7 +5201,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>28</v>
       </c>
@@ -5216,7 +5215,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>28</v>
       </c>
@@ -5230,7 +5229,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>28</v>
       </c>
@@ -5244,7 +5243,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>28</v>
       </c>
@@ -5258,7 +5257,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>28</v>
       </c>
@@ -5272,7 +5271,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>28</v>
       </c>
@@ -5286,7 +5285,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>28</v>
       </c>
@@ -5300,7 +5299,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>28</v>
       </c>
@@ -5314,7 +5313,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>28</v>
       </c>
@@ -5328,7 +5327,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>28</v>
       </c>
@@ -5342,7 +5341,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>28</v>
       </c>
@@ -5356,7 +5355,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>28</v>
       </c>
@@ -5373,7 +5372,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>28</v>
       </c>
@@ -5391,22 +5390,22 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E121" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:E121"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E219"/>
   <sheetViews>
-    <sheetView topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="C195" sqref="C195"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="D128" sqref="D128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
@@ -5414,7 +5413,7 @@
     <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5431,7 +5430,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5445,7 +5444,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5459,7 +5458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -5473,7 +5472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -5487,7 +5486,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -5501,7 +5500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -5515,7 +5514,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
@@ -5529,7 +5528,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -5543,7 +5542,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
@@ -5557,7 +5556,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -5571,7 +5570,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
@@ -5585,7 +5584,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
@@ -5599,7 +5598,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
@@ -5613,7 +5612,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
@@ -5627,7 +5626,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4</v>
       </c>
@@ -5641,7 +5640,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4</v>
       </c>
@@ -5655,7 +5654,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
@@ -5669,7 +5668,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="14.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4</v>
       </c>
@@ -5683,7 +5682,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4</v>
       </c>
@@ -5697,7 +5696,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="14.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4</v>
       </c>
@@ -5711,7 +5710,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4</v>
       </c>
@@ -5725,7 +5724,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>4</v>
       </c>
@@ -5739,7 +5738,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="14.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>4</v>
       </c>
@@ -5753,7 +5752,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="14.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>4</v>
       </c>
@@ -5767,7 +5766,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="14.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>4</v>
       </c>
@@ -5781,7 +5780,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="14.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4</v>
       </c>
@@ -5795,7 +5794,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="14.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>4</v>
       </c>
@@ -5809,7 +5808,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="14.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
@@ -5823,7 +5822,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="14.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4</v>
       </c>
@@ -5837,7 +5836,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="14.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4</v>
       </c>
@@ -5851,7 +5850,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="14.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4</v>
       </c>
@@ -5865,7 +5864,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="14.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>4</v>
       </c>
@@ -5879,7 +5878,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="14.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>8</v>
       </c>
@@ -5893,7 +5892,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="14.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>8</v>
       </c>
@@ -5907,7 +5906,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="14.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>8</v>
       </c>
@@ -5921,7 +5920,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="14.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>8</v>
       </c>
@@ -5935,7 +5934,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="14.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>8</v>
       </c>
@@ -5949,7 +5948,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="14.45">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>8</v>
       </c>
@@ -5963,7 +5962,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="14.45">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>8</v>
       </c>
@@ -5977,7 +5976,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="14.45">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>8</v>
       </c>
@@ -5991,7 +5990,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="14.45">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>8</v>
       </c>
@@ -6005,7 +6004,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="14.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>8</v>
       </c>
@@ -6019,7 +6018,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="14.45">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>8</v>
       </c>
@@ -6033,7 +6032,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="14.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>8</v>
       </c>
@@ -6047,7 +6046,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="14.45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>8</v>
       </c>
@@ -6061,7 +6060,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="14.45">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>8</v>
       </c>
@@ -6075,7 +6074,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="14.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>8</v>
       </c>
@@ -6089,7 +6088,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="14.45">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>8</v>
       </c>
@@ -6103,7 +6102,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="14.45">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>8</v>
       </c>
@@ -6117,7 +6116,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="14.45">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>8</v>
       </c>
@@ -6131,7 +6130,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="14.45">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>8</v>
       </c>
@@ -6145,7 +6144,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="14.45">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>8</v>
       </c>
@@ -6159,7 +6158,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="14.45">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>8</v>
       </c>
@@ -6173,7 +6172,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="14.45">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>8</v>
       </c>
@@ -6187,7 +6186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="14.45">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>8</v>
       </c>
@@ -6201,7 +6200,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="14.45">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>8</v>
       </c>
@@ -6215,7 +6214,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="14.45">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>8</v>
       </c>
@@ -6229,7 +6228,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="14.45">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>8</v>
       </c>
@@ -6243,7 +6242,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="14.45">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>11</v>
       </c>
@@ -6260,7 +6259,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="14.45">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>12</v>
       </c>
@@ -6274,7 +6273,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="14.45">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>12</v>
       </c>
@@ -6288,7 +6287,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="14.45">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>12</v>
       </c>
@@ -6302,7 +6301,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="14.45">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>12</v>
       </c>
@@ -6316,7 +6315,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="14.45">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>12</v>
       </c>
@@ -6330,7 +6329,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="14.45">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>12</v>
       </c>
@@ -6344,7 +6343,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="14.45">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>12</v>
       </c>
@@ -6358,7 +6357,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="14.45">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>12</v>
       </c>
@@ -6372,7 +6371,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="14.45">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>12</v>
       </c>
@@ -6386,7 +6385,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="14.45">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>12</v>
       </c>
@@ -6400,7 +6399,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="14.45">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>12</v>
       </c>
@@ -6414,7 +6413,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="14.45">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>12</v>
       </c>
@@ -6428,7 +6427,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="14.45">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>12</v>
       </c>
@@ -6442,7 +6441,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="14.45">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>12</v>
       </c>
@@ -6456,7 +6455,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="14.45">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>12</v>
       </c>
@@ -6470,7 +6469,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="14.45">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>12</v>
       </c>
@@ -6484,7 +6483,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="14.45">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>12</v>
       </c>
@@ -6498,7 +6497,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="14.45">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>12</v>
       </c>
@@ -6512,7 +6511,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="14.45">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>12</v>
       </c>
@@ -6526,7 +6525,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="14.45">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>12</v>
       </c>
@@ -6540,7 +6539,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="14.45">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>12</v>
       </c>
@@ -6554,7 +6553,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="14.45">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>12</v>
       </c>
@@ -6568,7 +6567,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="14.45">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>12</v>
       </c>
@@ -6582,7 +6581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="14.45">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>12</v>
       </c>
@@ -6596,7 +6595,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="14.45">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>12</v>
       </c>
@@ -6610,7 +6609,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="14.45">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>12</v>
       </c>
@@ -6624,7 +6623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="14.45">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>14</v>
       </c>
@@ -6641,7 +6640,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="14.45">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>14</v>
       </c>
@@ -6658,7 +6657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="14.45">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>14</v>
       </c>
@@ -6675,7 +6674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="14.45">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>14</v>
       </c>
@@ -6692,7 +6691,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="14.45">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>14</v>
       </c>
@@ -6709,7 +6708,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="14.45">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>14</v>
       </c>
@@ -6726,7 +6725,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="14.45">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>16</v>
       </c>
@@ -6740,7 +6739,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="14.45">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>16</v>
       </c>
@@ -6754,7 +6753,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="14.45">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>16</v>
       </c>
@@ -6768,7 +6767,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="14.45">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>16</v>
       </c>
@@ -6782,7 +6781,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="14.45">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>16</v>
       </c>
@@ -6796,7 +6795,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="14.45">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>16</v>
       </c>
@@ -6810,7 +6809,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="14.45">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>16</v>
       </c>
@@ -6824,7 +6823,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="14.45">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>16</v>
       </c>
@@ -6838,7 +6837,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="14.45">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>16</v>
       </c>
@@ -6852,7 +6851,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="14.45">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>16</v>
       </c>
@@ -6866,7 +6865,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="14.45">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>16</v>
       </c>
@@ -6880,7 +6879,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="14.45">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>16</v>
       </c>
@@ -6894,7 +6893,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="14.45">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>16</v>
       </c>
@@ -6908,7 +6907,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="14.45">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>16</v>
       </c>
@@ -6922,7 +6921,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="14.45">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>16</v>
       </c>
@@ -6936,7 +6935,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="14.45">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>16</v>
       </c>
@@ -6950,7 +6949,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="14.45">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>16</v>
       </c>
@@ -6964,7 +6963,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="14.45">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>16</v>
       </c>
@@ -6978,7 +6977,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="14.45">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>16</v>
       </c>
@@ -6992,7 +6991,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="14.45">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>16</v>
       </c>
@@ -7006,7 +7005,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="14.45">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>16</v>
       </c>
@@ -7020,7 +7019,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="14.45">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>16</v>
       </c>
@@ -7034,7 +7033,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="14.45">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>16</v>
       </c>
@@ -7048,7 +7047,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="14.45">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>16</v>
       </c>
@@ -7062,7 +7061,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="14.45">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>16</v>
       </c>
@@ -7076,7 +7075,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="14.45">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>16</v>
       </c>
@@ -7090,7 +7089,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="14.45">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>20</v>
       </c>
@@ -7104,7 +7103,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="14.45">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>20</v>
       </c>
@@ -7118,7 +7117,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="14.45">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>20</v>
       </c>
@@ -7132,7 +7131,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="14.45">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>20</v>
       </c>
@@ -7146,7 +7145,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="14.45">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>20</v>
       </c>
@@ -7160,7 +7159,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="14.45">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>20</v>
       </c>
@@ -7174,7 +7173,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="14.45">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>20</v>
       </c>
@@ -7188,7 +7187,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="14.45">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>20</v>
       </c>
@@ -7202,7 +7201,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="14.45">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>20</v>
       </c>
@@ -7216,7 +7215,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="14.45">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>20</v>
       </c>
@@ -7230,7 +7229,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="14.45">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>20</v>
       </c>
@@ -7244,7 +7243,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="14.45">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>20</v>
       </c>
@@ -7258,7 +7257,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="14.45">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>20</v>
       </c>
@@ -7272,7 +7271,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="14.45">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>20</v>
       </c>
@@ -7286,7 +7285,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="14.45">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>20</v>
       </c>
@@ -7300,7 +7299,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>20</v>
       </c>
@@ -7314,7 +7313,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>20</v>
       </c>
@@ -7328,7 +7327,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>20</v>
       </c>
@@ -7342,7 +7341,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>20</v>
       </c>
@@ -7356,7 +7355,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>20</v>
       </c>
@@ -7370,7 +7369,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>20</v>
       </c>
@@ -7384,7 +7383,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>20</v>
       </c>
@@ -7398,7 +7397,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>20</v>
       </c>
@@ -7412,7 +7411,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>20</v>
       </c>
@@ -7426,7 +7425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>20</v>
       </c>
@@ -7440,7 +7439,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>20</v>
       </c>
@@ -7454,7 +7453,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>20</v>
       </c>
@@ -7468,7 +7467,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>20</v>
       </c>
@@ -7482,7 +7481,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>20</v>
       </c>
@@ -7496,7 +7495,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>20</v>
       </c>
@@ -7510,7 +7509,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>20</v>
       </c>
@@ -7524,7 +7523,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>20</v>
       </c>
@@ -7538,7 +7537,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>22</v>
       </c>
@@ -7552,7 +7551,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>22</v>
       </c>
@@ -7566,7 +7565,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>22</v>
       </c>
@@ -7580,7 +7579,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>22</v>
       </c>
@@ -7594,7 +7593,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>24</v>
       </c>
@@ -7608,7 +7607,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>24</v>
       </c>
@@ -7622,7 +7621,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>24</v>
       </c>
@@ -7636,7 +7635,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>24</v>
       </c>
@@ -7650,7 +7649,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>24</v>
       </c>
@@ -7664,7 +7663,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>24</v>
       </c>
@@ -7678,7 +7677,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>24</v>
       </c>
@@ -7692,7 +7691,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>24</v>
       </c>
@@ -7706,7 +7705,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>24</v>
       </c>
@@ -7720,7 +7719,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>24</v>
       </c>
@@ -7734,7 +7733,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>24</v>
       </c>
@@ -7748,7 +7747,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>24</v>
       </c>
@@ -7762,7 +7761,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>24</v>
       </c>
@@ -7776,7 +7775,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>24</v>
       </c>
@@ -7790,7 +7789,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>24</v>
       </c>
@@ -7804,7 +7803,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>24</v>
       </c>
@@ -7818,7 +7817,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>24</v>
       </c>
@@ -7832,7 +7831,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>24</v>
       </c>
@@ -7846,7 +7845,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>24</v>
       </c>
@@ -7860,7 +7859,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>24</v>
       </c>
@@ -7874,7 +7873,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>24</v>
       </c>
@@ -7888,7 +7887,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>24</v>
       </c>
@@ -7902,7 +7901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>24</v>
       </c>
@@ -7916,7 +7915,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>24</v>
       </c>
@@ -7930,7 +7929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>24</v>
       </c>
@@ -7944,7 +7943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>24</v>
       </c>
@@ -7958,7 +7957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>24</v>
       </c>
@@ -7972,7 +7971,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>24</v>
       </c>
@@ -7986,7 +7985,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>24</v>
       </c>
@@ -8000,7 +7999,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>24</v>
       </c>
@@ -8014,7 +8013,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>24</v>
       </c>
@@ -8028,7 +8027,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>24</v>
       </c>
@@ -8042,7 +8041,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>25</v>
       </c>
@@ -8059,7 +8058,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>25</v>
       </c>
@@ -8076,7 +8075,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>25</v>
       </c>
@@ -8093,7 +8092,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>25</v>
       </c>
@@ -8110,7 +8109,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>25</v>
       </c>
@@ -8127,7 +8126,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>25</v>
       </c>
@@ -8144,7 +8143,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>28</v>
       </c>
@@ -8158,7 +8157,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>28</v>
       </c>
@@ -8172,7 +8171,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>28</v>
       </c>
@@ -8186,7 +8185,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>28</v>
       </c>
@@ -8200,7 +8199,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>28</v>
       </c>
@@ -8214,7 +8213,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>28</v>
       </c>
@@ -8228,7 +8227,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>28</v>
       </c>
@@ -8242,7 +8241,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>28</v>
       </c>
@@ -8256,7 +8255,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>28</v>
       </c>
@@ -8270,7 +8269,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>28</v>
       </c>
@@ -8284,7 +8283,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>28</v>
       </c>
@@ -8298,7 +8297,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>28</v>
       </c>
@@ -8312,7 +8311,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>28</v>
       </c>
@@ -8326,7 +8325,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>28</v>
       </c>
@@ -8340,7 +8339,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>28</v>
       </c>
@@ -8354,7 +8353,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>28</v>
       </c>
@@ -8368,7 +8367,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>28</v>
       </c>
@@ -8382,7 +8381,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>28</v>
       </c>
@@ -8396,7 +8395,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>28</v>
       </c>
@@ -8410,7 +8409,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>28</v>
       </c>
@@ -8424,7 +8423,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>28</v>
       </c>
@@ -8438,7 +8437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>28</v>
       </c>
@@ -8452,7 +8451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>28</v>
       </c>
@@ -8466,7 +8465,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>28</v>
       </c>
@@ -8480,7 +8479,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>28</v>
       </c>
@@ -8494,7 +8493,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>28</v>
       </c>
@@ -8508,7 +8507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
         <v>126</v>
       </c>
@@ -8523,8 +8522,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E219" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E217">
+  <autoFilter ref="A1:E219"/>
+  <sortState ref="A2:E217">
     <sortCondition ref="A2:A217"/>
     <sortCondition ref="E2:E217"/>
   </sortState>

--- a/data-builder/augments.xlsx
+++ b/data-builder/augments.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Yellow" sheetId="6" r:id="rId1"/>
     <sheet name="Blue" sheetId="5" r:id="rId2"/>
     <sheet name="Red" sheetId="4" r:id="rId3"/>
     <sheet name="Colorless" sheetId="2" r:id="rId4"/>
+    <sheet name="Orange" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Blue!$A$1:$E$46</definedName>
@@ -18,26 +19,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Red!$A$1:$E$121</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Yellow!$A$1:$E$76</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="132">
   <si>
     <t>Minimum Level</t>
   </si>
@@ -421,6 +408,18 @@
   </si>
   <si>
     <t>Heroic Inspiration</t>
+  </si>
+  <si>
+    <t>Orange Augments</t>
+  </si>
+  <si>
+    <t>Meridian Fragment</t>
+  </si>
+  <si>
+    <t>Efficient Maximize</t>
+  </si>
+  <si>
+    <t>On receiving physical damage, gain a stack of Psionic Potency +8</t>
   </si>
 </sst>
 </file>
@@ -490,9 +489,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -798,7 +794,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -2267,7 +2263,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
@@ -3636,8 +3632,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B120" sqref="B120"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5401,9 +5397,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E219"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="D128" sqref="D128"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8530,4 +8524,67 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data-builder/augments.xlsx
+++ b/data-builder/augments.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1787" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="409">
   <si>
     <t>Minimum Level</t>
   </si>
@@ -285,6 +285,12 @@
     <t>Legendary Guide to Animal Handling</t>
   </si>
   <si>
+    <t>Melee Power</t>
+  </si>
+  <si>
+    <t>Ranged Power</t>
+  </si>
+  <si>
     <t>Blue Augments</t>
   </si>
   <si>
@@ -453,18 +459,30 @@
     <t>The Legendary Book of Defense: Fortitude</t>
   </si>
   <si>
+    <t>Fortitude Save</t>
+  </si>
+  <si>
     <t>The Legendary Book of Defense: Reflexes</t>
   </si>
   <si>
+    <t>Reflex Save</t>
+  </si>
+  <si>
     <t>The Legendary Book of Defense: Willpower</t>
   </si>
   <si>
+    <t>Will Save</t>
+  </si>
+  <si>
     <t>How to Cast Faster</t>
   </si>
   <si>
     <t>Efficient Metamagic - Quicken III</t>
   </si>
   <si>
+    <t>Sapphire of Defense</t>
+  </si>
+  <si>
     <t>Red Augments</t>
   </si>
   <si>
@@ -1201,6 +1219,9 @@
   </si>
   <si>
     <t>Citrene of Greater Dragonmarks</t>
+  </si>
+  <si>
+    <t>Greater Dragonmark Charges</t>
   </si>
   <si>
     <t>Essence of the Spear of the Mournlands</t>
@@ -3543,64 +3564,284 @@
       </c>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="D132" s="2"/>
+      <c r="A132" s="3">
+        <v>32.0</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D132" s="5">
+        <v>45.0</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="D133" s="2"/>
+      <c r="A133" s="3">
+        <v>32.0</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D133" s="5">
+        <v>45.0</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="D134" s="2"/>
+      <c r="A134" s="3">
+        <v>32.0</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="5">
+        <v>45.0</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="D135" s="2"/>
+      <c r="A135" s="3">
+        <v>32.0</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D135" s="5">
+        <v>45.0</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="D136" s="2"/>
+      <c r="A136" s="3">
+        <v>32.0</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D136" s="5">
+        <v>294.0</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="D137" s="2"/>
+      <c r="A137" s="3">
+        <v>32.0</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D137" s="5">
+        <v>45.0</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="D138" s="2"/>
+      <c r="A138" s="3">
+        <v>32.0</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D138" s="5">
+        <v>11.0</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="D139" s="2"/>
+      <c r="A139" s="3">
+        <v>32.0</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D139" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="D140" s="2"/>
+      <c r="A140" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D140" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="D141" s="2"/>
+      <c r="A141" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D141" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="D142" s="2"/>
+      <c r="A142" s="3">
+        <v>20.0</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D142" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="D143" s="2"/>
+      <c r="A143" s="3">
+        <v>24.0</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D143" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="D144" s="2"/>
+      <c r="A144" s="3">
+        <v>28.0</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D144" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="D145" s="2"/>
+      <c r="A145" s="3">
+        <v>32.0</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D145" s="5">
+        <v>12.0</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="D146" s="2"/>
+      <c r="A146" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D146" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="D147" s="2"/>
+      <c r="A147" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D147" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="D148" s="2"/>
+      <c r="A148" s="3">
+        <v>20.0</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D148" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="D149" s="2"/>
+      <c r="A149" s="3">
+        <v>24.0</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D149" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="D150" s="2"/>
+      <c r="A150" s="3">
+        <v>28.0</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D150" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="D151" s="2"/>
+      <c r="A151" s="3">
+        <v>32.0</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D151" s="5">
+        <v>12.0</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="D152" s="2"/>
@@ -6181,7 +6422,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -6201,7 +6442,7 @@
         <v>1.0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D2" s="4">
         <v>1.0</v>
@@ -6215,7 +6456,7 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D3" s="4">
         <v>1.0</v>
@@ -6229,13 +6470,13 @@
         <v>1.0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D4" s="4">
         <v>1.0</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5">
@@ -6243,7 +6484,7 @@
         <v>1.0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D5" s="4">
         <v>3.0</v>
@@ -6257,7 +6498,7 @@
         <v>1.0</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D6" s="6">
         <v>0.25</v>
@@ -6271,7 +6512,7 @@
         <v>1.0</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D7" s="4">
         <v>4.0</v>
@@ -6285,7 +6526,7 @@
         <v>4.0</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D8" s="4">
         <v>3.0</v>
@@ -6299,7 +6540,7 @@
         <v>4.0</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D9" s="4">
         <v>3.0</v>
@@ -6313,13 +6554,13 @@
         <v>4.0</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D10" s="4">
         <v>3.0</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11">
@@ -6327,7 +6568,7 @@
         <v>4.0</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D11" s="4">
         <v>8.0</v>
@@ -6341,7 +6582,7 @@
         <v>4.0</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D12" s="6">
         <v>0.75</v>
@@ -6355,7 +6596,7 @@
         <v>4.0</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D13" s="4">
         <v>12.0</v>
@@ -6369,7 +6610,7 @@
         <v>8.0</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D14" s="4">
         <v>5.0</v>
@@ -6383,7 +6624,7 @@
         <v>8.0</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D15" s="4">
         <v>4.0</v>
@@ -6397,13 +6638,13 @@
         <v>8.0</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D16" s="4">
         <v>5.0</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17">
@@ -6411,7 +6652,7 @@
         <v>8.0</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D17" s="4">
         <v>12.0</v>
@@ -6425,7 +6666,7 @@
         <v>8.0</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D18" s="6">
         <v>1.0</v>
@@ -6439,7 +6680,7 @@
         <v>8.0</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D19" s="4">
         <v>18.0</v>
@@ -6453,7 +6694,7 @@
         <v>12.0</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D20" s="4">
         <v>6.0</v>
@@ -6467,7 +6708,7 @@
         <v>12.0</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D21" s="4">
         <v>5.0</v>
@@ -6481,13 +6722,13 @@
         <v>12.0</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D22" s="4">
         <v>6.0</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
@@ -6495,7 +6736,7 @@
         <v>12.0</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D23" s="4">
         <v>16.0</v>
@@ -6509,7 +6750,7 @@
         <v>12.0</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D24" s="4">
         <v>1.0</v>
@@ -6523,7 +6764,7 @@
         <v>12.0</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D25" s="4">
         <v>23.0</v>
@@ -6537,7 +6778,7 @@
         <v>16.0</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D26" s="4">
         <v>8.0</v>
@@ -6551,7 +6792,7 @@
         <v>16.0</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D27" s="4">
         <v>6.0</v>
@@ -6565,13 +6806,13 @@
         <v>16.0</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D28" s="4">
         <v>7.0</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
@@ -6579,7 +6820,7 @@
         <v>16.0</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D29" s="4">
         <v>20.0</v>
@@ -6593,7 +6834,7 @@
         <v>16.0</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D30" s="4">
         <v>25.0</v>
@@ -6607,7 +6848,7 @@
         <v>20.0</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D31" s="4">
         <v>9.0</v>
@@ -6621,7 +6862,7 @@
         <v>20.0</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D32" s="4">
         <v>7.0</v>
@@ -6635,13 +6876,13 @@
         <v>20.0</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D33" s="4">
         <v>8.0</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
@@ -6649,7 +6890,7 @@
         <v>20.0</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D34" s="4">
         <v>24.0</v>
@@ -6663,7 +6904,7 @@
         <v>20.0</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D35" s="4">
         <v>2.0</v>
@@ -6677,7 +6918,7 @@
         <v>20.0</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D36" s="4">
         <v>36.0</v>
@@ -6691,7 +6932,7 @@
         <v>24.0</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D37" s="4">
         <v>11.0</v>
@@ -6705,7 +6946,7 @@
         <v>24.0</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D38" s="4">
         <v>8.0</v>
@@ -6719,13 +6960,13 @@
         <v>24.0</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D39" s="4">
         <v>9.0</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
@@ -6733,7 +6974,7 @@
         <v>24.0</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D40" s="4">
         <v>14.0</v>
@@ -6747,7 +6988,7 @@
         <v>24.0</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D41" s="4">
         <v>42.0</v>
@@ -6761,7 +7002,7 @@
         <v>28.0</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D42" s="4">
         <v>12.0</v>
@@ -6775,7 +7016,7 @@
         <v>28.0</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D43" s="4">
         <v>10.0</v>
@@ -6789,13 +7030,13 @@
         <v>28.0</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D44" s="4">
         <v>10.0</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
@@ -6803,7 +7044,7 @@
         <v>28.0</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D45" s="4">
         <v>32.0</v>
@@ -6817,7 +7058,7 @@
         <v>28.0</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D46" s="4">
         <v>48.0</v>
@@ -6831,7 +7072,7 @@
         <v>12.0</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D47" s="2">
         <v>5.0</v>
@@ -6845,7 +7086,7 @@
         <v>16.0</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D48" s="2">
         <v>10.0</v>
@@ -6859,7 +7100,7 @@
         <v>20.0</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D49" s="2">
         <v>15.0</v>
@@ -6873,7 +7114,7 @@
         <v>12.0</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D50" s="2">
         <v>1.0</v>
@@ -6887,7 +7128,7 @@
         <v>20.0</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D51" s="2">
         <v>2.0</v>
@@ -6901,7 +7142,7 @@
         <v>1.0</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D52" s="2">
         <v>2.0</v>
@@ -6915,7 +7156,7 @@
         <v>4.0</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D53" s="2">
         <v>5.0</v>
@@ -6929,7 +7170,7 @@
         <v>8.0</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D54" s="2">
         <v>8.0</v>
@@ -6943,7 +7184,7 @@
         <v>12.0</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D55" s="4">
         <v>10.0</v>
@@ -6957,7 +7198,7 @@
         <v>16.0</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D56" s="4">
         <v>12.0</v>
@@ -6971,7 +7212,7 @@
         <v>20.0</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D57" s="4">
         <v>15.0</v>
@@ -6985,7 +7226,7 @@
         <v>24.0</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D58" s="4">
         <v>17.0</v>
@@ -6999,7 +7240,7 @@
         <v>28.0</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D59" s="4">
         <v>20.0</v>
@@ -7013,7 +7254,7 @@
         <v>32.0</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D60" s="3">
         <v>22.0</v>
@@ -7027,7 +7268,7 @@
         <v>1.0</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D61" s="4">
         <v>1.0</v>
@@ -7041,7 +7282,7 @@
         <v>4.0</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D62" s="4">
         <v>3.0</v>
@@ -7055,7 +7296,7 @@
         <v>8.0</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D63" s="4">
         <v>5.0</v>
@@ -7069,7 +7310,7 @@
         <v>12.0</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D64" s="4">
         <v>6.0</v>
@@ -7083,7 +7324,7 @@
         <v>16.0</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D65" s="4">
         <v>8.0</v>
@@ -7097,7 +7338,7 @@
         <v>20.0</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D66" s="4">
         <v>9.0</v>
@@ -7111,7 +7352,7 @@
         <v>24.0</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D67" s="4">
         <v>11.0</v>
@@ -7125,7 +7366,7 @@
         <v>28.0</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D68" s="4">
         <v>12.0</v>
@@ -7139,7 +7380,7 @@
         <v>32.0</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D69" s="3">
         <v>14.0</v>
@@ -7153,7 +7394,7 @@
         <v>1.0</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D70" s="4">
         <v>2.0</v>
@@ -7167,7 +7408,7 @@
         <v>4.0</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D71" s="4">
         <v>4.0</v>
@@ -7181,7 +7422,7 @@
         <v>8.0</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D72" s="4">
         <v>6.0</v>
@@ -7195,7 +7436,7 @@
         <v>12.0</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D73" s="4">
         <v>7.0</v>
@@ -7209,7 +7450,7 @@
         <v>16.0</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D74" s="4">
         <v>9.0</v>
@@ -7223,7 +7464,7 @@
         <v>20.0</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D75" s="4">
         <v>11.0</v>
@@ -7237,7 +7478,7 @@
         <v>24.0</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D76" s="4">
         <v>12.0</v>
@@ -7251,7 +7492,7 @@
         <v>28.0</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D77" s="4">
         <v>14.0</v>
@@ -7265,7 +7506,7 @@
         <v>32.0</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D78" s="3">
         <v>16.0</v>
@@ -7279,7 +7520,7 @@
         <v>1.0</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D79" s="4">
         <v>2.0</v>
@@ -7293,7 +7534,7 @@
         <v>4.0</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D80" s="4">
         <v>4.0</v>
@@ -7307,7 +7548,7 @@
         <v>8.0</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D81" s="4">
         <v>6.0</v>
@@ -7321,7 +7562,7 @@
         <v>12.0</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D82" s="4">
         <v>7.0</v>
@@ -7335,7 +7576,7 @@
         <v>16.0</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D83" s="4">
         <v>9.0</v>
@@ -7349,7 +7590,7 @@
         <v>20.0</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D84" s="4">
         <v>11.0</v>
@@ -7363,7 +7604,7 @@
         <v>24.0</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D85" s="4">
         <v>12.0</v>
@@ -7377,7 +7618,7 @@
         <v>28.0</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D86" s="4">
         <v>14.0</v>
@@ -7391,7 +7632,7 @@
         <v>32.0</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D87" s="3">
         <v>16.0</v>
@@ -7405,7 +7646,7 @@
         <v>1.0</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D88" s="4">
         <v>2.0</v>
@@ -7419,7 +7660,7 @@
         <v>4.0</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D89" s="4">
         <v>4.0</v>
@@ -7433,7 +7674,7 @@
         <v>8.0</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D90" s="4">
         <v>6.0</v>
@@ -7447,7 +7688,7 @@
         <v>12.0</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D91" s="4">
         <v>7.0</v>
@@ -7461,7 +7702,7 @@
         <v>16.0</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D92" s="4">
         <v>9.0</v>
@@ -7475,7 +7716,7 @@
         <v>20.0</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D93" s="4">
         <v>11.0</v>
@@ -7489,7 +7730,7 @@
         <v>24.0</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D94" s="4">
         <v>12.0</v>
@@ -7503,7 +7744,7 @@
         <v>28.0</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D95" s="4">
         <v>14.0</v>
@@ -7517,7 +7758,7 @@
         <v>32.0</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D96" s="3">
         <v>16.0</v>
@@ -7531,10 +7772,10 @@
         <v>6.0</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D97" s="4">
         <v>1.0</v>
@@ -7548,10 +7789,10 @@
         <v>28.0</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D98" s="4">
         <v>1.0</v>
@@ -7565,10 +7806,10 @@
         <v>28.0</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D99" s="4">
         <v>1.0</v>
@@ -7582,10 +7823,10 @@
         <v>28.0</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D100" s="4">
         <v>1.0</v>
@@ -7599,7 +7840,7 @@
         <v>32.0</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D101" s="3">
         <v>14.0</v>
@@ -7613,7 +7854,7 @@
         <v>32.0</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D102" s="3">
         <v>11.0</v>
@@ -7627,13 +7868,13 @@
         <v>32.0</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D103" s="3">
         <v>11.0</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="104" ht="15.75" customHeight="1">
@@ -7641,7 +7882,7 @@
         <v>32.0</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D104" s="3">
         <v>36.0</v>
@@ -7655,7 +7896,7 @@
         <v>32.0</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D105" s="3">
         <v>54.0</v>
@@ -7669,7 +7910,7 @@
         <v>32.0</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D106" s="3">
         <v>57.0</v>
@@ -7683,7 +7924,7 @@
         <v>32.0</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D107" s="3">
         <v>57.0</v>
@@ -7697,7 +7938,7 @@
         <v>32.0</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D108" s="3">
         <v>57.0</v>
@@ -7711,7 +7952,7 @@
         <v>28.0</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D109" s="3">
         <v>50.0</v>
@@ -7725,7 +7966,7 @@
         <v>28.0</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D110" s="3">
         <v>50.0</v>
@@ -7739,7 +7980,7 @@
         <v>28.0</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D111" s="3">
         <v>50.0</v>
@@ -7753,7 +7994,7 @@
         <v>24.0</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D112" s="3">
         <v>44.0</v>
@@ -7767,7 +8008,7 @@
         <v>24.0</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D113" s="3">
         <v>44.0</v>
@@ -7781,7 +8022,7 @@
         <v>24.0</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D114" s="3">
         <v>44.0</v>
@@ -7795,7 +8036,7 @@
         <v>20.0</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D115" s="3">
         <v>37.0</v>
@@ -7809,7 +8050,7 @@
         <v>20.0</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D116" s="3">
         <v>37.0</v>
@@ -7823,7 +8064,7 @@
         <v>20.0</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D117" s="3">
         <v>37.0</v>
@@ -7837,7 +8078,7 @@
         <v>16.0</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D118" s="3">
         <v>31.0</v>
@@ -7851,7 +8092,7 @@
         <v>16.0</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D119" s="3">
         <v>31.0</v>
@@ -7865,7 +8106,7 @@
         <v>16.0</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D120" s="3">
         <v>31.0</v>
@@ -7879,7 +8120,7 @@
         <v>12.0</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D121" s="3">
         <v>24.0</v>
@@ -7893,7 +8134,7 @@
         <v>12.0</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D122" s="3">
         <v>24.0</v>
@@ -7907,7 +8148,7 @@
         <v>12.0</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D123" s="3">
         <v>24.0</v>
@@ -7921,7 +8162,7 @@
         <v>8.0</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D124" s="3">
         <v>18.0</v>
@@ -7935,7 +8176,7 @@
         <v>8.0</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D125" s="3">
         <v>18.0</v>
@@ -7949,7 +8190,7 @@
         <v>8.0</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D126" s="3">
         <v>18.0</v>
@@ -7963,7 +8204,7 @@
         <v>4.0</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D127" s="3">
         <v>11.0</v>
@@ -7977,7 +8218,7 @@
         <v>4.0</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D128" s="3">
         <v>11.0</v>
@@ -7991,7 +8232,7 @@
         <v>4.0</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D129" s="3">
         <v>11.0</v>
@@ -8005,7 +8246,7 @@
         <v>1.0</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D130" s="3">
         <v>3.0</v>
@@ -8019,7 +8260,7 @@
         <v>1.0</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D131" s="3">
         <v>3.0</v>
@@ -8033,7 +8274,7 @@
         <v>1.0</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D132" s="3">
         <v>3.0</v>
@@ -8047,47 +8288,41 @@
         <v>4.0</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D133" s="3">
         <v>1.0</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>113</v>
+        <v>20.0</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="D134" s="3">
-        <v>30.0</v>
+        <v>2.0</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>7</v>
+        <v>114</v>
       </c>
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="B135" s="3" t="s">
+        <v>28.0</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D135" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E135" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D135" s="3">
-        <v>65.0</v>
-      </c>
-      <c r="E135" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="136" ht="15.75" customHeight="1">
@@ -8095,13 +8330,13 @@
         <v>8.0</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D136" s="9">
-        <v>0.1</v>
+        <v>12</v>
+      </c>
+      <c r="D136" s="3">
+        <v>30.0</v>
       </c>
       <c r="E136" s="3" t="s">
         <v>7</v>
@@ -8112,16 +8347,16 @@
         <v>8.0</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D137" s="3">
-        <v>2.0</v>
+        <v>65.0</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>120</v>
+        <v>7</v>
       </c>
     </row>
     <row r="138" ht="15.75" customHeight="1">
@@ -8132,47 +8367,47 @@
         <v>118</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D138" s="3">
-        <v>2.0</v>
+        <v>119</v>
+      </c>
+      <c r="D138" s="9">
+        <v>0.1</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>120</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="3">
-        <v>18.0</v>
+        <v>8.0</v>
       </c>
       <c r="B139" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C139" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="D139" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="E139" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="D139" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="3">
-        <v>18.0</v>
+        <v>8.0</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="D140" s="3">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>7</v>
+        <v>122</v>
       </c>
     </row>
     <row r="141" ht="15.75" customHeight="1">
@@ -8180,16 +8415,16 @@
         <v>18.0</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D141" s="3">
-        <v>8.0</v>
+        <v>1.0</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="142" ht="15.75" customHeight="1">
@@ -8197,10 +8432,10 @@
         <v>18.0</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D142" s="3">
         <v>8.0</v>
@@ -8211,73 +8446,76 @@
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="3">
-        <v>20.0</v>
+        <v>18.0</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D143" s="3">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F143" s="3" t="s">
-        <v>131</v>
+        <v>7</v>
       </c>
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="3">
-        <v>28.0</v>
+        <v>18.0</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D144" s="3">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F144" s="10" t="s">
-        <v>133</v>
+        <v>7</v>
       </c>
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="3">
-        <v>28.0</v>
+        <v>20.0</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="D145" s="3">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="3">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>134</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="D146" s="3">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>120</v>
+        <v>14</v>
+      </c>
+      <c r="F146" s="10" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="147" ht="15.75" customHeight="1">
@@ -8285,16 +8523,16 @@
         <v>30.0</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="D147" s="3">
         <v>6.0</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="148" ht="15.75" customHeight="1">
@@ -8302,19 +8540,16 @@
         <v>30.0</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="D148" s="3">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F148" s="3" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="149" ht="15.75" customHeight="1">
@@ -8322,16 +8557,19 @@
         <v>30.0</v>
       </c>
       <c r="B149" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C149" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C149" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D149" s="9">
-        <v>0.15</v>
+      <c r="D149" s="3">
+        <v>1.0</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="150" ht="15.75" customHeight="1">
@@ -8339,16 +8577,16 @@
         <v>30.0</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D150" s="3">
-        <v>1.0</v>
+        <v>119</v>
+      </c>
+      <c r="D150" s="9">
+        <v>0.15</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="151" ht="15.75" customHeight="1">
@@ -8359,27 +8597,27 @@
         <v>141</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="D151" s="3">
-        <v>225.0</v>
+        <v>1.0</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="3">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D152" s="3">
-        <v>12.0</v>
+        <v>225.0</v>
       </c>
       <c r="E152" s="3" t="s">
         <v>7</v>
@@ -8390,10 +8628,10 @@
         <v>32.0</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="D153" s="3">
         <v>12.0</v>
@@ -8407,10 +8645,10 @@
         <v>32.0</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="D154" s="3">
         <v>12.0</v>
@@ -8424,27 +8662,171 @@
         <v>32.0</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D155" s="3">
-        <v>1.0</v>
+        <v>12.0</v>
       </c>
       <c r="E155" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" ht="15.75" customHeight="1">
+      <c r="A156" s="3">
+        <v>32.0</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D156" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E156" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1">
+      <c r="A157" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D157" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158" ht="15.75" customHeight="1">
+      <c r="A158" s="3">
+        <v>4.0</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D158" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" ht="15.75" customHeight="1">
+      <c r="A159" s="3">
+        <v>8.0</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D159" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" ht="15.75" customHeight="1">
+      <c r="A160" s="3">
+        <v>12.0</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D160" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" ht="15.75" customHeight="1">
+      <c r="A161" s="3">
+        <v>16.0</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D161" s="3">
+        <v>20.0</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" ht="15.75" customHeight="1">
+      <c r="A162" s="3">
+        <v>20.0</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D162" s="3">
+        <v>24.0</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" ht="15.75" customHeight="1">
+      <c r="A163" s="3">
+        <v>24.0</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D163" s="3">
+        <v>28.0</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" ht="15.75" customHeight="1">
+      <c r="A164" s="3">
+        <v>28.0</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D164" s="3">
+        <v>32.0</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="165" ht="15.75" customHeight="1"/>
     <row r="166" ht="15.75" customHeight="1"/>
     <row r="167" ht="15.75" customHeight="1"/>
@@ -9286,6 +9668,7 @@
     <row r="1003" ht="15.75" customHeight="1"/>
     <row r="1004" ht="15.75" customHeight="1"/>
     <row r="1005" ht="15.75" customHeight="1"/>
+    <row r="1006" ht="15.75" customHeight="1"/>
   </sheetData>
   <autoFilter ref="$A$1:$E$46"/>
   <printOptions/>
@@ -9319,7 +9702,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>2</v>
@@ -9339,7 +9722,7 @@
         <v>1.0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D2" s="4">
         <v>1.0</v>
@@ -9353,7 +9736,7 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D3" s="4">
         <v>1.0</v>
@@ -9367,7 +9750,7 @@
         <v>1.0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D4" s="4">
         <v>1.0</v>
@@ -9381,7 +9764,7 @@
         <v>1.0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D5" s="4">
         <v>1.0</v>
@@ -9395,7 +9778,7 @@
         <v>1.0</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D6" s="4">
         <v>38.0</v>
@@ -9409,7 +9792,7 @@
         <v>1.0</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D7" s="4">
         <v>38.0</v>
@@ -9423,7 +9806,7 @@
         <v>1.0</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D8" s="4">
         <v>38.0</v>
@@ -9437,7 +9820,7 @@
         <v>1.0</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D9" s="4">
         <v>38.0</v>
@@ -9451,7 +9834,7 @@
         <v>1.0</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D10" s="4">
         <v>38.0</v>
@@ -9465,7 +9848,7 @@
         <v>1.0</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D11" s="4">
         <v>38.0</v>
@@ -9479,7 +9862,7 @@
         <v>1.0</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D12" s="4">
         <v>38.0</v>
@@ -9493,7 +9876,7 @@
         <v>1.0</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D13" s="4">
         <v>38.0</v>
@@ -9507,7 +9890,7 @@
         <v>1.0</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D14" s="4">
         <v>38.0</v>
@@ -9521,7 +9904,7 @@
         <v>1.0</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D15" s="4">
         <v>38.0</v>
@@ -9535,7 +9918,7 @@
         <v>4.0</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D16" s="4">
         <v>2.0</v>
@@ -9549,7 +9932,7 @@
         <v>4.0</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D17" s="4">
         <v>2.0</v>
@@ -9563,7 +9946,7 @@
         <v>4.0</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D18" s="4">
         <v>2.0</v>
@@ -9577,7 +9960,7 @@
         <v>4.0</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D19" s="4">
         <v>2.0</v>
@@ -9591,7 +9974,7 @@
         <v>4.0</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D20" s="4">
         <v>55.0</v>
@@ -9605,7 +9988,7 @@
         <v>4.0</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D21" s="4">
         <v>55.0</v>
@@ -9619,7 +10002,7 @@
         <v>4.0</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D22" s="4">
         <v>55.0</v>
@@ -9633,7 +10016,7 @@
         <v>4.0</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D23" s="4">
         <v>55.0</v>
@@ -9647,7 +10030,7 @@
         <v>4.0</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D24" s="4">
         <v>55.0</v>
@@ -9661,7 +10044,7 @@
         <v>4.0</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D25" s="4">
         <v>55.0</v>
@@ -9675,7 +10058,7 @@
         <v>4.0</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D26" s="4">
         <v>55.0</v>
@@ -9689,7 +10072,7 @@
         <v>4.0</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D27" s="4">
         <v>55.0</v>
@@ -9703,7 +10086,7 @@
         <v>4.0</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D28" s="4">
         <v>55.0</v>
@@ -9717,7 +10100,7 @@
         <v>4.0</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D29" s="4">
         <v>55.0</v>
@@ -9731,7 +10114,7 @@
         <v>8.0</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D30" s="4">
         <v>3.0</v>
@@ -9745,7 +10128,7 @@
         <v>8.0</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D31" s="4">
         <v>3.0</v>
@@ -9759,7 +10142,7 @@
         <v>8.0</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D32" s="4">
         <v>3.0</v>
@@ -9773,7 +10156,7 @@
         <v>8.0</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D33" s="4">
         <v>3.0</v>
@@ -9787,7 +10170,7 @@
         <v>8.0</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D34" s="4">
         <v>1.0</v>
@@ -9801,7 +10184,7 @@
         <v>8.0</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D35" s="4">
         <v>1.0</v>
@@ -9815,7 +10198,7 @@
         <v>8.0</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D36" s="4">
         <v>1.0</v>
@@ -9829,7 +10212,7 @@
         <v>8.0</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D37" s="4">
         <v>1.0</v>
@@ -9843,7 +10226,7 @@
         <v>8.0</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D38" s="4">
         <v>70.0</v>
@@ -9857,7 +10240,7 @@
         <v>8.0</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D39" s="4">
         <v>70.0</v>
@@ -9871,7 +10254,7 @@
         <v>8.0</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D40" s="4">
         <v>70.0</v>
@@ -9885,7 +10268,7 @@
         <v>8.0</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D41" s="4">
         <v>70.0</v>
@@ -9899,7 +10282,7 @@
         <v>8.0</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D42" s="4">
         <v>70.0</v>
@@ -9913,7 +10296,7 @@
         <v>8.0</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D43" s="4">
         <v>70.0</v>
@@ -9927,7 +10310,7 @@
         <v>8.0</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D44" s="4">
         <v>70.0</v>
@@ -9941,7 +10324,7 @@
         <v>8.0</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D45" s="4">
         <v>70.0</v>
@@ -9955,7 +10338,7 @@
         <v>8.0</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D46" s="4">
         <v>70.0</v>
@@ -9969,7 +10352,7 @@
         <v>8.0</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D47" s="4">
         <v>70.0</v>
@@ -9983,7 +10366,7 @@
         <v>12.0</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D48" s="4">
         <v>4.0</v>
@@ -9997,7 +10380,7 @@
         <v>12.0</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D49" s="4">
         <v>4.0</v>
@@ -10011,7 +10394,7 @@
         <v>12.0</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D50" s="4">
         <v>4.0</v>
@@ -10025,7 +10408,7 @@
         <v>12.0</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D51" s="4">
         <v>4.0</v>
@@ -10039,7 +10422,7 @@
         <v>12.0</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D52" s="4">
         <v>1.0</v>
@@ -10053,7 +10436,7 @@
         <v>12.0</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D53" s="4">
         <v>1.0</v>
@@ -10067,7 +10450,7 @@
         <v>12.0</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D54" s="4">
         <v>84.0</v>
@@ -10081,7 +10464,7 @@
         <v>12.0</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D55" s="4">
         <v>84.0</v>
@@ -10095,7 +10478,7 @@
         <v>12.0</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D56" s="4">
         <v>84.0</v>
@@ -10109,7 +10492,7 @@
         <v>12.0</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D57" s="4">
         <v>84.0</v>
@@ -10123,7 +10506,7 @@
         <v>12.0</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D58" s="4">
         <v>84.0</v>
@@ -10137,7 +10520,7 @@
         <v>12.0</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D59" s="4">
         <v>84.0</v>
@@ -10151,7 +10534,7 @@
         <v>12.0</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D60" s="4">
         <v>84.0</v>
@@ -10165,7 +10548,7 @@
         <v>12.0</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D61" s="4">
         <v>84.0</v>
@@ -10179,7 +10562,7 @@
         <v>12.0</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D62" s="4">
         <v>84.0</v>
@@ -10193,7 +10576,7 @@
         <v>12.0</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D63" s="4">
         <v>84.0</v>
@@ -10207,7 +10590,7 @@
         <v>16.0</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D64" s="4">
         <v>5.0</v>
@@ -10221,7 +10604,7 @@
         <v>16.0</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D65" s="4">
         <v>5.0</v>
@@ -10235,7 +10618,7 @@
         <v>16.0</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D66" s="4">
         <v>5.0</v>
@@ -10249,7 +10632,7 @@
         <v>16.0</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D67" s="4">
         <v>5.0</v>
@@ -10263,7 +10646,7 @@
         <v>16.0</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="D68" s="4">
         <v>1.0</v>
@@ -10277,7 +10660,7 @@
         <v>16.0</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D69" s="4">
         <v>1.0</v>
@@ -10291,7 +10674,7 @@
         <v>16.0</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D70" s="4">
         <v>97.0</v>
@@ -10305,7 +10688,7 @@
         <v>16.0</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D71" s="4">
         <v>97.0</v>
@@ -10319,7 +10702,7 @@
         <v>16.0</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D72" s="4">
         <v>97.0</v>
@@ -10333,7 +10716,7 @@
         <v>16.0</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D73" s="4">
         <v>97.0</v>
@@ -10347,7 +10730,7 @@
         <v>16.0</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D74" s="4">
         <v>97.0</v>
@@ -10361,7 +10744,7 @@
         <v>16.0</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D75" s="4">
         <v>97.0</v>
@@ -10375,7 +10758,7 @@
         <v>16.0</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D76" s="4">
         <v>97.0</v>
@@ -10389,7 +10772,7 @@
         <v>16.0</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D77" s="4">
         <v>97.0</v>
@@ -10403,7 +10786,7 @@
         <v>16.0</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D78" s="4">
         <v>97.0</v>
@@ -10417,7 +10800,7 @@
         <v>16.0</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D79" s="4">
         <v>97.0</v>
@@ -10431,7 +10814,7 @@
         <v>20.0</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D80" s="4">
         <v>6.0</v>
@@ -10445,7 +10828,7 @@
         <v>20.0</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D81" s="4">
         <v>6.0</v>
@@ -10459,7 +10842,7 @@
         <v>20.0</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D82" s="4">
         <v>6.0</v>
@@ -10473,7 +10856,7 @@
         <v>20.0</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D83" s="4">
         <v>6.0</v>
@@ -10487,7 +10870,7 @@
         <v>20.0</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D84" s="4">
         <v>111.0</v>
@@ -10501,7 +10884,7 @@
         <v>20.0</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D85" s="4">
         <v>111.0</v>
@@ -10515,7 +10898,7 @@
         <v>20.0</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D86" s="4">
         <v>111.0</v>
@@ -10529,7 +10912,7 @@
         <v>20.0</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D87" s="4">
         <v>111.0</v>
@@ -10543,7 +10926,7 @@
         <v>20.0</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D88" s="4">
         <v>111.0</v>
@@ -10557,7 +10940,7 @@
         <v>20.0</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D89" s="4">
         <v>111.0</v>
@@ -10571,7 +10954,7 @@
         <v>20.0</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D90" s="4">
         <v>111.0</v>
@@ -10585,7 +10968,7 @@
         <v>20.0</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D91" s="4">
         <v>111.0</v>
@@ -10599,7 +10982,7 @@
         <v>20.0</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D92" s="4">
         <v>111.0</v>
@@ -10613,7 +10996,7 @@
         <v>20.0</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D93" s="4">
         <v>111.0</v>
@@ -10627,7 +11010,7 @@
         <v>24.0</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D94" s="4">
         <v>7.0</v>
@@ -10641,7 +11024,7 @@
         <v>24.0</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D95" s="4">
         <v>7.0</v>
@@ -10655,7 +11038,7 @@
         <v>24.0</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D96" s="4">
         <v>7.0</v>
@@ -10669,7 +11052,7 @@
         <v>24.0</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D97" s="4">
         <v>7.0</v>
@@ -10683,7 +11066,7 @@
         <v>24.0</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D98" s="4">
         <v>125.0</v>
@@ -10697,7 +11080,7 @@
         <v>24.0</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D99" s="4">
         <v>125.0</v>
@@ -10711,7 +11094,7 @@
         <v>24.0</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D100" s="4">
         <v>125.0</v>
@@ -10725,7 +11108,7 @@
         <v>24.0</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D101" s="4">
         <v>125.0</v>
@@ -10739,7 +11122,7 @@
         <v>24.0</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D102" s="4">
         <v>125.0</v>
@@ -10753,7 +11136,7 @@
         <v>24.0</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D103" s="4">
         <v>125.0</v>
@@ -10767,7 +11150,7 @@
         <v>24.0</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D104" s="4">
         <v>125.0</v>
@@ -10781,7 +11164,7 @@
         <v>24.0</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D105" s="4">
         <v>125.0</v>
@@ -10795,7 +11178,7 @@
         <v>24.0</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D106" s="4">
         <v>125.0</v>
@@ -10809,7 +11192,7 @@
         <v>24.0</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D107" s="4">
         <v>125.0</v>
@@ -10823,7 +11206,7 @@
         <v>28.0</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D108" s="4">
         <v>8.0</v>
@@ -10837,7 +11220,7 @@
         <v>28.0</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D109" s="4">
         <v>8.0</v>
@@ -10851,7 +11234,7 @@
         <v>28.0</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D110" s="4">
         <v>8.0</v>
@@ -10865,7 +11248,7 @@
         <v>28.0</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D111" s="4">
         <v>8.0</v>
@@ -10879,7 +11262,7 @@
         <v>28.0</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D112" s="4">
         <v>139.0</v>
@@ -10893,7 +11276,7 @@
         <v>28.0</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D113" s="4">
         <v>139.0</v>
@@ -10907,7 +11290,7 @@
         <v>28.0</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D114" s="4">
         <v>139.0</v>
@@ -10921,7 +11304,7 @@
         <v>28.0</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D115" s="4">
         <v>139.0</v>
@@ -10935,7 +11318,7 @@
         <v>28.0</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D116" s="4">
         <v>139.0</v>
@@ -10949,7 +11332,7 @@
         <v>28.0</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D117" s="4">
         <v>139.0</v>
@@ -10963,7 +11346,7 @@
         <v>28.0</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D118" s="4">
         <v>139.0</v>
@@ -10977,7 +11360,7 @@
         <v>28.0</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D119" s="4">
         <v>139.0</v>
@@ -10991,7 +11374,7 @@
         <v>28.0</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D120" s="4">
         <v>139.0</v>
@@ -11005,7 +11388,7 @@
         <v>28.0</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D121" s="4">
         <v>139.0</v>
@@ -11019,10 +11402,10 @@
         <v>28.0</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D122" s="4">
         <v>1.0</v>
@@ -11036,10 +11419,10 @@
         <v>28.0</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D123" s="4">
         <v>1.0</v>
@@ -11053,10 +11436,10 @@
         <v>1.0</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D124" s="12">
         <v>1.0</v>
@@ -11070,10 +11453,10 @@
         <v>1.0</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D125" s="3">
         <v>1.0</v>
@@ -11087,10 +11470,10 @@
         <v>1.0</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D126" s="12">
         <v>1.0</v>
@@ -11104,10 +11487,10 @@
         <v>1.0</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D127" s="3">
         <v>1.0</v>
@@ -11121,10 +11504,10 @@
         <v>1.0</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D128" s="12">
         <v>1.0</v>
@@ -11138,10 +11521,10 @@
         <v>1.0</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D129" s="3">
         <v>1.0</v>
@@ -11155,10 +11538,10 @@
         <v>1.0</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="D130" s="3">
         <v>1.0</v>
@@ -11172,10 +11555,10 @@
         <v>1.0</v>
       </c>
       <c r="B131" s="12" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D131" s="3">
         <v>1.0</v>
@@ -11189,10 +11572,10 @@
         <v>1.0</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D132" s="3">
         <v>1.0</v>
@@ -11206,10 +11589,10 @@
         <v>4.0</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="D133" s="3">
         <v>1.0</v>
@@ -11223,10 +11606,10 @@
         <v>4.0</v>
       </c>
       <c r="B134" s="12" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="D134" s="3">
         <v>1.0</v>
@@ -11240,10 +11623,10 @@
         <v>6.0</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D135" s="3">
         <v>1.0</v>
@@ -11257,10 +11640,10 @@
         <v>8.0</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D136" s="12">
         <v>41.0</v>
@@ -11274,10 +11657,10 @@
         <v>8.0</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D137" s="12">
         <v>70.0</v>
@@ -11291,10 +11674,10 @@
         <v>8.0</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D138" s="3">
         <v>1.0</v>
@@ -11308,10 +11691,10 @@
         <v>8.0</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D139" s="3">
         <v>1.0</v>
@@ -11325,10 +11708,10 @@
         <v>8.0</v>
       </c>
       <c r="B140" s="12" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D140" s="3">
         <v>1.0</v>
@@ -11342,10 +11725,10 @@
         <v>8.0</v>
       </c>
       <c r="B141" s="12" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D141" s="3">
         <v>1.0</v>
@@ -11359,10 +11742,10 @@
         <v>8.0</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D142" s="3">
         <v>1.0</v>
@@ -11376,10 +11759,10 @@
         <v>8.0</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D143" s="12">
         <v>70.0</v>
@@ -11393,10 +11776,10 @@
         <v>8.0</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D144" s="3">
         <v>1.0</v>
@@ -11410,10 +11793,10 @@
         <v>8.0</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D145" s="12">
         <v>70.0</v>
@@ -11427,10 +11810,10 @@
         <v>8.0</v>
       </c>
       <c r="B146" s="12" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D146" s="3">
         <v>1.0</v>
@@ -11444,10 +11827,10 @@
         <v>8.0</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D147" s="3">
         <v>1.0</v>
@@ -11461,10 +11844,10 @@
         <v>8.0</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D148" s="12">
         <v>70.0</v>
@@ -11478,10 +11861,10 @@
         <v>8.0</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D149" s="3">
         <v>1.0</v>
@@ -11495,10 +11878,10 @@
         <v>18.0</v>
       </c>
       <c r="B150" s="12" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="D150" s="12">
         <v>4.0</v>
@@ -11509,10 +11892,10 @@
         <v>18.0</v>
       </c>
       <c r="B151" s="12" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D151" s="12">
         <v>4.0</v>
@@ -11523,10 +11906,10 @@
         <v>18.0</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D152" s="12">
         <v>4.0</v>
@@ -11537,10 +11920,10 @@
         <v>18.0</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C153" s="12" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="D153" s="12">
         <v>4.0</v>
@@ -11551,10 +11934,10 @@
         <v>18.0</v>
       </c>
       <c r="B154" s="12" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D154" s="12">
         <v>1.0</v>
@@ -11568,10 +11951,10 @@
         <v>20.0</v>
       </c>
       <c r="B155" s="12" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D155" s="3">
         <v>1.0</v>
@@ -11585,10 +11968,10 @@
         <v>28.0</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="D156" s="3">
         <v>1.0</v>
@@ -11597,7 +11980,7 @@
         <v>14</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="157" ht="15.75" customHeight="1">
@@ -11605,7 +11988,7 @@
         <v>32.0</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D157" s="3">
         <v>9.0</v>
@@ -11619,7 +12002,7 @@
         <v>32.0</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D158" s="3">
         <v>9.0</v>
@@ -11633,7 +12016,7 @@
         <v>32.0</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D159" s="3">
         <v>9.0</v>
@@ -11647,7 +12030,7 @@
         <v>32.0</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D160" s="3">
         <v>9.0</v>
@@ -11661,7 +12044,7 @@
         <v>32.0</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D161" s="3">
         <v>153.0</v>
@@ -11675,7 +12058,7 @@
         <v>32.0</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D162" s="3">
         <v>153.0</v>
@@ -11689,7 +12072,7 @@
         <v>32.0</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D163" s="3">
         <v>153.0</v>
@@ -11703,7 +12086,7 @@
         <v>32.0</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D164" s="3">
         <v>153.0</v>
@@ -11717,7 +12100,7 @@
         <v>32.0</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D165" s="3">
         <v>153.0</v>
@@ -11731,7 +12114,7 @@
         <v>32.0</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D166" s="3">
         <v>153.0</v>
@@ -11745,7 +12128,7 @@
         <v>32.0</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D167" s="3">
         <v>153.0</v>
@@ -11759,7 +12142,7 @@
         <v>32.0</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D168" s="3">
         <v>153.0</v>
@@ -11773,7 +12156,7 @@
         <v>32.0</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D169" s="3">
         <v>153.0</v>
@@ -11787,7 +12170,7 @@
         <v>32.0</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D170" s="3">
         <v>153.0</v>
@@ -11801,10 +12184,10 @@
         <v>30.0</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D171" s="3">
         <v>146.0</v>
@@ -11818,10 +12201,10 @@
         <v>30.0</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="D172" s="3">
         <v>1.0</v>
@@ -11835,10 +12218,10 @@
         <v>30.0</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D173" s="3">
         <v>146.0</v>
@@ -11852,10 +12235,10 @@
         <v>30.0</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="D174" s="3">
         <v>1.0</v>
@@ -11869,10 +12252,10 @@
         <v>30.0</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D175" s="3">
         <v>146.0</v>
@@ -11886,10 +12269,10 @@
         <v>30.0</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="D176" s="3">
         <v>1.0</v>
@@ -11903,10 +12286,10 @@
         <v>30.0</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D177" s="3">
         <v>1.0</v>
@@ -11915,7 +12298,7 @@
         <v>14</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="178" ht="15.75" customHeight="1">
@@ -11923,10 +12306,10 @@
         <v>30.0</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D178" s="3">
         <v>1.0</v>
@@ -11935,7 +12318,7 @@
         <v>14</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="179" ht="15.75" customHeight="1">
@@ -11943,10 +12326,10 @@
         <v>30.0</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D179" s="3">
         <v>1.0</v>
@@ -11955,7 +12338,7 @@
         <v>14</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="180" ht="15.75" customHeight="1">
@@ -11963,10 +12346,10 @@
         <v>30.0</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="D180" s="3">
         <v>1.0</v>
@@ -11980,10 +12363,10 @@
         <v>30.0</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D181" s="3">
         <v>1.0</v>
@@ -11997,10 +12380,10 @@
         <v>30.0</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D182" s="3">
         <v>1.0</v>
@@ -12014,10 +12397,10 @@
         <v>30.0</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="D183" s="3">
         <v>1.0</v>
@@ -12031,10 +12414,10 @@
         <v>30.0</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D184" s="3">
         <v>100.0</v>
@@ -12048,10 +12431,10 @@
         <v>30.0</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="D185" s="3">
         <v>1.0</v>
@@ -12060,7 +12443,7 @@
         <v>14</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="186" ht="15.75" customHeight="1">
@@ -12068,10 +12451,10 @@
         <v>30.0</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D186" s="3">
         <v>1.0</v>
@@ -12080,7 +12463,7 @@
         <v>14</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="187" ht="15.75" customHeight="1">
@@ -12088,10 +12471,10 @@
         <v>30.0</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="D187" s="3">
         <v>1.0</v>
@@ -12100,7 +12483,7 @@
         <v>14</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="188" ht="15.75" customHeight="1">
@@ -12108,10 +12491,10 @@
         <v>30.0</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D188" s="3">
         <v>146.0</v>
@@ -12125,10 +12508,10 @@
         <v>30.0</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="D189" s="3">
         <v>1.0</v>
@@ -12142,10 +12525,10 @@
         <v>32.0</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D190" s="3">
         <v>6.0</v>
@@ -12159,10 +12542,10 @@
         <v>32.0</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="D191" s="3">
         <v>1.0</v>
@@ -12176,10 +12559,10 @@
         <v>32.0</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="D192" s="3">
         <v>6.0</v>
@@ -12193,10 +12576,10 @@
         <v>32.0</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D193" s="3">
         <v>6.0</v>
@@ -12210,10 +12593,10 @@
         <v>32.0</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D194" s="3">
         <v>6.0</v>
@@ -13056,7 +13439,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -13076,10 +13459,10 @@
         <v>8.0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="D2" s="3">
         <v>1.0</v>
@@ -13088,7 +13471,7 @@
         <v>14</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3">
@@ -13096,10 +13479,10 @@
         <v>8.0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D3" s="3">
         <v>4.0</v>
@@ -13108,7 +13491,7 @@
         <v>7</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4">
@@ -13116,10 +13499,10 @@
         <v>8.0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="D4" s="3">
         <v>1.0</v>
@@ -13128,7 +13511,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5">
@@ -13136,7 +13519,7 @@
         <v>28.0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>43</v>
@@ -13153,10 +13536,10 @@
         <v>28.0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D6" s="3">
         <v>1.0</v>
@@ -13165,7 +13548,7 @@
         <v>14</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7">
@@ -13173,10 +13556,10 @@
         <v>28.0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D7" s="3">
         <v>1.0</v>
@@ -13185,7 +13568,7 @@
         <v>14</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8">
@@ -13193,7 +13576,7 @@
         <v>28.0</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>39</v>
@@ -13210,10 +13593,10 @@
         <v>28.0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="D9" s="3">
         <v>1.0</v>
@@ -13227,10 +13610,10 @@
         <v>28.0</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="D10" s="3">
         <v>1.0</v>
@@ -13244,10 +13627,10 @@
         <v>28.0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="D11" s="3">
         <v>1.0</v>
@@ -13261,10 +13644,10 @@
         <v>30.0</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="D12" s="3">
         <v>1.0</v>
@@ -13273,7 +13656,7 @@
         <v>14</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13">
@@ -13281,16 +13664,16 @@
         <v>30.0</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="D13" s="3">
         <v>5.0</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14">
@@ -13298,10 +13681,10 @@
         <v>30.0</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D14" s="3">
         <v>1.0</v>
@@ -13315,10 +13698,10 @@
         <v>30.0</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D15" s="3">
         <v>7.0</v>
@@ -13327,7 +13710,7 @@
         <v>7</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="16">
@@ -13335,10 +13718,10 @@
         <v>30.0</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="D16" s="3">
         <v>1.0</v>
@@ -13347,7 +13730,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17">
@@ -13355,10 +13738,10 @@
         <v>30.0</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="D17" s="3">
         <v>1.0</v>
@@ -13367,7 +13750,7 @@
         <v>14</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18">
@@ -13375,10 +13758,10 @@
         <v>32.0</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D18" s="3">
         <v>1.0</v>
@@ -13387,7 +13770,7 @@
         <v>14</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19">
@@ -13395,10 +13778,10 @@
         <v>32.0</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="D19" s="3">
         <v>1.0</v>
@@ -13407,7 +13790,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -13434,7 +13817,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -13454,10 +13837,10 @@
         <v>28.0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D2" s="3">
         <v>1.0</v>
@@ -13471,10 +13854,10 @@
         <v>28.0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="D3" s="3">
         <v>1.0</v>
@@ -13483,7 +13866,7 @@
         <v>14</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4">
@@ -13491,10 +13874,10 @@
         <v>30.0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="D4" s="3">
         <v>1.0</v>
@@ -13503,7 +13886,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5">
@@ -13511,10 +13894,10 @@
         <v>32.0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="D5" s="3">
         <v>1.0</v>
@@ -13523,7 +13906,7 @@
         <v>14</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6">
@@ -13531,10 +13914,10 @@
         <v>32.0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D6" s="3">
         <v>153.0</v>
@@ -13548,10 +13931,10 @@
         <v>32.0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D7" s="3">
         <v>1.0</v>
@@ -13588,7 +13971,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -13608,7 +13991,7 @@
         <v>1.0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="D2" s="4">
         <v>1.0</v>
@@ -13622,7 +14005,7 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="D3" s="4">
         <v>1.0</v>
@@ -13636,7 +14019,7 @@
         <v>1.0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="D4" s="4">
         <v>1.0</v>
@@ -13650,7 +14033,7 @@
         <v>1.0</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="D5" s="4">
         <v>1.0</v>
@@ -13664,7 +14047,7 @@
         <v>1.0</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="D6" s="4">
         <v>1.0</v>
@@ -13678,7 +14061,7 @@
         <v>1.0</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="D7" s="4">
         <v>1.0</v>
@@ -13692,7 +14075,7 @@
         <v>4.0</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="D8" s="4">
         <v>5.0</v>
@@ -13706,7 +14089,7 @@
         <v>4.0</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="D9" s="4">
         <v>5.0</v>
@@ -13720,7 +14103,7 @@
         <v>4.0</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="D10" s="4">
         <v>5.0</v>
@@ -13734,7 +14117,7 @@
         <v>4.0</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="D11" s="4">
         <v>5.0</v>
@@ -13748,7 +14131,7 @@
         <v>4.0</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D12" s="4">
         <v>5.0</v>
@@ -13762,7 +14145,7 @@
         <v>4.0</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="D13" s="4">
         <v>5.0</v>
@@ -13776,7 +14159,7 @@
         <v>4.0</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="D14" s="4">
         <v>5.0</v>
@@ -13790,7 +14173,7 @@
         <v>4.0</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="D15" s="4">
         <v>5.0</v>
@@ -13804,7 +14187,7 @@
         <v>4.0</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="D16" s="4">
         <v>5.0</v>
@@ -13818,7 +14201,7 @@
         <v>4.0</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="D17" s="4">
         <v>5.0</v>
@@ -13832,7 +14215,7 @@
         <v>4.0</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="D18" s="4">
         <v>5.0</v>
@@ -13846,7 +14229,7 @@
         <v>4.0</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="D19" s="4">
         <v>5.0</v>
@@ -13860,7 +14243,7 @@
         <v>4.0</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="D20" s="4">
         <v>5.0</v>
@@ -13874,7 +14257,7 @@
         <v>4.0</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="D21" s="4">
         <v>5.0</v>
@@ -13888,7 +14271,7 @@
         <v>4.0</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="D22" s="4">
         <v>5.0</v>
@@ -13902,7 +14285,7 @@
         <v>4.0</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="D23" s="4">
         <v>5.0</v>
@@ -13916,7 +14299,7 @@
         <v>4.0</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="D24" s="4">
         <v>5.0</v>
@@ -13930,7 +14313,7 @@
         <v>4.0</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="D25" s="4">
         <v>5.0</v>
@@ -13944,7 +14327,7 @@
         <v>4.0</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="D26" s="4">
         <v>5.0</v>
@@ -13958,7 +14341,7 @@
         <v>4.0</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="D27" s="4">
         <v>3.0</v>
@@ -13972,7 +14355,7 @@
         <v>4.0</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="D28" s="4">
         <v>3.0</v>
@@ -13986,7 +14369,7 @@
         <v>4.0</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="D29" s="4">
         <v>3.0</v>
@@ -14000,7 +14383,7 @@
         <v>4.0</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="D30" s="4">
         <v>3.0</v>
@@ -14014,7 +14397,7 @@
         <v>4.0</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="D31" s="4">
         <v>5.0</v>
@@ -14028,7 +14411,7 @@
         <v>4.0</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="D32" s="4">
         <v>3.0</v>
@@ -14042,7 +14425,7 @@
         <v>4.0</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="D33" s="4">
         <v>3.0</v>
@@ -14056,7 +14439,7 @@
         <v>8.0</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="D34" s="4">
         <v>10.0</v>
@@ -14070,7 +14453,7 @@
         <v>8.0</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="D35" s="4">
         <v>10.0</v>
@@ -14084,7 +14467,7 @@
         <v>8.0</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="D36" s="4">
         <v>10.0</v>
@@ -14098,7 +14481,7 @@
         <v>8.0</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="D37" s="4">
         <v>10.0</v>
@@ -14112,7 +14495,7 @@
         <v>8.0</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D38" s="4">
         <v>10.0</v>
@@ -14126,7 +14509,7 @@
         <v>8.0</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="D39" s="4">
         <v>10.0</v>
@@ -14140,7 +14523,7 @@
         <v>8.0</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="D40" s="4">
         <v>10.0</v>
@@ -14154,7 +14537,7 @@
         <v>8.0</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="D41" s="4">
         <v>10.0</v>
@@ -14168,7 +14551,7 @@
         <v>8.0</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="D42" s="4">
         <v>10.0</v>
@@ -14182,7 +14565,7 @@
         <v>8.0</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="D43" s="4">
         <v>10.0</v>
@@ -14196,7 +14579,7 @@
         <v>8.0</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="D44" s="4">
         <v>10.0</v>
@@ -14210,7 +14593,7 @@
         <v>8.0</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="D45" s="4">
         <v>10.0</v>
@@ -14224,7 +14607,7 @@
         <v>8.0</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="D46" s="4">
         <v>10.0</v>
@@ -14238,7 +14621,7 @@
         <v>8.0</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="D47" s="4">
         <v>10.0</v>
@@ -14252,7 +14635,7 @@
         <v>8.0</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="D48" s="4">
         <v>10.0</v>
@@ -14266,7 +14649,7 @@
         <v>8.0</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="D49" s="4">
         <v>10.0</v>
@@ -14280,7 +14663,7 @@
         <v>8.0</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="D50" s="4">
         <v>10.0</v>
@@ -14294,7 +14677,7 @@
         <v>8.0</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="D51" s="4">
         <v>10.0</v>
@@ -14308,7 +14691,7 @@
         <v>8.0</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="D52" s="4">
         <v>10.0</v>
@@ -14322,7 +14705,7 @@
         <v>8.0</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="D53" s="4">
         <v>5.0</v>
@@ -14336,7 +14719,7 @@
         <v>8.0</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="D54" s="4">
         <v>5.0</v>
@@ -14350,7 +14733,7 @@
         <v>8.0</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="D55" s="4">
         <v>5.0</v>
@@ -14364,7 +14747,7 @@
         <v>8.0</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="D56" s="4">
         <v>5.0</v>
@@ -14378,7 +14761,7 @@
         <v>8.0</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="D57" s="4">
         <v>10.0</v>
@@ -14392,7 +14775,7 @@
         <v>8.0</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="D58" s="4">
         <v>5.0</v>
@@ -14406,7 +14789,7 @@
         <v>8.0</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="D59" s="4">
         <v>5.0</v>
@@ -14420,10 +14803,10 @@
         <v>11.0</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="D60" s="4">
         <v>20.0</v>
@@ -14437,7 +14820,7 @@
         <v>12.0</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="D61" s="4">
         <v>13.0</v>
@@ -14451,7 +14834,7 @@
         <v>12.0</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="D62" s="4">
         <v>13.0</v>
@@ -14465,7 +14848,7 @@
         <v>12.0</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="D63" s="4">
         <v>13.0</v>
@@ -14479,7 +14862,7 @@
         <v>12.0</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="D64" s="4">
         <v>13.0</v>
@@ -14493,7 +14876,7 @@
         <v>12.0</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D65" s="4">
         <v>13.0</v>
@@ -14507,7 +14890,7 @@
         <v>12.0</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="D66" s="4">
         <v>13.0</v>
@@ -14521,7 +14904,7 @@
         <v>12.0</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="D67" s="4">
         <v>13.0</v>
@@ -14535,7 +14918,7 @@
         <v>12.0</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="D68" s="4">
         <v>13.0</v>
@@ -14549,7 +14932,7 @@
         <v>12.0</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="D69" s="4">
         <v>13.0</v>
@@ -14563,7 +14946,7 @@
         <v>12.0</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="D70" s="4">
         <v>13.0</v>
@@ -14577,7 +14960,7 @@
         <v>12.0</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="D71" s="4">
         <v>13.0</v>
@@ -14591,7 +14974,7 @@
         <v>12.0</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="D72" s="4">
         <v>13.0</v>
@@ -14605,7 +14988,7 @@
         <v>12.0</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="D73" s="4">
         <v>13.0</v>
@@ -14619,7 +15002,7 @@
         <v>12.0</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="D74" s="4">
         <v>13.0</v>
@@ -14633,7 +15016,7 @@
         <v>12.0</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="D75" s="4">
         <v>13.0</v>
@@ -14647,7 +15030,7 @@
         <v>12.0</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="D76" s="4">
         <v>13.0</v>
@@ -14661,7 +15044,7 @@
         <v>12.0</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="D77" s="4">
         <v>13.0</v>
@@ -14675,7 +15058,7 @@
         <v>12.0</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="D78" s="4">
         <v>13.0</v>
@@ -14689,7 +15072,7 @@
         <v>12.0</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="D79" s="4">
         <v>13.0</v>
@@ -14703,7 +15086,7 @@
         <v>12.0</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="D80" s="4">
         <v>6.0</v>
@@ -14717,7 +15100,7 @@
         <v>12.0</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="D81" s="4">
         <v>6.0</v>
@@ -14731,7 +15114,7 @@
         <v>12.0</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="D82" s="4">
         <v>6.0</v>
@@ -14745,7 +15128,7 @@
         <v>12.0</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="D83" s="4">
         <v>6.0</v>
@@ -14759,7 +15142,7 @@
         <v>12.0</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="D84" s="4">
         <v>13.0</v>
@@ -14773,7 +15156,7 @@
         <v>12.0</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="D85" s="4">
         <v>6.0</v>
@@ -14787,7 +15170,7 @@
         <v>12.0</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="D86" s="4">
         <v>6.0</v>
@@ -14801,10 +15184,10 @@
         <v>14.0</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="D87" s="4">
         <v>3.0</v>
@@ -14818,10 +15201,10 @@
         <v>14.0</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="D88" s="4">
         <v>3.0</v>
@@ -14835,10 +15218,10 @@
         <v>14.0</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="D89" s="4">
         <v>3.0</v>
@@ -14852,10 +15235,10 @@
         <v>14.0</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="D90" s="4">
         <v>3.0</v>
@@ -14869,10 +15252,10 @@
         <v>14.0</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="D91" s="4">
         <v>3.0</v>
@@ -14886,10 +15269,10 @@
         <v>14.0</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="D92" s="4">
         <v>3.0</v>
@@ -14903,7 +15286,7 @@
         <v>16.0</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="D93" s="4">
         <v>15.0</v>
@@ -14917,7 +15300,7 @@
         <v>16.0</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="D94" s="4">
         <v>15.0</v>
@@ -14931,7 +15314,7 @@
         <v>16.0</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="D95" s="4">
         <v>15.0</v>
@@ -14945,7 +15328,7 @@
         <v>16.0</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="D96" s="4">
         <v>15.0</v>
@@ -14959,7 +15342,7 @@
         <v>16.0</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D97" s="4">
         <v>15.0</v>
@@ -14973,7 +15356,7 @@
         <v>16.0</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="D98" s="4">
         <v>15.0</v>
@@ -14987,7 +15370,7 @@
         <v>16.0</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="D99" s="4">
         <v>15.0</v>
@@ -15001,7 +15384,7 @@
         <v>16.0</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="D100" s="4">
         <v>15.0</v>
@@ -15015,7 +15398,7 @@
         <v>16.0</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="D101" s="4">
         <v>15.0</v>
@@ -15029,7 +15412,7 @@
         <v>16.0</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="D102" s="4">
         <v>15.0</v>
@@ -15043,7 +15426,7 @@
         <v>16.0</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="D103" s="4">
         <v>15.0</v>
@@ -15057,7 +15440,7 @@
         <v>16.0</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="D104" s="4">
         <v>15.0</v>
@@ -15071,7 +15454,7 @@
         <v>16.0</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="D105" s="4">
         <v>15.0</v>
@@ -15085,7 +15468,7 @@
         <v>16.0</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="D106" s="4">
         <v>15.0</v>
@@ -15099,7 +15482,7 @@
         <v>16.0</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="D107" s="4">
         <v>15.0</v>
@@ -15113,7 +15496,7 @@
         <v>16.0</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="D108" s="4">
         <v>15.0</v>
@@ -15127,7 +15510,7 @@
         <v>16.0</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="D109" s="4">
         <v>15.0</v>
@@ -15141,7 +15524,7 @@
         <v>16.0</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="D110" s="4">
         <v>15.0</v>
@@ -15155,7 +15538,7 @@
         <v>16.0</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="D111" s="4">
         <v>15.0</v>
@@ -15169,7 +15552,7 @@
         <v>16.0</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="D112" s="4">
         <v>8.0</v>
@@ -15183,7 +15566,7 @@
         <v>16.0</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="D113" s="4">
         <v>8.0</v>
@@ -15197,7 +15580,7 @@
         <v>16.0</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="D114" s="4">
         <v>8.0</v>
@@ -15211,7 +15594,7 @@
         <v>16.0</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="D115" s="4">
         <v>8.0</v>
@@ -15225,7 +15608,7 @@
         <v>16.0</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="D116" s="4">
         <v>15.0</v>
@@ -15239,7 +15622,7 @@
         <v>16.0</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="D117" s="4">
         <v>8.0</v>
@@ -15253,7 +15636,7 @@
         <v>16.0</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="D118" s="4">
         <v>8.0</v>
@@ -15267,7 +15650,7 @@
         <v>20.0</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="D119" s="4">
         <v>17.0</v>
@@ -15281,7 +15664,7 @@
         <v>20.0</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="D120" s="4">
         <v>17.0</v>
@@ -15295,7 +15678,7 @@
         <v>20.0</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="D121" s="4">
         <v>17.0</v>
@@ -15309,7 +15692,7 @@
         <v>20.0</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="D122" s="4">
         <v>17.0</v>
@@ -15323,7 +15706,7 @@
         <v>20.0</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D123" s="4">
         <v>17.0</v>
@@ -15337,7 +15720,7 @@
         <v>20.0</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="D124" s="4">
         <v>17.0</v>
@@ -15351,7 +15734,7 @@
         <v>20.0</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="D125" s="4">
         <v>17.0</v>
@@ -15365,7 +15748,7 @@
         <v>20.0</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="D126" s="4">
         <v>17.0</v>
@@ -15379,7 +15762,7 @@
         <v>20.0</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="D127" s="4">
         <v>17.0</v>
@@ -15393,7 +15776,7 @@
         <v>20.0</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="D128" s="4">
         <v>17.0</v>
@@ -15407,7 +15790,7 @@
         <v>20.0</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="D129" s="4">
         <v>17.0</v>
@@ -15421,7 +15804,7 @@
         <v>20.0</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="D130" s="4">
         <v>17.0</v>
@@ -15435,7 +15818,7 @@
         <v>20.0</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="D131" s="4">
         <v>17.0</v>
@@ -15449,7 +15832,7 @@
         <v>20.0</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="D132" s="4">
         <v>17.0</v>
@@ -15463,7 +15846,7 @@
         <v>20.0</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="D133" s="4">
         <v>17.0</v>
@@ -15477,7 +15860,7 @@
         <v>20.0</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="D134" s="4">
         <v>17.0</v>
@@ -15491,7 +15874,7 @@
         <v>20.0</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="D135" s="4">
         <v>17.0</v>
@@ -15505,7 +15888,7 @@
         <v>20.0</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="D136" s="4">
         <v>17.0</v>
@@ -15519,7 +15902,7 @@
         <v>20.0</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="D137" s="4">
         <v>17.0</v>
@@ -15533,7 +15916,7 @@
         <v>20.0</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="D138" s="4">
         <v>9.0</v>
@@ -15547,7 +15930,7 @@
         <v>20.0</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="D139" s="4">
         <v>9.0</v>
@@ -15561,7 +15944,7 @@
         <v>20.0</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="D140" s="4">
         <v>9.0</v>
@@ -15575,7 +15958,7 @@
         <v>20.0</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="D141" s="4">
         <v>9.0</v>
@@ -15589,7 +15972,7 @@
         <v>20.0</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="D142" s="4">
         <v>17.0</v>
@@ -15603,7 +15986,7 @@
         <v>20.0</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="D143" s="4">
         <v>9.0</v>
@@ -15617,7 +16000,7 @@
         <v>20.0</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="D144" s="4">
         <v>9.0</v>
@@ -15631,13 +16014,13 @@
         <v>20.0</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="D145" s="4">
         <v>1.0</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="146" ht="15.75" customHeight="1">
@@ -15645,13 +16028,13 @@
         <v>20.0</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="D146" s="4">
         <v>1.0</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="147" ht="15.75" customHeight="1">
@@ -15659,13 +16042,13 @@
         <v>20.0</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="D147" s="4">
         <v>1.0</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="148" ht="15.75" customHeight="1">
@@ -15673,13 +16056,13 @@
         <v>20.0</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="D148" s="4">
         <v>1.0</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="149" ht="15.75" customHeight="1">
@@ -15687,13 +16070,13 @@
         <v>20.0</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="D149" s="4">
         <v>1.0</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="150" ht="15.75" customHeight="1">
@@ -15701,13 +16084,13 @@
         <v>20.0</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="D150" s="4">
         <v>1.0</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="151" ht="15.75" customHeight="1">
@@ -15715,13 +16098,13 @@
         <v>22.0</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="D151" s="4">
         <v>2.0</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="152" ht="15.75" customHeight="1">
@@ -15729,13 +16112,13 @@
         <v>22.0</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="D152" s="4">
         <v>2.0</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="153" ht="15.75" customHeight="1">
@@ -15743,13 +16126,13 @@
         <v>22.0</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="D153" s="4">
         <v>2.0</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="154" ht="15.75" customHeight="1">
@@ -15757,13 +16140,13 @@
         <v>22.0</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="D154" s="4">
         <v>2.0</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="155" ht="15.75" customHeight="1">
@@ -15771,7 +16154,7 @@
         <v>24.0</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="D155" s="4">
         <v>18.0</v>
@@ -15785,7 +16168,7 @@
         <v>24.0</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="D156" s="4">
         <v>18.0</v>
@@ -15799,7 +16182,7 @@
         <v>24.0</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="D157" s="4">
         <v>18.0</v>
@@ -15813,7 +16196,7 @@
         <v>24.0</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="D158" s="4">
         <v>18.0</v>
@@ -15827,7 +16210,7 @@
         <v>24.0</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D159" s="4">
         <v>18.0</v>
@@ -15841,7 +16224,7 @@
         <v>24.0</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="D160" s="4">
         <v>18.0</v>
@@ -15855,7 +16238,7 @@
         <v>24.0</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="D161" s="4">
         <v>18.0</v>
@@ -15869,7 +16252,7 @@
         <v>24.0</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="D162" s="4">
         <v>18.0</v>
@@ -15883,7 +16266,7 @@
         <v>24.0</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="D163" s="4">
         <v>18.0</v>
@@ -15897,7 +16280,7 @@
         <v>24.0</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="D164" s="4">
         <v>18.0</v>
@@ -15911,7 +16294,7 @@
         <v>24.0</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="D165" s="4">
         <v>18.0</v>
@@ -15925,7 +16308,7 @@
         <v>24.0</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="D166" s="4">
         <v>18.0</v>
@@ -15939,7 +16322,7 @@
         <v>24.0</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="D167" s="4">
         <v>18.0</v>
@@ -15953,7 +16336,7 @@
         <v>24.0</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="D168" s="4">
         <v>18.0</v>
@@ -15967,7 +16350,7 @@
         <v>24.0</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="D169" s="4">
         <v>18.0</v>
@@ -15981,7 +16364,7 @@
         <v>24.0</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="D170" s="4">
         <v>18.0</v>
@@ -15995,7 +16378,7 @@
         <v>24.0</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="D171" s="4">
         <v>18.0</v>
@@ -16009,7 +16392,7 @@
         <v>24.0</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="D172" s="4">
         <v>18.0</v>
@@ -16023,7 +16406,7 @@
         <v>24.0</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="D173" s="4">
         <v>18.0</v>
@@ -16037,7 +16420,7 @@
         <v>24.0</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="D174" s="4">
         <v>11.0</v>
@@ -16051,7 +16434,7 @@
         <v>24.0</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="D175" s="4">
         <v>11.0</v>
@@ -16065,7 +16448,7 @@
         <v>24.0</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="D176" s="4">
         <v>11.0</v>
@@ -16079,7 +16462,7 @@
         <v>24.0</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="D177" s="4">
         <v>11.0</v>
@@ -16093,7 +16476,7 @@
         <v>24.0</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="D178" s="4">
         <v>18.0</v>
@@ -16107,7 +16490,7 @@
         <v>24.0</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="D179" s="4">
         <v>11.0</v>
@@ -16121,7 +16504,7 @@
         <v>24.0</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="D180" s="4">
         <v>11.0</v>
@@ -16135,13 +16518,13 @@
         <v>24.0</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="D181" s="4">
         <v>5.0</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="182" ht="15.75" customHeight="1">
@@ -16149,13 +16532,13 @@
         <v>24.0</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="D182" s="4">
         <v>5.0</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="183" ht="15.75" customHeight="1">
@@ -16163,13 +16546,13 @@
         <v>24.0</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="D183" s="4">
         <v>5.0</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="184" ht="15.75" customHeight="1">
@@ -16177,13 +16560,13 @@
         <v>24.0</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="D184" s="4">
         <v>5.0</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="185" ht="15.75" customHeight="1">
@@ -16191,13 +16574,13 @@
         <v>24.0</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="D185" s="4">
         <v>5.0</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="186" ht="15.75" customHeight="1">
@@ -16205,13 +16588,13 @@
         <v>24.0</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="D186" s="4">
         <v>5.0</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="187" ht="15.75" customHeight="1">
@@ -16219,16 +16602,16 @@
         <v>25.0</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="D187" s="4">
         <v>1.0</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="188" ht="15.75" customHeight="1">
@@ -16236,16 +16619,16 @@
         <v>25.0</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="D188" s="4">
         <v>1.0</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="189" ht="15.75" customHeight="1">
@@ -16253,16 +16636,16 @@
         <v>25.0</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="D189" s="4">
         <v>1.0</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="190" ht="15.75" customHeight="1">
@@ -16270,16 +16653,16 @@
         <v>25.0</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="D190" s="4">
         <v>1.0</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="191" ht="15.75" customHeight="1">
@@ -16287,16 +16670,16 @@
         <v>25.0</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="D191" s="4">
         <v>1.0</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="192" ht="15.75" customHeight="1">
@@ -16304,16 +16687,16 @@
         <v>25.0</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="D192" s="4">
         <v>1.0</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="193" ht="15.75" customHeight="1">
@@ -16321,7 +16704,7 @@
         <v>28.0</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="D193" s="4">
         <v>19.0</v>
@@ -16335,7 +16718,7 @@
         <v>28.0</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="D194" s="4">
         <v>19.0</v>
@@ -16349,7 +16732,7 @@
         <v>28.0</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="D195" s="4">
         <v>19.0</v>
@@ -16363,7 +16746,7 @@
         <v>28.0</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="D196" s="4">
         <v>19.0</v>
@@ -16377,7 +16760,7 @@
         <v>28.0</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D197" s="4">
         <v>19.0</v>
@@ -16391,7 +16774,7 @@
         <v>28.0</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="D198" s="4">
         <v>19.0</v>
@@ -16405,7 +16788,7 @@
         <v>28.0</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="D199" s="4">
         <v>19.0</v>
@@ -16419,7 +16802,7 @@
         <v>28.0</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="D200" s="4">
         <v>19.0</v>
@@ -16433,7 +16816,7 @@
         <v>28.0</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="D201" s="4">
         <v>19.0</v>
@@ -16447,7 +16830,7 @@
         <v>28.0</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="D202" s="4">
         <v>19.0</v>
@@ -16461,7 +16844,7 @@
         <v>28.0</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="D203" s="4">
         <v>19.0</v>
@@ -16475,7 +16858,7 @@
         <v>28.0</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="D204" s="4">
         <v>19.0</v>
@@ -16489,7 +16872,7 @@
         <v>28.0</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="D205" s="4">
         <v>19.0</v>
@@ -16503,7 +16886,7 @@
         <v>28.0</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="D206" s="4">
         <v>19.0</v>
@@ -16517,7 +16900,7 @@
         <v>28.0</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="D207" s="4">
         <v>19.0</v>
@@ -16531,7 +16914,7 @@
         <v>28.0</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="D208" s="4">
         <v>19.0</v>
@@ -16545,7 +16928,7 @@
         <v>28.0</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="D209" s="4">
         <v>19.0</v>
@@ -16559,7 +16942,7 @@
         <v>28.0</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="D210" s="4">
         <v>19.0</v>
@@ -16573,7 +16956,7 @@
         <v>28.0</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="D211" s="4">
         <v>19.0</v>
@@ -16587,7 +16970,7 @@
         <v>28.0</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="D212" s="4">
         <v>12.0</v>
@@ -16601,7 +16984,7 @@
         <v>28.0</v>
       </c>
       <c r="C213" s="4" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="D213" s="4">
         <v>12.0</v>
@@ -16615,7 +16998,7 @@
         <v>28.0</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="D214" s="4">
         <v>12.0</v>
@@ -16629,7 +17012,7 @@
         <v>28.0</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="D215" s="4">
         <v>12.0</v>
@@ -16643,7 +17026,7 @@
         <v>28.0</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="D216" s="4">
         <v>19.0</v>
@@ -16657,7 +17040,7 @@
         <v>28.0</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="D217" s="4">
         <v>12.0</v>
@@ -16671,7 +17054,7 @@
         <v>28.0</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="D218" s="4">
         <v>12.0</v>
@@ -16682,10 +17065,10 @@
     </row>
     <row r="219" ht="15.75" customHeight="1">
       <c r="B219" s="4" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="C219" s="14" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="D219" s="4">
         <v>1.0</v>
@@ -16699,16 +17082,16 @@
         <v>32.0</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="D220" s="5">
         <v>48.0</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="221" ht="15.75" customHeight="1">
@@ -16716,10 +17099,10 @@
         <v>1.0</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
     </row>
     <row r="222" ht="15.75" customHeight="1">
@@ -16727,16 +17110,16 @@
         <v>18.0</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="D222" s="3">
         <v>29.0</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="223" ht="15.75" customHeight="1">
@@ -16744,13 +17127,13 @@
         <v>22.0</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="D223" s="3">
         <v>2.0</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="224" ht="15.75" customHeight="1">
@@ -16758,13 +17141,13 @@
         <v>22.0</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="D224" s="3">
         <v>2.0</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="225" ht="15.75" customHeight="1">
@@ -16772,7 +17155,7 @@
         <v>28.0</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>11</v>
@@ -16781,7 +17164,7 @@
         <v>100.0</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="226" ht="15.75" customHeight="1">
@@ -16789,10 +17172,10 @@
         <v>30.0</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="D226" s="3">
         <v>1.0</v>
@@ -16803,10 +17186,10 @@
         <v>30.0</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="D227" s="3">
         <v>1.0</v>
@@ -16817,10 +17200,10 @@
         <v>30.0</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="C228" s="15" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="D228" s="3">
         <v>1.0</v>
@@ -16831,10 +17214,10 @@
         <v>30.0</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="D229" s="3">
         <v>1.0</v>
@@ -16845,10 +17228,10 @@
         <v>30.0</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="D230" s="3">
         <v>1.0</v>
@@ -16859,10 +17242,10 @@
         <v>30.0</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="D231" s="3">
         <v>1.0</v>
@@ -16873,10 +17256,10 @@
         <v>30.0</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="D232" s="3">
         <v>1.0</v>
@@ -16887,10 +17270,10 @@
         <v>30.0</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="D233" s="3">
         <v>1.0</v>
@@ -16901,10 +17284,10 @@
         <v>30.0</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="D234" s="3">
         <v>1.0</v>
@@ -16915,10 +17298,10 @@
         <v>30.0</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="D235" s="3">
         <v>1.0</v>
@@ -16929,10 +17312,10 @@
         <v>30.0</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="D236" s="3">
         <v>1.0</v>
@@ -16943,10 +17326,10 @@
         <v>30.0</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="D237" s="3">
         <v>1.0</v>
@@ -16957,10 +17340,10 @@
         <v>30.0</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="D238" s="3">
         <v>1.0</v>
@@ -16971,10 +17354,10 @@
         <v>30.0</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="D239" s="3">
         <v>1.0</v>
@@ -16985,10 +17368,10 @@
         <v>30.0</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="D240" s="3">
         <v>1.0</v>
@@ -16999,10 +17382,10 @@
         <v>30.0</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="D241" s="3">
         <v>1.0</v>
@@ -17013,10 +17396,10 @@
         <v>30.0</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="D242" s="3">
         <v>1.0</v>
@@ -17027,10 +17410,10 @@
         <v>30.0</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="D243" s="3">
         <v>8.0</v>
@@ -17044,7 +17427,7 @@
         <v>32.0</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="D244" s="3">
         <v>14.0</v>
@@ -17058,7 +17441,7 @@
         <v>32.0</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="D245" s="3">
         <v>14.0</v>
@@ -17072,7 +17455,7 @@
         <v>32.0</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="D246" s="3">
         <v>14.0</v>
@@ -17086,7 +17469,7 @@
         <v>32.0</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="D247" s="3">
         <v>14.0</v>
@@ -17100,7 +17483,7 @@
         <v>32.0</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="D248" s="3">
         <v>14.0</v>
@@ -17114,7 +17497,7 @@
         <v>32.0</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="D249" s="3">
         <v>14.0</v>
@@ -17128,7 +17511,7 @@
         <v>32.0</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="D250" s="3">
         <v>20.0</v>
@@ -17142,7 +17525,7 @@
         <v>32.0</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="D251" s="3">
         <v>20.0</v>
@@ -17156,7 +17539,7 @@
         <v>32.0</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="D252" s="3">
         <v>20.0</v>
@@ -17170,7 +17553,7 @@
         <v>32.0</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="D253" s="3">
         <v>20.0</v>
@@ -17184,7 +17567,7 @@
         <v>32.0</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="D254" s="3">
         <v>20.0</v>
@@ -17198,7 +17581,7 @@
         <v>32.0</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D255" s="3">
         <v>20.0</v>
@@ -17212,7 +17595,7 @@
         <v>32.0</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="D256" s="3">
         <v>20.0</v>
@@ -17226,7 +17609,7 @@
         <v>32.0</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="D257" s="3">
         <v>20.0</v>
@@ -17240,7 +17623,7 @@
         <v>32.0</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="D258" s="3">
         <v>20.0</v>
@@ -17254,7 +17637,7 @@
         <v>32.0</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="D259" s="3">
         <v>20.0</v>
@@ -17268,7 +17651,7 @@
         <v>32.0</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="D260" s="3">
         <v>20.0</v>
@@ -17282,7 +17665,7 @@
         <v>32.0</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="D261" s="3">
         <v>20.0</v>
@@ -17296,7 +17679,7 @@
         <v>32.0</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="D262" s="3">
         <v>20.0</v>
@@ -17310,7 +17693,7 @@
         <v>32.0</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="D263" s="3">
         <v>20.0</v>
@@ -17324,7 +17707,7 @@
         <v>32.0</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="D264" s="3">
         <v>20.0</v>
@@ -17338,7 +17721,7 @@
         <v>32.0</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="D265" s="3">
         <v>20.0</v>
@@ -17352,7 +17735,7 @@
         <v>32.0</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="D266" s="3">
         <v>20.0</v>
@@ -17366,7 +17749,7 @@
         <v>32.0</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="D267" s="3">
         <v>20.0</v>
@@ -17380,7 +17763,7 @@
         <v>32.0</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="D268" s="3">
         <v>20.0</v>
@@ -17394,7 +17777,7 @@
         <v>32.0</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="D269" s="3">
         <v>20.0</v>
@@ -18166,7 +18549,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
@@ -18186,10 +18569,10 @@
         <v>28.0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="D2" s="4">
         <v>6.0</v>
@@ -18200,10 +18583,10 @@
         <v>28.0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="D3" s="3">
         <v>1.0</v>
@@ -18217,10 +18600,19 @@
         <v>28.0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>389</v>
+        <v>394</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="5">
@@ -18228,10 +18620,16 @@
         <v>28.0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>391</v>
+        <v>397</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -18239,11 +18637,16 @@
         <v>28.0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="C6" s="4" t="str">
-        <f>"+1 charge of greater dragonmarks."</f>
-        <v>+1 charge of greater dragonmarks.</v>
+        <v>398</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -18251,10 +18654,16 @@
         <v>30.0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>394</v>
+        <v>401</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -18262,10 +18671,16 @@
         <v>30.0</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>396</v>
+        <v>403</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -18273,10 +18688,16 @@
         <v>32.0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>398</v>
+        <v>405</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -18284,10 +18705,10 @@
         <v>32.0</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="D10" s="3">
         <v>11.0</v>
@@ -18301,10 +18722,10 @@
         <v>32.0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D11" s="3">
         <v>153.0</v>
@@ -18318,10 +18739,16 @@
         <v>32.0</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>194</v>
+        <v>227</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="13">
@@ -18329,10 +18756,10 @@
         <v>32.0</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>

--- a/data-builder/augments.xlsx
+++ b/data-builder/augments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E644CA-7796-4CA0-BFFF-D64F4D48B3D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED03EE9-B1A8-4545-A57E-EB9B9E7C15AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19500" yWindow="10830" windowWidth="24150" windowHeight="18330" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="32040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Yellow" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="410">
   <si>
     <t>Minimum Level</t>
   </si>
@@ -1275,6 +1275,9 @@
   </si>
   <si>
     <t>Deflection</t>
+  </si>
+  <si>
+    <t>Natural</t>
   </si>
 </sst>
 </file>
@@ -1282,7 +1285,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -1372,10 +1375,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6387,10 +6390,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F1006"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A164"/>
+      <selection activeCell="E165" sqref="E165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -6434,10 +6438,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" hidden="1">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -6451,7 +6455,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" hidden="1">
       <c r="A4" s="10">
         <v>1</v>
       </c>
@@ -6465,7 +6469,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" hidden="1">
       <c r="A5" s="10">
         <v>1</v>
       </c>
@@ -6479,7 +6483,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" hidden="1">
       <c r="A6" s="10">
         <v>1</v>
       </c>
@@ -6493,7 +6497,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" hidden="1">
       <c r="A7" s="10">
         <v>1</v>
       </c>
@@ -6518,10 +6522,10 @@
         <v>3</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" hidden="1">
       <c r="A9" s="10">
         <v>4</v>
       </c>
@@ -6535,7 +6539,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" hidden="1">
       <c r="A10" s="10">
         <v>4</v>
       </c>
@@ -6549,7 +6553,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" hidden="1">
       <c r="A11" s="10">
         <v>4</v>
       </c>
@@ -6563,7 +6567,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" hidden="1">
       <c r="A12" s="10">
         <v>4</v>
       </c>
@@ -6577,7 +6581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" hidden="1">
       <c r="A13" s="10">
         <v>4</v>
       </c>
@@ -6602,10 +6606,10 @@
         <v>5</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" hidden="1">
       <c r="A15" s="10">
         <v>8</v>
       </c>
@@ -6619,7 +6623,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" hidden="1">
       <c r="A16" s="10">
         <v>8</v>
       </c>
@@ -6633,7 +6637,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" hidden="1">
       <c r="A17" s="10">
         <v>8</v>
       </c>
@@ -6647,7 +6651,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" hidden="1">
       <c r="A18" s="10">
         <v>8</v>
       </c>
@@ -6661,7 +6665,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" hidden="1">
       <c r="A19" s="10">
         <v>8</v>
       </c>
@@ -6686,10 +6690,10 @@
         <v>6</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A21" s="10">
         <v>12</v>
       </c>
@@ -6703,7 +6707,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1">
+    <row r="22" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A22" s="10">
         <v>12</v>
       </c>
@@ -6717,7 +6721,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1">
+    <row r="23" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A23" s="10">
         <v>12</v>
       </c>
@@ -6731,7 +6735,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1">
+    <row r="24" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A24" s="10">
         <v>12</v>
       </c>
@@ -6745,7 +6749,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1">
+    <row r="25" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A25" s="10">
         <v>12</v>
       </c>
@@ -6770,10 +6774,10 @@
         <v>8</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A27" s="10">
         <v>16</v>
       </c>
@@ -6787,7 +6791,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1">
+    <row r="28" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A28" s="10">
         <v>16</v>
       </c>
@@ -6801,7 +6805,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1">
+    <row r="29" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A29" s="10">
         <v>16</v>
       </c>
@@ -6815,7 +6819,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1">
+    <row r="30" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A30" s="10">
         <v>16</v>
       </c>
@@ -6840,10 +6844,10 @@
         <v>9</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A32" s="10">
         <v>20</v>
       </c>
@@ -6857,7 +6861,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1">
+    <row r="33" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A33" s="10">
         <v>20</v>
       </c>
@@ -6871,7 +6875,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1">
+    <row r="34" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A34" s="10">
         <v>20</v>
       </c>
@@ -6885,7 +6889,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1">
+    <row r="35" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A35" s="10">
         <v>20</v>
       </c>
@@ -6899,7 +6903,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1">
+    <row r="36" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A36" s="10">
         <v>20</v>
       </c>
@@ -6924,10 +6928,10 @@
         <v>11</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A38" s="10">
         <v>24</v>
       </c>
@@ -6941,7 +6945,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1">
+    <row r="39" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A39" s="10">
         <v>24</v>
       </c>
@@ -6955,7 +6959,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1">
+    <row r="40" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A40" s="10">
         <v>24</v>
       </c>
@@ -6969,7 +6973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1">
+    <row r="41" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A41" s="10">
         <v>24</v>
       </c>
@@ -6994,10 +6998,10 @@
         <v>12</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A43" s="10">
         <v>28</v>
       </c>
@@ -7011,7 +7015,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1">
+    <row r="44" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A44" s="10">
         <v>28</v>
       </c>
@@ -7025,7 +7029,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1">
+    <row r="45" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A45" s="10">
         <v>28</v>
       </c>
@@ -7039,7 +7043,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1">
+    <row r="46" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A46" s="10">
         <v>28</v>
       </c>
@@ -7053,7 +7057,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1">
+    <row r="47" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A47" s="10">
         <v>12</v>
       </c>
@@ -7067,7 +7071,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1">
+    <row r="48" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A48" s="10">
         <v>16</v>
       </c>
@@ -7081,7 +7085,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1">
+    <row r="49" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A49" s="10">
         <v>20</v>
       </c>
@@ -7095,7 +7099,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1">
+    <row r="50" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A50" s="10">
         <v>12</v>
       </c>
@@ -7109,7 +7113,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15.75" customHeight="1">
+    <row r="51" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A51" s="10">
         <v>20</v>
       </c>
@@ -7123,7 +7127,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15.75" customHeight="1">
+    <row r="52" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A52" s="10">
         <v>1</v>
       </c>
@@ -7137,7 +7141,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15.75" customHeight="1">
+    <row r="53" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A53" s="10">
         <v>4</v>
       </c>
@@ -7151,7 +7155,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15.75" customHeight="1">
+    <row r="54" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A54" s="10">
         <v>8</v>
       </c>
@@ -7165,7 +7169,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15.75" customHeight="1">
+    <row r="55" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A55" s="10">
         <v>12</v>
       </c>
@@ -7179,7 +7183,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15.75" customHeight="1">
+    <row r="56" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A56" s="10">
         <v>16</v>
       </c>
@@ -7193,7 +7197,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15.75" customHeight="1">
+    <row r="57" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A57" s="10">
         <v>20</v>
       </c>
@@ -7207,7 +7211,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15.75" customHeight="1">
+    <row r="58" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A58" s="10">
         <v>24</v>
       </c>
@@ -7221,7 +7225,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15.75" customHeight="1">
+    <row r="59" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A59" s="10">
         <v>28</v>
       </c>
@@ -7235,7 +7239,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15.75" customHeight="1">
+    <row r="60" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A60" s="10">
         <v>32</v>
       </c>
@@ -7249,7 +7253,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15.75" customHeight="1">
+    <row r="61" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A61" s="10">
         <v>1</v>
       </c>
@@ -7263,7 +7267,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15.75" customHeight="1">
+    <row r="62" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A62" s="10">
         <v>4</v>
       </c>
@@ -7277,7 +7281,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15.75" customHeight="1">
+    <row r="63" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A63" s="10">
         <v>8</v>
       </c>
@@ -7291,7 +7295,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15.75" customHeight="1">
+    <row r="64" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A64" s="10">
         <v>12</v>
       </c>
@@ -7305,7 +7309,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15.75" customHeight="1">
+    <row r="65" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A65" s="10">
         <v>16</v>
       </c>
@@ -7319,7 +7323,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15.75" customHeight="1">
+    <row r="66" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A66" s="10">
         <v>20</v>
       </c>
@@ -7333,7 +7337,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15.75" customHeight="1">
+    <row r="67" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A67" s="10">
         <v>24</v>
       </c>
@@ -7347,7 +7351,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15.75" customHeight="1">
+    <row r="68" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A68" s="10">
         <v>28</v>
       </c>
@@ -7361,7 +7365,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15.75" customHeight="1">
+    <row r="69" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A69" s="10">
         <v>32</v>
       </c>
@@ -7375,7 +7379,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15.75" customHeight="1">
+    <row r="70" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A70" s="10">
         <v>1</v>
       </c>
@@ -7389,7 +7393,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15.75" customHeight="1">
+    <row r="71" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A71" s="10">
         <v>4</v>
       </c>
@@ -7403,7 +7407,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15.75" customHeight="1">
+    <row r="72" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A72" s="10">
         <v>8</v>
       </c>
@@ -7417,7 +7421,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15.75" customHeight="1">
+    <row r="73" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A73" s="10">
         <v>12</v>
       </c>
@@ -7431,7 +7435,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15.75" customHeight="1">
+    <row r="74" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A74" s="10">
         <v>16</v>
       </c>
@@ -7445,7 +7449,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15.75" customHeight="1">
+    <row r="75" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A75" s="10">
         <v>20</v>
       </c>
@@ -7459,7 +7463,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15.75" customHeight="1">
+    <row r="76" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A76" s="10">
         <v>24</v>
       </c>
@@ -7473,7 +7477,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15.75" customHeight="1">
+    <row r="77" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A77" s="10">
         <v>28</v>
       </c>
@@ -7487,7 +7491,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15.75" customHeight="1">
+    <row r="78" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A78" s="10">
         <v>32</v>
       </c>
@@ -7501,7 +7505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15.75" customHeight="1">
+    <row r="79" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A79" s="10">
         <v>1</v>
       </c>
@@ -7515,7 +7519,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15.75" customHeight="1">
+    <row r="80" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A80" s="10">
         <v>4</v>
       </c>
@@ -7529,7 +7533,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="15.75" customHeight="1">
+    <row r="81" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A81" s="10">
         <v>8</v>
       </c>
@@ -7543,7 +7547,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15.75" customHeight="1">
+    <row r="82" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A82" s="10">
         <v>12</v>
       </c>
@@ -7557,7 +7561,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15.75" customHeight="1">
+    <row r="83" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A83" s="10">
         <v>16</v>
       </c>
@@ -7571,7 +7575,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15.75" customHeight="1">
+    <row r="84" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A84" s="10">
         <v>20</v>
       </c>
@@ -7585,7 +7589,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="15.75" customHeight="1">
+    <row r="85" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A85" s="10">
         <v>24</v>
       </c>
@@ -7599,7 +7603,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="15.75" customHeight="1">
+    <row r="86" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A86" s="10">
         <v>28</v>
       </c>
@@ -7613,7 +7617,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="15.75" customHeight="1">
+    <row r="87" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A87" s="10">
         <v>32</v>
       </c>
@@ -7627,7 +7631,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="15.75" customHeight="1">
+    <row r="88" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A88" s="10">
         <v>1</v>
       </c>
@@ -7641,7 +7645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="15.75" customHeight="1">
+    <row r="89" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A89" s="10">
         <v>4</v>
       </c>
@@ -7655,7 +7659,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="15.75" customHeight="1">
+    <row r="90" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A90" s="10">
         <v>8</v>
       </c>
@@ -7669,7 +7673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="15.75" customHeight="1">
+    <row r="91" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A91" s="10">
         <v>12</v>
       </c>
@@ -7683,7 +7687,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="15.75" customHeight="1">
+    <row r="92" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A92" s="10">
         <v>16</v>
       </c>
@@ -7697,7 +7701,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="15.75" customHeight="1">
+    <row r="93" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A93" s="10">
         <v>20</v>
       </c>
@@ -7711,7 +7715,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="15.75" customHeight="1">
+    <row r="94" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A94" s="10">
         <v>24</v>
       </c>
@@ -7725,7 +7729,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="15.75" customHeight="1">
+    <row r="95" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A95" s="10">
         <v>28</v>
       </c>
@@ -7739,7 +7743,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="15.75" customHeight="1">
+    <row r="96" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A96" s="10">
         <v>32</v>
       </c>
@@ -7753,7 +7757,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="15.75" customHeight="1">
+    <row r="97" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A97" s="10">
         <v>6</v>
       </c>
@@ -7770,7 +7774,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="15.75" customHeight="1">
+    <row r="98" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A98" s="10">
         <v>28</v>
       </c>
@@ -7787,7 +7791,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="15.75" customHeight="1">
+    <row r="99" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A99" s="10">
         <v>28</v>
       </c>
@@ -7804,7 +7808,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="15.75" customHeight="1">
+    <row r="100" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A100" s="10">
         <v>28</v>
       </c>
@@ -7832,10 +7836,10 @@
         <v>14</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="15.75" customHeight="1">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A102" s="10">
         <v>32</v>
       </c>
@@ -7849,7 +7853,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="15.75" customHeight="1">
+    <row r="103" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A103" s="10">
         <v>32</v>
       </c>
@@ -7863,7 +7867,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="15.75" customHeight="1">
+    <row r="104" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A104" s="10">
         <v>32</v>
       </c>
@@ -7877,7 +7881,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="15.75" customHeight="1">
+    <row r="105" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A105" s="10">
         <v>32</v>
       </c>
@@ -7891,7 +7895,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="15.75" customHeight="1">
+    <row r="106" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A106" s="10">
         <v>32</v>
       </c>
@@ -7905,7 +7909,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="15.75" customHeight="1">
+    <row r="107" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A107" s="10">
         <v>32</v>
       </c>
@@ -7919,7 +7923,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="15.75" customHeight="1">
+    <row r="108" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A108" s="10">
         <v>32</v>
       </c>
@@ -7933,7 +7937,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="15.75" customHeight="1">
+    <row r="109" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A109" s="10">
         <v>28</v>
       </c>
@@ -7947,7 +7951,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="15.75" customHeight="1">
+    <row r="110" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A110" s="10">
         <v>28</v>
       </c>
@@ -7961,7 +7965,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="15.75" customHeight="1">
+    <row r="111" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A111" s="10">
         <v>28</v>
       </c>
@@ -7975,7 +7979,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="15.75" customHeight="1">
+    <row r="112" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A112" s="10">
         <v>24</v>
       </c>
@@ -7989,7 +7993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="15.75" customHeight="1">
+    <row r="113" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A113" s="10">
         <v>24</v>
       </c>
@@ -8003,7 +8007,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="15.75" customHeight="1">
+    <row r="114" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A114" s="10">
         <v>24</v>
       </c>
@@ -8017,7 +8021,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="15.75" customHeight="1">
+    <row r="115" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A115" s="10">
         <v>20</v>
       </c>
@@ -8031,7 +8035,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="15.75" customHeight="1">
+    <row r="116" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A116" s="10">
         <v>20</v>
       </c>
@@ -8045,7 +8049,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="15.75" customHeight="1">
+    <row r="117" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A117" s="10">
         <v>20</v>
       </c>
@@ -8059,7 +8063,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="15.75" customHeight="1">
+    <row r="118" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A118" s="10">
         <v>16</v>
       </c>
@@ -8073,7 +8077,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="15.75" customHeight="1">
+    <row r="119" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A119" s="10">
         <v>16</v>
       </c>
@@ -8087,7 +8091,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="15.75" customHeight="1">
+    <row r="120" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A120" s="10">
         <v>16</v>
       </c>
@@ -8101,7 +8105,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="15.75" customHeight="1">
+    <row r="121" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A121" s="10">
         <v>12</v>
       </c>
@@ -8115,7 +8119,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="15.75" customHeight="1">
+    <row r="122" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A122" s="10">
         <v>12</v>
       </c>
@@ -8129,7 +8133,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="15.75" customHeight="1">
+    <row r="123" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A123" s="10">
         <v>12</v>
       </c>
@@ -8143,7 +8147,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="15.75" customHeight="1">
+    <row r="124" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A124" s="10">
         <v>8</v>
       </c>
@@ -8157,7 +8161,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="15.75" customHeight="1">
+    <row r="125" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A125" s="10">
         <v>8</v>
       </c>
@@ -8171,7 +8175,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="15.75" customHeight="1">
+    <row r="126" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A126" s="10">
         <v>8</v>
       </c>
@@ -8185,7 +8189,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="15.75" customHeight="1">
+    <row r="127" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A127" s="10">
         <v>4</v>
       </c>
@@ -8199,7 +8203,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="15.75" customHeight="1">
+    <row r="128" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A128" s="10">
         <v>4</v>
       </c>
@@ -8213,7 +8217,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="15.75" customHeight="1">
+    <row r="129" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A129" s="10">
         <v>4</v>
       </c>
@@ -8227,7 +8231,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="15.75" customHeight="1">
+    <row r="130" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A130" s="10">
         <v>1</v>
       </c>
@@ -8241,7 +8245,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="15.75" customHeight="1">
+    <row r="131" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A131" s="10">
         <v>1</v>
       </c>
@@ -8255,7 +8259,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="15.75" customHeight="1">
+    <row r="132" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A132" s="10">
         <v>1</v>
       </c>
@@ -8269,7 +8273,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="15.75" customHeight="1">
+    <row r="133" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A133" s="10">
         <v>4</v>
       </c>
@@ -8283,7 +8287,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="15.75" customHeight="1">
+    <row r="134" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A134" s="10">
         <v>20</v>
       </c>
@@ -8297,7 +8301,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="15.75" customHeight="1">
+    <row r="135" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A135" s="10">
         <v>28</v>
       </c>
@@ -8311,7 +8315,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="15.75" customHeight="1">
+    <row r="136" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A136" s="10">
         <v>8</v>
       </c>
@@ -8328,7 +8332,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="15.75" customHeight="1">
+    <row r="137" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A137" s="10">
         <v>8</v>
       </c>
@@ -8345,7 +8349,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="15.75" customHeight="1">
+    <row r="138" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A138" s="10">
         <v>8</v>
       </c>
@@ -8362,7 +8366,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="15.75" customHeight="1">
+    <row r="139" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A139" s="10">
         <v>8</v>
       </c>
@@ -8379,7 +8383,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="15.75" customHeight="1">
+    <row r="140" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A140" s="10">
         <v>8</v>
       </c>
@@ -8396,7 +8400,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="15.75" customHeight="1">
+    <row r="141" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A141" s="10">
         <v>18</v>
       </c>
@@ -8413,7 +8417,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="15.75" customHeight="1">
+    <row r="142" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A142" s="10">
         <v>18</v>
       </c>
@@ -8430,7 +8434,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="15.75" customHeight="1">
+    <row r="143" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A143" s="10">
         <v>18</v>
       </c>
@@ -8447,7 +8451,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="15.75" customHeight="1">
+    <row r="144" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A144" s="10">
         <v>18</v>
       </c>
@@ -8464,7 +8468,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="15.75" customHeight="1">
+    <row r="145" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A145" s="10">
         <v>20</v>
       </c>
@@ -8484,7 +8488,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="15.75" customHeight="1">
+    <row r="146" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A146" s="10">
         <v>28</v>
       </c>
@@ -8504,7 +8508,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="15.75" customHeight="1">
+    <row r="147" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A147" s="10">
         <v>30</v>
       </c>
@@ -8521,7 +8525,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="15.75" customHeight="1">
+    <row r="148" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A148" s="10">
         <v>30</v>
       </c>
@@ -8538,7 +8542,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="15.75" customHeight="1">
+    <row r="149" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A149" s="10">
         <v>30</v>
       </c>
@@ -8558,7 +8562,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="15.75" customHeight="1">
+    <row r="150" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A150" s="10">
         <v>30</v>
       </c>
@@ -8575,7 +8579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="15.75" customHeight="1">
+    <row r="151" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A151" s="10">
         <v>30</v>
       </c>
@@ -8592,7 +8596,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="15.75" customHeight="1">
+    <row r="152" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A152" s="10">
         <v>30</v>
       </c>
@@ -8609,7 +8613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="15.75" customHeight="1">
+    <row r="153" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A153" s="10">
         <v>32</v>
       </c>
@@ -8626,7 +8630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="15.75" customHeight="1">
+    <row r="154" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A154" s="10">
         <v>32</v>
       </c>
@@ -8643,7 +8647,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="15.75" customHeight="1">
+    <row r="155" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A155" s="10">
         <v>32</v>
       </c>
@@ -8660,7 +8664,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="15.75" customHeight="1">
+    <row r="156" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A156" s="10">
         <v>32</v>
       </c>
@@ -8677,7 +8681,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="15.75" customHeight="1">
+    <row r="157" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A157" s="10">
         <v>1</v>
       </c>
@@ -8694,7 +8698,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="15.75" customHeight="1">
+    <row r="158" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A158" s="10">
         <v>4</v>
       </c>
@@ -8711,7 +8715,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="15.75" customHeight="1">
+    <row r="159" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A159" s="10">
         <v>8</v>
       </c>
@@ -8728,7 +8732,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="15.75" customHeight="1">
+    <row r="160" spans="1:6" ht="15.75" hidden="1" customHeight="1">
       <c r="A160" s="10">
         <v>12</v>
       </c>
@@ -8745,7 +8749,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="15.75" customHeight="1">
+    <row r="161" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A161" s="10">
         <v>16</v>
       </c>
@@ -8762,7 +8766,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="15.75" customHeight="1">
+    <row r="162" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A162" s="10">
         <v>20</v>
       </c>
@@ -8779,7 +8783,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="15.75" customHeight="1">
+    <row r="163" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A163" s="10">
         <v>24</v>
       </c>
@@ -8796,7 +8800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="15.75" customHeight="1">
+    <row r="164" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A164" s="10">
         <v>28</v>
       </c>
@@ -9656,7 +9660,13 @@
     <row r="1005" ht="15.75" customHeight="1"/>
     <row r="1006" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A1:E164" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:E164" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Natural Armor"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
